--- a/msx3gen/files/msx_gen3.xlsx
+++ b/msx3gen/files/msx_gen3.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="71">
   <si>
     <t>旧来のMSX</t>
     <rPh sb="0" eb="2">
@@ -82,10 +82,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>MSXturboR+</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>MSX2+portable</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -132,11 +128,6 @@
     <t>Z80-3.579MHz
 ソフトウェア
 エミュレーション</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Z80-3.579MHz
-eZ80-50MHz??</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -215,24 +206,6 @@
     <t>V9958相当</t>
     <rPh sb="5" eb="7">
       <t>ソウトウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>V9958相当
-V9990
-切り替え表示</t>
-    <rPh sb="5" eb="7">
-      <t>ソウトウ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -378,6 +351,106 @@
     <t>V9958相当
 ソフトウェア
 エミュレーション</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>MSX DIY製品</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>??</t>
+    </r>
+    <rPh sb="7" eb="9">
+      <t>セイヒン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MSXturboR+ V1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MSXturboR+ V2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>MSX DIY製品</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>??</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Z80-3.579MHz
+R800改-100MHz</t>
+    <rPh sb="17" eb="18">
+      <t>カイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>??????</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>V9958相当
+V9990
+eZ80 (V9990制御用)</t>
+    <rPh sb="5" eb="7">
+      <t>ソウトウ</t>
+    </rPh>
+    <rPh sb="25" eb="28">
+      <t>セイギョヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GPU(??)
+V9958相当
+V9990
+eZ80(V9990制御用)</t>
+    <rPh sb="13" eb="15">
+      <t>ソウトウ</t>
+    </rPh>
+    <rPh sb="32" eb="35">
+      <t>セイギョヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CPU(ARM等)
+Z80-3.579MHz
+R800改-100MHz</t>
+    <rPh sb="7" eb="8">
+      <t>ナド</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>カイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>128KB+512KB+????</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -821,7 +894,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -894,35 +967,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1204,10 +1280,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:N22"/>
+  <dimension ref="B2:O22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1217,79 +1293,85 @@
     <col min="3" max="6" width="15.375" customWidth="1"/>
     <col min="7" max="7" width="16.75" customWidth="1"/>
     <col min="8" max="8" width="16.625" customWidth="1"/>
-    <col min="9" max="14" width="15.375" customWidth="1"/>
+    <col min="9" max="11" width="15.375" customWidth="1"/>
+    <col min="12" max="13" width="18.25" customWidth="1"/>
+    <col min="14" max="15" width="15.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="C2" s="33" t="s">
-        <v>58</v>
-      </c>
-      <c r="N2" t="s">
-        <v>62</v>
+    <row r="2" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="C2" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="O2" t="s">
+        <v>59</v>
       </c>
     </row>
-    <row r="3" spans="2:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="2:14" ht="21.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="2:15" ht="21.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="8"/>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="25"/>
-      <c r="M4" s="25"/>
-      <c r="N4" s="26"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="31"/>
+      <c r="O4" s="32"/>
     </row>
-    <row r="5" spans="2:14" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="C5" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="29" t="s">
+      <c r="D5" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="29" t="s">
+      <c r="E5" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="30" t="s">
+      <c r="F5" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="31" t="s">
+      <c r="G5" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="30" t="s">
+      <c r="H5" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="31" t="s">
+      <c r="I5" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="29" t="s">
+      <c r="J5" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="K5" s="29" t="s">
+      <c r="K5" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="L5" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="M5" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="N5" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="M5" s="31" t="s">
+      <c r="O5" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="N5" s="30" t="s">
-        <v>14</v>
-      </c>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B6" s="10" t="s">
         <v>6</v>
       </c>
@@ -1306,482 +1388,518 @@
         <v>5</v>
       </c>
       <c r="G6" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="H6" s="17" t="s">
+      <c r="J6" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="19" t="s">
+      <c r="K6" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="L6" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="M6" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="N6" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="O6" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" ht="54" x14ac:dyDescent="0.15">
+      <c r="B7" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="J6" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="K6" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="L6" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="M6" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="N6" s="13" t="s">
-        <v>5</v>
+      <c r="C7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L7" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="M7" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="N7" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="7" spans="2:14" ht="54" x14ac:dyDescent="0.15">
-      <c r="B7" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L7" s="21" t="s">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B8" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="M7" s="18" t="s">
+      <c r="C8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="M8" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" ht="54" x14ac:dyDescent="0.15">
+      <c r="B9" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="N7" s="4" t="s">
-        <v>23</v>
+      <c r="H9" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L9" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="M9" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="N9" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>33</v>
       </c>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B8" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="I8" s="2" t="s">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B10" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M10" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="N10" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="J8" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="L8" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="N8" s="3" t="s">
-        <v>35</v>
+      <c r="O10" s="3" t="s">
+        <v>33</v>
       </c>
     </row>
-    <row r="9" spans="2:14" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="B9" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G9" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="H9" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="L9" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="M9" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>35</v>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B11" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="L11" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="M11" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>33</v>
       </c>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B10" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" s="1" t="s">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B12" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="M12" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B13" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M13" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="O13" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B14" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="M14" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B15" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M15" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B16" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G16" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="H16" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="I16" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="M16" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="O16" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B17" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="G17" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="H17" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="I17" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L17" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="M17" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="K10" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="L10" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="N10" s="3" t="s">
-        <v>35</v>
+      <c r="N17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>33</v>
       </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B11" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="L11" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="N11" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B12" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="L12" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="M12" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="N12" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B13" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="L13" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="M13" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="N13" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B14" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="L14" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="M14" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B15" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="L15" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="M15" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="N15" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B16" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="L16" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="M16" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="N16" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B17" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="L17" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="M17" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="N17" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B18" s="11"/>
       <c r="C18" s="2"/>
       <c r="D18" s="1"/>
@@ -1792,11 +1910,12 @@
       <c r="I18" s="2"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
-      <c r="L18" s="22"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="3"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="22"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="3"/>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B19" s="11"/>
       <c r="C19" s="2"/>
       <c r="D19" s="1"/>
@@ -1807,11 +1926,12 @@
       <c r="I19" s="2"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
-      <c r="L19" s="22"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="3"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="22"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="3"/>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B20" s="11"/>
       <c r="C20" s="2"/>
       <c r="D20" s="1"/>
@@ -1822,11 +1942,12 @@
       <c r="I20" s="2"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
-      <c r="L20" s="22"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="3"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="22"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="3"/>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B21" s="11"/>
       <c r="C21" s="2"/>
       <c r="D21" s="1"/>
@@ -1837,11 +1958,12 @@
       <c r="I21" s="2"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
-      <c r="L21" s="22"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="3"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="22"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="3"/>
     </row>
-    <row r="22" spans="2:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B22" s="9"/>
       <c r="C22" s="5"/>
       <c r="D22" s="6"/>
@@ -1852,14 +1974,15 @@
       <c r="I22" s="5"/>
       <c r="J22" s="6"/>
       <c r="K22" s="6"/>
-      <c r="L22" s="23"/>
-      <c r="M22" s="5"/>
-      <c r="N22" s="7"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="23"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="C4:F4"/>
-    <mergeCell ref="G4:N4"/>
+    <mergeCell ref="G4:O4"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/msx3gen/files/msx_gen3.xlsx
+++ b/msx3gen/files/msx_gen3.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="73">
   <si>
     <t>旧来のMSX</t>
     <rPh sb="0" eb="2">
@@ -453,12 +453,19 @@
     <t>128KB+512KB+????</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>TurboR+ V1, V2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://x.com/nishikazuhiko/status/1838527818625618078</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -515,6 +522,13 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Meiryo"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -894,7 +908,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -985,6 +999,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -997,8 +1014,8 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1280,13 +1297,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:O22"/>
+  <dimension ref="B2:O26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="2.875" customWidth="1"/>
     <col min="2" max="2" width="14.875" customWidth="1"/>
@@ -1298,7 +1315,7 @@
     <col min="14" max="15" width="15.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:15">
       <c r="C2" s="29" t="s">
         <v>55</v>
       </c>
@@ -1306,28 +1323,28 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="2:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="2:15" ht="21.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:15" ht="14.25" thickBot="1"/>
+    <row r="4" spans="2:15" ht="21.75" thickBot="1">
       <c r="B4" s="8"/>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="33" t="s">
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="31"/>
-      <c r="L4" s="31"/>
-      <c r="M4" s="31"/>
-      <c r="N4" s="31"/>
-      <c r="O4" s="32"/>
-    </row>
-    <row r="5" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="32"/>
+      <c r="M4" s="32"/>
+      <c r="N4" s="32"/>
+      <c r="O4" s="33"/>
+    </row>
+    <row r="5" spans="2:15" ht="18" thickBot="1">
       <c r="B5" s="9" t="s">
         <v>7</v>
       </c>
@@ -1371,7 +1388,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:15">
       <c r="B6" s="10" t="s">
         <v>6</v>
       </c>
@@ -1415,7 +1432,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="2:15" ht="54" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:15" ht="54">
       <c r="B7" s="11" t="s">
         <v>17</v>
       </c>
@@ -1446,7 +1463,7 @@
       <c r="K7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L7" s="34" t="s">
+      <c r="L7" s="30" t="s">
         <v>65</v>
       </c>
       <c r="M7" s="21" t="s">
@@ -1459,7 +1476,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:15">
       <c r="B8" s="11" t="s">
         <v>22</v>
       </c>
@@ -1503,7 +1520,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="2:15" ht="54" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:15" ht="54">
       <c r="B9" s="11" t="s">
         <v>26</v>
       </c>
@@ -1534,7 +1551,7 @@
       <c r="K9" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="L9" s="34" t="s">
+      <c r="L9" s="30" t="s">
         <v>67</v>
       </c>
       <c r="M9" s="21" t="s">
@@ -1547,7 +1564,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:15">
       <c r="B10" s="11" t="s">
         <v>35</v>
       </c>
@@ -1591,7 +1608,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:15">
       <c r="B11" s="11" t="s">
         <v>39</v>
       </c>
@@ -1622,7 +1639,7 @@
       <c r="K11" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="L11" s="34" t="s">
+      <c r="L11" s="30" t="s">
         <v>46</v>
       </c>
       <c r="M11" s="21" t="s">
@@ -1635,7 +1652,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:15">
       <c r="B12" s="11" t="s">
         <v>42</v>
       </c>
@@ -1679,7 +1696,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:15">
       <c r="B13" s="11" t="s">
         <v>44</v>
       </c>
@@ -1723,7 +1740,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:15">
       <c r="B14" s="11" t="s">
         <v>49</v>
       </c>
@@ -1767,7 +1784,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:15">
       <c r="B15" s="11" t="s">
         <v>50</v>
       </c>
@@ -1811,7 +1828,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:15">
       <c r="B16" s="11" t="s">
         <v>54</v>
       </c>
@@ -1855,7 +1872,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:15">
       <c r="B17" s="11" t="s">
         <v>56</v>
       </c>
@@ -1899,7 +1916,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:15">
       <c r="B18" s="11"/>
       <c r="C18" s="2"/>
       <c r="D18" s="1"/>
@@ -1915,7 +1932,7 @@
       <c r="N18" s="2"/>
       <c r="O18" s="3"/>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:15">
       <c r="B19" s="11"/>
       <c r="C19" s="2"/>
       <c r="D19" s="1"/>
@@ -1931,7 +1948,7 @@
       <c r="N19" s="2"/>
       <c r="O19" s="3"/>
     </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:15">
       <c r="B20" s="11"/>
       <c r="C20" s="2"/>
       <c r="D20" s="1"/>
@@ -1947,7 +1964,7 @@
       <c r="N20" s="2"/>
       <c r="O20" s="3"/>
     </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:15">
       <c r="B21" s="11"/>
       <c r="C21" s="2"/>
       <c r="D21" s="1"/>
@@ -1963,7 +1980,7 @@
       <c r="N21" s="2"/>
       <c r="O21" s="3"/>
     </row>
-    <row r="22" spans="2:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:15" ht="14.25" thickBot="1">
       <c r="B22" s="9"/>
       <c r="C22" s="5"/>
       <c r="D22" s="6"/>
@@ -1979,6 +1996,16 @@
       <c r="N22" s="5"/>
       <c r="O22" s="7"/>
     </row>
+    <row r="25" spans="2:15">
+      <c r="B25" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26" spans="2:15" ht="18.75">
+      <c r="B26" s="35" t="s">
+        <v>72</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="C4:F4"/>

--- a/msx3gen/files/msx_gen3.xlsx
+++ b/msx3gen/files/msx_gen3.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="90">
   <si>
     <t>旧来のMSX</t>
     <rPh sb="0" eb="2">
@@ -459,6 +459,82 @@
   </si>
   <si>
     <t>https://x.com/nishikazuhiko/status/1838527818625618078</t>
+  </si>
+  <si>
+    <t>キラーアプリ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IoT</t>
+  </si>
+  <si>
+    <t>IoT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲーム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>モーションコミック</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アニメ・ビデオ編集</t>
+  </si>
+  <si>
+    <t>アニメ・ビデオ編集</t>
+    <rPh sb="7" eb="9">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ホームスパコン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://x.com/nishikazuhiko/status/1838545384790020314</t>
+  </si>
+  <si>
+    <t>その他</t>
+    <rPh sb="2" eb="3">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アップグレード可</t>
+  </si>
+  <si>
+    <t>アップグレード可</t>
+    <rPh sb="7" eb="8">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アップデート可</t>
+  </si>
+  <si>
+    <t>アップデート可</t>
+    <rPh sb="6" eb="7">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アップグレード可</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HDMIセレクター
+ネットビデオビューワー</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -1002,6 +1078,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1013,9 +1092,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1297,10 +1373,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:O26"/>
+  <dimension ref="B2:O29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N29" sqref="N29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1311,8 +1387,10 @@
     <col min="7" max="7" width="16.75" customWidth="1"/>
     <col min="8" max="8" width="16.625" customWidth="1"/>
     <col min="9" max="11" width="15.375" customWidth="1"/>
-    <col min="12" max="13" width="18.25" customWidth="1"/>
-    <col min="14" max="15" width="15.375" customWidth="1"/>
+    <col min="12" max="12" width="18.25" customWidth="1"/>
+    <col min="13" max="13" width="16.625" customWidth="1"/>
+    <col min="14" max="14" width="18.625" customWidth="1"/>
+    <col min="15" max="15" width="15.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:15">
@@ -1326,23 +1404,23 @@
     <row r="3" spans="2:15" ht="14.25" thickBot="1"/>
     <row r="4" spans="2:15" ht="21.75" thickBot="1">
       <c r="B4" s="8"/>
-      <c r="C4" s="31" t="s">
+      <c r="C4" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="34" t="s">
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="32"/>
-      <c r="L4" s="32"/>
-      <c r="M4" s="32"/>
-      <c r="N4" s="32"/>
-      <c r="O4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="33"/>
+      <c r="L4" s="33"/>
+      <c r="M4" s="33"/>
+      <c r="N4" s="33"/>
+      <c r="O4" s="34"/>
     </row>
     <row r="5" spans="2:15" ht="18" thickBot="1">
       <c r="B5" s="9" t="s">
@@ -1916,37 +1994,81 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="2:15">
-      <c r="B18" s="11"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="22"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="3"/>
+    <row r="18" spans="2:15" ht="29.25" customHeight="1">
+      <c r="B18" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="M18" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="N18" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="19" spans="2:15">
-      <c r="B19" s="11"/>
+      <c r="B19" s="11" t="s">
+        <v>83</v>
+      </c>
       <c r="C19" s="2"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="3"/>
       <c r="G19" s="2"/>
       <c r="H19" s="3"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="22"/>
-      <c r="N19" s="2"/>
-      <c r="O19" s="3"/>
+      <c r="I19" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="M19" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="O19" s="3" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="20" spans="2:15">
       <c r="B20" s="11"/>
@@ -1956,13 +2078,27 @@
       <c r="F20" s="3"/>
       <c r="G20" s="2"/>
       <c r="H20" s="3"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="22"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="3"/>
+      <c r="I20" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="M20" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="21" spans="2:15">
       <c r="B21" s="11"/>
@@ -2002,8 +2138,18 @@
       </c>
     </row>
     <row r="26" spans="2:15" ht="18.75">
-      <c r="B26" s="35" t="s">
+      <c r="B26" s="31" t="s">
         <v>72</v>
+      </c>
+    </row>
+    <row r="28" spans="2:15">
+      <c r="B28" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="29" spans="2:15" ht="18.75">
+      <c r="B29" s="31" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/msx3gen/files/msx_gen3.xlsx
+++ b/msx3gen/files/msx_gen3.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="93">
   <si>
     <t>旧来のMSX</t>
     <rPh sb="0" eb="2">
@@ -319,28 +319,6 @@
   </si>
   <si>
     <t>MIDI</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>TAOX準拠
-32bit以上
-Z80相当FPGAコア
-eZ80カスタム??</t>
-    <rPh sb="4" eb="6">
-      <t>ジュンキョ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>イジョウ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ソウトウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>V9998
-または
-V9999 ??</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -535,6 +513,43 @@
     <t>HDMIセレクター
 ネットビデオビューワー</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>V9998??</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>V9992 または
+V9994 または 
+V9998(JetsonOrin)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TAOX準拠
+32bit以上
+Z80相当FPGAコア
+R800改-700MHz FPGAコア
+eZ80カスタム??</t>
+    <rPh sb="4" eb="6">
+      <t>ジュンキョ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ソウトウ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>カイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>V9992,9994,9998</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://x.com/nishikazuhiko/status/1838671059845026246</t>
   </si>
 </sst>
 </file>
@@ -1373,10 +1388,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:O29"/>
+  <dimension ref="B2:O32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N29" sqref="N29"/>
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1386,10 +1401,12 @@
     <col min="3" max="6" width="15.375" customWidth="1"/>
     <col min="7" max="7" width="16.75" customWidth="1"/>
     <col min="8" max="8" width="16.625" customWidth="1"/>
-    <col min="9" max="11" width="15.375" customWidth="1"/>
-    <col min="12" max="12" width="18.25" customWidth="1"/>
-    <col min="13" max="13" width="16.625" customWidth="1"/>
-    <col min="14" max="14" width="18.625" customWidth="1"/>
+    <col min="9" max="9" width="15.375" customWidth="1"/>
+    <col min="10" max="10" width="14.125" customWidth="1"/>
+    <col min="11" max="11" width="14" customWidth="1"/>
+    <col min="12" max="12" width="16.375" customWidth="1"/>
+    <col min="13" max="13" width="14.625" customWidth="1"/>
+    <col min="14" max="14" width="22.625" customWidth="1"/>
     <col min="15" max="15" width="15.375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1398,7 +1415,7 @@
         <v>55</v>
       </c>
       <c r="O2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="2:15" ht="14.25" thickBot="1"/>
@@ -1454,10 +1471,10 @@
         <v>11</v>
       </c>
       <c r="L5" s="25" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="M5" s="28" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="N5" s="27" t="s">
         <v>12</v>
@@ -1498,10 +1515,10 @@
         <v>16</v>
       </c>
       <c r="L6" s="14" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="M6" s="20" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="N6" s="15" t="s">
         <v>5</v>
@@ -1510,7 +1527,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="2:15" ht="54">
+    <row r="7" spans="2:15" ht="81">
       <c r="B7" s="11" t="s">
         <v>17</v>
       </c>
@@ -1542,13 +1559,13 @@
         <v>18</v>
       </c>
       <c r="L7" s="30" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="M7" s="21" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="N7" s="18" t="s">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="O7" s="4" t="s">
         <v>21</v>
@@ -1586,7 +1603,7 @@
         <v>32</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="M8" s="22" t="s">
         <v>33</v>
@@ -1615,10 +1632,10 @@
         <v>29</v>
       </c>
       <c r="G9" s="18" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H9" s="21" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>27</v>
@@ -1630,16 +1647,16 @@
         <v>34</v>
       </c>
       <c r="L9" s="30" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="M9" s="21" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="N9" s="18" t="s">
-        <v>58</v>
+        <v>89</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>33</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="2:15">
@@ -1677,7 +1694,7 @@
         <v>38</v>
       </c>
       <c r="M10" s="22" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="N10" s="2" t="s">
         <v>33</v>
@@ -1996,51 +2013,51 @@
     </row>
     <row r="18" spans="2:15" ht="29.25" customHeight="1">
       <c r="B18" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H18" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="G18" s="2" t="s">
+      <c r="I18" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="J18" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="I18" s="2" t="s">
+      <c r="K18" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="M18" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="J18" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="L18" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="M18" s="22" t="s">
+      <c r="N18" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="O18" s="3" t="s">
         <v>79</v>
-      </c>
-      <c r="N18" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="O18" s="3" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="19" spans="2:15">
       <c r="B19" s="11" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="1"/>
@@ -2049,25 +2066,25 @@
       <c r="G19" s="2"/>
       <c r="H19" s="3"/>
       <c r="I19" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="M19" s="22" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="O19" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20" spans="2:15">
@@ -2079,25 +2096,25 @@
       <c r="G20" s="2"/>
       <c r="H20" s="3"/>
       <c r="I20" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="M20" s="22" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="O20" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="21" spans="2:15">
@@ -2134,22 +2151,32 @@
     </row>
     <row r="25" spans="2:15">
       <c r="B25" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="26" spans="2:15" ht="18.75">
       <c r="B26" s="31" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="28" spans="2:15">
       <c r="B28" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="29" spans="2:15" ht="18.75">
       <c r="B29" s="31" t="s">
-        <v>82</v>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="31" spans="2:15">
+      <c r="B31" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="32" spans="2:15" ht="18.75">
+      <c r="B32" s="31" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/msx3gen/files/msx_gen3.xlsx
+++ b/msx3gen/files/msx_gen3.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="94">
   <si>
     <t>旧来のMSX</t>
     <rPh sb="0" eb="2">
@@ -219,10 +219,6 @@
   </si>
   <si>
     <t>128KB</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>128KB+512KB</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -428,10 +424,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>128KB+512KB+????</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>TurboR+ V1, V2</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -550,6 +542,17 @@
   </si>
   <si>
     <t>https://x.com/nishikazuhiko/status/1838671059845026246</t>
+  </si>
+  <si>
+    <t>128KB+512KB+16MB</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>eZ80 の RAM は 16MB</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://x.com/nishikazuhiko/status/1838689507698442316</t>
   </si>
 </sst>
 </file>
@@ -1388,10 +1391,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:O32"/>
+  <dimension ref="B2:O35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1412,10 +1415,10 @@
   <sheetData>
     <row r="2" spans="2:15">
       <c r="C2" s="29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="2:15" ht="14.25" thickBot="1"/>
@@ -1471,10 +1474,10 @@
         <v>11</v>
       </c>
       <c r="L5" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="M5" s="28" t="s">
         <v>60</v>
-      </c>
-      <c r="M5" s="28" t="s">
-        <v>61</v>
       </c>
       <c r="N5" s="27" t="s">
         <v>12</v>
@@ -1515,10 +1518,10 @@
         <v>16</v>
       </c>
       <c r="L6" s="14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M6" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N6" s="15" t="s">
         <v>5</v>
@@ -1527,7 +1530,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="2:15" ht="81">
+    <row r="7" spans="2:15" ht="67.5">
       <c r="B7" s="11" t="s">
         <v>17</v>
       </c>
@@ -1559,13 +1562,13 @@
         <v>18</v>
       </c>
       <c r="L7" s="30" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M7" s="21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N7" s="18" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="O7" s="4" t="s">
         <v>21</v>
@@ -1603,7 +1606,7 @@
         <v>32</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M8" s="22" t="s">
         <v>33</v>
@@ -1615,7 +1618,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="2:15" ht="54">
+    <row r="9" spans="2:15" ht="67.5">
       <c r="B9" s="11" t="s">
         <v>26</v>
       </c>
@@ -1632,10 +1635,10 @@
         <v>29</v>
       </c>
       <c r="G9" s="18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H9" s="21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>27</v>
@@ -1647,16 +1650,16 @@
         <v>34</v>
       </c>
       <c r="L9" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="M9" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="M9" s="21" t="s">
-        <v>66</v>
-      </c>
       <c r="N9" s="18" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="2:15">
@@ -1691,10 +1694,10 @@
         <v>37</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>38</v>
+        <v>91</v>
       </c>
       <c r="M10" s="22" t="s">
-        <v>68</v>
+        <v>91</v>
       </c>
       <c r="N10" s="2" t="s">
         <v>33</v>
@@ -1705,40 +1708,40 @@
     </row>
     <row r="11" spans="2:15">
       <c r="B11" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="D11" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="E11" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L11" s="30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M11" s="21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N11" s="2" t="s">
         <v>33</v>
@@ -1749,172 +1752,172 @@
     </row>
     <row r="12" spans="2:15">
       <c r="B12" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>43</v>
-      </c>
       <c r="G12" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I12" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="L12" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="J12" s="1" t="s">
+      <c r="M12" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="K12" s="1" t="s">
+      <c r="N12" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="L12" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="M12" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="N12" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="O12" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="2:15">
       <c r="B13" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="D13" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M13" s="22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O13" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="2:15">
       <c r="B14" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M14" s="22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O14" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="2:15">
       <c r="B15" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="D15" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F15" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="G15" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L15" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="M15" s="22" t="s">
         <v>51</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="M15" s="22" t="s">
-        <v>52</v>
       </c>
       <c r="N15" s="2" t="s">
         <v>33</v>
@@ -1925,43 +1928,43 @@
     </row>
     <row r="16" spans="2:15">
       <c r="B16" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M16" s="22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O16" s="3" t="s">
         <v>33</v>
@@ -1969,40 +1972,40 @@
     </row>
     <row r="17" spans="2:15">
       <c r="B17" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M17" s="22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N17" s="2" t="s">
         <v>33</v>
@@ -2013,51 +2016,51 @@
     </row>
     <row r="18" spans="2:15" ht="29.25" customHeight="1">
       <c r="B18" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H18" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="G18" s="2" t="s">
+      <c r="I18" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="J18" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="I18" s="2" t="s">
+      <c r="K18" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="M18" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="J18" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="L18" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="M18" s="22" t="s">
+      <c r="N18" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="O18" s="3" t="s">
         <v>77</v>
-      </c>
-      <c r="N18" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="O18" s="3" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="19" spans="2:15">
       <c r="B19" s="11" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="1"/>
@@ -2066,25 +2069,25 @@
       <c r="G19" s="2"/>
       <c r="H19" s="3"/>
       <c r="I19" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="M19" s="22" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="O19" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20" spans="2:15">
@@ -2096,25 +2099,25 @@
       <c r="G20" s="2"/>
       <c r="H20" s="3"/>
       <c r="I20" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="M20" s="22" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="O20" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21" spans="2:15">
@@ -2151,32 +2154,42 @@
     </row>
     <row r="25" spans="2:15">
       <c r="B25" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="26" spans="2:15" ht="18.75">
       <c r="B26" s="31" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28" spans="2:15">
       <c r="B28" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="29" spans="2:15" ht="18.75">
       <c r="B29" s="31" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="31" spans="2:15">
       <c r="B31" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="32" spans="2:15" ht="18.75">
       <c r="B32" s="31" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" t="s">
         <v>92</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" ht="18.75">
+      <c r="B35" s="31" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/msx3gen/files/msx_gen3.xlsx
+++ b/msx3gen/files/msx_gen3.xlsx
@@ -12,7 +12,8 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="23310" windowHeight="6915"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="2024年9月27日 ver" sheetId="2" r:id="rId1"/>
+    <sheet name="2024年9月25日 ver" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="112">
   <si>
     <t>旧来のMSX</t>
     <rPh sb="0" eb="2">
@@ -315,10 +316,6 @@
   </si>
   <si>
     <t>MIDI</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2024/9/24 HRA!</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -553,6 +550,94 @@
   </si>
   <si>
     <t>https://x.com/nishikazuhiko/status/1838689507698442316</t>
+  </si>
+  <si>
+    <t>2024/9/25 HRA!</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MSX3+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MSX3#</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TAOX準拠
+32bit以上
+Z80相当FPGAコア
+R800改-700MHz FPGAコア
+eZ80カスタム??</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>V9998(JetsonOrin)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>V9994</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>V9992</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MSX DIY製品??</t>
+    <rPh sb="7" eb="9">
+      <t>セイヒン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MSX DIY製品??</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MSXポケットシリーズ</t>
+  </si>
+  <si>
+    <t>MSXポケットシリーズ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MSX0TAB5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MSX0Handheld</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PSG+DCSG</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PSG+OPLL+DCSG</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2024/9/27 HRA!</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アニメ編集</t>
+    <rPh sb="3" eb="5">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アニメ編集</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ビデオ編集</t>
+    <rPh sb="3" eb="5">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -656,7 +741,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -996,13 +1081,116 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1110,6 +1298,45 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1391,10 +1618,1028 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:S35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O27" sqref="O27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="2.875" customWidth="1"/>
+    <col min="2" max="2" width="14.875" customWidth="1"/>
+    <col min="3" max="6" width="15.375" customWidth="1"/>
+    <col min="7" max="9" width="16.75" customWidth="1"/>
+    <col min="10" max="10" width="16.625" customWidth="1"/>
+    <col min="11" max="11" width="15.375" customWidth="1"/>
+    <col min="12" max="12" width="14.125" customWidth="1"/>
+    <col min="13" max="13" width="14" customWidth="1"/>
+    <col min="14" max="14" width="16.375" customWidth="1"/>
+    <col min="15" max="15" width="14.625" customWidth="1"/>
+    <col min="16" max="18" width="22.625" customWidth="1"/>
+    <col min="19" max="19" width="15.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:19">
+      <c r="C2" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="S2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="2:19" ht="14.25" thickBot="1"/>
+    <row r="4" spans="2:19" ht="21.75" thickBot="1">
+      <c r="B4" s="8"/>
+      <c r="C4" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="33"/>
+      <c r="L4" s="33"/>
+      <c r="M4" s="33"/>
+      <c r="N4" s="33"/>
+      <c r="O4" s="33"/>
+      <c r="P4" s="33"/>
+      <c r="Q4" s="36"/>
+      <c r="R4" s="36"/>
+      <c r="S4" s="34"/>
+    </row>
+    <row r="5" spans="2:19" ht="18" thickBot="1">
+      <c r="B5" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="J5" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="K5" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="L5" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="M5" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="N5" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="O5" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="P5" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q5" s="37" t="s">
+        <v>94</v>
+      </c>
+      <c r="R5" s="37" t="s">
+        <v>95</v>
+      </c>
+      <c r="S5" s="26" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="2:19">
+      <c r="B6" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="K6" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="L6" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="M6" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="N6" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="O6" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="P6" s="45" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q6" s="41" t="s">
+        <v>101</v>
+      </c>
+      <c r="R6" s="41" t="s">
+        <v>101</v>
+      </c>
+      <c r="S6" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:19" ht="67.5">
+      <c r="B7" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N7" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="O7" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="P7" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q7" s="38" t="s">
+        <v>96</v>
+      </c>
+      <c r="R7" s="38" t="s">
+        <v>96</v>
+      </c>
+      <c r="S7" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="2:19">
+      <c r="B8" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J8" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P8" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q8" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="R8" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="S8" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="2:19" ht="67.5">
+      <c r="B9" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="H9" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="I9" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="J9" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N9" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="O9" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="P9" s="43" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q9" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="R9" s="38" t="s">
+        <v>97</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="2:19">
+      <c r="B10" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J10" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="P10" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R10" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="2:19">
+      <c r="B11" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J11" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="N11" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="O11" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="P11" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R11" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="S11" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="2:19">
+      <c r="B12" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J12" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="P12" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="R12" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="2:19">
+      <c r="B13" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J13" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="P13" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="R13" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="S13" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="2:19">
+      <c r="B14" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J14" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="P14" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="R14" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="2:19">
+      <c r="B15" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J15" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="P15" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R15" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="S15" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="2:19">
+      <c r="B16" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J16" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="P16" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="R16" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="S16" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="2:19">
+      <c r="B17" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J17" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="P17" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R17" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="S17" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="2:19" ht="29.25" customHeight="1">
+      <c r="B18" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J18" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="P18" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q18" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="R18" s="43" t="s">
+        <v>84</v>
+      </c>
+      <c r="S18" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19" spans="2:19">
+      <c r="B19" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="J19" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="P19" s="42" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q19" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="R19" s="42" t="s">
+        <v>79</v>
+      </c>
+      <c r="S19" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="20" spans="2:19">
+      <c r="B20" s="11"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="P20" s="42" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="R20" s="42" t="s">
+        <v>81</v>
+      </c>
+      <c r="S20" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21" spans="2:19">
+      <c r="B21" s="11"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="42"/>
+      <c r="Q21" s="39"/>
+      <c r="R21" s="39"/>
+      <c r="S21" s="3"/>
+    </row>
+    <row r="22" spans="2:19" ht="14.25" thickBot="1">
+      <c r="B22" s="9"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="23"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="6"/>
+      <c r="P22" s="46"/>
+      <c r="Q22" s="40"/>
+      <c r="R22" s="40"/>
+      <c r="S22" s="7"/>
+    </row>
+    <row r="25" spans="2:19">
+      <c r="B25" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26" spans="2:19" ht="18.75">
+      <c r="B26" s="31" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="28" spans="2:19">
+      <c r="B28" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="29" spans="2:19" ht="18.75">
+      <c r="B29" s="31" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="31" spans="2:19">
+      <c r="B31" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="32" spans="2:19" ht="18.75">
+      <c r="B32" s="31" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" ht="18.75">
+      <c r="B35" s="31" t="s">
+        <v>92</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="G4:S4"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:O35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1418,7 +2663,7 @@
         <v>54</v>
       </c>
       <c r="O2" t="s">
-        <v>56</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="2:15" ht="14.25" thickBot="1"/>
@@ -1474,10 +2719,10 @@
         <v>11</v>
       </c>
       <c r="L5" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="M5" s="28" t="s">
         <v>59</v>
-      </c>
-      <c r="M5" s="28" t="s">
-        <v>60</v>
       </c>
       <c r="N5" s="27" t="s">
         <v>12</v>
@@ -1518,10 +2763,10 @@
         <v>16</v>
       </c>
       <c r="L6" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M6" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N6" s="15" t="s">
         <v>5</v>
@@ -1562,13 +2807,13 @@
         <v>18</v>
       </c>
       <c r="L7" s="30" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M7" s="21" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N7" s="18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O7" s="4" t="s">
         <v>21</v>
@@ -1606,7 +2851,7 @@
         <v>32</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M8" s="22" t="s">
         <v>33</v>
@@ -1635,10 +2880,10 @@
         <v>29</v>
       </c>
       <c r="G9" s="18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H9" s="21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>27</v>
@@ -1650,16 +2895,16 @@
         <v>34</v>
       </c>
       <c r="L9" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="M9" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="M9" s="21" t="s">
-        <v>65</v>
-      </c>
       <c r="N9" s="18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="2:15">
@@ -1694,10 +2939,10 @@
         <v>37</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M10" s="22" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N10" s="2" t="s">
         <v>33</v>
@@ -2016,51 +3261,51 @@
     </row>
     <row r="18" spans="2:15" ht="29.25" customHeight="1">
       <c r="B18" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="D18" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H18" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="G18" s="2" t="s">
+      <c r="I18" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="I18" s="2" t="s">
+      <c r="J18" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="J18" s="1" t="s">
+      <c r="K18" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M18" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="K18" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="L18" s="1" t="s">
+      <c r="N18" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="O18" s="3" t="s">
         <v>76</v>
-      </c>
-      <c r="M18" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="N18" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="O18" s="3" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="19" spans="2:15">
       <c r="B19" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="1"/>
@@ -2069,25 +3314,25 @@
       <c r="G19" s="2"/>
       <c r="H19" s="3"/>
       <c r="I19" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M19" s="22" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O19" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20" spans="2:15">
@@ -2099,25 +3344,25 @@
       <c r="G20" s="2"/>
       <c r="H20" s="3"/>
       <c r="I20" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M20" s="22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O20" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21" spans="2:15">
@@ -2154,42 +3399,42 @@
     </row>
     <row r="25" spans="2:15">
       <c r="B25" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26" spans="2:15" ht="18.75">
       <c r="B26" s="31" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="28" spans="2:15">
       <c r="B28" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="29" spans="2:15" ht="18.75">
       <c r="B29" s="31" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="31" spans="2:15">
       <c r="B31" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="32" spans="2:15" ht="18.75">
       <c r="B32" s="31" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="34" spans="2:2">
       <c r="B34" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="35" spans="2:2" ht="18.75">
       <c r="B35" s="31" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/msx3gen/files/msx_gen3.xlsx
+++ b/msx3gen/files/msx_gen3.xlsx
@@ -12,8 +12,9 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="23310" windowHeight="6915"/>
   </bookViews>
   <sheets>
-    <sheet name="2024年9月27日 ver" sheetId="2" r:id="rId1"/>
-    <sheet name="2024年9月25日 ver" sheetId="1" r:id="rId2"/>
+    <sheet name="2024年9月28日 ver" sheetId="3" r:id="rId1"/>
+    <sheet name="2024年9月27日 ver" sheetId="2" r:id="rId2"/>
+    <sheet name="2024年9月25日 ver" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="158">
   <si>
     <t>旧来のMSX</t>
     <rPh sb="0" eb="2">
@@ -639,12 +640,289 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>商品化</t>
+    <rPh sb="0" eb="3">
+      <t>ショウヒンカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>済</t>
+  </si>
+  <si>
+    <t>済</t>
+    <rPh sb="0" eb="1">
+      <t>ス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>近日？</t>
+    <rPh sb="0" eb="2">
+      <t>キンジツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>開発中</t>
+  </si>
+  <si>
+    <t>開発中</t>
+    <rPh sb="0" eb="3">
+      <t>カイハツチュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>検討中</t>
+    <rPh sb="0" eb="3">
+      <t>ケントウチュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>開発中？</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>商品化時期</t>
+    <rPh sb="0" eb="3">
+      <t>ショウヒンカ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2023年</t>
+    <rPh sb="4" eb="5">
+      <t>ネン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1983年</t>
+    <rPh sb="4" eb="5">
+      <t>ネン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1985年</t>
+    <rPh sb="4" eb="5">
+      <t>ネン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1988年</t>
+    <rPh sb="4" eb="5">
+      <t>ネン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1990年</t>
+    <rPh sb="4" eb="5">
+      <t>ネン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2024年？</t>
+    <rPh sb="4" eb="5">
+      <t>ネン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>商品化形態</t>
+    <rPh sb="0" eb="3">
+      <t>ショウヒンカ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ケイタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クラファン</t>
+  </si>
+  <si>
+    <t>クラファン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クラファン？？</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://x.com/nishikazuhiko/status/1839748280378634686</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>各メーカー</t>
+  </si>
+  <si>
+    <t>各メーカー</t>
+    <rPh sb="0" eb="1">
+      <t>カク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ラインナップの全てが必ずしも商品化されるとは限らない、1つ1つ商品化の可否を決める</t>
+    <rPh sb="7" eb="8">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>カナラ</t>
+    </rPh>
+    <rPh sb="14" eb="17">
+      <t>ショウヒンカ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>カギ</t>
+    </rPh>
+    <rPh sb="31" eb="34">
+      <t>ショウヒンカ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>カヒ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://x.com/nishikazuhiko/status/1839750040216318371</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://x.com/nishikazuhiko/status/1838689507698442316</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://x.com/nishikazuhiko/status/1838671059845026246</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://x.com/nishikazuhiko/status/1838545384790020314</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://x.com/nishikazuhiko/status/1838527818625618078</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://x.com/nishikazuhiko/status/1839770459489145040</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2025年?</t>
+    <rPh sb="4" eb="5">
+      <t>ネン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>??</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2025年??</t>
+  </si>
+  <si>
+    <t>2025年??</t>
+    <rPh sb="4" eb="5">
+      <t>ネン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2026年??</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MSX0Stick</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MSX0Stamp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MSX0Pro</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Z80-3.579MHz
+R800-7.16MHz ??
+ソフトウェア
+エミュレーション</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>V9958相当 FPGA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>V9958相当 FPGA</t>
+    <rPh sb="5" eb="7">
+      <t>ソウトウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>V9958相当 FPGA
+V9990
+eZ80 (V9990制御用)</t>
+    <rPh sb="5" eb="7">
+      <t>ソウトウ</t>
+    </rPh>
+    <rPh sb="30" eb="33">
+      <t>セイギョヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GPU(??)
+V9958相当 FPGA
+V9990
+eZ80(V9990制御用)</t>
+    <rPh sb="13" eb="15">
+      <t>ソウトウ</t>
+    </rPh>
+    <rPh sb="37" eb="40">
+      <t>セイギョヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>V9992 FPGA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>V9994 FPGA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>V9998(FPGA+JetsonOrin)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2024/9/28 HRA!</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -708,8 +986,35 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -740,8 +1045,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="34">
+  <borders count="40">
     <border>
       <left/>
       <right/>
@@ -1184,13 +1501,88 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1287,6 +1679,42 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1302,48 +1730,103 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="35" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="36" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="37" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="35" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFFF99"/>
+      <color rgb="FFE5FFE5"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1618,9 +2101,1344 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:V42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="64" zoomScaleNormal="64" workbookViewId="0">
+      <selection activeCell="J31" sqref="J31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="2.875" customWidth="1"/>
+    <col min="2" max="2" width="14.875" customWidth="1"/>
+    <col min="3" max="6" width="12.75" customWidth="1"/>
+    <col min="7" max="9" width="16.75" customWidth="1"/>
+    <col min="10" max="13" width="16.625" customWidth="1"/>
+    <col min="14" max="14" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.125" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="19.875" bestFit="1" customWidth="1"/>
+    <col min="19" max="21" width="24.75" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:22">
+      <c r="B2" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="V2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="3" spans="2:22" ht="14.25" thickBot="1"/>
+    <row r="4" spans="2:22" ht="21.75" thickBot="1">
+      <c r="B4" s="8"/>
+      <c r="C4" s="71" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="74" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="72"/>
+      <c r="K4" s="72"/>
+      <c r="L4" s="72"/>
+      <c r="M4" s="72"/>
+      <c r="N4" s="72"/>
+      <c r="O4" s="72"/>
+      <c r="P4" s="72"/>
+      <c r="Q4" s="72"/>
+      <c r="R4" s="72"/>
+      <c r="S4" s="72"/>
+      <c r="T4" s="75"/>
+      <c r="U4" s="75"/>
+      <c r="V4" s="73"/>
+    </row>
+    <row r="5" spans="2:22" ht="18" thickBot="1">
+      <c r="B5" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="J5" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="K5" s="25" t="s">
+        <v>148</v>
+      </c>
+      <c r="L5" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="M5" s="32" t="s">
+        <v>147</v>
+      </c>
+      <c r="N5" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="O5" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="P5" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q5" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="R5" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="S5" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="T5" s="32" t="s">
+        <v>94</v>
+      </c>
+      <c r="U5" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="V5" s="26" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="2:22">
+      <c r="B6" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="K6" s="43"/>
+      <c r="L6" s="43"/>
+      <c r="M6" s="76"/>
+      <c r="N6" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="O6" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="P6" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q6" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="R6" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="S6" s="40" t="s">
+        <v>100</v>
+      </c>
+      <c r="T6" s="36" t="s">
+        <v>101</v>
+      </c>
+      <c r="U6" s="36" t="s">
+        <v>101</v>
+      </c>
+      <c r="V6" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:22" ht="67.5">
+      <c r="B7" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="49" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="67" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="K7" s="30" t="s">
+        <v>149</v>
+      </c>
+      <c r="L7" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="M7" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q7" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="R7" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="S7" s="38" t="s">
+        <v>87</v>
+      </c>
+      <c r="T7" s="33" t="s">
+        <v>96</v>
+      </c>
+      <c r="U7" s="33" t="s">
+        <v>96</v>
+      </c>
+      <c r="V7" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="2:22">
+      <c r="B8" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="49" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="50" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="50" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="52" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" s="68" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="S8" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="T8" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="U8" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="V8" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="2:22" ht="54">
+      <c r="B9" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="49" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="52" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" s="67" t="s">
+        <v>56</v>
+      </c>
+      <c r="H9" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="I9" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="J9" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="K9" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="L9" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="M9" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q9" s="30" t="s">
+        <v>152</v>
+      </c>
+      <c r="R9" s="30" t="s">
+        <v>153</v>
+      </c>
+      <c r="S9" s="38" t="s">
+        <v>154</v>
+      </c>
+      <c r="T9" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="U9" s="33" t="s">
+        <v>156</v>
+      </c>
+      <c r="V9" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="2:22">
+      <c r="B10" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="49" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="50" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="50" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="52" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" s="68" t="s">
+        <v>37</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="S10" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="T10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="U10" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="V10" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="2:22">
+      <c r="B11" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="68" t="s">
+        <v>42</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q11" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="R11" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="S11" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="T11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="U11" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="V11" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="2:22">
+      <c r="B12" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" s="52" t="s">
+        <v>42</v>
+      </c>
+      <c r="G12" s="68" t="s">
+        <v>42</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="S12" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="T12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U12" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="2:22">
+      <c r="B13" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="49" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" s="52" t="s">
+        <v>44</v>
+      </c>
+      <c r="G13" s="68" t="s">
+        <v>42</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S13" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="T13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="U13" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="V13" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="2:22">
+      <c r="B14" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="50" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" s="50" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14" s="52" t="s">
+        <v>45</v>
+      </c>
+      <c r="G14" s="68" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="S14" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="T14" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="U14" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="V14" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="2:22">
+      <c r="B15" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="49" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="50" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" s="50" t="s">
+        <v>50</v>
+      </c>
+      <c r="F15" s="52" t="s">
+        <v>51</v>
+      </c>
+      <c r="G15" s="68" t="s">
+        <v>52</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="R15" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="S15" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="T15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="U15" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="V15" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="2:22">
+      <c r="B16" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" s="50" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" s="50" t="s">
+        <v>45</v>
+      </c>
+      <c r="F16" s="52" t="s">
+        <v>45</v>
+      </c>
+      <c r="G16" s="68" t="s">
+        <v>39</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="R16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="S16" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="T16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="U16" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="V16" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="2:22">
+      <c r="B17" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" s="49" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="50" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" s="50" t="s">
+        <v>42</v>
+      </c>
+      <c r="F17" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="G17" s="68" t="s">
+        <v>39</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="S17" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="T17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="U17" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="V17" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="2:22" ht="29.25" customHeight="1">
+      <c r="B18" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18" s="49" t="s">
+        <v>69</v>
+      </c>
+      <c r="D18" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="E18" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="F18" s="52" t="s">
+        <v>69</v>
+      </c>
+      <c r="G18" s="68" t="s">
+        <v>71</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="R18" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="S18" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="T18" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="U18" s="38" t="s">
+        <v>84</v>
+      </c>
+      <c r="V18" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19" spans="2:22">
+      <c r="B19" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C19" s="49"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="52"/>
+      <c r="G19" s="68" t="s">
+        <v>102</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="34"/>
+      <c r="N19" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q19" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="R19" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="S19" s="37" t="s">
+        <v>79</v>
+      </c>
+      <c r="T19" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="U19" s="37" t="s">
+        <v>79</v>
+      </c>
+      <c r="V19" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="20" spans="2:22">
+      <c r="B20" s="11"/>
+      <c r="C20" s="49"/>
+      <c r="D20" s="50"/>
+      <c r="E20" s="50"/>
+      <c r="F20" s="52"/>
+      <c r="G20" s="68"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="34"/>
+      <c r="N20" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="R20" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="S20" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="T20" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="U20" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="V20" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21" spans="2:22">
+      <c r="B21" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="C21" s="49" t="s">
+        <v>114</v>
+      </c>
+      <c r="D21" s="50" t="s">
+        <v>113</v>
+      </c>
+      <c r="E21" s="50" t="s">
+        <v>113</v>
+      </c>
+      <c r="F21" s="52" t="s">
+        <v>113</v>
+      </c>
+      <c r="G21" s="68" t="s">
+        <v>114</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="34"/>
+      <c r="N21" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q21" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="R21" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="S21" s="37" t="s">
+        <v>116</v>
+      </c>
+      <c r="T21" s="34" t="s">
+        <v>116</v>
+      </c>
+      <c r="U21" s="34" t="s">
+        <v>116</v>
+      </c>
+      <c r="V21" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="22" spans="2:22">
+      <c r="B22" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="C22" s="49" t="s">
+        <v>122</v>
+      </c>
+      <c r="D22" s="50" t="s">
+        <v>123</v>
+      </c>
+      <c r="E22" s="50" t="s">
+        <v>124</v>
+      </c>
+      <c r="F22" s="52" t="s">
+        <v>125</v>
+      </c>
+      <c r="G22" s="68" t="s">
+        <v>121</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="34"/>
+      <c r="N22" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q22" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="R22" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="S22" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="T22" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="U22" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="V22" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="2:22">
+      <c r="B23" s="56" t="s">
+        <v>127</v>
+      </c>
+      <c r="C23" s="57" t="s">
+        <v>133</v>
+      </c>
+      <c r="D23" s="58" t="s">
+        <v>132</v>
+      </c>
+      <c r="E23" s="58" t="s">
+        <v>132</v>
+      </c>
+      <c r="F23" s="59" t="s">
+        <v>132</v>
+      </c>
+      <c r="G23" s="69" t="s">
+        <v>129</v>
+      </c>
+      <c r="H23" s="61" t="s">
+        <v>128</v>
+      </c>
+      <c r="I23" s="61" t="s">
+        <v>128</v>
+      </c>
+      <c r="J23" s="61" t="s">
+        <v>128</v>
+      </c>
+      <c r="K23" s="61"/>
+      <c r="L23" s="61"/>
+      <c r="M23" s="63"/>
+      <c r="N23" s="60" t="s">
+        <v>128</v>
+      </c>
+      <c r="O23" s="61" t="s">
+        <v>128</v>
+      </c>
+      <c r="P23" s="61" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q23" s="61" t="s">
+        <v>128</v>
+      </c>
+      <c r="R23" s="61" t="s">
+        <v>128</v>
+      </c>
+      <c r="S23" s="62" t="s">
+        <v>128</v>
+      </c>
+      <c r="T23" s="63" t="s">
+        <v>128</v>
+      </c>
+      <c r="U23" s="63" t="s">
+        <v>128</v>
+      </c>
+      <c r="V23" s="64" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="24" spans="2:22" ht="14.25" thickBot="1">
+      <c r="B24" s="9"/>
+      <c r="C24" s="53"/>
+      <c r="D24" s="54"/>
+      <c r="E24" s="54"/>
+      <c r="F24" s="55"/>
+      <c r="G24" s="70"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="35"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="6"/>
+      <c r="P24" s="6"/>
+      <c r="Q24" s="6"/>
+      <c r="R24" s="6"/>
+      <c r="S24" s="41"/>
+      <c r="T24" s="35"/>
+      <c r="U24" s="35"/>
+      <c r="V24" s="7"/>
+    </row>
+    <row r="27" spans="2:22">
+      <c r="B27" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" spans="2:22">
+      <c r="B28" s="65" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="30" spans="2:22">
+      <c r="B30" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="31" spans="2:22">
+      <c r="B31" s="65" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" s="65" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2">
+      <c r="B36" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2">
+      <c r="B37" s="65" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2">
+      <c r="B39" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2">
+      <c r="B40" s="66" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2">
+      <c r="B41" s="65" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2">
+      <c r="B42" s="65" t="s">
+        <v>140</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="G4:V4"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="B40" r:id="rId1"/>
+    <hyperlink ref="B41" r:id="rId2"/>
+    <hyperlink ref="B37" r:id="rId3"/>
+    <hyperlink ref="B34" r:id="rId4"/>
+    <hyperlink ref="B31" r:id="rId5"/>
+    <hyperlink ref="B28" r:id="rId6"/>
+    <hyperlink ref="B42" r:id="rId7"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId8"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:S35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="O27" sqref="O27"/>
     </sheetView>
   </sheetViews>
@@ -1651,27 +3469,27 @@
     <row r="3" spans="2:19" ht="14.25" thickBot="1"/>
     <row r="4" spans="2:19" ht="21.75" thickBot="1">
       <c r="B4" s="8"/>
-      <c r="C4" s="32" t="s">
+      <c r="C4" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="35" t="s">
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="33"/>
-      <c r="K4" s="33"/>
-      <c r="L4" s="33"/>
-      <c r="M4" s="33"/>
-      <c r="N4" s="33"/>
-      <c r="O4" s="33"/>
-      <c r="P4" s="33"/>
-      <c r="Q4" s="36"/>
-      <c r="R4" s="36"/>
-      <c r="S4" s="34"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="45"/>
+      <c r="K4" s="45"/>
+      <c r="L4" s="45"/>
+      <c r="M4" s="45"/>
+      <c r="N4" s="45"/>
+      <c r="O4" s="45"/>
+      <c r="P4" s="45"/>
+      <c r="Q4" s="48"/>
+      <c r="R4" s="48"/>
+      <c r="S4" s="46"/>
     </row>
     <row r="5" spans="2:19" ht="18" thickBot="1">
       <c r="B5" s="9" t="s">
@@ -1716,13 +3534,13 @@
       <c r="O5" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="P5" s="44" t="s">
+      <c r="P5" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="Q5" s="37" t="s">
+      <c r="Q5" s="32" t="s">
         <v>94</v>
       </c>
-      <c r="R5" s="37" t="s">
+      <c r="R5" s="32" t="s">
         <v>95</v>
       </c>
       <c r="S5" s="26" t="s">
@@ -1748,13 +3566,13 @@
       <c r="G6" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="48" t="s">
+      <c r="H6" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="I6" s="48" t="s">
+      <c r="I6" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="J6" s="47" t="s">
+      <c r="J6" s="42" t="s">
         <v>15</v>
       </c>
       <c r="K6" s="19" t="s">
@@ -1772,13 +3590,13 @@
       <c r="O6" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="P6" s="45" t="s">
+      <c r="P6" s="40" t="s">
         <v>100</v>
       </c>
-      <c r="Q6" s="41" t="s">
+      <c r="Q6" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="R6" s="41" t="s">
+      <c r="R6" s="36" t="s">
         <v>101</v>
       </c>
       <c r="S6" s="13" t="s">
@@ -1828,13 +3646,13 @@
       <c r="O7" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="P7" s="43" t="s">
+      <c r="P7" s="38" t="s">
         <v>87</v>
       </c>
-      <c r="Q7" s="38" t="s">
+      <c r="Q7" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="R7" s="38" t="s">
+      <c r="R7" s="33" t="s">
         <v>96</v>
       </c>
       <c r="S7" s="4" t="s">
@@ -1884,13 +3702,13 @@
       <c r="O8" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="P8" s="42" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q8" s="39" t="s">
-        <v>33</v>
-      </c>
-      <c r="R8" s="39" t="s">
+      <c r="P8" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q8" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="R8" s="34" t="s">
         <v>33</v>
       </c>
       <c r="S8" s="3" t="s">
@@ -1940,13 +3758,13 @@
       <c r="O9" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="P9" s="43" t="s">
+      <c r="P9" s="38" t="s">
         <v>99</v>
       </c>
       <c r="Q9" s="30" t="s">
         <v>98</v>
       </c>
-      <c r="R9" s="38" t="s">
+      <c r="R9" s="33" t="s">
         <v>97</v>
       </c>
       <c r="S9" s="3" t="s">
@@ -1996,13 +3814,13 @@
       <c r="O10" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="P10" s="42" t="s">
+      <c r="P10" s="37" t="s">
         <v>33</v>
       </c>
       <c r="Q10" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="R10" s="42" t="s">
+      <c r="R10" s="37" t="s">
         <v>33</v>
       </c>
       <c r="S10" s="3" t="s">
@@ -2052,13 +3870,13 @@
       <c r="O11" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="P11" s="42" t="s">
+      <c r="P11" s="37" t="s">
         <v>33</v>
       </c>
       <c r="Q11" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="R11" s="42" t="s">
+      <c r="R11" s="37" t="s">
         <v>33</v>
       </c>
       <c r="S11" s="3" t="s">
@@ -2108,13 +3926,13 @@
       <c r="O12" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="P12" s="42" t="s">
+      <c r="P12" s="37" t="s">
         <v>46</v>
       </c>
       <c r="Q12" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="R12" s="42" t="s">
+      <c r="R12" s="37" t="s">
         <v>46</v>
       </c>
       <c r="S12" s="3" t="s">
@@ -2164,13 +3982,13 @@
       <c r="O13" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="P13" s="42" t="s">
+      <c r="P13" s="37" t="s">
         <v>47</v>
       </c>
       <c r="Q13" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="R13" s="42" t="s">
+      <c r="R13" s="37" t="s">
         <v>47</v>
       </c>
       <c r="S13" s="3" t="s">
@@ -2220,13 +4038,13 @@
       <c r="O14" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="P14" s="42" t="s">
+      <c r="P14" s="37" t="s">
         <v>47</v>
       </c>
       <c r="Q14" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="R14" s="42" t="s">
+      <c r="R14" s="37" t="s">
         <v>47</v>
       </c>
       <c r="S14" s="3" t="s">
@@ -2276,13 +4094,13 @@
       <c r="O15" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="P15" s="42" t="s">
+      <c r="P15" s="37" t="s">
         <v>33</v>
       </c>
       <c r="Q15" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="R15" s="42" t="s">
+      <c r="R15" s="37" t="s">
         <v>33</v>
       </c>
       <c r="S15" s="3" t="s">
@@ -2332,13 +4150,13 @@
       <c r="O16" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="P16" s="42" t="s">
+      <c r="P16" s="37" t="s">
         <v>45</v>
       </c>
       <c r="Q16" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="R16" s="42" t="s">
+      <c r="R16" s="37" t="s">
         <v>45</v>
       </c>
       <c r="S16" s="3" t="s">
@@ -2388,13 +4206,13 @@
       <c r="O17" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="P17" s="42" t="s">
+      <c r="P17" s="37" t="s">
         <v>33</v>
       </c>
       <c r="Q17" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="R17" s="42" t="s">
+      <c r="R17" s="37" t="s">
         <v>33</v>
       </c>
       <c r="S17" s="3" t="s">
@@ -2444,13 +4262,13 @@
       <c r="O18" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="P18" s="43" t="s">
+      <c r="P18" s="38" t="s">
         <v>111</v>
       </c>
       <c r="Q18" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="R18" s="43" t="s">
+      <c r="R18" s="38" t="s">
         <v>84</v>
       </c>
       <c r="S18" s="3" t="s">
@@ -2492,13 +4310,13 @@
       <c r="O19" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="P19" s="42" t="s">
+      <c r="P19" s="37" t="s">
         <v>79</v>
       </c>
       <c r="Q19" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="R19" s="42" t="s">
+      <c r="R19" s="37" t="s">
         <v>79</v>
       </c>
       <c r="S19" s="3" t="s">
@@ -2530,13 +4348,13 @@
       <c r="O20" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="P20" s="42" t="s">
+      <c r="P20" s="37" t="s">
         <v>81</v>
       </c>
       <c r="Q20" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="R20" s="42" t="s">
+      <c r="R20" s="37" t="s">
         <v>81</v>
       </c>
       <c r="S20" s="3" t="s">
@@ -2558,9 +4376,9 @@
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
-      <c r="P21" s="42"/>
-      <c r="Q21" s="39"/>
-      <c r="R21" s="39"/>
+      <c r="P21" s="37"/>
+      <c r="Q21" s="34"/>
+      <c r="R21" s="34"/>
       <c r="S21" s="3"/>
     </row>
     <row r="22" spans="2:19" ht="14.25" thickBot="1">
@@ -2578,9 +4396,9 @@
       <c r="M22" s="6"/>
       <c r="N22" s="6"/>
       <c r="O22" s="6"/>
-      <c r="P22" s="46"/>
-      <c r="Q22" s="40"/>
-      <c r="R22" s="40"/>
+      <c r="P22" s="41"/>
+      <c r="Q22" s="35"/>
+      <c r="R22" s="35"/>
       <c r="S22" s="7"/>
     </row>
     <row r="25" spans="2:19">
@@ -2634,7 +4452,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:O35"/>
   <sheetViews>
@@ -2669,23 +4487,23 @@
     <row r="3" spans="2:15" ht="14.25" thickBot="1"/>
     <row r="4" spans="2:15" ht="21.75" thickBot="1">
       <c r="B4" s="8"/>
-      <c r="C4" s="32" t="s">
+      <c r="C4" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="35" t="s">
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="33"/>
-      <c r="I4" s="33"/>
-      <c r="J4" s="33"/>
-      <c r="K4" s="33"/>
-      <c r="L4" s="33"/>
-      <c r="M4" s="33"/>
-      <c r="N4" s="33"/>
-      <c r="O4" s="34"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="45"/>
+      <c r="K4" s="45"/>
+      <c r="L4" s="45"/>
+      <c r="M4" s="45"/>
+      <c r="N4" s="45"/>
+      <c r="O4" s="46"/>
     </row>
     <row r="5" spans="2:15" ht="18" thickBot="1">
       <c r="B5" s="9" t="s">

--- a/msx3gen/files/msx_gen3.xlsx
+++ b/msx3gen/files/msx_gen3.xlsx
@@ -12,9 +12,10 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="23310" windowHeight="6915"/>
   </bookViews>
   <sheets>
-    <sheet name="2024年9月28日 ver" sheetId="3" r:id="rId1"/>
-    <sheet name="2024年9月27日 ver" sheetId="2" r:id="rId2"/>
-    <sheet name="2024年9月25日 ver" sheetId="1" r:id="rId3"/>
+    <sheet name="2024年9月28日 ver2" sheetId="4" r:id="rId1"/>
+    <sheet name="2024年9月28日 ver" sheetId="3" r:id="rId2"/>
+    <sheet name="2024年9月27日 ver" sheetId="2" r:id="rId3"/>
+    <sheet name="2024年9月25日 ver" sheetId="1" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1313" uniqueCount="168">
   <si>
     <t>旧来のMSX</t>
     <rPh sb="0" eb="2">
@@ -915,6 +916,50 @@
   </si>
   <si>
     <t>2024/9/28 HRA!</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://x.com/nishikazuhiko/status/1838873994273185888</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Z80載せ替えMSX0</t>
+    <rPh sb="3" eb="4">
+      <t>ノ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MSXNetconnector</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MSX0製品</t>
+  </si>
+  <si>
+    <t>Z80-3.579MHz
+ソフトウェア
+エミュレーション</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>??</t>
+  </si>
+  <si>
+    <t>旧MSXのバージョンアップ</t>
+  </si>
+  <si>
+    <t>検討中</t>
+  </si>
+  <si>
+    <t>IoTコントローラーシリーズ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1014,7 +1059,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1057,6 +1102,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFABAB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="40">
     <border>
@@ -1582,7 +1633,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1715,6 +1766,90 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="35" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="36" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="37" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="35" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1730,88 +1865,76 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="35" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="36" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="37" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="35" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="30" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="33" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1823,6 +1946,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFABAB"/>
       <color rgb="FFFFFF99"/>
       <color rgb="FFE5FFE5"/>
     </mruColors>
@@ -2101,10 +2225,1450 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:V42"/>
+  <dimension ref="B2:V48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="64" zoomScaleNormal="64" workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="2.875" customWidth="1"/>
+    <col min="2" max="2" width="20.125" customWidth="1"/>
+    <col min="3" max="3" width="23" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.875" customWidth="1"/>
+    <col min="5" max="5" width="25.125" customWidth="1"/>
+    <col min="6" max="6" width="12.75" customWidth="1"/>
+    <col min="7" max="9" width="16.75" customWidth="1"/>
+    <col min="10" max="13" width="16.625" customWidth="1"/>
+    <col min="14" max="14" width="21.625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="24" customWidth="1"/>
+    <col min="18" max="19" width="19.875" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="24.75" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="3.125" customWidth="1"/>
+    <col min="23" max="23" width="15.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:22">
+      <c r="B2" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="V2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="4" spans="2:22" ht="14.25" thickBot="1"/>
+    <row r="5" spans="2:22" ht="14.25" thickBot="1">
+      <c r="B5" s="87"/>
+      <c r="C5" s="89" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="90" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="88" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="88" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="88" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="88" t="s">
+        <v>35</v>
+      </c>
+      <c r="I5" s="88" t="s">
+        <v>38</v>
+      </c>
+      <c r="J5" s="88" t="s">
+        <v>41</v>
+      </c>
+      <c r="K5" s="88" t="s">
+        <v>43</v>
+      </c>
+      <c r="L5" s="88" t="s">
+        <v>48</v>
+      </c>
+      <c r="M5" s="88" t="s">
+        <v>49</v>
+      </c>
+      <c r="N5" s="88" t="s">
+        <v>53</v>
+      </c>
+      <c r="O5" s="88" t="s">
+        <v>55</v>
+      </c>
+      <c r="P5" s="88" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q5" s="88" t="s">
+        <v>78</v>
+      </c>
+      <c r="R5" s="88"/>
+      <c r="S5" s="88" t="s">
+        <v>112</v>
+      </c>
+      <c r="T5" s="88" t="s">
+        <v>120</v>
+      </c>
+      <c r="U5" s="88" t="s">
+        <v>127</v>
+      </c>
+      <c r="V5" s="89"/>
+    </row>
+    <row r="6" spans="2:22" ht="17.25">
+      <c r="B6" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="96" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="91" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="85" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="85" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="85" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" s="85" t="s">
+        <v>36</v>
+      </c>
+      <c r="I6" s="85" t="s">
+        <v>39</v>
+      </c>
+      <c r="J6" s="85" t="s">
+        <v>40</v>
+      </c>
+      <c r="K6" s="85" t="s">
+        <v>44</v>
+      </c>
+      <c r="L6" s="85" t="s">
+        <v>45</v>
+      </c>
+      <c r="M6" s="85" t="s">
+        <v>50</v>
+      </c>
+      <c r="N6" s="85" t="s">
+        <v>45</v>
+      </c>
+      <c r="O6" s="85" t="s">
+        <v>42</v>
+      </c>
+      <c r="P6" s="85" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q6" s="85"/>
+      <c r="R6" s="85"/>
+      <c r="S6" s="85" t="s">
+        <v>114</v>
+      </c>
+      <c r="T6" s="85" t="s">
+        <v>122</v>
+      </c>
+      <c r="U6" s="85" t="s">
+        <v>133</v>
+      </c>
+      <c r="V6" s="86"/>
+    </row>
+    <row r="7" spans="2:22" ht="17.25">
+      <c r="B7" s="80"/>
+      <c r="C7" s="97" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="92" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="45" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="I7" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="J7" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="K7" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="L7" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="M7" s="45" t="s">
+        <v>50</v>
+      </c>
+      <c r="N7" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="O7" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="P7" s="45" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q7" s="45"/>
+      <c r="R7" s="45"/>
+      <c r="S7" s="45" t="s">
+        <v>113</v>
+      </c>
+      <c r="T7" s="45" t="s">
+        <v>123</v>
+      </c>
+      <c r="U7" s="45" t="s">
+        <v>132</v>
+      </c>
+      <c r="V7" s="47"/>
+    </row>
+    <row r="8" spans="2:22" ht="17.25">
+      <c r="B8" s="80"/>
+      <c r="C8" s="97" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="92" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="45" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="I8" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="J8" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="K8" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="L8" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="M8" s="45" t="s">
+        <v>50</v>
+      </c>
+      <c r="N8" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="O8" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="P8" s="45" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q8" s="45"/>
+      <c r="R8" s="45"/>
+      <c r="S8" s="45" t="s">
+        <v>113</v>
+      </c>
+      <c r="T8" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="U8" s="45" t="s">
+        <v>132</v>
+      </c>
+      <c r="V8" s="47"/>
+    </row>
+    <row r="9" spans="2:22" ht="27">
+      <c r="B9" s="80"/>
+      <c r="C9" s="97" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="92" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="77" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="45" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="I9" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="J9" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="K9" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="L9" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="M9" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="N9" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="O9" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="P9" s="45" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q9" s="45"/>
+      <c r="R9" s="45"/>
+      <c r="S9" s="45" t="s">
+        <v>113</v>
+      </c>
+      <c r="T9" s="45" t="s">
+        <v>125</v>
+      </c>
+      <c r="U9" s="45" t="s">
+        <v>132</v>
+      </c>
+      <c r="V9" s="47"/>
+    </row>
+    <row r="10" spans="2:22" ht="40.5">
+      <c r="B10" s="80" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="97" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="93" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="79" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" s="78" t="s">
+        <v>56</v>
+      </c>
+      <c r="H10" s="79" t="s">
+        <v>37</v>
+      </c>
+      <c r="I10" s="79" t="s">
+        <v>42</v>
+      </c>
+      <c r="J10" s="79" t="s">
+        <v>42</v>
+      </c>
+      <c r="K10" s="79" t="s">
+        <v>42</v>
+      </c>
+      <c r="L10" s="79" t="s">
+        <v>45</v>
+      </c>
+      <c r="M10" s="79" t="s">
+        <v>52</v>
+      </c>
+      <c r="N10" s="79" t="s">
+        <v>39</v>
+      </c>
+      <c r="O10" s="79" t="s">
+        <v>39</v>
+      </c>
+      <c r="P10" s="79" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q10" s="79" t="s">
+        <v>102</v>
+      </c>
+      <c r="R10" s="79"/>
+      <c r="S10" s="79" t="s">
+        <v>114</v>
+      </c>
+      <c r="T10" s="79" t="s">
+        <v>121</v>
+      </c>
+      <c r="U10" s="79" t="s">
+        <v>129</v>
+      </c>
+      <c r="V10" s="81"/>
+    </row>
+    <row r="11" spans="2:22" ht="40.5">
+      <c r="B11" s="80"/>
+      <c r="C11" s="97" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="93" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="T11" s="99" t="s">
+        <v>126</v>
+      </c>
+      <c r="U11" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="2:22" ht="40.5">
+      <c r="B12" s="80"/>
+      <c r="C12" s="97" t="s">
+        <v>104</v>
+      </c>
+      <c r="D12" s="93" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="T12" s="99" t="s">
+        <v>141</v>
+      </c>
+      <c r="U12" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="V12" s="3"/>
+    </row>
+    <row r="13" spans="2:22" ht="40.5">
+      <c r="B13" s="80"/>
+      <c r="C13" s="97" t="s">
+        <v>105</v>
+      </c>
+      <c r="D13" s="93" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G13" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="T13" s="99" t="s">
+        <v>142</v>
+      </c>
+      <c r="U13" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="V13" s="3"/>
+    </row>
+    <row r="14" spans="2:22" ht="54">
+      <c r="B14" s="80"/>
+      <c r="C14" s="97" t="s">
+        <v>148</v>
+      </c>
+      <c r="D14" s="93" t="s">
+        <v>161</v>
+      </c>
+      <c r="E14" s="30" t="s">
+        <v>149</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G14" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="T14" s="99" t="s">
+        <v>163</v>
+      </c>
+      <c r="U14" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="V14" s="3"/>
+    </row>
+    <row r="15" spans="2:22" ht="40.5">
+      <c r="B15" s="80"/>
+      <c r="C15" s="97" t="s">
+        <v>146</v>
+      </c>
+      <c r="D15" s="93" t="s">
+        <v>161</v>
+      </c>
+      <c r="E15" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="T15" s="99" t="s">
+        <v>163</v>
+      </c>
+      <c r="U15" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="V15" s="3"/>
+    </row>
+    <row r="16" spans="2:22" ht="40.5">
+      <c r="B16" s="80"/>
+      <c r="C16" s="97" t="s">
+        <v>147</v>
+      </c>
+      <c r="D16" s="93" t="s">
+        <v>161</v>
+      </c>
+      <c r="E16" s="30" t="s">
+        <v>162</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G16" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="T16" s="99" t="s">
+        <v>163</v>
+      </c>
+      <c r="U16" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="2:22" ht="40.5">
+      <c r="B17" s="80"/>
+      <c r="C17" s="97" t="s">
+        <v>160</v>
+      </c>
+      <c r="D17" s="93" t="s">
+        <v>161</v>
+      </c>
+      <c r="E17" s="30" t="s">
+        <v>162</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G17" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="T17" s="99" t="s">
+        <v>163</v>
+      </c>
+      <c r="U17" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="V17" s="3"/>
+    </row>
+    <row r="18" spans="2:22" ht="17.25">
+      <c r="B18" s="80"/>
+      <c r="C18" s="97" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="94" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="R18" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="S18" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="T18" s="99" t="s">
+        <v>144</v>
+      </c>
+      <c r="U18" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="V18" s="3"/>
+    </row>
+    <row r="19" spans="2:22" ht="17.25">
+      <c r="B19" s="80"/>
+      <c r="C19" s="97" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" s="94" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q19" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="R19" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="S19" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="T19" s="99" t="s">
+        <v>143</v>
+      </c>
+      <c r="U19" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="2:22" ht="17.25">
+      <c r="B20" s="80"/>
+      <c r="C20" s="97" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="94" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="R20" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="S20" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="T20" s="99" t="s">
+        <v>143</v>
+      </c>
+      <c r="U20" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="V20" s="3"/>
+    </row>
+    <row r="21" spans="2:22" ht="54">
+      <c r="B21" s="80"/>
+      <c r="C21" s="97" t="s">
+        <v>58</v>
+      </c>
+      <c r="D21" s="94" t="s">
+        <v>60</v>
+      </c>
+      <c r="E21" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="F21" s="99" t="s">
+        <v>62</v>
+      </c>
+      <c r="G21" s="30" t="s">
+        <v>152</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="I21" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="J21" s="99" t="s">
+        <v>46</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q21" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="R21" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="S21" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="T21" s="99" t="s">
+        <v>145</v>
+      </c>
+      <c r="U21" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="V21" s="3"/>
+    </row>
+    <row r="22" spans="2:22" ht="54">
+      <c r="B22" s="80"/>
+      <c r="C22" s="97" t="s">
+        <v>59</v>
+      </c>
+      <c r="D22" s="94" t="s">
+        <v>57</v>
+      </c>
+      <c r="E22" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="F22" s="99" t="s">
+        <v>33</v>
+      </c>
+      <c r="G22" s="30" t="s">
+        <v>153</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="I22" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="J22" s="99" t="s">
+        <v>46</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q22" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="R22" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="S22" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="T22" s="99" t="s">
+        <v>33</v>
+      </c>
+      <c r="U22" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="V22" s="3"/>
+    </row>
+    <row r="23" spans="2:22" ht="67.5">
+      <c r="B23" s="80"/>
+      <c r="C23" s="97" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="94" t="s">
+        <v>100</v>
+      </c>
+      <c r="E23" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="F23" s="99" t="s">
+        <v>33</v>
+      </c>
+      <c r="G23" s="30" t="s">
+        <v>154</v>
+      </c>
+      <c r="H23" s="99" t="s">
+        <v>33</v>
+      </c>
+      <c r="I23" s="99" t="s">
+        <v>33</v>
+      </c>
+      <c r="J23" s="99" t="s">
+        <v>46</v>
+      </c>
+      <c r="K23" s="99" t="s">
+        <v>47</v>
+      </c>
+      <c r="L23" s="99" t="s">
+        <v>47</v>
+      </c>
+      <c r="M23" s="99" t="s">
+        <v>33</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O23" s="99" t="s">
+        <v>33</v>
+      </c>
+      <c r="P23" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q23" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="R23" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="S23" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="T23" s="99" t="s">
+        <v>33</v>
+      </c>
+      <c r="U23" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="V23" s="3"/>
+    </row>
+    <row r="24" spans="2:22" ht="67.5">
+      <c r="B24" s="80"/>
+      <c r="C24" s="97" t="s">
+        <v>94</v>
+      </c>
+      <c r="D24" s="94" t="s">
+        <v>101</v>
+      </c>
+      <c r="E24" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="F24" s="99" t="s">
+        <v>33</v>
+      </c>
+      <c r="G24" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="H24" s="99" t="s">
+        <v>33</v>
+      </c>
+      <c r="I24" s="99" t="s">
+        <v>33</v>
+      </c>
+      <c r="J24" s="99" t="s">
+        <v>46</v>
+      </c>
+      <c r="K24" s="99" t="s">
+        <v>47</v>
+      </c>
+      <c r="L24" s="99" t="s">
+        <v>47</v>
+      </c>
+      <c r="M24" s="99" t="s">
+        <v>33</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O24" s="99" t="s">
+        <v>33</v>
+      </c>
+      <c r="P24" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q24" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="R24" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="S24" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="T24" s="99" t="s">
+        <v>33</v>
+      </c>
+      <c r="U24" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="V24" s="3"/>
+    </row>
+    <row r="25" spans="2:22" ht="67.5">
+      <c r="B25" s="80"/>
+      <c r="C25" s="97" t="s">
+        <v>95</v>
+      </c>
+      <c r="D25" s="94" t="s">
+        <v>101</v>
+      </c>
+      <c r="E25" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="F25" s="99" t="s">
+        <v>33</v>
+      </c>
+      <c r="G25" s="30" t="s">
+        <v>156</v>
+      </c>
+      <c r="H25" s="99" t="s">
+        <v>33</v>
+      </c>
+      <c r="I25" s="99" t="s">
+        <v>33</v>
+      </c>
+      <c r="J25" s="99" t="s">
+        <v>46</v>
+      </c>
+      <c r="K25" s="99" t="s">
+        <v>47</v>
+      </c>
+      <c r="L25" s="99" t="s">
+        <v>47</v>
+      </c>
+      <c r="M25" s="99" t="s">
+        <v>33</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O25" s="99" t="s">
+        <v>33</v>
+      </c>
+      <c r="P25" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q25" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="R25" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="S25" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="T25" s="99" t="s">
+        <v>33</v>
+      </c>
+      <c r="U25" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="V25" s="3"/>
+    </row>
+    <row r="26" spans="2:22" ht="41.25" thickBot="1">
+      <c r="B26" s="82"/>
+      <c r="C26" s="98" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" s="95" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26" s="83" t="s">
+        <v>21</v>
+      </c>
+      <c r="F26" s="100" t="s">
+        <v>33</v>
+      </c>
+      <c r="G26" s="100" t="s">
+        <v>85</v>
+      </c>
+      <c r="H26" s="100" t="s">
+        <v>33</v>
+      </c>
+      <c r="I26" s="100" t="s">
+        <v>33</v>
+      </c>
+      <c r="J26" s="100" t="s">
+        <v>46</v>
+      </c>
+      <c r="K26" s="100" t="s">
+        <v>47</v>
+      </c>
+      <c r="L26" s="100" t="s">
+        <v>47</v>
+      </c>
+      <c r="M26" s="100" t="s">
+        <v>33</v>
+      </c>
+      <c r="N26" s="100" t="s">
+        <v>33</v>
+      </c>
+      <c r="O26" s="100" t="s">
+        <v>33</v>
+      </c>
+      <c r="P26" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q26" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="R26" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="S26" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="T26" s="100" t="s">
+        <v>33</v>
+      </c>
+      <c r="U26" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="V26" s="7"/>
+    </row>
+    <row r="30" spans="2:22">
+      <c r="B30" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="31" spans="2:22">
+      <c r="B31" s="60" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" s="60" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2">
+      <c r="B36" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2">
+      <c r="B37" s="60" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2">
+      <c r="B39" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2">
+      <c r="B40" s="60" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2">
+      <c r="B42" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2">
+      <c r="B43" s="61" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2">
+      <c r="B44" s="60" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2">
+      <c r="B45" s="60" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2">
+      <c r="B47" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2">
+      <c r="B48" s="60" t="s">
+        <v>158</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="B10:B26"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="B43" r:id="rId1"/>
+    <hyperlink ref="B44" r:id="rId2"/>
+    <hyperlink ref="B40" r:id="rId3"/>
+    <hyperlink ref="B37" r:id="rId4"/>
+    <hyperlink ref="B34" r:id="rId5"/>
+    <hyperlink ref="B31" r:id="rId6"/>
+    <hyperlink ref="B45" r:id="rId7"/>
+    <hyperlink ref="B48" r:id="rId8"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId9"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:W42"/>
+  <sheetViews>
+    <sheetView topLeftCell="A14" zoomScale="64" zoomScaleNormal="64" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2113,52 +3677,53 @@
     <col min="2" max="2" width="14.875" customWidth="1"/>
     <col min="3" max="6" width="12.75" customWidth="1"/>
     <col min="7" max="9" width="16.75" customWidth="1"/>
-    <col min="10" max="13" width="16.625" customWidth="1"/>
-    <col min="14" max="14" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.125" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="19.875" bestFit="1" customWidth="1"/>
-    <col min="19" max="21" width="24.75" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="14" width="16.625" customWidth="1"/>
+    <col min="15" max="15" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.125" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="19.875" bestFit="1" customWidth="1"/>
+    <col min="20" max="22" width="24.75" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:22">
+    <row r="2" spans="2:23">
       <c r="B2" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="3" spans="2:22" ht="14.25" thickBot="1"/>
-    <row r="4" spans="2:22" ht="21.75" thickBot="1">
+    <row r="3" spans="2:23" ht="14.25" thickBot="1"/>
+    <row r="4" spans="2:23" ht="21.75" thickBot="1">
       <c r="B4" s="8"/>
-      <c r="C4" s="71" t="s">
+      <c r="C4" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="74" t="s">
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="72"/>
-      <c r="K4" s="72"/>
-      <c r="L4" s="72"/>
-      <c r="M4" s="72"/>
-      <c r="N4" s="72"/>
-      <c r="O4" s="72"/>
-      <c r="P4" s="72"/>
-      <c r="Q4" s="72"/>
-      <c r="R4" s="72"/>
-      <c r="S4" s="72"/>
-      <c r="T4" s="75"/>
-      <c r="U4" s="75"/>
-      <c r="V4" s="73"/>
-    </row>
-    <row r="5" spans="2:22" ht="18" thickBot="1">
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="68"/>
+      <c r="K4" s="68"/>
+      <c r="L4" s="68"/>
+      <c r="M4" s="68"/>
+      <c r="N4" s="68"/>
+      <c r="O4" s="68"/>
+      <c r="P4" s="68"/>
+      <c r="Q4" s="68"/>
+      <c r="R4" s="68"/>
+      <c r="S4" s="68"/>
+      <c r="T4" s="68"/>
+      <c r="U4" s="71"/>
+      <c r="V4" s="71"/>
+      <c r="W4" s="69"/>
+    </row>
+    <row r="5" spans="2:23" ht="18" thickBot="1">
       <c r="B5" s="9" t="s">
         <v>7</v>
       </c>
@@ -2195,35 +3760,36 @@
       <c r="M5" s="32" t="s">
         <v>147</v>
       </c>
-      <c r="N5" s="27" t="s">
+      <c r="N5" s="32"/>
+      <c r="O5" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="O5" s="25" t="s">
+      <c r="P5" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="P5" s="25" t="s">
+      <c r="Q5" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="Q5" s="25" t="s">
+      <c r="R5" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="R5" s="25" t="s">
+      <c r="S5" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="S5" s="39" t="s">
+      <c r="T5" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="T5" s="32" t="s">
+      <c r="U5" s="32" t="s">
         <v>94</v>
       </c>
-      <c r="U5" s="32" t="s">
+      <c r="V5" s="32" t="s">
         <v>95</v>
       </c>
-      <c r="V5" s="26" t="s">
+      <c r="W5" s="26" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="2:22">
+    <row r="6" spans="2:23">
       <c r="B6" s="10" t="s">
         <v>6</v>
       </c>
@@ -2253,52 +3819,53 @@
       </c>
       <c r="K6" s="43"/>
       <c r="L6" s="43"/>
-      <c r="M6" s="76"/>
-      <c r="N6" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="O6" s="14" t="s">
+      <c r="M6" s="66"/>
+      <c r="N6" s="66"/>
+      <c r="O6" s="19" t="s">
         <v>16</v>
       </c>
       <c r="P6" s="14" t="s">
         <v>16</v>
       </c>
       <c r="Q6" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="R6" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="R6" s="14" t="s">
+      <c r="S6" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="S6" s="40" t="s">
+      <c r="T6" s="40" t="s">
         <v>100</v>
-      </c>
-      <c r="T6" s="36" t="s">
-        <v>101</v>
       </c>
       <c r="U6" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="V6" s="13" t="s">
+      <c r="V6" s="36" t="s">
+        <v>101</v>
+      </c>
+      <c r="W6" s="13" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="2:22" ht="67.5">
+    <row r="7" spans="2:23" ht="67.5">
       <c r="B7" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="49" t="s">
+      <c r="C7" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="50" t="s">
+      <c r="D7" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="50" t="s">
+      <c r="E7" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="51" t="s">
+      <c r="F7" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="67" t="s">
+      <c r="G7" s="62" t="s">
         <v>20</v>
       </c>
       <c r="H7" s="30" t="s">
@@ -2319,51 +3886,52 @@
       <c r="M7" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="N7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="O7" s="1" t="s">
+      <c r="N7" s="38"/>
+      <c r="O7" s="2" t="s">
         <v>18</v>
       </c>
       <c r="P7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="Q7" s="30" t="s">
+      <c r="Q7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R7" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="R7" s="30" t="s">
+      <c r="S7" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="S7" s="38" t="s">
+      <c r="T7" s="38" t="s">
         <v>87</v>
-      </c>
-      <c r="T7" s="33" t="s">
-        <v>96</v>
       </c>
       <c r="U7" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="V7" s="4" t="s">
+      <c r="V7" s="33" t="s">
+        <v>96</v>
+      </c>
+      <c r="W7" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="2:22">
+    <row r="8" spans="2:23">
       <c r="B8" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="49" t="s">
+      <c r="C8" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="50" t="s">
+      <c r="D8" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="50" t="s">
+      <c r="E8" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="52" t="s">
+      <c r="F8" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="68" t="s">
+      <c r="G8" s="63" t="s">
         <v>30</v>
       </c>
       <c r="H8" s="1" t="s">
@@ -2384,51 +3952,52 @@
       <c r="M8" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="N8" s="2" t="s">
+      <c r="N8" s="37"/>
+      <c r="O8" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="O8" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="P8" s="1" t="s">
         <v>32</v>
       </c>
       <c r="Q8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="R8" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="R8" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="S8" s="37" t="s">
-        <v>33</v>
-      </c>
-      <c r="T8" s="34" t="s">
+      <c r="S8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="T8" s="37" t="s">
         <v>33</v>
       </c>
       <c r="U8" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="V8" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="2:22" ht="54">
+      <c r="V8" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="W8" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="2:23" ht="54">
       <c r="B9" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="49" t="s">
+      <c r="C9" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="50" t="s">
+      <c r="D9" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="50" t="s">
+      <c r="E9" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="F9" s="52" t="s">
+      <c r="F9" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="G9" s="67" t="s">
+      <c r="G9" s="62" t="s">
         <v>56</v>
       </c>
       <c r="H9" s="30" t="s">
@@ -2449,51 +4018,52 @@
       <c r="M9" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="N9" s="2" t="s">
+      <c r="N9" s="38"/>
+      <c r="O9" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="O9" s="1" t="s">
-        <v>151</v>
       </c>
       <c r="P9" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="Q9" s="30" t="s">
+      <c r="Q9" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="R9" s="30" t="s">
         <v>152</v>
       </c>
-      <c r="R9" s="30" t="s">
+      <c r="S9" s="30" t="s">
         <v>153</v>
       </c>
-      <c r="S9" s="38" t="s">
+      <c r="T9" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="T9" s="30" t="s">
+      <c r="U9" s="30" t="s">
         <v>155</v>
       </c>
-      <c r="U9" s="33" t="s">
+      <c r="V9" s="33" t="s">
         <v>156</v>
       </c>
-      <c r="V9" s="3" t="s">
+      <c r="W9" s="3" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="10" spans="2:22">
+    <row r="10" spans="2:23">
       <c r="B10" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="49" t="s">
+      <c r="C10" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="50" t="s">
+      <c r="D10" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="E10" s="50" t="s">
+      <c r="E10" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="F10" s="52" t="s">
+      <c r="F10" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="G10" s="68" t="s">
+      <c r="G10" s="63" t="s">
         <v>37</v>
       </c>
       <c r="H10" s="1" t="s">
@@ -2514,51 +4084,52 @@
       <c r="M10" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="N10" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="O10" s="1" t="s">
+      <c r="N10" s="37"/>
+      <c r="O10" s="2" t="s">
         <v>37</v>
       </c>
       <c r="P10" s="1" t="s">
         <v>37</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>90</v>
+        <v>37</v>
       </c>
       <c r="R10" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="S10" s="37" t="s">
-        <v>33</v>
-      </c>
-      <c r="T10" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="U10" s="37" t="s">
-        <v>33</v>
-      </c>
-      <c r="V10" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="2:22">
+      <c r="S10" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="T10" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="U10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V10" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="W10" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="2:23">
       <c r="B11" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="49" t="s">
+      <c r="C11" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="D11" s="50" t="s">
+      <c r="D11" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="E11" s="50" t="s">
+      <c r="E11" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="F11" s="52" t="s">
+      <c r="F11" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="G11" s="68" t="s">
+      <c r="G11" s="63" t="s">
         <v>42</v>
       </c>
       <c r="H11" s="1" t="s">
@@ -2579,51 +4150,52 @@
       <c r="M11" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="N11" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="O11" s="1" t="s">
-        <v>45</v>
+      <c r="N11" s="37"/>
+      <c r="O11" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="P11" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="Q11" s="30" t="s">
+      <c r="Q11" s="1" t="s">
         <v>45</v>
       </c>
       <c r="R11" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="S11" s="37" t="s">
-        <v>33</v>
-      </c>
-      <c r="T11" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="U11" s="37" t="s">
-        <v>33</v>
-      </c>
-      <c r="V11" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="2:22">
+      <c r="S11" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="T11" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="U11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V11" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="W11" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="2:23">
       <c r="B12" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="49" t="s">
+      <c r="C12" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="D12" s="50" t="s">
+      <c r="D12" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="E12" s="50" t="s">
+      <c r="E12" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="F12" s="52" t="s">
-        <v>42</v>
-      </c>
-      <c r="G12" s="68" t="s">
+      <c r="F12" s="47" t="s">
+        <v>42</v>
+      </c>
+      <c r="G12" s="63" t="s">
         <v>42</v>
       </c>
       <c r="H12" s="1" t="s">
@@ -2644,51 +4216,52 @@
       <c r="M12" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="N12" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="O12" s="1" t="s">
+      <c r="N12" s="37"/>
+      <c r="O12" s="2" t="s">
         <v>45</v>
       </c>
       <c r="P12" s="1" t="s">
         <v>45</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R12" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="S12" s="37" t="s">
+      <c r="S12" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="T12" s="1" t="s">
+      <c r="T12" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="U12" s="37" t="s">
+      <c r="U12" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="V12" s="3" t="s">
+      <c r="V12" s="37" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="13" spans="2:22">
+      <c r="W12" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="2:23">
       <c r="B13" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="49" t="s">
+      <c r="C13" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="50" t="s">
+      <c r="D13" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="E13" s="50" t="s">
+      <c r="E13" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="F13" s="52" t="s">
+      <c r="F13" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="G13" s="68" t="s">
+      <c r="G13" s="63" t="s">
         <v>42</v>
       </c>
       <c r="H13" s="1" t="s">
@@ -2709,10 +4282,8 @@
       <c r="M13" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="N13" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="O13" s="1" t="s">
+      <c r="N13" s="37"/>
+      <c r="O13" s="2" t="s">
         <v>44</v>
       </c>
       <c r="P13" s="1" t="s">
@@ -2724,36 +4295,39 @@
       <c r="R13" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="S13" s="37" t="s">
+      <c r="S13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="T13" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="T13" s="1" t="s">
+      <c r="U13" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="U13" s="37" t="s">
+      <c r="V13" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="V13" s="3" t="s">
+      <c r="W13" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="2:22">
+    <row r="14" spans="2:23">
       <c r="B14" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="C14" s="49" t="s">
-        <v>45</v>
-      </c>
-      <c r="D14" s="50" t="s">
-        <v>45</v>
-      </c>
-      <c r="E14" s="50" t="s">
-        <v>45</v>
-      </c>
-      <c r="F14" s="52" t="s">
-        <v>45</v>
-      </c>
-      <c r="G14" s="68" t="s">
+      <c r="C14" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14" s="47" t="s">
+        <v>45</v>
+      </c>
+      <c r="G14" s="63" t="s">
         <v>45</v>
       </c>
       <c r="H14" s="1" t="s">
@@ -2774,10 +4348,8 @@
       <c r="M14" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="N14" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="O14" s="1" t="s">
+      <c r="N14" s="37"/>
+      <c r="O14" s="2" t="s">
         <v>45</v>
       </c>
       <c r="P14" s="1" t="s">
@@ -2789,36 +4361,39 @@
       <c r="R14" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="S14" s="37" t="s">
+      <c r="S14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T14" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="T14" s="1" t="s">
+      <c r="U14" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="U14" s="37" t="s">
+      <c r="V14" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="V14" s="3" t="s">
+      <c r="W14" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="2:22">
+    <row r="15" spans="2:23">
       <c r="B15" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="C15" s="49" t="s">
+      <c r="C15" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="D15" s="50" t="s">
+      <c r="D15" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="E15" s="50" t="s">
+      <c r="E15" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="F15" s="52" t="s">
+      <c r="F15" s="47" t="s">
         <v>51</v>
       </c>
-      <c r="G15" s="68" t="s">
+      <c r="G15" s="63" t="s">
         <v>52</v>
       </c>
       <c r="H15" s="1" t="s">
@@ -2839,51 +4414,52 @@
       <c r="M15" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="N15" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="O15" s="1" t="s">
+      <c r="N15" s="37"/>
+      <c r="O15" s="2" t="s">
         <v>106</v>
       </c>
       <c r="P15" s="1" t="s">
         <v>106</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="R15" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="S15" s="37" t="s">
-        <v>33</v>
-      </c>
-      <c r="T15" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="U15" s="37" t="s">
-        <v>33</v>
-      </c>
-      <c r="V15" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="2:22">
+      <c r="S15" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="T15" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="U15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V15" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="W15" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="2:23">
       <c r="B16" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="C16" s="49" t="s">
-        <v>45</v>
-      </c>
-      <c r="D16" s="50" t="s">
-        <v>45</v>
-      </c>
-      <c r="E16" s="50" t="s">
-        <v>45</v>
-      </c>
-      <c r="F16" s="52" t="s">
-        <v>45</v>
-      </c>
-      <c r="G16" s="68" t="s">
+      <c r="C16" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="F16" s="47" t="s">
+        <v>45</v>
+      </c>
+      <c r="G16" s="63" t="s">
         <v>39</v>
       </c>
       <c r="H16" s="1" t="s">
@@ -2904,10 +4480,8 @@
       <c r="M16" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="N16" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="O16" s="1" t="s">
+      <c r="N16" s="37"/>
+      <c r="O16" s="2" t="s">
         <v>45</v>
       </c>
       <c r="P16" s="1" t="s">
@@ -2919,36 +4493,39 @@
       <c r="R16" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="S16" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="T16" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="U16" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="V16" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" spans="2:22">
+      <c r="S16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T16" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="U16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="V16" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="W16" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="2:23">
       <c r="B17" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="C17" s="49" t="s">
-        <v>42</v>
-      </c>
-      <c r="D17" s="50" t="s">
-        <v>42</v>
-      </c>
-      <c r="E17" s="50" t="s">
-        <v>42</v>
-      </c>
-      <c r="F17" s="52" t="s">
+      <c r="C17" s="44" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="F17" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="G17" s="68" t="s">
+      <c r="G17" s="63" t="s">
         <v>39</v>
       </c>
       <c r="H17" s="1" t="s">
@@ -2969,51 +4546,52 @@
       <c r="M17" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="N17" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="O17" s="1" t="s">
+      <c r="N17" s="37"/>
+      <c r="O17" s="2" t="s">
         <v>42</v>
       </c>
       <c r="P17" s="1" t="s">
         <v>42</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="R17" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="S17" s="37" t="s">
-        <v>33</v>
-      </c>
-      <c r="T17" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="U17" s="37" t="s">
-        <v>33</v>
-      </c>
-      <c r="V17" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="2:22" ht="29.25" customHeight="1">
+      <c r="S17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="T17" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="U17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V17" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="W17" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="2:23" ht="29.25" customHeight="1">
       <c r="B18" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="C18" s="49" t="s">
+      <c r="C18" s="44" t="s">
         <v>69</v>
       </c>
-      <c r="D18" s="50" t="s">
+      <c r="D18" s="45" t="s">
         <v>69</v>
       </c>
-      <c r="E18" s="50" t="s">
+      <c r="E18" s="45" t="s">
         <v>69</v>
       </c>
-      <c r="F18" s="52" t="s">
+      <c r="F18" s="47" t="s">
         <v>69</v>
       </c>
-      <c r="G18" s="68" t="s">
+      <c r="G18" s="63" t="s">
         <v>71</v>
       </c>
       <c r="H18" s="1" t="s">
@@ -3034,43 +4612,44 @@
       <c r="M18" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="N18" s="2" t="s">
+      <c r="N18" s="37"/>
+      <c r="O18" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="O18" s="1" t="s">
-        <v>73</v>
       </c>
       <c r="P18" s="1" t="s">
         <v>73</v>
       </c>
       <c r="Q18" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="R18" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="R18" s="1" t="s">
+      <c r="S18" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="S18" s="38" t="s">
+      <c r="T18" s="38" t="s">
         <v>111</v>
       </c>
-      <c r="T18" s="30" t="s">
+      <c r="U18" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="U18" s="38" t="s">
+      <c r="V18" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="V18" s="3" t="s">
+      <c r="W18" s="3" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="19" spans="2:22">
+    <row r="19" spans="2:23">
       <c r="B19" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="C19" s="49"/>
-      <c r="D19" s="50"/>
-      <c r="E19" s="50"/>
-      <c r="F19" s="52"/>
-      <c r="G19" s="68" t="s">
+      <c r="C19" s="44"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="45"/>
+      <c r="F19" s="47"/>
+      <c r="G19" s="63" t="s">
         <v>102</v>
       </c>
       <c r="H19" s="1" t="s">
@@ -3085,11 +4664,9 @@
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="M19" s="34"/>
-      <c r="N19" s="2" t="s">
+      <c r="N19" s="34"/>
+      <c r="O19" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="O19" s="1" t="s">
-        <v>79</v>
       </c>
       <c r="P19" s="1" t="s">
         <v>79</v>
@@ -3098,39 +4675,40 @@
         <v>79</v>
       </c>
       <c r="R19" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="S19" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="S19" s="37" t="s">
+      <c r="T19" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="T19" s="1" t="s">
+      <c r="U19" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="U19" s="37" t="s">
+      <c r="V19" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="V19" s="3" t="s">
+      <c r="W19" s="3" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="20" spans="2:22">
+    <row r="20" spans="2:23">
       <c r="B20" s="11"/>
-      <c r="C20" s="49"/>
-      <c r="D20" s="50"/>
-      <c r="E20" s="50"/>
-      <c r="F20" s="52"/>
-      <c r="G20" s="68"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="63"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
       <c r="M20" s="34"/>
-      <c r="N20" s="2" t="s">
+      <c r="N20" s="34"/>
+      <c r="O20" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="O20" s="1" t="s">
-        <v>81</v>
       </c>
       <c r="P20" s="1" t="s">
         <v>81</v>
@@ -3141,36 +4719,39 @@
       <c r="R20" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="S20" s="37" t="s">
+      <c r="S20" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="T20" s="1" t="s">
+      <c r="T20" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="U20" s="37" t="s">
+      <c r="U20" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="V20" s="3" t="s">
+      <c r="V20" s="37" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="21" spans="2:22">
+      <c r="W20" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21" spans="2:23">
       <c r="B21" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="C21" s="49" t="s">
+      <c r="C21" s="44" t="s">
         <v>114</v>
       </c>
-      <c r="D21" s="50" t="s">
+      <c r="D21" s="45" t="s">
         <v>113</v>
       </c>
-      <c r="E21" s="50" t="s">
+      <c r="E21" s="45" t="s">
         <v>113</v>
       </c>
-      <c r="F21" s="52" t="s">
+      <c r="F21" s="47" t="s">
         <v>113</v>
       </c>
-      <c r="G21" s="68" t="s">
+      <c r="G21" s="63" t="s">
         <v>114</v>
       </c>
       <c r="H21" s="1" t="s">
@@ -3185,11 +4766,9 @@
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
       <c r="M21" s="34"/>
-      <c r="N21" s="2" t="s">
+      <c r="N21" s="34"/>
+      <c r="O21" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="O21" s="1" t="s">
-        <v>116</v>
       </c>
       <c r="P21" s="1" t="s">
         <v>116</v>
@@ -3200,36 +4779,39 @@
       <c r="R21" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="S21" s="37" t="s">
+      <c r="S21" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="T21" s="34" t="s">
+      <c r="T21" s="37" t="s">
         <v>116</v>
       </c>
       <c r="U21" s="34" t="s">
         <v>116</v>
       </c>
-      <c r="V21" s="3" t="s">
+      <c r="V21" s="34" t="s">
+        <v>116</v>
+      </c>
+      <c r="W21" s="3" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="22" spans="2:22">
+    <row r="22" spans="2:23">
       <c r="B22" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="C22" s="49" t="s">
+      <c r="C22" s="44" t="s">
         <v>122</v>
       </c>
-      <c r="D22" s="50" t="s">
+      <c r="D22" s="45" t="s">
         <v>123</v>
       </c>
-      <c r="E22" s="50" t="s">
+      <c r="E22" s="45" t="s">
         <v>124</v>
       </c>
-      <c r="F22" s="52" t="s">
+      <c r="F22" s="47" t="s">
         <v>125</v>
       </c>
-      <c r="G22" s="68" t="s">
+      <c r="G22" s="63" t="s">
         <v>121</v>
       </c>
       <c r="H22" s="1" t="s">
@@ -3244,133 +4826,136 @@
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
       <c r="M22" s="34"/>
-      <c r="N22" s="2" t="s">
+      <c r="N22" s="34"/>
+      <c r="O22" s="2" t="s">
         <v>144</v>
-      </c>
-      <c r="O22" s="1" t="s">
-        <v>143</v>
       </c>
       <c r="P22" s="1" t="s">
         <v>143</v>
       </c>
       <c r="Q22" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="R22" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="R22" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="S22" s="37" t="s">
-        <v>33</v>
-      </c>
-      <c r="T22" s="34" t="s">
+      <c r="S22" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="T22" s="37" t="s">
         <v>33</v>
       </c>
       <c r="U22" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="V22" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="23" spans="2:22">
-      <c r="B23" s="56" t="s">
+      <c r="V22" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="W22" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="2:23">
+      <c r="B23" s="51" t="s">
         <v>127</v>
       </c>
-      <c r="C23" s="57" t="s">
+      <c r="C23" s="52" t="s">
         <v>133</v>
       </c>
-      <c r="D23" s="58" t="s">
+      <c r="D23" s="53" t="s">
         <v>132</v>
       </c>
-      <c r="E23" s="58" t="s">
+      <c r="E23" s="53" t="s">
         <v>132</v>
       </c>
-      <c r="F23" s="59" t="s">
+      <c r="F23" s="54" t="s">
         <v>132</v>
       </c>
-      <c r="G23" s="69" t="s">
+      <c r="G23" s="64" t="s">
         <v>129</v>
       </c>
-      <c r="H23" s="61" t="s">
+      <c r="H23" s="56" t="s">
         <v>128</v>
       </c>
-      <c r="I23" s="61" t="s">
+      <c r="I23" s="56" t="s">
         <v>128</v>
       </c>
-      <c r="J23" s="61" t="s">
+      <c r="J23" s="56" t="s">
         <v>128</v>
       </c>
-      <c r="K23" s="61"/>
-      <c r="L23" s="61"/>
-      <c r="M23" s="63"/>
-      <c r="N23" s="60" t="s">
+      <c r="K23" s="56"/>
+      <c r="L23" s="56"/>
+      <c r="M23" s="58"/>
+      <c r="N23" s="58"/>
+      <c r="O23" s="55" t="s">
         <v>128</v>
       </c>
-      <c r="O23" s="61" t="s">
+      <c r="P23" s="56" t="s">
         <v>128</v>
       </c>
-      <c r="P23" s="61" t="s">
+      <c r="Q23" s="56" t="s">
         <v>128</v>
       </c>
-      <c r="Q23" s="61" t="s">
+      <c r="R23" s="56" t="s">
         <v>128</v>
       </c>
-      <c r="R23" s="61" t="s">
+      <c r="S23" s="56" t="s">
         <v>128</v>
       </c>
-      <c r="S23" s="62" t="s">
+      <c r="T23" s="57" t="s">
         <v>128</v>
       </c>
-      <c r="T23" s="63" t="s">
+      <c r="U23" s="58" t="s">
         <v>128</v>
       </c>
-      <c r="U23" s="63" t="s">
+      <c r="V23" s="58" t="s">
         <v>128</v>
       </c>
-      <c r="V23" s="64" t="s">
+      <c r="W23" s="59" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="24" spans="2:22" ht="14.25" thickBot="1">
+    <row r="24" spans="2:23" ht="14.25" thickBot="1">
       <c r="B24" s="9"/>
-      <c r="C24" s="53"/>
-      <c r="D24" s="54"/>
-      <c r="E24" s="54"/>
-      <c r="F24" s="55"/>
-      <c r="G24" s="70"/>
+      <c r="C24" s="48"/>
+      <c r="D24" s="49"/>
+      <c r="E24" s="49"/>
+      <c r="F24" s="50"/>
+      <c r="G24" s="65"/>
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
       <c r="K24" s="6"/>
       <c r="L24" s="6"/>
       <c r="M24" s="35"/>
-      <c r="N24" s="5"/>
-      <c r="O24" s="6"/>
+      <c r="N24" s="35"/>
+      <c r="O24" s="5"/>
       <c r="P24" s="6"/>
       <c r="Q24" s="6"/>
       <c r="R24" s="6"/>
-      <c r="S24" s="41"/>
-      <c r="T24" s="35"/>
+      <c r="S24" s="6"/>
+      <c r="T24" s="41"/>
       <c r="U24" s="35"/>
-      <c r="V24" s="7"/>
-    </row>
-    <row r="27" spans="2:22">
+      <c r="V24" s="35"/>
+      <c r="W24" s="7"/>
+    </row>
+    <row r="27" spans="2:23">
       <c r="B27" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="28" spans="2:22">
-      <c r="B28" s="65" t="s">
+    <row r="28" spans="2:23">
+      <c r="B28" s="60" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="30" spans="2:22">
+    <row r="30" spans="2:23">
       <c r="B30" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="31" spans="2:22">
-      <c r="B31" s="65" t="s">
+    <row r="31" spans="2:23">
+      <c r="B31" s="60" t="s">
         <v>138</v>
       </c>
     </row>
@@ -3380,7 +4965,7 @@
       </c>
     </row>
     <row r="34" spans="2:2">
-      <c r="B34" s="65" t="s">
+      <c r="B34" s="60" t="s">
         <v>137</v>
       </c>
     </row>
@@ -3390,7 +4975,7 @@
       </c>
     </row>
     <row r="37" spans="2:2">
-      <c r="B37" s="65" t="s">
+      <c r="B37" s="60" t="s">
         <v>136</v>
       </c>
     </row>
@@ -3400,24 +4985,24 @@
       </c>
     </row>
     <row r="40" spans="2:2">
-      <c r="B40" s="66" t="s">
+      <c r="B40" s="61" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="41" spans="2:2">
-      <c r="B41" s="65" t="s">
+      <c r="B41" s="60" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="42" spans="2:2">
-      <c r="B42" s="65" t="s">
+      <c r="B42" s="60" t="s">
         <v>140</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="C4:F4"/>
-    <mergeCell ref="G4:V4"/>
+    <mergeCell ref="G4:W4"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
@@ -3434,7 +5019,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:S35"/>
   <sheetViews>
@@ -3469,27 +5054,27 @@
     <row r="3" spans="2:19" ht="14.25" thickBot="1"/>
     <row r="4" spans="2:19" ht="21.75" thickBot="1">
       <c r="B4" s="8"/>
-      <c r="C4" s="44" t="s">
+      <c r="C4" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="47" t="s">
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="45"/>
-      <c r="K4" s="45"/>
-      <c r="L4" s="45"/>
-      <c r="M4" s="45"/>
-      <c r="N4" s="45"/>
-      <c r="O4" s="45"/>
-      <c r="P4" s="45"/>
-      <c r="Q4" s="48"/>
-      <c r="R4" s="48"/>
-      <c r="S4" s="46"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="73"/>
+      <c r="K4" s="73"/>
+      <c r="L4" s="73"/>
+      <c r="M4" s="73"/>
+      <c r="N4" s="73"/>
+      <c r="O4" s="73"/>
+      <c r="P4" s="73"/>
+      <c r="Q4" s="76"/>
+      <c r="R4" s="76"/>
+      <c r="S4" s="74"/>
     </row>
     <row r="5" spans="2:19" ht="18" thickBot="1">
       <c r="B5" s="9" t="s">
@@ -4452,7 +6037,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:O35"/>
   <sheetViews>
@@ -4487,23 +6072,23 @@
     <row r="3" spans="2:15" ht="14.25" thickBot="1"/>
     <row r="4" spans="2:15" ht="21.75" thickBot="1">
       <c r="B4" s="8"/>
-      <c r="C4" s="44" t="s">
+      <c r="C4" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="47" t="s">
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="45"/>
-      <c r="I4" s="45"/>
-      <c r="J4" s="45"/>
-      <c r="K4" s="45"/>
-      <c r="L4" s="45"/>
-      <c r="M4" s="45"/>
-      <c r="N4" s="45"/>
-      <c r="O4" s="46"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73"/>
+      <c r="K4" s="73"/>
+      <c r="L4" s="73"/>
+      <c r="M4" s="73"/>
+      <c r="N4" s="73"/>
+      <c r="O4" s="74"/>
     </row>
     <row r="5" spans="2:15" ht="18" thickBot="1">
       <c r="B5" s="9" t="s">

--- a/msx3gen/files/msx_gen3.xlsx
+++ b/msx3gen/files/msx_gen3.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1313" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1316" uniqueCount="171">
   <si>
     <t>旧来のMSX</t>
     <rPh sb="0" eb="2">
@@ -960,6 +960,33 @@
   </si>
   <si>
     <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>旧MSX</t>
+    <rPh sb="0" eb="1">
+      <t>キュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>商品化済み</t>
+    <rPh sb="0" eb="3">
+      <t>ショウヒンカ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>不明確な点</t>
+    <rPh sb="0" eb="3">
+      <t>フメイカク</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>テン</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1059,7 +1086,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1108,6 +1135,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="40">
     <border>
@@ -1633,7 +1666,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1835,6 +1868,78 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="30" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="33" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1865,76 +1970,13 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="30" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="33" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2225,10 +2267,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:V48"/>
+  <dimension ref="B1:V48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2251,139 +2293,152 @@
     <col min="23" max="23" width="15.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="2:22">
+      <c r="F1" s="101" t="s">
+        <v>168</v>
+      </c>
+    </row>
     <row r="2" spans="2:22">
       <c r="B2" s="29" t="s">
         <v>54</v>
       </c>
+      <c r="F2" s="102" t="s">
+        <v>169</v>
+      </c>
       <c r="V2" t="s">
         <v>157</v>
       </c>
     </row>
+    <row r="3" spans="2:22">
+      <c r="F3" s="103" t="s">
+        <v>170</v>
+      </c>
+    </row>
     <row r="4" spans="2:22" ht="14.25" thickBot="1"/>
     <row r="5" spans="2:22" ht="14.25" thickBot="1">
-      <c r="B5" s="87"/>
-      <c r="C5" s="89" t="s">
+      <c r="B5" s="74"/>
+      <c r="C5" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="90" t="s">
+      <c r="D5" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="88" t="s">
+      <c r="E5" s="75" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="88" t="s">
+      <c r="F5" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="88" t="s">
+      <c r="G5" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="H5" s="88" t="s">
+      <c r="H5" s="75" t="s">
         <v>35</v>
       </c>
-      <c r="I5" s="88" t="s">
+      <c r="I5" s="75" t="s">
         <v>38</v>
       </c>
-      <c r="J5" s="88" t="s">
+      <c r="J5" s="75" t="s">
         <v>41</v>
       </c>
-      <c r="K5" s="88" t="s">
+      <c r="K5" s="75" t="s">
         <v>43</v>
       </c>
-      <c r="L5" s="88" t="s">
+      <c r="L5" s="75" t="s">
         <v>48</v>
       </c>
-      <c r="M5" s="88" t="s">
+      <c r="M5" s="75" t="s">
         <v>49</v>
       </c>
-      <c r="N5" s="88" t="s">
+      <c r="N5" s="75" t="s">
         <v>53</v>
       </c>
-      <c r="O5" s="88" t="s">
+      <c r="O5" s="75" t="s">
         <v>55</v>
       </c>
-      <c r="P5" s="88" t="s">
+      <c r="P5" s="75" t="s">
         <v>68</v>
       </c>
-      <c r="Q5" s="88" t="s">
+      <c r="Q5" s="75" t="s">
         <v>78</v>
       </c>
-      <c r="R5" s="88"/>
-      <c r="S5" s="88" t="s">
+      <c r="R5" s="75"/>
+      <c r="S5" s="75" t="s">
         <v>112</v>
       </c>
-      <c r="T5" s="88" t="s">
+      <c r="T5" s="75" t="s">
         <v>120</v>
       </c>
-      <c r="U5" s="88" t="s">
+      <c r="U5" s="75" t="s">
         <v>127</v>
       </c>
-      <c r="V5" s="89"/>
+      <c r="V5" s="76"/>
     </row>
     <row r="6" spans="2:22" ht="17.25">
-      <c r="B6" s="84" t="s">
+      <c r="B6" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="96" t="s">
+      <c r="C6" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="91" t="s">
+      <c r="D6" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="85" t="s">
+      <c r="E6" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="85" t="s">
+      <c r="F6" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="85" t="s">
+      <c r="G6" s="72" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="85" t="s">
+      <c r="H6" s="72" t="s">
         <v>36</v>
       </c>
-      <c r="I6" s="85" t="s">
+      <c r="I6" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="J6" s="85" t="s">
+      <c r="J6" s="72" t="s">
         <v>40</v>
       </c>
-      <c r="K6" s="85" t="s">
+      <c r="K6" s="72" t="s">
         <v>44</v>
       </c>
-      <c r="L6" s="85" t="s">
-        <v>45</v>
-      </c>
-      <c r="M6" s="85" t="s">
+      <c r="L6" s="72" t="s">
+        <v>45</v>
+      </c>
+      <c r="M6" s="72" t="s">
         <v>50</v>
       </c>
-      <c r="N6" s="85" t="s">
-        <v>45</v>
-      </c>
-      <c r="O6" s="85" t="s">
-        <v>42</v>
-      </c>
-      <c r="P6" s="85" t="s">
+      <c r="N6" s="72" t="s">
+        <v>45</v>
+      </c>
+      <c r="O6" s="72" t="s">
+        <v>42</v>
+      </c>
+      <c r="P6" s="72" t="s">
         <v>69</v>
       </c>
-      <c r="Q6" s="85"/>
-      <c r="R6" s="85"/>
-      <c r="S6" s="85" t="s">
+      <c r="Q6" s="72"/>
+      <c r="R6" s="72"/>
+      <c r="S6" s="72" t="s">
         <v>114</v>
       </c>
-      <c r="T6" s="85" t="s">
+      <c r="T6" s="72" t="s">
         <v>122</v>
       </c>
-      <c r="U6" s="85" t="s">
+      <c r="U6" s="72" t="s">
         <v>133</v>
       </c>
-      <c r="V6" s="86"/>
+      <c r="V6" s="73"/>
     </row>
     <row r="7" spans="2:22" ht="17.25">
-      <c r="B7" s="80"/>
-      <c r="C7" s="97" t="s">
+      <c r="B7" s="89"/>
+      <c r="C7" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="92" t="s">
+      <c r="D7" s="79" t="s">
         <v>5</v>
       </c>
       <c r="E7" s="45" t="s">
@@ -2436,11 +2491,11 @@
       <c r="V7" s="47"/>
     </row>
     <row r="8" spans="2:22" ht="17.25">
-      <c r="B8" s="80"/>
-      <c r="C8" s="97" t="s">
+      <c r="B8" s="89"/>
+      <c r="C8" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="92" t="s">
+      <c r="D8" s="79" t="s">
         <v>5</v>
       </c>
       <c r="E8" s="45" t="s">
@@ -2493,14 +2548,14 @@
       <c r="V8" s="47"/>
     </row>
     <row r="9" spans="2:22" ht="27">
-      <c r="B9" s="80"/>
-      <c r="C9" s="97" t="s">
+      <c r="B9" s="89"/>
+      <c r="C9" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="92" t="s">
+      <c r="D9" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="77" t="s">
+      <c r="E9" s="67" t="s">
         <v>19</v>
       </c>
       <c r="F9" s="45" t="s">
@@ -2550,72 +2605,72 @@
       <c r="V9" s="47"/>
     </row>
     <row r="10" spans="2:22" ht="40.5">
-      <c r="B10" s="80" t="s">
+      <c r="B10" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="97" t="s">
+      <c r="C10" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="93" t="s">
+      <c r="D10" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="78" t="s">
+      <c r="E10" s="68" t="s">
         <v>20</v>
       </c>
-      <c r="F10" s="79" t="s">
+      <c r="F10" s="69" t="s">
         <v>30</v>
       </c>
-      <c r="G10" s="78" t="s">
+      <c r="G10" s="68" t="s">
         <v>56</v>
       </c>
-      <c r="H10" s="79" t="s">
+      <c r="H10" s="69" t="s">
         <v>37</v>
       </c>
-      <c r="I10" s="79" t="s">
-        <v>42</v>
-      </c>
-      <c r="J10" s="79" t="s">
-        <v>42</v>
-      </c>
-      <c r="K10" s="79" t="s">
-        <v>42</v>
-      </c>
-      <c r="L10" s="79" t="s">
-        <v>45</v>
-      </c>
-      <c r="M10" s="79" t="s">
+      <c r="I10" s="69" t="s">
+        <v>42</v>
+      </c>
+      <c r="J10" s="69" t="s">
+        <v>42</v>
+      </c>
+      <c r="K10" s="69" t="s">
+        <v>42</v>
+      </c>
+      <c r="L10" s="69" t="s">
+        <v>45</v>
+      </c>
+      <c r="M10" s="69" t="s">
         <v>52</v>
       </c>
-      <c r="N10" s="79" t="s">
+      <c r="N10" s="69" t="s">
         <v>39</v>
       </c>
-      <c r="O10" s="79" t="s">
+      <c r="O10" s="69" t="s">
         <v>39</v>
       </c>
-      <c r="P10" s="79" t="s">
+      <c r="P10" s="69" t="s">
         <v>71</v>
       </c>
-      <c r="Q10" s="79" t="s">
+      <c r="Q10" s="69" t="s">
         <v>102</v>
       </c>
-      <c r="R10" s="79"/>
-      <c r="S10" s="79" t="s">
+      <c r="R10" s="69"/>
+      <c r="S10" s="69" t="s">
         <v>114</v>
       </c>
-      <c r="T10" s="79" t="s">
+      <c r="T10" s="69" t="s">
         <v>121</v>
       </c>
-      <c r="U10" s="79" t="s">
+      <c r="U10" s="69" t="s">
         <v>129</v>
       </c>
-      <c r="V10" s="81"/>
+      <c r="V10" s="70"/>
     </row>
     <row r="11" spans="2:22" ht="40.5">
-      <c r="B11" s="80"/>
-      <c r="C11" s="97" t="s">
+      <c r="B11" s="89"/>
+      <c r="C11" s="84" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="93" t="s">
+      <c r="D11" s="80" t="s">
         <v>15</v>
       </c>
       <c r="E11" s="30" t="s">
@@ -2661,7 +2716,7 @@
       <c r="S11" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="T11" s="99" t="s">
+      <c r="T11" s="86" t="s">
         <v>126</v>
       </c>
       <c r="U11" s="1" t="s">
@@ -2670,11 +2725,11 @@
       <c r="V11" s="3"/>
     </row>
     <row r="12" spans="2:22" ht="40.5">
-      <c r="B12" s="80"/>
-      <c r="C12" s="97" t="s">
+      <c r="B12" s="89"/>
+      <c r="C12" s="84" t="s">
         <v>104</v>
       </c>
-      <c r="D12" s="93" t="s">
+      <c r="D12" s="80" t="s">
         <v>15</v>
       </c>
       <c r="E12" s="30" t="s">
@@ -2720,7 +2775,7 @@
       <c r="S12" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="T12" s="99" t="s">
+      <c r="T12" s="86" t="s">
         <v>141</v>
       </c>
       <c r="U12" s="1" t="s">
@@ -2729,11 +2784,11 @@
       <c r="V12" s="3"/>
     </row>
     <row r="13" spans="2:22" ht="40.5">
-      <c r="B13" s="80"/>
-      <c r="C13" s="97" t="s">
+      <c r="B13" s="89"/>
+      <c r="C13" s="84" t="s">
         <v>105</v>
       </c>
-      <c r="D13" s="93" t="s">
+      <c r="D13" s="80" t="s">
         <v>15</v>
       </c>
       <c r="E13" s="30" t="s">
@@ -2779,7 +2834,7 @@
       <c r="S13" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="T13" s="99" t="s">
+      <c r="T13" s="86" t="s">
         <v>142</v>
       </c>
       <c r="U13" s="1" t="s">
@@ -2788,11 +2843,11 @@
       <c r="V13" s="3"/>
     </row>
     <row r="14" spans="2:22" ht="54">
-      <c r="B14" s="80"/>
-      <c r="C14" s="97" t="s">
+      <c r="B14" s="89"/>
+      <c r="C14" s="84" t="s">
         <v>148</v>
       </c>
-      <c r="D14" s="93" t="s">
+      <c r="D14" s="80" t="s">
         <v>161</v>
       </c>
       <c r="E14" s="30" t="s">
@@ -2838,7 +2893,7 @@
       <c r="S14" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="T14" s="99" t="s">
+      <c r="T14" s="86" t="s">
         <v>163</v>
       </c>
       <c r="U14" s="1" t="s">
@@ -2847,11 +2902,11 @@
       <c r="V14" s="3"/>
     </row>
     <row r="15" spans="2:22" ht="40.5">
-      <c r="B15" s="80"/>
-      <c r="C15" s="97" t="s">
+      <c r="B15" s="89"/>
+      <c r="C15" s="84" t="s">
         <v>146</v>
       </c>
-      <c r="D15" s="93" t="s">
+      <c r="D15" s="80" t="s">
         <v>161</v>
       </c>
       <c r="E15" s="30" t="s">
@@ -2897,7 +2952,7 @@
       <c r="S15" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="T15" s="99" t="s">
+      <c r="T15" s="86" t="s">
         <v>163</v>
       </c>
       <c r="U15" s="1" t="s">
@@ -2906,11 +2961,11 @@
       <c r="V15" s="3"/>
     </row>
     <row r="16" spans="2:22" ht="40.5">
-      <c r="B16" s="80"/>
-      <c r="C16" s="97" t="s">
+      <c r="B16" s="89"/>
+      <c r="C16" s="84" t="s">
         <v>147</v>
       </c>
-      <c r="D16" s="93" t="s">
+      <c r="D16" s="80" t="s">
         <v>161</v>
       </c>
       <c r="E16" s="30" t="s">
@@ -2956,7 +3011,7 @@
       <c r="S16" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="T16" s="99" t="s">
+      <c r="T16" s="86" t="s">
         <v>163</v>
       </c>
       <c r="U16" s="1" t="s">
@@ -2965,11 +3020,11 @@
       <c r="V16" s="3"/>
     </row>
     <row r="17" spans="2:22" ht="40.5">
-      <c r="B17" s="80"/>
-      <c r="C17" s="97" t="s">
+      <c r="B17" s="89"/>
+      <c r="C17" s="84" t="s">
         <v>160</v>
       </c>
-      <c r="D17" s="93" t="s">
+      <c r="D17" s="80" t="s">
         <v>161</v>
       </c>
       <c r="E17" s="30" t="s">
@@ -3015,7 +3070,7 @@
       <c r="S17" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="T17" s="99" t="s">
+      <c r="T17" s="86" t="s">
         <v>163</v>
       </c>
       <c r="U17" s="1" t="s">
@@ -3024,11 +3079,11 @@
       <c r="V17" s="3"/>
     </row>
     <row r="18" spans="2:22" ht="17.25">
-      <c r="B18" s="80"/>
-      <c r="C18" s="97" t="s">
+      <c r="B18" s="89"/>
+      <c r="C18" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="94" t="s">
+      <c r="D18" s="81" t="s">
         <v>16</v>
       </c>
       <c r="E18" s="1" t="s">
@@ -3076,7 +3131,7 @@
       <c r="S18" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="T18" s="99" t="s">
+      <c r="T18" s="86" t="s">
         <v>144</v>
       </c>
       <c r="U18" s="1" t="s">
@@ -3085,11 +3140,11 @@
       <c r="V18" s="3"/>
     </row>
     <row r="19" spans="2:22" ht="17.25">
-      <c r="B19" s="80"/>
-      <c r="C19" s="97" t="s">
+      <c r="B19" s="89"/>
+      <c r="C19" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="D19" s="94" t="s">
+      <c r="D19" s="81" t="s">
         <v>16</v>
       </c>
       <c r="E19" s="1" t="s">
@@ -3137,7 +3192,7 @@
       <c r="S19" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="T19" s="99" t="s">
+      <c r="T19" s="86" t="s">
         <v>143</v>
       </c>
       <c r="U19" s="1" t="s">
@@ -3146,11 +3201,11 @@
       <c r="V19" s="3"/>
     </row>
     <row r="20" spans="2:22" ht="17.25">
-      <c r="B20" s="80"/>
-      <c r="C20" s="97" t="s">
+      <c r="B20" s="89"/>
+      <c r="C20" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="D20" s="94" t="s">
+      <c r="D20" s="81" t="s">
         <v>16</v>
       </c>
       <c r="E20" s="1" t="s">
@@ -3198,7 +3253,7 @@
       <c r="S20" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="T20" s="99" t="s">
+      <c r="T20" s="86" t="s">
         <v>143</v>
       </c>
       <c r="U20" s="1" t="s">
@@ -3207,17 +3262,17 @@
       <c r="V20" s="3"/>
     </row>
     <row r="21" spans="2:22" ht="54">
-      <c r="B21" s="80"/>
-      <c r="C21" s="97" t="s">
+      <c r="B21" s="89"/>
+      <c r="C21" s="84" t="s">
         <v>58</v>
       </c>
-      <c r="D21" s="94" t="s">
+      <c r="D21" s="81" t="s">
         <v>60</v>
       </c>
       <c r="E21" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="F21" s="99" t="s">
+      <c r="F21" s="86" t="s">
         <v>62</v>
       </c>
       <c r="G21" s="30" t="s">
@@ -3229,7 +3284,7 @@
       <c r="I21" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="J21" s="99" t="s">
+      <c r="J21" s="86" t="s">
         <v>46</v>
       </c>
       <c r="K21" s="1" t="s">
@@ -3259,7 +3314,7 @@
       <c r="S21" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="T21" s="99" t="s">
+      <c r="T21" s="86" t="s">
         <v>145</v>
       </c>
       <c r="U21" s="1" t="s">
@@ -3268,17 +3323,17 @@
       <c r="V21" s="3"/>
     </row>
     <row r="22" spans="2:22" ht="54">
-      <c r="B22" s="80"/>
-      <c r="C22" s="97" t="s">
+      <c r="B22" s="89"/>
+      <c r="C22" s="84" t="s">
         <v>59</v>
       </c>
-      <c r="D22" s="94" t="s">
+      <c r="D22" s="81" t="s">
         <v>57</v>
       </c>
       <c r="E22" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="F22" s="99" t="s">
+      <c r="F22" s="86" t="s">
         <v>33</v>
       </c>
       <c r="G22" s="30" t="s">
@@ -3290,7 +3345,7 @@
       <c r="I22" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="J22" s="99" t="s">
+      <c r="J22" s="86" t="s">
         <v>46</v>
       </c>
       <c r="K22" s="1" t="s">
@@ -3320,7 +3375,7 @@
       <c r="S22" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="T22" s="99" t="s">
+      <c r="T22" s="86" t="s">
         <v>33</v>
       </c>
       <c r="U22" s="1" t="s">
@@ -3329,44 +3384,44 @@
       <c r="V22" s="3"/>
     </row>
     <row r="23" spans="2:22" ht="67.5">
-      <c r="B23" s="80"/>
-      <c r="C23" s="97" t="s">
+      <c r="B23" s="89"/>
+      <c r="C23" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="D23" s="94" t="s">
+      <c r="D23" s="81" t="s">
         <v>100</v>
       </c>
       <c r="E23" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="F23" s="99" t="s">
+      <c r="F23" s="86" t="s">
         <v>33</v>
       </c>
       <c r="G23" s="30" t="s">
         <v>154</v>
       </c>
-      <c r="H23" s="99" t="s">
-        <v>33</v>
-      </c>
-      <c r="I23" s="99" t="s">
-        <v>33</v>
-      </c>
-      <c r="J23" s="99" t="s">
+      <c r="H23" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="I23" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="J23" s="86" t="s">
         <v>46</v>
       </c>
-      <c r="K23" s="99" t="s">
+      <c r="K23" s="86" t="s">
         <v>47</v>
       </c>
-      <c r="L23" s="99" t="s">
+      <c r="L23" s="86" t="s">
         <v>47</v>
       </c>
-      <c r="M23" s="99" t="s">
+      <c r="M23" s="86" t="s">
         <v>33</v>
       </c>
       <c r="N23" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="O23" s="99" t="s">
+      <c r="O23" s="86" t="s">
         <v>33</v>
       </c>
       <c r="P23" s="30" t="s">
@@ -3381,7 +3436,7 @@
       <c r="S23" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="T23" s="99" t="s">
+      <c r="T23" s="86" t="s">
         <v>33</v>
       </c>
       <c r="U23" s="1" t="s">
@@ -3390,44 +3445,44 @@
       <c r="V23" s="3"/>
     </row>
     <row r="24" spans="2:22" ht="67.5">
-      <c r="B24" s="80"/>
-      <c r="C24" s="97" t="s">
+      <c r="B24" s="89"/>
+      <c r="C24" s="84" t="s">
         <v>94</v>
       </c>
-      <c r="D24" s="94" t="s">
+      <c r="D24" s="81" t="s">
         <v>101</v>
       </c>
       <c r="E24" s="30" t="s">
         <v>96</v>
       </c>
-      <c r="F24" s="99" t="s">
+      <c r="F24" s="86" t="s">
         <v>33</v>
       </c>
       <c r="G24" s="30" t="s">
         <v>155</v>
       </c>
-      <c r="H24" s="99" t="s">
-        <v>33</v>
-      </c>
-      <c r="I24" s="99" t="s">
-        <v>33</v>
-      </c>
-      <c r="J24" s="99" t="s">
+      <c r="H24" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="I24" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="J24" s="86" t="s">
         <v>46</v>
       </c>
-      <c r="K24" s="99" t="s">
+      <c r="K24" s="86" t="s">
         <v>47</v>
       </c>
-      <c r="L24" s="99" t="s">
+      <c r="L24" s="86" t="s">
         <v>47</v>
       </c>
-      <c r="M24" s="99" t="s">
+      <c r="M24" s="86" t="s">
         <v>33</v>
       </c>
       <c r="N24" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="O24" s="99" t="s">
+      <c r="O24" s="86" t="s">
         <v>33</v>
       </c>
       <c r="P24" s="30" t="s">
@@ -3442,7 +3497,7 @@
       <c r="S24" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="T24" s="99" t="s">
+      <c r="T24" s="86" t="s">
         <v>33</v>
       </c>
       <c r="U24" s="1" t="s">
@@ -3451,44 +3506,44 @@
       <c r="V24" s="3"/>
     </row>
     <row r="25" spans="2:22" ht="67.5">
-      <c r="B25" s="80"/>
-      <c r="C25" s="97" t="s">
+      <c r="B25" s="89"/>
+      <c r="C25" s="84" t="s">
         <v>95</v>
       </c>
-      <c r="D25" s="94" t="s">
+      <c r="D25" s="81" t="s">
         <v>101</v>
       </c>
       <c r="E25" s="30" t="s">
         <v>96</v>
       </c>
-      <c r="F25" s="99" t="s">
+      <c r="F25" s="86" t="s">
         <v>33</v>
       </c>
       <c r="G25" s="30" t="s">
         <v>156</v>
       </c>
-      <c r="H25" s="99" t="s">
-        <v>33</v>
-      </c>
-      <c r="I25" s="99" t="s">
-        <v>33</v>
-      </c>
-      <c r="J25" s="99" t="s">
+      <c r="H25" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="I25" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="J25" s="86" t="s">
         <v>46</v>
       </c>
-      <c r="K25" s="99" t="s">
+      <c r="K25" s="86" t="s">
         <v>47</v>
       </c>
-      <c r="L25" s="99" t="s">
+      <c r="L25" s="86" t="s">
         <v>47</v>
       </c>
-      <c r="M25" s="99" t="s">
+      <c r="M25" s="86" t="s">
         <v>33</v>
       </c>
       <c r="N25" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="O25" s="99" t="s">
+      <c r="O25" s="86" t="s">
         <v>33</v>
       </c>
       <c r="P25" s="30" t="s">
@@ -3503,7 +3558,7 @@
       <c r="S25" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="T25" s="99" t="s">
+      <c r="T25" s="86" t="s">
         <v>33</v>
       </c>
       <c r="U25" s="1" t="s">
@@ -3512,44 +3567,44 @@
       <c r="V25" s="3"/>
     </row>
     <row r="26" spans="2:22" ht="41.25" thickBot="1">
-      <c r="B26" s="82"/>
-      <c r="C26" s="98" t="s">
+      <c r="B26" s="90"/>
+      <c r="C26" s="85" t="s">
         <v>13</v>
       </c>
-      <c r="D26" s="95" t="s">
+      <c r="D26" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="E26" s="83" t="s">
+      <c r="E26" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="F26" s="100" t="s">
-        <v>33</v>
-      </c>
-      <c r="G26" s="100" t="s">
+      <c r="F26" s="87" t="s">
+        <v>33</v>
+      </c>
+      <c r="G26" s="87" t="s">
         <v>85</v>
       </c>
-      <c r="H26" s="100" t="s">
-        <v>33</v>
-      </c>
-      <c r="I26" s="100" t="s">
-        <v>33</v>
-      </c>
-      <c r="J26" s="100" t="s">
+      <c r="H26" s="87" t="s">
+        <v>33</v>
+      </c>
+      <c r="I26" s="87" t="s">
+        <v>33</v>
+      </c>
+      <c r="J26" s="87" t="s">
         <v>46</v>
       </c>
-      <c r="K26" s="100" t="s">
+      <c r="K26" s="87" t="s">
         <v>47</v>
       </c>
-      <c r="L26" s="100" t="s">
+      <c r="L26" s="87" t="s">
         <v>47</v>
       </c>
-      <c r="M26" s="100" t="s">
-        <v>33</v>
-      </c>
-      <c r="N26" s="100" t="s">
-        <v>33</v>
-      </c>
-      <c r="O26" s="100" t="s">
+      <c r="M26" s="87" t="s">
+        <v>33</v>
+      </c>
+      <c r="N26" s="87" t="s">
+        <v>33</v>
+      </c>
+      <c r="O26" s="87" t="s">
         <v>33</v>
       </c>
       <c r="P26" s="6" t="s">
@@ -3564,7 +3619,7 @@
       <c r="S26" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="T26" s="100" t="s">
+      <c r="T26" s="87" t="s">
         <v>33</v>
       </c>
       <c r="U26" s="6" t="s">
@@ -3697,31 +3752,31 @@
     <row r="3" spans="2:23" ht="14.25" thickBot="1"/>
     <row r="4" spans="2:23" ht="21.75" thickBot="1">
       <c r="B4" s="8"/>
-      <c r="C4" s="67" t="s">
+      <c r="C4" s="91" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="70" t="s">
+      <c r="D4" s="92"/>
+      <c r="E4" s="92"/>
+      <c r="F4" s="93"/>
+      <c r="G4" s="94" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="68"/>
-      <c r="K4" s="68"/>
-      <c r="L4" s="68"/>
-      <c r="M4" s="68"/>
-      <c r="N4" s="68"/>
-      <c r="O4" s="68"/>
-      <c r="P4" s="68"/>
-      <c r="Q4" s="68"/>
-      <c r="R4" s="68"/>
-      <c r="S4" s="68"/>
-      <c r="T4" s="68"/>
-      <c r="U4" s="71"/>
-      <c r="V4" s="71"/>
-      <c r="W4" s="69"/>
+      <c r="H4" s="94"/>
+      <c r="I4" s="94"/>
+      <c r="J4" s="92"/>
+      <c r="K4" s="92"/>
+      <c r="L4" s="92"/>
+      <c r="M4" s="92"/>
+      <c r="N4" s="92"/>
+      <c r="O4" s="92"/>
+      <c r="P4" s="92"/>
+      <c r="Q4" s="92"/>
+      <c r="R4" s="92"/>
+      <c r="S4" s="92"/>
+      <c r="T4" s="92"/>
+      <c r="U4" s="95"/>
+      <c r="V4" s="95"/>
+      <c r="W4" s="93"/>
     </row>
     <row r="5" spans="2:23" ht="18" thickBot="1">
       <c r="B5" s="9" t="s">
@@ -5054,27 +5109,27 @@
     <row r="3" spans="2:19" ht="14.25" thickBot="1"/>
     <row r="4" spans="2:19" ht="21.75" thickBot="1">
       <c r="B4" s="8"/>
-      <c r="C4" s="72" t="s">
+      <c r="C4" s="96" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="75" t="s">
+      <c r="D4" s="97"/>
+      <c r="E4" s="97"/>
+      <c r="F4" s="98"/>
+      <c r="G4" s="99" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="73"/>
-      <c r="K4" s="73"/>
-      <c r="L4" s="73"/>
-      <c r="M4" s="73"/>
-      <c r="N4" s="73"/>
-      <c r="O4" s="73"/>
-      <c r="P4" s="73"/>
-      <c r="Q4" s="76"/>
-      <c r="R4" s="76"/>
-      <c r="S4" s="74"/>
+      <c r="H4" s="99"/>
+      <c r="I4" s="99"/>
+      <c r="J4" s="97"/>
+      <c r="K4" s="97"/>
+      <c r="L4" s="97"/>
+      <c r="M4" s="97"/>
+      <c r="N4" s="97"/>
+      <c r="O4" s="97"/>
+      <c r="P4" s="97"/>
+      <c r="Q4" s="100"/>
+      <c r="R4" s="100"/>
+      <c r="S4" s="98"/>
     </row>
     <row r="5" spans="2:19" ht="18" thickBot="1">
       <c r="B5" s="9" t="s">
@@ -6072,23 +6127,23 @@
     <row r="3" spans="2:15" ht="14.25" thickBot="1"/>
     <row r="4" spans="2:15" ht="21.75" thickBot="1">
       <c r="B4" s="8"/>
-      <c r="C4" s="72" t="s">
+      <c r="C4" s="96" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="75" t="s">
+      <c r="D4" s="97"/>
+      <c r="E4" s="97"/>
+      <c r="F4" s="98"/>
+      <c r="G4" s="99" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="73"/>
-      <c r="K4" s="73"/>
-      <c r="L4" s="73"/>
-      <c r="M4" s="73"/>
-      <c r="N4" s="73"/>
-      <c r="O4" s="74"/>
+      <c r="H4" s="97"/>
+      <c r="I4" s="97"/>
+      <c r="J4" s="97"/>
+      <c r="K4" s="97"/>
+      <c r="L4" s="97"/>
+      <c r="M4" s="97"/>
+      <c r="N4" s="97"/>
+      <c r="O4" s="98"/>
     </row>
     <row r="5" spans="2:15" ht="18" thickBot="1">
       <c r="B5" s="9" t="s">

--- a/msx3gen/files/msx_gen3.xlsx
+++ b/msx3gen/files/msx_gen3.xlsx
@@ -17,6 +17,9 @@
     <sheet name="2024年9月27日 ver" sheetId="2" r:id="rId3"/>
     <sheet name="2024年9月25日 ver" sheetId="1" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'2024年9月28日 ver2'!$A$1:$W$50</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1931,6 +1934,15 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1969,15 +1981,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2267,10 +2270,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="B1:V48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="X14" sqref="X14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2294,7 +2300,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:22">
-      <c r="F1" s="101" t="s">
+      <c r="F1" s="88" t="s">
         <v>168</v>
       </c>
     </row>
@@ -2302,7 +2308,7 @@
       <c r="B2" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="F2" s="102" t="s">
+      <c r="F2" s="89" t="s">
         <v>169</v>
       </c>
       <c r="V2" t="s">
@@ -2310,7 +2316,7 @@
       </c>
     </row>
     <row r="3" spans="2:22">
-      <c r="F3" s="103" t="s">
+      <c r="F3" s="90" t="s">
         <v>170</v>
       </c>
     </row>
@@ -2375,7 +2381,7 @@
       <c r="V5" s="76"/>
     </row>
     <row r="6" spans="2:22" ht="17.25">
-      <c r="B6" s="88" t="s">
+      <c r="B6" s="91" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="83" t="s">
@@ -2434,7 +2440,7 @@
       <c r="V6" s="73"/>
     </row>
     <row r="7" spans="2:22" ht="17.25">
-      <c r="B7" s="89"/>
+      <c r="B7" s="92"/>
       <c r="C7" s="84" t="s">
         <v>2</v>
       </c>
@@ -2491,7 +2497,7 @@
       <c r="V7" s="47"/>
     </row>
     <row r="8" spans="2:22" ht="17.25">
-      <c r="B8" s="89"/>
+      <c r="B8" s="92"/>
       <c r="C8" s="84" t="s">
         <v>3</v>
       </c>
@@ -2548,7 +2554,7 @@
       <c r="V8" s="47"/>
     </row>
     <row r="9" spans="2:22" ht="27">
-      <c r="B9" s="89"/>
+      <c r="B9" s="92"/>
       <c r="C9" s="84" t="s">
         <v>4</v>
       </c>
@@ -2605,7 +2611,7 @@
       <c r="V9" s="47"/>
     </row>
     <row r="10" spans="2:22" ht="40.5">
-      <c r="B10" s="89" t="s">
+      <c r="B10" s="92" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="84" t="s">
@@ -2666,7 +2672,7 @@
       <c r="V10" s="70"/>
     </row>
     <row r="11" spans="2:22" ht="40.5">
-      <c r="B11" s="89"/>
+      <c r="B11" s="92"/>
       <c r="C11" s="84" t="s">
         <v>9</v>
       </c>
@@ -2725,7 +2731,7 @@
       <c r="V11" s="3"/>
     </row>
     <row r="12" spans="2:22" ht="40.5">
-      <c r="B12" s="89"/>
+      <c r="B12" s="92"/>
       <c r="C12" s="84" t="s">
         <v>104</v>
       </c>
@@ -2784,7 +2790,7 @@
       <c r="V12" s="3"/>
     </row>
     <row r="13" spans="2:22" ht="40.5">
-      <c r="B13" s="89"/>
+      <c r="B13" s="92"/>
       <c r="C13" s="84" t="s">
         <v>105</v>
       </c>
@@ -2843,7 +2849,7 @@
       <c r="V13" s="3"/>
     </row>
     <row r="14" spans="2:22" ht="54">
-      <c r="B14" s="89"/>
+      <c r="B14" s="92"/>
       <c r="C14" s="84" t="s">
         <v>148</v>
       </c>
@@ -2902,7 +2908,7 @@
       <c r="V14" s="3"/>
     </row>
     <row r="15" spans="2:22" ht="40.5">
-      <c r="B15" s="89"/>
+      <c r="B15" s="92"/>
       <c r="C15" s="84" t="s">
         <v>146</v>
       </c>
@@ -2961,7 +2967,7 @@
       <c r="V15" s="3"/>
     </row>
     <row r="16" spans="2:22" ht="40.5">
-      <c r="B16" s="89"/>
+      <c r="B16" s="92"/>
       <c r="C16" s="84" t="s">
         <v>147</v>
       </c>
@@ -3020,7 +3026,7 @@
       <c r="V16" s="3"/>
     </row>
     <row r="17" spans="2:22" ht="40.5">
-      <c r="B17" s="89"/>
+      <c r="B17" s="92"/>
       <c r="C17" s="84" t="s">
         <v>160</v>
       </c>
@@ -3079,7 +3085,7 @@
       <c r="V17" s="3"/>
     </row>
     <row r="18" spans="2:22" ht="17.25">
-      <c r="B18" s="89"/>
+      <c r="B18" s="92"/>
       <c r="C18" s="84" t="s">
         <v>10</v>
       </c>
@@ -3140,7 +3146,7 @@
       <c r="V18" s="3"/>
     </row>
     <row r="19" spans="2:22" ht="17.25">
-      <c r="B19" s="89"/>
+      <c r="B19" s="92"/>
       <c r="C19" s="84" t="s">
         <v>3</v>
       </c>
@@ -3201,7 +3207,7 @@
       <c r="V19" s="3"/>
     </row>
     <row r="20" spans="2:22" ht="17.25">
-      <c r="B20" s="89"/>
+      <c r="B20" s="92"/>
       <c r="C20" s="84" t="s">
         <v>11</v>
       </c>
@@ -3262,7 +3268,7 @@
       <c r="V20" s="3"/>
     </row>
     <row r="21" spans="2:22" ht="54">
-      <c r="B21" s="89"/>
+      <c r="B21" s="92"/>
       <c r="C21" s="84" t="s">
         <v>58</v>
       </c>
@@ -3323,7 +3329,7 @@
       <c r="V21" s="3"/>
     </row>
     <row r="22" spans="2:22" ht="54">
-      <c r="B22" s="89"/>
+      <c r="B22" s="92"/>
       <c r="C22" s="84" t="s">
         <v>59</v>
       </c>
@@ -3384,7 +3390,7 @@
       <c r="V22" s="3"/>
     </row>
     <row r="23" spans="2:22" ht="67.5">
-      <c r="B23" s="89"/>
+      <c r="B23" s="92"/>
       <c r="C23" s="84" t="s">
         <v>12</v>
       </c>
@@ -3445,7 +3451,7 @@
       <c r="V23" s="3"/>
     </row>
     <row r="24" spans="2:22" ht="67.5">
-      <c r="B24" s="89"/>
+      <c r="B24" s="92"/>
       <c r="C24" s="84" t="s">
         <v>94</v>
       </c>
@@ -3506,7 +3512,7 @@
       <c r="V24" s="3"/>
     </row>
     <row r="25" spans="2:22" ht="67.5">
-      <c r="B25" s="89"/>
+      <c r="B25" s="92"/>
       <c r="C25" s="84" t="s">
         <v>95</v>
       </c>
@@ -3567,7 +3573,7 @@
       <c r="V25" s="3"/>
     </row>
     <row r="26" spans="2:22" ht="41.25" thickBot="1">
-      <c r="B26" s="90"/>
+      <c r="B26" s="93"/>
       <c r="C26" s="85" t="s">
         <v>13</v>
       </c>
@@ -3714,7 +3720,7 @@
     <hyperlink ref="B48" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId9"/>
+  <pageSetup paperSize="8" scale="49" orientation="landscape" horizontalDpi="4294967293" r:id="rId9"/>
 </worksheet>
 </file>
 
@@ -3752,31 +3758,31 @@
     <row r="3" spans="2:23" ht="14.25" thickBot="1"/>
     <row r="4" spans="2:23" ht="21.75" thickBot="1">
       <c r="B4" s="8"/>
-      <c r="C4" s="91" t="s">
+      <c r="C4" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="92"/>
-      <c r="E4" s="92"/>
-      <c r="F4" s="93"/>
-      <c r="G4" s="94" t="s">
+      <c r="D4" s="95"/>
+      <c r="E4" s="95"/>
+      <c r="F4" s="96"/>
+      <c r="G4" s="97" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="94"/>
-      <c r="I4" s="94"/>
-      <c r="J4" s="92"/>
-      <c r="K4" s="92"/>
-      <c r="L4" s="92"/>
-      <c r="M4" s="92"/>
-      <c r="N4" s="92"/>
-      <c r="O4" s="92"/>
-      <c r="P4" s="92"/>
-      <c r="Q4" s="92"/>
-      <c r="R4" s="92"/>
-      <c r="S4" s="92"/>
-      <c r="T4" s="92"/>
-      <c r="U4" s="95"/>
-      <c r="V4" s="95"/>
-      <c r="W4" s="93"/>
+      <c r="H4" s="97"/>
+      <c r="I4" s="97"/>
+      <c r="J4" s="95"/>
+      <c r="K4" s="95"/>
+      <c r="L4" s="95"/>
+      <c r="M4" s="95"/>
+      <c r="N4" s="95"/>
+      <c r="O4" s="95"/>
+      <c r="P4" s="95"/>
+      <c r="Q4" s="95"/>
+      <c r="R4" s="95"/>
+      <c r="S4" s="95"/>
+      <c r="T4" s="95"/>
+      <c r="U4" s="98"/>
+      <c r="V4" s="98"/>
+      <c r="W4" s="96"/>
     </row>
     <row r="5" spans="2:23" ht="18" thickBot="1">
       <c r="B5" s="9" t="s">
@@ -5109,27 +5115,27 @@
     <row r="3" spans="2:19" ht="14.25" thickBot="1"/>
     <row r="4" spans="2:19" ht="21.75" thickBot="1">
       <c r="B4" s="8"/>
-      <c r="C4" s="96" t="s">
+      <c r="C4" s="99" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="97"/>
-      <c r="E4" s="97"/>
-      <c r="F4" s="98"/>
-      <c r="G4" s="99" t="s">
+      <c r="D4" s="100"/>
+      <c r="E4" s="100"/>
+      <c r="F4" s="101"/>
+      <c r="G4" s="102" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="99"/>
-      <c r="I4" s="99"/>
-      <c r="J4" s="97"/>
-      <c r="K4" s="97"/>
-      <c r="L4" s="97"/>
-      <c r="M4" s="97"/>
-      <c r="N4" s="97"/>
-      <c r="O4" s="97"/>
-      <c r="P4" s="97"/>
-      <c r="Q4" s="100"/>
-      <c r="R4" s="100"/>
-      <c r="S4" s="98"/>
+      <c r="H4" s="102"/>
+      <c r="I4" s="102"/>
+      <c r="J4" s="100"/>
+      <c r="K4" s="100"/>
+      <c r="L4" s="100"/>
+      <c r="M4" s="100"/>
+      <c r="N4" s="100"/>
+      <c r="O4" s="100"/>
+      <c r="P4" s="100"/>
+      <c r="Q4" s="103"/>
+      <c r="R4" s="103"/>
+      <c r="S4" s="101"/>
     </row>
     <row r="5" spans="2:19" ht="18" thickBot="1">
       <c r="B5" s="9" t="s">
@@ -6127,23 +6133,23 @@
     <row r="3" spans="2:15" ht="14.25" thickBot="1"/>
     <row r="4" spans="2:15" ht="21.75" thickBot="1">
       <c r="B4" s="8"/>
-      <c r="C4" s="96" t="s">
+      <c r="C4" s="99" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="97"/>
-      <c r="E4" s="97"/>
-      <c r="F4" s="98"/>
-      <c r="G4" s="99" t="s">
+      <c r="D4" s="100"/>
+      <c r="E4" s="100"/>
+      <c r="F4" s="101"/>
+      <c r="G4" s="102" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="97"/>
-      <c r="I4" s="97"/>
-      <c r="J4" s="97"/>
-      <c r="K4" s="97"/>
-      <c r="L4" s="97"/>
-      <c r="M4" s="97"/>
-      <c r="N4" s="97"/>
-      <c r="O4" s="98"/>
+      <c r="H4" s="100"/>
+      <c r="I4" s="100"/>
+      <c r="J4" s="100"/>
+      <c r="K4" s="100"/>
+      <c r="L4" s="100"/>
+      <c r="M4" s="100"/>
+      <c r="N4" s="100"/>
+      <c r="O4" s="101"/>
     </row>
     <row r="5" spans="2:15" ht="18" thickBot="1">
       <c r="B5" s="9" t="s">

--- a/msx3gen/files/msx_gen3.xlsx
+++ b/msx3gen/files/msx_gen3.xlsx
@@ -12,13 +12,15 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="23310" windowHeight="6915"/>
   </bookViews>
   <sheets>
-    <sheet name="2024年9月28日 ver2" sheetId="4" r:id="rId1"/>
-    <sheet name="2024年9月28日 ver" sheetId="3" r:id="rId2"/>
-    <sheet name="2024年9月27日 ver" sheetId="2" r:id="rId3"/>
-    <sheet name="2024年9月25日 ver" sheetId="1" r:id="rId4"/>
+    <sheet name="2024年9月28日 ver3" sheetId="5" r:id="rId1"/>
+    <sheet name="2024年9月28日 ver2" sheetId="4" r:id="rId2"/>
+    <sheet name="2024年9月28日 ver" sheetId="3" r:id="rId3"/>
+    <sheet name="2024年9月27日 ver" sheetId="2" r:id="rId4"/>
+    <sheet name="2024年9月25日 ver" sheetId="1" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'2024年9月28日 ver2'!$A$1:$W$50</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'2024年9月28日 ver2'!$A$1:$W$50</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'2024年9月28日 ver3'!$A$1:$W$51</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1316" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1757" uniqueCount="173">
   <si>
     <t>旧来のMSX</t>
     <rPh sb="0" eb="2">
@@ -989,6 +991,17 @@
     </rPh>
     <rPh sb="4" eb="5">
       <t>テン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1chipMSX3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MSX3製品</t>
+    <rPh sb="4" eb="6">
+      <t>セイヒン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2273,9 +2286,1526 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
+  <dimension ref="B1:V49"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="2.875" customWidth="1"/>
+    <col min="2" max="2" width="20.125" customWidth="1"/>
+    <col min="3" max="3" width="23" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.875" customWidth="1"/>
+    <col min="5" max="5" width="25.125" customWidth="1"/>
+    <col min="6" max="6" width="12.75" customWidth="1"/>
+    <col min="7" max="9" width="16.75" customWidth="1"/>
+    <col min="10" max="13" width="16.625" customWidth="1"/>
+    <col min="14" max="14" width="21.625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="24" customWidth="1"/>
+    <col min="18" max="19" width="19.875" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="24.75" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="3.125" customWidth="1"/>
+    <col min="23" max="23" width="15.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:22">
+      <c r="F1" s="88" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="2" spans="2:22">
+      <c r="B2" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="F2" s="89" t="s">
+        <v>169</v>
+      </c>
+      <c r="V2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="3" spans="2:22">
+      <c r="F3" s="90" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="4" spans="2:22" ht="14.25" thickBot="1"/>
+    <row r="5" spans="2:22" ht="14.25" thickBot="1">
+      <c r="B5" s="74"/>
+      <c r="C5" s="76" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="77" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="75" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="75" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="75" t="s">
+        <v>35</v>
+      </c>
+      <c r="I5" s="75" t="s">
+        <v>38</v>
+      </c>
+      <c r="J5" s="75" t="s">
+        <v>41</v>
+      </c>
+      <c r="K5" s="75" t="s">
+        <v>43</v>
+      </c>
+      <c r="L5" s="75" t="s">
+        <v>48</v>
+      </c>
+      <c r="M5" s="75" t="s">
+        <v>49</v>
+      </c>
+      <c r="N5" s="75" t="s">
+        <v>53</v>
+      </c>
+      <c r="O5" s="75" t="s">
+        <v>55</v>
+      </c>
+      <c r="P5" s="75" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q5" s="75" t="s">
+        <v>78</v>
+      </c>
+      <c r="R5" s="75"/>
+      <c r="S5" s="75" t="s">
+        <v>112</v>
+      </c>
+      <c r="T5" s="75" t="s">
+        <v>120</v>
+      </c>
+      <c r="U5" s="75" t="s">
+        <v>127</v>
+      </c>
+      <c r="V5" s="76"/>
+    </row>
+    <row r="6" spans="2:22" ht="17.25">
+      <c r="B6" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="83" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="78" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="72" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="72" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="72" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" s="72" t="s">
+        <v>36</v>
+      </c>
+      <c r="I6" s="72" t="s">
+        <v>39</v>
+      </c>
+      <c r="J6" s="72" t="s">
+        <v>40</v>
+      </c>
+      <c r="K6" s="72" t="s">
+        <v>44</v>
+      </c>
+      <c r="L6" s="72" t="s">
+        <v>45</v>
+      </c>
+      <c r="M6" s="72" t="s">
+        <v>50</v>
+      </c>
+      <c r="N6" s="72" t="s">
+        <v>45</v>
+      </c>
+      <c r="O6" s="72" t="s">
+        <v>42</v>
+      </c>
+      <c r="P6" s="72" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q6" s="72"/>
+      <c r="R6" s="72"/>
+      <c r="S6" s="72" t="s">
+        <v>114</v>
+      </c>
+      <c r="T6" s="72" t="s">
+        <v>122</v>
+      </c>
+      <c r="U6" s="72" t="s">
+        <v>133</v>
+      </c>
+      <c r="V6" s="73"/>
+    </row>
+    <row r="7" spans="2:22" ht="17.25">
+      <c r="B7" s="92"/>
+      <c r="C7" s="84" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="79" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="45" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="I7" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="J7" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="K7" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="L7" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="M7" s="45" t="s">
+        <v>50</v>
+      </c>
+      <c r="N7" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="O7" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="P7" s="45" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q7" s="45"/>
+      <c r="R7" s="45"/>
+      <c r="S7" s="45" t="s">
+        <v>113</v>
+      </c>
+      <c r="T7" s="45" t="s">
+        <v>123</v>
+      </c>
+      <c r="U7" s="45" t="s">
+        <v>132</v>
+      </c>
+      <c r="V7" s="47"/>
+    </row>
+    <row r="8" spans="2:22" ht="17.25">
+      <c r="B8" s="92"/>
+      <c r="C8" s="84" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="79" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="45" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="I8" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="J8" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="K8" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="L8" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="M8" s="45" t="s">
+        <v>50</v>
+      </c>
+      <c r="N8" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="O8" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="P8" s="45" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q8" s="45"/>
+      <c r="R8" s="45"/>
+      <c r="S8" s="45" t="s">
+        <v>113</v>
+      </c>
+      <c r="T8" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="U8" s="45" t="s">
+        <v>132</v>
+      </c>
+      <c r="V8" s="47"/>
+    </row>
+    <row r="9" spans="2:22" ht="27">
+      <c r="B9" s="92"/>
+      <c r="C9" s="84" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="79" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="67" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="45" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="I9" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="J9" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="K9" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="L9" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="M9" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="N9" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="O9" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="P9" s="45" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q9" s="45"/>
+      <c r="R9" s="45"/>
+      <c r="S9" s="45" t="s">
+        <v>113</v>
+      </c>
+      <c r="T9" s="45" t="s">
+        <v>125</v>
+      </c>
+      <c r="U9" s="45" t="s">
+        <v>132</v>
+      </c>
+      <c r="V9" s="47"/>
+    </row>
+    <row r="10" spans="2:22" ht="40.5">
+      <c r="B10" s="92" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="84" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="80" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="68" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="69" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" s="68" t="s">
+        <v>56</v>
+      </c>
+      <c r="H10" s="69" t="s">
+        <v>37</v>
+      </c>
+      <c r="I10" s="69" t="s">
+        <v>42</v>
+      </c>
+      <c r="J10" s="69" t="s">
+        <v>42</v>
+      </c>
+      <c r="K10" s="69" t="s">
+        <v>42</v>
+      </c>
+      <c r="L10" s="69" t="s">
+        <v>45</v>
+      </c>
+      <c r="M10" s="69" t="s">
+        <v>52</v>
+      </c>
+      <c r="N10" s="69" t="s">
+        <v>39</v>
+      </c>
+      <c r="O10" s="69" t="s">
+        <v>39</v>
+      </c>
+      <c r="P10" s="69" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q10" s="69" t="s">
+        <v>102</v>
+      </c>
+      <c r="R10" s="69"/>
+      <c r="S10" s="69" t="s">
+        <v>114</v>
+      </c>
+      <c r="T10" s="69" t="s">
+        <v>121</v>
+      </c>
+      <c r="U10" s="69" t="s">
+        <v>129</v>
+      </c>
+      <c r="V10" s="70"/>
+    </row>
+    <row r="11" spans="2:22" ht="40.5">
+      <c r="B11" s="92"/>
+      <c r="C11" s="84" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="80" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="T11" s="86" t="s">
+        <v>126</v>
+      </c>
+      <c r="U11" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="2:22" ht="40.5">
+      <c r="B12" s="92"/>
+      <c r="C12" s="84" t="s">
+        <v>104</v>
+      </c>
+      <c r="D12" s="80" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="T12" s="86" t="s">
+        <v>141</v>
+      </c>
+      <c r="U12" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="V12" s="3"/>
+    </row>
+    <row r="13" spans="2:22" ht="40.5">
+      <c r="B13" s="92"/>
+      <c r="C13" s="84" t="s">
+        <v>105</v>
+      </c>
+      <c r="D13" s="80" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G13" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="T13" s="86" t="s">
+        <v>142</v>
+      </c>
+      <c r="U13" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="V13" s="3"/>
+    </row>
+    <row r="14" spans="2:22" ht="54">
+      <c r="B14" s="92"/>
+      <c r="C14" s="84" t="s">
+        <v>148</v>
+      </c>
+      <c r="D14" s="80" t="s">
+        <v>161</v>
+      </c>
+      <c r="E14" s="30" t="s">
+        <v>149</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G14" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="T14" s="86" t="s">
+        <v>163</v>
+      </c>
+      <c r="U14" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="V14" s="3"/>
+    </row>
+    <row r="15" spans="2:22" ht="40.5">
+      <c r="B15" s="92"/>
+      <c r="C15" s="84" t="s">
+        <v>146</v>
+      </c>
+      <c r="D15" s="80" t="s">
+        <v>161</v>
+      </c>
+      <c r="E15" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="T15" s="86" t="s">
+        <v>163</v>
+      </c>
+      <c r="U15" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="V15" s="3"/>
+    </row>
+    <row r="16" spans="2:22" ht="40.5">
+      <c r="B16" s="92"/>
+      <c r="C16" s="84" t="s">
+        <v>147</v>
+      </c>
+      <c r="D16" s="80" t="s">
+        <v>161</v>
+      </c>
+      <c r="E16" s="30" t="s">
+        <v>162</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G16" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="T16" s="86" t="s">
+        <v>163</v>
+      </c>
+      <c r="U16" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="2:22" ht="40.5">
+      <c r="B17" s="92"/>
+      <c r="C17" s="84" t="s">
+        <v>160</v>
+      </c>
+      <c r="D17" s="80" t="s">
+        <v>161</v>
+      </c>
+      <c r="E17" s="30" t="s">
+        <v>162</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G17" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="T17" s="86" t="s">
+        <v>163</v>
+      </c>
+      <c r="U17" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="V17" s="3"/>
+    </row>
+    <row r="18" spans="2:22" ht="17.25">
+      <c r="B18" s="92"/>
+      <c r="C18" s="84" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="81" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="R18" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="S18" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="T18" s="86" t="s">
+        <v>144</v>
+      </c>
+      <c r="U18" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="V18" s="3"/>
+    </row>
+    <row r="19" spans="2:22" ht="17.25">
+      <c r="B19" s="92"/>
+      <c r="C19" s="84" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" s="81" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q19" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="R19" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="S19" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="T19" s="86" t="s">
+        <v>143</v>
+      </c>
+      <c r="U19" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="2:22" ht="17.25">
+      <c r="B20" s="92"/>
+      <c r="C20" s="84" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="81" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="R20" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="S20" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="T20" s="86" t="s">
+        <v>143</v>
+      </c>
+      <c r="U20" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="V20" s="3"/>
+    </row>
+    <row r="21" spans="2:22" ht="54">
+      <c r="B21" s="92"/>
+      <c r="C21" s="84" t="s">
+        <v>58</v>
+      </c>
+      <c r="D21" s="81" t="s">
+        <v>60</v>
+      </c>
+      <c r="E21" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="F21" s="86" t="s">
+        <v>62</v>
+      </c>
+      <c r="G21" s="30" t="s">
+        <v>152</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="I21" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="J21" s="86" t="s">
+        <v>46</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q21" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="R21" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="S21" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="T21" s="86" t="s">
+        <v>145</v>
+      </c>
+      <c r="U21" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="V21" s="3"/>
+    </row>
+    <row r="22" spans="2:22" ht="54">
+      <c r="B22" s="92"/>
+      <c r="C22" s="84" t="s">
+        <v>59</v>
+      </c>
+      <c r="D22" s="81" t="s">
+        <v>57</v>
+      </c>
+      <c r="E22" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="F22" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="G22" s="30" t="s">
+        <v>153</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="I22" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="J22" s="86" t="s">
+        <v>46</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q22" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="R22" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="S22" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="T22" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="U22" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="V22" s="3"/>
+    </row>
+    <row r="23" spans="2:22" ht="67.5">
+      <c r="B23" s="92"/>
+      <c r="C23" s="84" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="81" t="s">
+        <v>100</v>
+      </c>
+      <c r="E23" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="F23" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="G23" s="30" t="s">
+        <v>154</v>
+      </c>
+      <c r="H23" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="I23" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="J23" s="86" t="s">
+        <v>46</v>
+      </c>
+      <c r="K23" s="86" t="s">
+        <v>47</v>
+      </c>
+      <c r="L23" s="86" t="s">
+        <v>47</v>
+      </c>
+      <c r="M23" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O23" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="P23" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q23" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="R23" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="S23" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="T23" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="U23" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="V23" s="3"/>
+    </row>
+    <row r="24" spans="2:22" ht="67.5">
+      <c r="B24" s="92"/>
+      <c r="C24" s="84" t="s">
+        <v>171</v>
+      </c>
+      <c r="D24" s="80" t="s">
+        <v>172</v>
+      </c>
+      <c r="E24" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="F24" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="G24" s="30" t="s">
+        <v>154</v>
+      </c>
+      <c r="H24" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="I24" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="J24" s="86" t="s">
+        <v>46</v>
+      </c>
+      <c r="K24" s="86" t="s">
+        <v>47</v>
+      </c>
+      <c r="L24" s="86" t="s">
+        <v>47</v>
+      </c>
+      <c r="M24" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O24" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="P24" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q24" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="R24" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="S24" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="T24" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="U24" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="V24" s="3"/>
+    </row>
+    <row r="25" spans="2:22" ht="67.5">
+      <c r="B25" s="92"/>
+      <c r="C25" s="84" t="s">
+        <v>94</v>
+      </c>
+      <c r="D25" s="81" t="s">
+        <v>101</v>
+      </c>
+      <c r="E25" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="F25" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="G25" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="H25" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="I25" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="J25" s="86" t="s">
+        <v>46</v>
+      </c>
+      <c r="K25" s="86" t="s">
+        <v>47</v>
+      </c>
+      <c r="L25" s="86" t="s">
+        <v>47</v>
+      </c>
+      <c r="M25" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O25" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="P25" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q25" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="R25" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="S25" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="T25" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="U25" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="V25" s="3"/>
+    </row>
+    <row r="26" spans="2:22" ht="67.5">
+      <c r="B26" s="92"/>
+      <c r="C26" s="84" t="s">
+        <v>95</v>
+      </c>
+      <c r="D26" s="81" t="s">
+        <v>101</v>
+      </c>
+      <c r="E26" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="F26" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="G26" s="30" t="s">
+        <v>156</v>
+      </c>
+      <c r="H26" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="I26" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="J26" s="86" t="s">
+        <v>46</v>
+      </c>
+      <c r="K26" s="86" t="s">
+        <v>47</v>
+      </c>
+      <c r="L26" s="86" t="s">
+        <v>47</v>
+      </c>
+      <c r="M26" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="N26" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O26" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="P26" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q26" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="R26" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="S26" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="T26" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="U26" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="V26" s="3"/>
+    </row>
+    <row r="27" spans="2:22" ht="41.25" thickBot="1">
+      <c r="B27" s="93"/>
+      <c r="C27" s="85" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" s="82" t="s">
+        <v>5</v>
+      </c>
+      <c r="E27" s="71" t="s">
+        <v>21</v>
+      </c>
+      <c r="F27" s="87" t="s">
+        <v>33</v>
+      </c>
+      <c r="G27" s="87" t="s">
+        <v>85</v>
+      </c>
+      <c r="H27" s="87" t="s">
+        <v>33</v>
+      </c>
+      <c r="I27" s="87" t="s">
+        <v>33</v>
+      </c>
+      <c r="J27" s="87" t="s">
+        <v>46</v>
+      </c>
+      <c r="K27" s="87" t="s">
+        <v>47</v>
+      </c>
+      <c r="L27" s="87" t="s">
+        <v>47</v>
+      </c>
+      <c r="M27" s="87" t="s">
+        <v>33</v>
+      </c>
+      <c r="N27" s="87" t="s">
+        <v>33</v>
+      </c>
+      <c r="O27" s="87" t="s">
+        <v>33</v>
+      </c>
+      <c r="P27" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q27" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="R27" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="S27" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="T27" s="87" t="s">
+        <v>33</v>
+      </c>
+      <c r="U27" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="V27" s="7"/>
+    </row>
+    <row r="31" spans="2:22">
+      <c r="B31" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="32" spans="2:22">
+      <c r="B32" s="60" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35" s="60" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2">
+      <c r="B37" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2">
+      <c r="B38" s="60" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2">
+      <c r="B40" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2">
+      <c r="B41" s="60" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2">
+      <c r="B43" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2">
+      <c r="B44" s="61" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2">
+      <c r="B45" s="60" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2">
+      <c r="B46" s="60" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2">
+      <c r="B48" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2">
+      <c r="B49" s="60" t="s">
+        <v>158</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="B10:B27"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="B44" r:id="rId1"/>
+    <hyperlink ref="B45" r:id="rId2"/>
+    <hyperlink ref="B41" r:id="rId3"/>
+    <hyperlink ref="B38" r:id="rId4"/>
+    <hyperlink ref="B35" r:id="rId5"/>
+    <hyperlink ref="B32" r:id="rId6"/>
+    <hyperlink ref="B46" r:id="rId7"/>
+    <hyperlink ref="B49" r:id="rId8"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="8" scale="49" orientation="landscape" horizontalDpi="4294967293" r:id="rId9"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="B1:V48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="X14" sqref="X14"/>
     </sheetView>
   </sheetViews>
@@ -3724,7 +5254,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:W42"/>
   <sheetViews>
@@ -5080,7 +6610,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:S35"/>
   <sheetViews>
@@ -6098,7 +7628,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:O35"/>
   <sheetViews>

--- a/msx3gen/files/msx_gen3.xlsx
+++ b/msx3gen/files/msx_gen3.xlsx
@@ -12,15 +12,17 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="23310" windowHeight="6915"/>
   </bookViews>
   <sheets>
-    <sheet name="2024年9月28日 ver3" sheetId="5" r:id="rId1"/>
-    <sheet name="2024年9月28日 ver2" sheetId="4" r:id="rId2"/>
-    <sheet name="2024年9月28日 ver" sheetId="3" r:id="rId3"/>
-    <sheet name="2024年9月27日 ver" sheetId="2" r:id="rId4"/>
-    <sheet name="2024年9月25日 ver" sheetId="1" r:id="rId5"/>
+    <sheet name="2024年9月28日 ver4" sheetId="6" r:id="rId1"/>
+    <sheet name="2024年9月28日 ver3" sheetId="5" r:id="rId2"/>
+    <sheet name="2024年9月28日 ver2" sheetId="4" r:id="rId3"/>
+    <sheet name="2024年9月28日 ver" sheetId="3" r:id="rId4"/>
+    <sheet name="2024年9月27日 ver" sheetId="2" r:id="rId5"/>
+    <sheet name="2024年9月25日 ver" sheetId="1" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'2024年9月28日 ver2'!$A$1:$W$50</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'2024年9月28日 ver3'!$A$1:$W$51</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'2024年9月28日 ver2'!$A$1:$W$50</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'2024年9月28日 ver3'!$A$1:$W$51</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'2024年9月28日 ver4'!$A$1:$Y$47</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -32,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1757" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2166" uniqueCount="182">
   <si>
     <t>旧来のMSX</t>
     <rPh sb="0" eb="2">
@@ -1005,12 +1007,53 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>プロダクトアウト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マーケットイン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>512KB</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ストレージデバイス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SDカード上の
+ディスクイメージ</t>
+    <rPh sb="5" eb="6">
+      <t>ジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SDカード上の
+ディスクイメージ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>????</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SDカード？</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SSD???</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1101,6 +1144,14 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -1158,7 +1209,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="40">
+  <borders count="43">
     <border>
       <left/>
       <right/>
@@ -1673,6 +1724,47 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1682,7 +1774,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1993,6 +2085,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2286,9 +2396,1417 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
+  <dimension ref="B1:X45"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="2.875" customWidth="1"/>
+    <col min="2" max="3" width="20.125" customWidth="1"/>
+    <col min="4" max="4" width="23" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.875" customWidth="1"/>
+    <col min="6" max="6" width="25.125" customWidth="1"/>
+    <col min="7" max="7" width="12.75" customWidth="1"/>
+    <col min="8" max="10" width="16.75" customWidth="1"/>
+    <col min="11" max="14" width="16.625" customWidth="1"/>
+    <col min="15" max="15" width="21.625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.75" customWidth="1"/>
+    <col min="17" max="17" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="24" customWidth="1"/>
+    <col min="20" max="21" width="19.875" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="24.75" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="3.125" customWidth="1"/>
+    <col min="25" max="25" width="15.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:24">
+      <c r="G1" s="88" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="2" spans="2:24">
+      <c r="B2" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="29"/>
+      <c r="G2" s="89" t="s">
+        <v>169</v>
+      </c>
+      <c r="X2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="3" spans="2:24">
+      <c r="G3" s="90" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="4" spans="2:24" ht="14.25" thickBot="1"/>
+    <row r="5" spans="2:24" ht="14.25" thickBot="1">
+      <c r="B5" s="74"/>
+      <c r="C5" s="104"/>
+      <c r="D5" s="76" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="77" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="75" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="75" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" s="75" t="s">
+        <v>35</v>
+      </c>
+      <c r="J5" s="75" t="s">
+        <v>38</v>
+      </c>
+      <c r="K5" s="75" t="s">
+        <v>41</v>
+      </c>
+      <c r="L5" s="75" t="s">
+        <v>43</v>
+      </c>
+      <c r="M5" s="75" t="s">
+        <v>48</v>
+      </c>
+      <c r="N5" s="75" t="s">
+        <v>49</v>
+      </c>
+      <c r="O5" s="75" t="s">
+        <v>53</v>
+      </c>
+      <c r="P5" s="75" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q5" s="75" t="s">
+        <v>55</v>
+      </c>
+      <c r="R5" s="75" t="s">
+        <v>68</v>
+      </c>
+      <c r="S5" s="75" t="s">
+        <v>78</v>
+      </c>
+      <c r="T5" s="75"/>
+      <c r="U5" s="75" t="s">
+        <v>112</v>
+      </c>
+      <c r="V5" s="75" t="s">
+        <v>120</v>
+      </c>
+      <c r="W5" s="75" t="s">
+        <v>127</v>
+      </c>
+      <c r="X5" s="76"/>
+    </row>
+    <row r="6" spans="2:24" ht="40.5">
+      <c r="B6" s="106" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="107" t="s">
+        <v>173</v>
+      </c>
+      <c r="D6" s="108" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="80" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="68" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="69" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="68" t="s">
+        <v>56</v>
+      </c>
+      <c r="I6" s="69" t="s">
+        <v>37</v>
+      </c>
+      <c r="J6" s="69" t="s">
+        <v>42</v>
+      </c>
+      <c r="K6" s="69" t="s">
+        <v>42</v>
+      </c>
+      <c r="L6" s="69" t="s">
+        <v>42</v>
+      </c>
+      <c r="M6" s="69" t="s">
+        <v>45</v>
+      </c>
+      <c r="N6" s="69" t="s">
+        <v>52</v>
+      </c>
+      <c r="O6" s="69" t="s">
+        <v>39</v>
+      </c>
+      <c r="P6" s="68" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q6" s="69" t="s">
+        <v>39</v>
+      </c>
+      <c r="R6" s="69" t="s">
+        <v>71</v>
+      </c>
+      <c r="S6" s="69" t="s">
+        <v>102</v>
+      </c>
+      <c r="T6" s="69"/>
+      <c r="U6" s="69" t="s">
+        <v>114</v>
+      </c>
+      <c r="V6" s="69" t="s">
+        <v>121</v>
+      </c>
+      <c r="W6" s="69" t="s">
+        <v>129</v>
+      </c>
+      <c r="X6" s="70"/>
+    </row>
+    <row r="7" spans="2:24" ht="40.5">
+      <c r="B7" s="92"/>
+      <c r="C7" s="105" t="s">
+        <v>173</v>
+      </c>
+      <c r="D7" s="84" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="80" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="P7" s="30" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="V7" s="86" t="s">
+        <v>126</v>
+      </c>
+      <c r="W7" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="X7" s="3"/>
+    </row>
+    <row r="8" spans="2:24" ht="40.5">
+      <c r="B8" s="92"/>
+      <c r="C8" s="105" t="s">
+        <v>174</v>
+      </c>
+      <c r="D8" s="84" t="s">
+        <v>104</v>
+      </c>
+      <c r="E8" s="80" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="P8" s="30" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="V8" s="86" t="s">
+        <v>141</v>
+      </c>
+      <c r="W8" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="X8" s="3"/>
+    </row>
+    <row r="9" spans="2:24" ht="40.5">
+      <c r="B9" s="92"/>
+      <c r="C9" s="105" t="s">
+        <v>174</v>
+      </c>
+      <c r="D9" s="84" t="s">
+        <v>105</v>
+      </c>
+      <c r="E9" s="80" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="P9" s="30" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="V9" s="86" t="s">
+        <v>142</v>
+      </c>
+      <c r="W9" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="X9" s="3"/>
+    </row>
+    <row r="10" spans="2:24" ht="54">
+      <c r="B10" s="92"/>
+      <c r="C10" s="105" t="s">
+        <v>174</v>
+      </c>
+      <c r="D10" s="84" t="s">
+        <v>148</v>
+      </c>
+      <c r="E10" s="80" t="s">
+        <v>161</v>
+      </c>
+      <c r="F10" s="30" t="s">
+        <v>149</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H10" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="P10" s="30" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="V10" s="86" t="s">
+        <v>163</v>
+      </c>
+      <c r="W10" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="X10" s="3"/>
+    </row>
+    <row r="11" spans="2:24" ht="40.5">
+      <c r="B11" s="92"/>
+      <c r="C11" s="105" t="s">
+        <v>173</v>
+      </c>
+      <c r="D11" s="84" t="s">
+        <v>146</v>
+      </c>
+      <c r="E11" s="80" t="s">
+        <v>161</v>
+      </c>
+      <c r="F11" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H11" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="P11" s="30" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="V11" s="86" t="s">
+        <v>163</v>
+      </c>
+      <c r="W11" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="2:24" ht="40.5">
+      <c r="B12" s="92"/>
+      <c r="C12" s="105" t="s">
+        <v>173</v>
+      </c>
+      <c r="D12" s="84" t="s">
+        <v>147</v>
+      </c>
+      <c r="E12" s="80" t="s">
+        <v>161</v>
+      </c>
+      <c r="F12" s="30" t="s">
+        <v>162</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="H12" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="P12" s="30" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="V12" s="86" t="s">
+        <v>163</v>
+      </c>
+      <c r="W12" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="X12" s="3"/>
+    </row>
+    <row r="13" spans="2:24" ht="40.5">
+      <c r="B13" s="92"/>
+      <c r="C13" s="105" t="s">
+        <v>173</v>
+      </c>
+      <c r="D13" s="84" t="s">
+        <v>160</v>
+      </c>
+      <c r="E13" s="80" t="s">
+        <v>161</v>
+      </c>
+      <c r="F13" s="30" t="s">
+        <v>162</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H13" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="P13" s="86" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="S13" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="V13" s="86" t="s">
+        <v>163</v>
+      </c>
+      <c r="W13" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="X13" s="3"/>
+    </row>
+    <row r="14" spans="2:24" ht="18.75">
+      <c r="B14" s="92"/>
+      <c r="C14" s="105" t="s">
+        <v>173</v>
+      </c>
+      <c r="D14" s="84" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="81" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="P14" s="86" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="S14" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="T14" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="U14" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="V14" s="86" t="s">
+        <v>144</v>
+      </c>
+      <c r="W14" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="X14" s="3"/>
+    </row>
+    <row r="15" spans="2:24" ht="18.75">
+      <c r="B15" s="92"/>
+      <c r="C15" s="105" t="s">
+        <v>173</v>
+      </c>
+      <c r="D15" s="84" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="81" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="P15" s="86" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="R15" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="S15" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="T15" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="U15" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="V15" s="86" t="s">
+        <v>143</v>
+      </c>
+      <c r="W15" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="X15" s="3"/>
+    </row>
+    <row r="16" spans="2:24" ht="18.75">
+      <c r="B16" s="92"/>
+      <c r="C16" s="105" t="s">
+        <v>173</v>
+      </c>
+      <c r="D16" s="84" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="81" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="P16" s="86" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="R16" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="S16" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="T16" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="U16" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="V16" s="86" t="s">
+        <v>143</v>
+      </c>
+      <c r="W16" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="2:24" ht="54">
+      <c r="B17" s="92"/>
+      <c r="C17" s="105" t="s">
+        <v>173</v>
+      </c>
+      <c r="D17" s="84" t="s">
+        <v>58</v>
+      </c>
+      <c r="E17" s="81" t="s">
+        <v>60</v>
+      </c>
+      <c r="F17" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="G17" s="86" t="s">
+        <v>62</v>
+      </c>
+      <c r="H17" s="30" t="s">
+        <v>152</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="J17" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="K17" s="86" t="s">
+        <v>46</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="P17" s="86" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R17" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="S17" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="T17" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="U17" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="V17" s="86" t="s">
+        <v>145</v>
+      </c>
+      <c r="W17" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="X17" s="3"/>
+    </row>
+    <row r="18" spans="2:24" ht="54">
+      <c r="B18" s="92"/>
+      <c r="C18" s="105" t="s">
+        <v>173</v>
+      </c>
+      <c r="D18" s="84" t="s">
+        <v>59</v>
+      </c>
+      <c r="E18" s="81" t="s">
+        <v>57</v>
+      </c>
+      <c r="F18" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="G18" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="H18" s="30" t="s">
+        <v>153</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="J18" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="K18" s="86" t="s">
+        <v>46</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="P18" s="86" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R18" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="S18" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="T18" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="U18" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="V18" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="W18" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="X18" s="3"/>
+    </row>
+    <row r="19" spans="2:24" ht="67.5">
+      <c r="B19" s="92"/>
+      <c r="C19" s="105" t="s">
+        <v>173</v>
+      </c>
+      <c r="D19" s="84" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="81" t="s">
+        <v>100</v>
+      </c>
+      <c r="F19" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="G19" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="H19" s="30" t="s">
+        <v>154</v>
+      </c>
+      <c r="I19" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="J19" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="K19" s="86" t="s">
+        <v>46</v>
+      </c>
+      <c r="L19" s="86" t="s">
+        <v>47</v>
+      </c>
+      <c r="M19" s="86" t="s">
+        <v>47</v>
+      </c>
+      <c r="N19" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="P19" s="86" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q19" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="R19" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="S19" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="T19" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="U19" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="V19" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="W19" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="2:24" ht="67.5">
+      <c r="B20" s="92"/>
+      <c r="C20" s="105" t="s">
+        <v>174</v>
+      </c>
+      <c r="D20" s="84" t="s">
+        <v>171</v>
+      </c>
+      <c r="E20" s="80" t="s">
+        <v>172</v>
+      </c>
+      <c r="F20" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="G20" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="H20" s="30" t="s">
+        <v>154</v>
+      </c>
+      <c r="I20" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="J20" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="K20" s="86" t="s">
+        <v>46</v>
+      </c>
+      <c r="L20" s="86" t="s">
+        <v>47</v>
+      </c>
+      <c r="M20" s="86" t="s">
+        <v>47</v>
+      </c>
+      <c r="N20" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="P20" s="86" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q20" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="R20" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="S20" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="T20" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="U20" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="V20" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="W20" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="X20" s="3"/>
+    </row>
+    <row r="21" spans="2:24" ht="67.5">
+      <c r="B21" s="92"/>
+      <c r="C21" s="105" t="s">
+        <v>173</v>
+      </c>
+      <c r="D21" s="84" t="s">
+        <v>94</v>
+      </c>
+      <c r="E21" s="81" t="s">
+        <v>101</v>
+      </c>
+      <c r="F21" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="G21" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="H21" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="I21" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="J21" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="K21" s="86" t="s">
+        <v>46</v>
+      </c>
+      <c r="L21" s="86" t="s">
+        <v>47</v>
+      </c>
+      <c r="M21" s="86" t="s">
+        <v>47</v>
+      </c>
+      <c r="N21" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="P21" s="86" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q21" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="R21" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="S21" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="T21" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="U21" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="V21" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="W21" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="X21" s="3"/>
+    </row>
+    <row r="22" spans="2:24" ht="67.5">
+      <c r="B22" s="92"/>
+      <c r="C22" s="105" t="s">
+        <v>173</v>
+      </c>
+      <c r="D22" s="84" t="s">
+        <v>95</v>
+      </c>
+      <c r="E22" s="81" t="s">
+        <v>101</v>
+      </c>
+      <c r="F22" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="G22" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="H22" s="30" t="s">
+        <v>156</v>
+      </c>
+      <c r="I22" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="J22" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="K22" s="86" t="s">
+        <v>46</v>
+      </c>
+      <c r="L22" s="86" t="s">
+        <v>47</v>
+      </c>
+      <c r="M22" s="86" t="s">
+        <v>47</v>
+      </c>
+      <c r="N22" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="P22" s="86" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q22" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="R22" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="S22" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="T22" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="U22" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="V22" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="W22" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="X22" s="3"/>
+    </row>
+    <row r="23" spans="2:24" ht="41.25" thickBot="1">
+      <c r="B23" s="93"/>
+      <c r="C23" s="109" t="s">
+        <v>173</v>
+      </c>
+      <c r="D23" s="85" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" s="82" t="s">
+        <v>5</v>
+      </c>
+      <c r="F23" s="71" t="s">
+        <v>21</v>
+      </c>
+      <c r="G23" s="87" t="s">
+        <v>33</v>
+      </c>
+      <c r="H23" s="87" t="s">
+        <v>85</v>
+      </c>
+      <c r="I23" s="87" t="s">
+        <v>33</v>
+      </c>
+      <c r="J23" s="87" t="s">
+        <v>33</v>
+      </c>
+      <c r="K23" s="87" t="s">
+        <v>46</v>
+      </c>
+      <c r="L23" s="87" t="s">
+        <v>47</v>
+      </c>
+      <c r="M23" s="87" t="s">
+        <v>47</v>
+      </c>
+      <c r="N23" s="87" t="s">
+        <v>33</v>
+      </c>
+      <c r="O23" s="87" t="s">
+        <v>33</v>
+      </c>
+      <c r="P23" s="86" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q23" s="87" t="s">
+        <v>33</v>
+      </c>
+      <c r="R23" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="S23" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="T23" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="U23" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="V23" s="87" t="s">
+        <v>33</v>
+      </c>
+      <c r="W23" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="X23" s="7"/>
+    </row>
+    <row r="27" spans="2:24">
+      <c r="B27" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" spans="2:24">
+      <c r="B28" s="60" t="s">
+        <v>139</v>
+      </c>
+      <c r="C28" s="60"/>
+    </row>
+    <row r="30" spans="2:24">
+      <c r="B30" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="31" spans="2:24">
+      <c r="B31" s="60" t="s">
+        <v>138</v>
+      </c>
+      <c r="C31" s="60"/>
+    </row>
+    <row r="33" spans="2:3">
+      <c r="B33" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3">
+      <c r="B34" s="60" t="s">
+        <v>137</v>
+      </c>
+      <c r="C34" s="60"/>
+    </row>
+    <row r="36" spans="2:3">
+      <c r="B36" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3">
+      <c r="B37" s="60" t="s">
+        <v>136</v>
+      </c>
+      <c r="C37" s="60"/>
+    </row>
+    <row r="39" spans="2:3">
+      <c r="B39" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3">
+      <c r="B40" s="61" t="s">
+        <v>131</v>
+      </c>
+      <c r="C40" s="61"/>
+    </row>
+    <row r="41" spans="2:3">
+      <c r="B41" s="60" t="s">
+        <v>135</v>
+      </c>
+      <c r="C41" s="60"/>
+    </row>
+    <row r="42" spans="2:3">
+      <c r="B42" s="60" t="s">
+        <v>140</v>
+      </c>
+      <c r="C42" s="60"/>
+    </row>
+    <row r="44" spans="2:3">
+      <c r="B44" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3">
+      <c r="B45" s="60" t="s">
+        <v>158</v>
+      </c>
+      <c r="C45" s="60"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B6:B23"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="B40" r:id="rId1"/>
+    <hyperlink ref="B41" r:id="rId2"/>
+    <hyperlink ref="B37" r:id="rId3"/>
+    <hyperlink ref="B34" r:id="rId4"/>
+    <hyperlink ref="B31" r:id="rId5"/>
+    <hyperlink ref="B28" r:id="rId6"/>
+    <hyperlink ref="B42" r:id="rId7"/>
+    <hyperlink ref="B45" r:id="rId8"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="8" scale="49" orientation="landscape" horizontalDpi="4294967293" r:id="rId9"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="B1:V49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
@@ -3798,7 +5316,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -5254,7 +6772,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:W42"/>
   <sheetViews>
@@ -6610,7 +8128,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:S35"/>
   <sheetViews>
@@ -7628,7 +9146,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:O35"/>
   <sheetViews>

--- a/msx3gen/files/msx_gen3.xlsx
+++ b/msx3gen/files/msx_gen3.xlsx
@@ -22,7 +22,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'2024年9月28日 ver2'!$A$1:$W$50</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'2024年9月28日 ver3'!$A$1:$W$51</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'2024年9月28日 ver4'!$A$1:$Y$47</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'2024年9月28日 ver4'!$A$1:$Z$47</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -33,8 +33,52 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Takayuki Hara</author>
+  </authors>
+  <commentList>
+    <comment ref="F15" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="14"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">ペラペラアニメ再生がキラーアプリ
+→ ペラペラアニメ見たいだけの顧客に、半田付けして組み立て・・を強いるのか？
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F16" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="14"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">ペラペラアニメ再生がキラーアプリ
+→ ペラペラアニメ見たいだけの顧客に、半田付けして組み立て・・を強いるのか？
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2166" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2185" uniqueCount="193">
   <si>
     <t>旧来のMSX</t>
     <rPh sb="0" eb="2">
@@ -1048,12 +1092,122 @@
     <t>SSD???</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>想定顧客</t>
+    <rPh sb="0" eb="2">
+      <t>ソウテイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コキャク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IoT開発者</t>
+    <rPh sb="3" eb="6">
+      <t>カイハツシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MSX愛好家</t>
+    <rPh sb="3" eb="6">
+      <t>アイコウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スパコン利用者</t>
+    <rPh sb="4" eb="7">
+      <t>リヨウシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IoT開発者
+MSX愛好家
+MSXゲーマー</t>
+    <rPh sb="3" eb="6">
+      <t>カイハツシャ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>アイコウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MSX愛好家
+MSXゲーマー</t>
+    <rPh sb="3" eb="6">
+      <t>アイコウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コンピューター初学者
+MSX愛好家
+MSXゲーマー</t>
+    <rPh sb="7" eb="10">
+      <t>ショガクシャ</t>
+    </rPh>
+    <rPh sb="14" eb="17">
+      <t>アイコウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コンピューター初学者
+MSX愛好家
+ペラペラアニメ鑑賞者</t>
+    <rPh sb="7" eb="10">
+      <t>ショガクシャ</t>
+    </rPh>
+    <rPh sb="14" eb="17">
+      <t>アイコウカ</t>
+    </rPh>
+    <rPh sb="25" eb="28">
+      <t>カンショウシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MSX愛好家
+ペラペラアニメ制作者</t>
+    <rPh sb="3" eb="6">
+      <t>アイコウカ</t>
+    </rPh>
+    <rPh sb="14" eb="17">
+      <t>セイサクシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MSX愛好家
+ビデオ編集者</t>
+    <rPh sb="3" eb="6">
+      <t>アイコウカ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>ヘンシュウシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>主ターゲットは誰？</t>
+    <rPh sb="0" eb="1">
+      <t>シュ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ダレ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1152,6 +1306,14 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color indexed="81"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -1774,7 +1936,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2048,15 +2210,33 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2087,23 +2267,20 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2392,14 +2569,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:X45"/>
+  <dimension ref="B1:Y45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" topLeftCell="C11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2408,135 +2585,139 @@
     <col min="2" max="3" width="20.125" customWidth="1"/>
     <col min="4" max="4" width="23" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.875" customWidth="1"/>
-    <col min="6" max="6" width="25.125" customWidth="1"/>
-    <col min="7" max="7" width="12.75" customWidth="1"/>
-    <col min="8" max="10" width="16.75" customWidth="1"/>
-    <col min="11" max="14" width="16.625" customWidth="1"/>
-    <col min="15" max="15" width="21.625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.75" customWidth="1"/>
-    <col min="17" max="17" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="24" customWidth="1"/>
-    <col min="20" max="21" width="19.875" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="24.75" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="3.125" customWidth="1"/>
-    <col min="25" max="25" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.875" customWidth="1"/>
+    <col min="7" max="7" width="25.125" customWidth="1"/>
+    <col min="8" max="8" width="12.75" customWidth="1"/>
+    <col min="9" max="11" width="16.75" customWidth="1"/>
+    <col min="12" max="15" width="16.625" customWidth="1"/>
+    <col min="16" max="16" width="21.625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.75" customWidth="1"/>
+    <col min="18" max="18" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="24" customWidth="1"/>
+    <col min="21" max="22" width="19.875" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="24.75" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="3.125" customWidth="1"/>
+    <col min="26" max="26" width="15.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:24">
-      <c r="G1" s="88" t="s">
+    <row r="1" spans="2:25">
+      <c r="H1" s="88" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="2" spans="2:24">
+    <row r="2" spans="2:25">
       <c r="B2" s="29" t="s">
         <v>54</v>
       </c>
       <c r="C2" s="29"/>
-      <c r="G2" s="89" t="s">
+      <c r="H2" s="89" t="s">
         <v>169</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="3" spans="2:24">
-      <c r="G3" s="90" t="s">
+    <row r="3" spans="2:25">
+      <c r="H3" s="90" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="4" spans="2:24" ht="14.25" thickBot="1"/>
-    <row r="5" spans="2:24" ht="14.25" thickBot="1">
+    <row r="4" spans="2:25" ht="14.25" thickBot="1"/>
+    <row r="5" spans="2:25" ht="14.25" thickBot="1">
       <c r="B5" s="74"/>
-      <c r="C5" s="104"/>
+      <c r="C5" s="91"/>
       <c r="D5" s="76" t="s">
         <v>7</v>
       </c>
       <c r="E5" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="75" t="s">
+      <c r="F5" s="74" t="s">
+        <v>182</v>
+      </c>
+      <c r="G5" s="75" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="75" t="s">
+      <c r="H5" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="75" t="s">
+      <c r="I5" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="I5" s="75" t="s">
+      <c r="J5" s="75" t="s">
         <v>35</v>
       </c>
-      <c r="J5" s="75" t="s">
+      <c r="K5" s="75" t="s">
         <v>38</v>
       </c>
-      <c r="K5" s="75" t="s">
+      <c r="L5" s="75" t="s">
         <v>41</v>
       </c>
-      <c r="L5" s="75" t="s">
+      <c r="M5" s="75" t="s">
         <v>43</v>
       </c>
-      <c r="M5" s="75" t="s">
+      <c r="N5" s="75" t="s">
         <v>48</v>
       </c>
-      <c r="N5" s="75" t="s">
+      <c r="O5" s="75" t="s">
         <v>49</v>
       </c>
-      <c r="O5" s="75" t="s">
+      <c r="P5" s="75" t="s">
         <v>53</v>
       </c>
-      <c r="P5" s="75" t="s">
+      <c r="Q5" s="75" t="s">
         <v>176</v>
       </c>
-      <c r="Q5" s="75" t="s">
+      <c r="R5" s="75" t="s">
         <v>55</v>
       </c>
-      <c r="R5" s="75" t="s">
+      <c r="S5" s="75" t="s">
         <v>68</v>
       </c>
-      <c r="S5" s="75" t="s">
+      <c r="T5" s="75" t="s">
         <v>78</v>
       </c>
-      <c r="T5" s="75"/>
-      <c r="U5" s="75" t="s">
+      <c r="U5" s="75"/>
+      <c r="V5" s="75" t="s">
         <v>112</v>
       </c>
-      <c r="V5" s="75" t="s">
+      <c r="W5" s="75" t="s">
         <v>120</v>
       </c>
-      <c r="W5" s="75" t="s">
+      <c r="X5" s="75" t="s">
         <v>127</v>
       </c>
-      <c r="X5" s="76"/>
-    </row>
-    <row r="6" spans="2:24" ht="40.5">
-      <c r="B6" s="106" t="s">
+      <c r="Y5" s="76"/>
+    </row>
+    <row r="6" spans="2:25" ht="51.75">
+      <c r="B6" s="96" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="107" t="s">
+      <c r="C6" s="93" t="s">
         <v>173</v>
       </c>
-      <c r="D6" s="108" t="s">
+      <c r="D6" s="94" t="s">
         <v>8</v>
       </c>
       <c r="E6" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="68" t="s">
+      <c r="F6" s="113" t="s">
+        <v>186</v>
+      </c>
+      <c r="G6" s="68" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="69" t="s">
+      <c r="H6" s="69" t="s">
         <v>30</v>
       </c>
-      <c r="H6" s="68" t="s">
+      <c r="I6" s="68" t="s">
         <v>56</v>
       </c>
-      <c r="I6" s="69" t="s">
+      <c r="J6" s="69" t="s">
         <v>37</v>
       </c>
-      <c r="J6" s="69" t="s">
-        <v>42</v>
-      </c>
       <c r="K6" s="69" t="s">
         <v>42</v>
       </c>
@@ -2544,41 +2725,44 @@
         <v>42</v>
       </c>
       <c r="M6" s="69" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="N6" s="69" t="s">
+        <v>45</v>
+      </c>
+      <c r="O6" s="69" t="s">
         <v>52</v>
       </c>
-      <c r="O6" s="69" t="s">
+      <c r="P6" s="69" t="s">
         <v>39</v>
       </c>
-      <c r="P6" s="68" t="s">
+      <c r="Q6" s="68" t="s">
         <v>177</v>
       </c>
-      <c r="Q6" s="69" t="s">
+      <c r="R6" s="69" t="s">
         <v>39</v>
       </c>
-      <c r="R6" s="69" t="s">
+      <c r="S6" s="69" t="s">
         <v>71</v>
       </c>
-      <c r="S6" s="69" t="s">
+      <c r="T6" s="69" t="s">
         <v>102</v>
       </c>
-      <c r="T6" s="69"/>
-      <c r="U6" s="69" t="s">
+      <c r="U6" s="69"/>
+      <c r="V6" s="69" t="s">
         <v>114</v>
       </c>
-      <c r="V6" s="69" t="s">
+      <c r="W6" s="69" t="s">
         <v>121</v>
       </c>
-      <c r="W6" s="69" t="s">
+      <c r="X6" s="69" t="s">
         <v>129</v>
       </c>
-      <c r="X6" s="70"/>
-    </row>
-    <row r="7" spans="2:24" ht="40.5">
-      <c r="B7" s="92"/>
-      <c r="C7" s="105" t="s">
+      <c r="Y6" s="70"/>
+    </row>
+    <row r="7" spans="2:25" ht="40.5">
+      <c r="B7" s="97"/>
+      <c r="C7" s="92" t="s">
         <v>173</v>
       </c>
       <c r="D7" s="84" t="s">
@@ -2587,21 +2771,21 @@
       <c r="E7" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="30" t="s">
+      <c r="F7" s="110" t="s">
+        <v>183</v>
+      </c>
+      <c r="G7" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H7" s="30" t="s">
+      <c r="I7" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="J7" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="J7" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="K7" s="1" t="s">
         <v>42</v>
       </c>
@@ -2609,41 +2793,44 @@
         <v>42</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="N7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O7" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="O7" s="1" t="s">
+      <c r="P7" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="P7" s="30" t="s">
+      <c r="Q7" s="30" t="s">
         <v>178</v>
       </c>
-      <c r="Q7" s="1" t="s">
+      <c r="R7" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="R7" s="1" t="s">
+      <c r="S7" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="S7" s="1" t="s">
+      <c r="T7" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="T7" s="1"/>
-      <c r="U7" s="1" t="s">
+      <c r="U7" s="1"/>
+      <c r="V7" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="V7" s="86" t="s">
+      <c r="W7" s="86" t="s">
         <v>126</v>
       </c>
-      <c r="W7" s="1" t="s">
+      <c r="X7" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="X7" s="3"/>
-    </row>
-    <row r="8" spans="2:24" ht="40.5">
-      <c r="B8" s="92"/>
-      <c r="C8" s="105" t="s">
+      <c r="Y7" s="3"/>
+    </row>
+    <row r="8" spans="2:25" ht="40.5">
+      <c r="B8" s="97"/>
+      <c r="C8" s="92" t="s">
         <v>174</v>
       </c>
       <c r="D8" s="84" t="s">
@@ -2652,21 +2839,21 @@
       <c r="E8" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="30" t="s">
+      <c r="F8" s="110" t="s">
+        <v>187</v>
+      </c>
+      <c r="G8" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H8" s="30" t="s">
+      <c r="I8" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="J8" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="K8" s="1" t="s">
         <v>42</v>
       </c>
@@ -2674,41 +2861,44 @@
         <v>42</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="N8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O8" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="O8" s="1" t="s">
+      <c r="P8" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="P8" s="30" t="s">
+      <c r="Q8" s="30" t="s">
         <v>178</v>
       </c>
-      <c r="Q8" s="1" t="s">
+      <c r="R8" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="R8" s="1" t="s">
+      <c r="S8" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="S8" s="1" t="s">
+      <c r="T8" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="T8" s="1"/>
-      <c r="U8" s="1" t="s">
+      <c r="U8" s="1"/>
+      <c r="V8" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="V8" s="86" t="s">
+      <c r="W8" s="86" t="s">
         <v>141</v>
       </c>
-      <c r="W8" s="1" t="s">
+      <c r="X8" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="X8" s="3"/>
-    </row>
-    <row r="9" spans="2:24" ht="40.5">
-      <c r="B9" s="92"/>
-      <c r="C9" s="105" t="s">
+      <c r="Y8" s="3"/>
+    </row>
+    <row r="9" spans="2:25" ht="40.5">
+      <c r="B9" s="97"/>
+      <c r="C9" s="92" t="s">
         <v>174</v>
       </c>
       <c r="D9" s="84" t="s">
@@ -2717,21 +2907,21 @@
       <c r="E9" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="30" t="s">
+      <c r="F9" s="111" t="s">
+        <v>184</v>
+      </c>
+      <c r="G9" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="H9" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H9" s="30" t="s">
+      <c r="I9" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="J9" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="J9" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="K9" s="1" t="s">
         <v>42</v>
       </c>
@@ -2739,41 +2929,44 @@
         <v>42</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="N9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O9" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="O9" s="1" t="s">
+      <c r="P9" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="P9" s="30" t="s">
+      <c r="Q9" s="30" t="s">
         <v>178</v>
       </c>
-      <c r="Q9" s="1" t="s">
+      <c r="R9" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="R9" s="1" t="s">
+      <c r="S9" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="S9" s="1" t="s">
+      <c r="T9" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="T9" s="1"/>
-      <c r="U9" s="1" t="s">
+      <c r="U9" s="1"/>
+      <c r="V9" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="V9" s="86" t="s">
+      <c r="W9" s="86" t="s">
         <v>142</v>
       </c>
-      <c r="W9" s="1" t="s">
+      <c r="X9" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="X9" s="3"/>
-    </row>
-    <row r="10" spans="2:24" ht="54">
-      <c r="B10" s="92"/>
-      <c r="C10" s="105" t="s">
+      <c r="Y9" s="3"/>
+    </row>
+    <row r="10" spans="2:25" ht="54">
+      <c r="B10" s="97"/>
+      <c r="C10" s="92" t="s">
         <v>174</v>
       </c>
       <c r="D10" s="84" t="s">
@@ -2782,21 +2975,21 @@
       <c r="E10" s="80" t="s">
         <v>161</v>
       </c>
-      <c r="F10" s="30" t="s">
+      <c r="F10" s="110" t="s">
+        <v>187</v>
+      </c>
+      <c r="G10" s="30" t="s">
         <v>149</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="H10" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H10" s="30" t="s">
+      <c r="I10" s="30" t="s">
         <v>150</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="J10" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="J10" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="K10" s="1" t="s">
         <v>42</v>
       </c>
@@ -2804,41 +2997,44 @@
         <v>42</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="N10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O10" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="O10" s="1" t="s">
+      <c r="P10" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="P10" s="30" t="s">
+      <c r="Q10" s="30" t="s">
         <v>178</v>
       </c>
-      <c r="Q10" s="1" t="s">
+      <c r="R10" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="R10" s="1" t="s">
+      <c r="S10" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="S10" s="1" t="s">
+      <c r="T10" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="T10" s="1"/>
-      <c r="U10" s="1" t="s">
+      <c r="U10" s="1"/>
+      <c r="V10" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="V10" s="86" t="s">
+      <c r="W10" s="86" t="s">
         <v>163</v>
       </c>
-      <c r="W10" s="1" t="s">
+      <c r="X10" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="X10" s="3"/>
-    </row>
-    <row r="11" spans="2:24" ht="40.5">
-      <c r="B11" s="92"/>
-      <c r="C11" s="105" t="s">
+      <c r="Y10" s="3"/>
+    </row>
+    <row r="11" spans="2:25" ht="40.5">
+      <c r="B11" s="97"/>
+      <c r="C11" s="92" t="s">
         <v>173</v>
       </c>
       <c r="D11" s="84" t="s">
@@ -2847,21 +3043,21 @@
       <c r="E11" s="80" t="s">
         <v>161</v>
       </c>
-      <c r="F11" s="30" t="s">
+      <c r="F11" s="111" t="s">
+        <v>183</v>
+      </c>
+      <c r="G11" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="H11" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H11" s="30" t="s">
+      <c r="I11" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="J11" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="J11" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="K11" s="1" t="s">
         <v>42</v>
       </c>
@@ -2869,41 +3065,44 @@
         <v>42</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="N11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O11" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="O11" s="1" t="s">
+      <c r="P11" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="P11" s="30" t="s">
+      <c r="Q11" s="30" t="s">
         <v>178</v>
       </c>
-      <c r="Q11" s="1" t="s">
+      <c r="R11" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="R11" s="1" t="s">
+      <c r="S11" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="S11" s="1" t="s">
+      <c r="T11" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="T11" s="1"/>
-      <c r="U11" s="1" t="s">
+      <c r="U11" s="1"/>
+      <c r="V11" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="V11" s="86" t="s">
+      <c r="W11" s="86" t="s">
         <v>163</v>
       </c>
-      <c r="W11" s="1" t="s">
+      <c r="X11" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="2:24" ht="40.5">
-      <c r="B12" s="92"/>
-      <c r="C12" s="105" t="s">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="2:25" ht="40.5">
+      <c r="B12" s="97"/>
+      <c r="C12" s="92" t="s">
         <v>173</v>
       </c>
       <c r="D12" s="84" t="s">
@@ -2912,21 +3111,21 @@
       <c r="E12" s="80" t="s">
         <v>161</v>
       </c>
-      <c r="F12" s="30" t="s">
+      <c r="F12" s="111" t="s">
+        <v>183</v>
+      </c>
+      <c r="G12" s="30" t="s">
         <v>162</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="H12" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="H12" s="30" t="s">
+      <c r="I12" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="J12" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="J12" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="K12" s="1" t="s">
         <v>42</v>
       </c>
@@ -2934,41 +3133,44 @@
         <v>42</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="N12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O12" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="O12" s="1" t="s">
+      <c r="P12" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="P12" s="30" t="s">
+      <c r="Q12" s="30" t="s">
         <v>178</v>
       </c>
-      <c r="Q12" s="1" t="s">
+      <c r="R12" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="R12" s="1" t="s">
+      <c r="S12" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="S12" s="1" t="s">
+      <c r="T12" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="T12" s="1"/>
-      <c r="U12" s="1" t="s">
+      <c r="U12" s="1"/>
+      <c r="V12" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="V12" s="86" t="s">
+      <c r="W12" s="86" t="s">
         <v>163</v>
       </c>
-      <c r="W12" s="1" t="s">
+      <c r="X12" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="X12" s="3"/>
-    </row>
-    <row r="13" spans="2:24" ht="40.5">
-      <c r="B13" s="92"/>
-      <c r="C13" s="105" t="s">
+      <c r="Y12" s="3"/>
+    </row>
+    <row r="13" spans="2:25" ht="40.5">
+      <c r="B13" s="97"/>
+      <c r="C13" s="92" t="s">
         <v>173</v>
       </c>
       <c r="D13" s="84" t="s">
@@ -2977,21 +3179,21 @@
       <c r="E13" s="80" t="s">
         <v>161</v>
       </c>
-      <c r="F13" s="30" t="s">
+      <c r="F13" s="110" t="s">
+        <v>187</v>
+      </c>
+      <c r="G13" s="30" t="s">
         <v>162</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="H13" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H13" s="30" t="s">
+      <c r="I13" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="J13" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="J13" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="K13" s="1" t="s">
         <v>42</v>
       </c>
@@ -2999,41 +3201,44 @@
         <v>42</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="N13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O13" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="O13" s="1" t="s">
+      <c r="P13" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="P13" s="86" t="s">
+      <c r="Q13" s="86" t="s">
         <v>179</v>
       </c>
-      <c r="Q13" s="1" t="s">
+      <c r="R13" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="R13" s="1" t="s">
+      <c r="S13" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="S13" s="1" t="s">
+      <c r="T13" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="T13" s="1"/>
-      <c r="U13" s="1" t="s">
+      <c r="U13" s="1"/>
+      <c r="V13" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="V13" s="86" t="s">
+      <c r="W13" s="86" t="s">
         <v>163</v>
       </c>
-      <c r="W13" s="1" t="s">
+      <c r="X13" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="X13" s="3"/>
-    </row>
-    <row r="14" spans="2:24" ht="18.75">
-      <c r="B14" s="92"/>
-      <c r="C14" s="105" t="s">
+      <c r="Y13" s="3"/>
+    </row>
+    <row r="14" spans="2:25" ht="51.75">
+      <c r="B14" s="97"/>
+      <c r="C14" s="92" t="s">
         <v>173</v>
       </c>
       <c r="D14" s="84" t="s">
@@ -3042,65 +3247,68 @@
       <c r="E14" s="81" t="s">
         <v>16</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F14" s="110" t="s">
+        <v>188</v>
+      </c>
+      <c r="G14" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="H14" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="I14" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I14" s="1" t="s">
+      <c r="J14" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="J14" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="K14" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="L14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M14" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="M14" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="N14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O14" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="O14" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="P14" s="86" t="s">
+      <c r="P14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q14" s="86" t="s">
         <v>180</v>
       </c>
-      <c r="Q14" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="R14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="S14" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="S14" s="1" t="s">
+      <c r="T14" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="T14" s="1" t="s">
+      <c r="U14" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="U14" s="1" t="s">
+      <c r="V14" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="V14" s="86" t="s">
+      <c r="W14" s="86" t="s">
         <v>144</v>
       </c>
-      <c r="W14" s="1" t="s">
+      <c r="X14" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="X14" s="3"/>
-    </row>
-    <row r="15" spans="2:24" ht="18.75">
-      <c r="B15" s="92"/>
-      <c r="C15" s="105" t="s">
+      <c r="Y14" s="3"/>
+    </row>
+    <row r="15" spans="2:25" ht="51.75">
+      <c r="B15" s="97"/>
+      <c r="C15" s="92" t="s">
         <v>173</v>
       </c>
       <c r="D15" s="84" t="s">
@@ -3109,65 +3317,68 @@
       <c r="E15" s="81" t="s">
         <v>16</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F15" s="110" t="s">
+        <v>189</v>
+      </c>
+      <c r="G15" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="H15" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="I15" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="I15" s="1" t="s">
+      <c r="J15" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="J15" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="K15" s="1" t="s">
         <v>45</v>
       </c>
       <c r="L15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M15" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="M15" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="N15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O15" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="O15" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="P15" s="86" t="s">
+      <c r="P15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q15" s="86" t="s">
         <v>180</v>
       </c>
-      <c r="Q15" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="R15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="S15" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="S15" s="1" t="s">
+      <c r="T15" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="T15" s="1" t="s">
+      <c r="U15" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="U15" s="1" t="s">
+      <c r="V15" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="V15" s="86" t="s">
+      <c r="W15" s="86" t="s">
         <v>143</v>
       </c>
-      <c r="W15" s="1" t="s">
+      <c r="X15" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="X15" s="3"/>
-    </row>
-    <row r="16" spans="2:24" ht="18.75">
-      <c r="B16" s="92"/>
-      <c r="C16" s="105" t="s">
+      <c r="Y15" s="3"/>
+    </row>
+    <row r="16" spans="2:25" ht="51.75">
+      <c r="B16" s="97"/>
+      <c r="C16" s="92" t="s">
         <v>173</v>
       </c>
       <c r="D16" s="84" t="s">
@@ -3176,65 +3387,68 @@
       <c r="E16" s="81" t="s">
         <v>16</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F16" s="110" t="s">
+        <v>189</v>
+      </c>
+      <c r="G16" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="H16" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="I16" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="I16" s="1" t="s">
+      <c r="J16" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="J16" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="K16" s="1" t="s">
         <v>45</v>
       </c>
       <c r="L16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M16" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="M16" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="N16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O16" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="O16" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="P16" s="86" t="s">
+      <c r="P16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q16" s="86" t="s">
         <v>180</v>
       </c>
-      <c r="Q16" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="R16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="S16" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="S16" s="1" t="s">
+      <c r="T16" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="T16" s="1" t="s">
+      <c r="U16" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="U16" s="1" t="s">
+      <c r="V16" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="V16" s="86" t="s">
+      <c r="W16" s="86" t="s">
         <v>143</v>
       </c>
-      <c r="W16" s="1" t="s">
+      <c r="X16" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="2:24" ht="54">
-      <c r="B17" s="92"/>
-      <c r="C17" s="105" t="s">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="2:25" ht="54">
+      <c r="B17" s="97"/>
+      <c r="C17" s="92" t="s">
         <v>173</v>
       </c>
       <c r="D17" s="84" t="s">
@@ -3243,65 +3457,68 @@
       <c r="E17" s="81" t="s">
         <v>60</v>
       </c>
-      <c r="F17" s="30" t="s">
+      <c r="F17" s="110" t="s">
+        <v>190</v>
+      </c>
+      <c r="G17" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="G17" s="86" t="s">
+      <c r="H17" s="86" t="s">
         <v>62</v>
       </c>
-      <c r="H17" s="30" t="s">
+      <c r="I17" s="30" t="s">
         <v>152</v>
       </c>
-      <c r="I17" s="1" t="s">
+      <c r="J17" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="J17" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="K17" s="86" t="s">
+      <c r="K17" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="L17" s="86" t="s">
         <v>46</v>
       </c>
-      <c r="L17" s="1" t="s">
+      <c r="M17" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="M17" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="N17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O17" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="O17" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="P17" s="86" t="s">
+      <c r="P17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q17" s="86" t="s">
         <v>180</v>
       </c>
-      <c r="Q17" s="1" t="s">
+      <c r="R17" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="R17" s="1" t="s">
+      <c r="S17" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="S17" s="1" t="s">
+      <c r="T17" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="T17" s="1" t="s">
+      <c r="U17" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="U17" s="1" t="s">
+      <c r="V17" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="V17" s="86" t="s">
+      <c r="W17" s="86" t="s">
         <v>145</v>
       </c>
-      <c r="W17" s="1" t="s">
+      <c r="X17" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="X17" s="3"/>
-    </row>
-    <row r="18" spans="2:24" ht="54">
-      <c r="B18" s="92"/>
-      <c r="C18" s="105" t="s">
+      <c r="Y17" s="3"/>
+    </row>
+    <row r="18" spans="2:25" ht="54">
+      <c r="B18" s="97"/>
+      <c r="C18" s="92" t="s">
         <v>173</v>
       </c>
       <c r="D18" s="84" t="s">
@@ -3310,65 +3527,68 @@
       <c r="E18" s="81" t="s">
         <v>57</v>
       </c>
-      <c r="F18" s="30" t="s">
+      <c r="F18" s="110" t="s">
+        <v>190</v>
+      </c>
+      <c r="G18" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="G18" s="86" t="s">
-        <v>33</v>
-      </c>
-      <c r="H18" s="30" t="s">
+      <c r="H18" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="I18" s="30" t="s">
         <v>153</v>
       </c>
-      <c r="I18" s="1" t="s">
+      <c r="J18" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="J18" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="K18" s="86" t="s">
+      <c r="K18" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="L18" s="86" t="s">
         <v>46</v>
       </c>
-      <c r="L18" s="1" t="s">
+      <c r="M18" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="M18" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="N18" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O18" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="O18" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="P18" s="86" t="s">
+      <c r="P18" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q18" s="86" t="s">
         <v>180</v>
       </c>
-      <c r="Q18" s="1" t="s">
+      <c r="R18" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="R18" s="1" t="s">
+      <c r="S18" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="S18" s="1" t="s">
+      <c r="T18" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="T18" s="1" t="s">
+      <c r="U18" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="U18" s="1" t="s">
+      <c r="V18" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="V18" s="86" t="s">
-        <v>33</v>
-      </c>
-      <c r="W18" s="1" t="s">
+      <c r="W18" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="X18" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="X18" s="3"/>
-    </row>
-    <row r="19" spans="2:24" ht="67.5">
-      <c r="B19" s="92"/>
-      <c r="C19" s="105" t="s">
+      <c r="Y18" s="3"/>
+    </row>
+    <row r="19" spans="2:25" ht="67.5">
+      <c r="B19" s="97"/>
+      <c r="C19" s="92" t="s">
         <v>173</v>
       </c>
       <c r="D19" s="84" t="s">
@@ -3377,65 +3597,68 @@
       <c r="E19" s="81" t="s">
         <v>100</v>
       </c>
-      <c r="F19" s="30" t="s">
+      <c r="F19" s="110" t="s">
+        <v>191</v>
+      </c>
+      <c r="G19" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="G19" s="86" t="s">
-        <v>33</v>
-      </c>
-      <c r="H19" s="30" t="s">
+      <c r="H19" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="I19" s="30" t="s">
         <v>154</v>
       </c>
-      <c r="I19" s="86" t="s">
-        <v>33</v>
-      </c>
       <c r="J19" s="86" t="s">
         <v>33</v>
       </c>
       <c r="K19" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="L19" s="86" t="s">
         <v>46</v>
-      </c>
-      <c r="L19" s="86" t="s">
-        <v>47</v>
       </c>
       <c r="M19" s="86" t="s">
         <v>47</v>
       </c>
       <c r="N19" s="86" t="s">
-        <v>33</v>
-      </c>
-      <c r="O19" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="P19" s="86" t="s">
+        <v>47</v>
+      </c>
+      <c r="O19" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q19" s="86" t="s">
         <v>180</v>
       </c>
-      <c r="Q19" s="86" t="s">
-        <v>33</v>
-      </c>
-      <c r="R19" s="30" t="s">
+      <c r="R19" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="S19" s="30" t="s">
         <v>111</v>
       </c>
-      <c r="S19" s="1" t="s">
+      <c r="T19" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="T19" s="1" t="s">
+      <c r="U19" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="U19" s="1" t="s">
+      <c r="V19" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="V19" s="86" t="s">
-        <v>33</v>
-      </c>
-      <c r="W19" s="1" t="s">
+      <c r="W19" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="X19" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="2:24" ht="67.5">
-      <c r="B20" s="92"/>
-      <c r="C20" s="105" t="s">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="2:25" ht="67.5">
+      <c r="B20" s="97"/>
+      <c r="C20" s="92" t="s">
         <v>174</v>
       </c>
       <c r="D20" s="84" t="s">
@@ -3444,65 +3667,68 @@
       <c r="E20" s="80" t="s">
         <v>172</v>
       </c>
-      <c r="F20" s="30" t="s">
+      <c r="F20" s="111" t="s">
+        <v>184</v>
+      </c>
+      <c r="G20" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="G20" s="86" t="s">
-        <v>33</v>
-      </c>
-      <c r="H20" s="30" t="s">
+      <c r="H20" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="I20" s="30" t="s">
         <v>154</v>
       </c>
-      <c r="I20" s="86" t="s">
-        <v>33</v>
-      </c>
       <c r="J20" s="86" t="s">
         <v>33</v>
       </c>
       <c r="K20" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="L20" s="86" t="s">
         <v>46</v>
-      </c>
-      <c r="L20" s="86" t="s">
-        <v>47</v>
       </c>
       <c r="M20" s="86" t="s">
         <v>47</v>
       </c>
       <c r="N20" s="86" t="s">
-        <v>33</v>
-      </c>
-      <c r="O20" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="P20" s="86" t="s">
+        <v>47</v>
+      </c>
+      <c r="O20" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q20" s="86" t="s">
         <v>180</v>
       </c>
-      <c r="Q20" s="86" t="s">
-        <v>33</v>
-      </c>
-      <c r="R20" s="30" t="s">
+      <c r="R20" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="S20" s="30" t="s">
         <v>111</v>
       </c>
-      <c r="S20" s="1" t="s">
+      <c r="T20" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="T20" s="1" t="s">
+      <c r="U20" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="U20" s="1" t="s">
+      <c r="V20" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="V20" s="86" t="s">
-        <v>33</v>
-      </c>
       <c r="W20" s="86" t="s">
         <v>33</v>
       </c>
-      <c r="X20" s="3"/>
-    </row>
-    <row r="21" spans="2:24" ht="67.5">
-      <c r="B21" s="92"/>
-      <c r="C21" s="105" t="s">
+      <c r="X20" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y20" s="3"/>
+    </row>
+    <row r="21" spans="2:25" ht="67.5">
+      <c r="B21" s="97"/>
+      <c r="C21" s="92" t="s">
         <v>173</v>
       </c>
       <c r="D21" s="84" t="s">
@@ -3511,65 +3737,68 @@
       <c r="E21" s="81" t="s">
         <v>101</v>
       </c>
-      <c r="F21" s="30" t="s">
+      <c r="F21" s="114" t="s">
+        <v>192</v>
+      </c>
+      <c r="G21" s="30" t="s">
         <v>96</v>
       </c>
-      <c r="G21" s="86" t="s">
-        <v>33</v>
-      </c>
-      <c r="H21" s="30" t="s">
+      <c r="H21" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="I21" s="30" t="s">
         <v>155</v>
       </c>
-      <c r="I21" s="86" t="s">
-        <v>33</v>
-      </c>
       <c r="J21" s="86" t="s">
         <v>33</v>
       </c>
       <c r="K21" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="L21" s="86" t="s">
         <v>46</v>
-      </c>
-      <c r="L21" s="86" t="s">
-        <v>47</v>
       </c>
       <c r="M21" s="86" t="s">
         <v>47</v>
       </c>
       <c r="N21" s="86" t="s">
-        <v>33</v>
-      </c>
-      <c r="O21" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="P21" s="86" t="s">
+        <v>47</v>
+      </c>
+      <c r="O21" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q21" s="86" t="s">
         <v>180</v>
       </c>
-      <c r="Q21" s="86" t="s">
-        <v>33</v>
-      </c>
-      <c r="R21" s="30" t="s">
+      <c r="R21" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="S21" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="S21" s="1" t="s">
+      <c r="T21" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="T21" s="1" t="s">
+      <c r="U21" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="U21" s="1" t="s">
+      <c r="V21" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="V21" s="86" t="s">
-        <v>33</v>
-      </c>
-      <c r="W21" s="1" t="s">
+      <c r="W21" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="X21" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="X21" s="3"/>
-    </row>
-    <row r="22" spans="2:24" ht="67.5">
-      <c r="B22" s="92"/>
-      <c r="C22" s="105" t="s">
+      <c r="Y21" s="3"/>
+    </row>
+    <row r="22" spans="2:25" ht="67.5">
+      <c r="B22" s="97"/>
+      <c r="C22" s="92" t="s">
         <v>173</v>
       </c>
       <c r="D22" s="84" t="s">
@@ -3578,65 +3807,68 @@
       <c r="E22" s="81" t="s">
         <v>101</v>
       </c>
-      <c r="F22" s="30" t="s">
+      <c r="F22" s="114" t="s">
+        <v>192</v>
+      </c>
+      <c r="G22" s="30" t="s">
         <v>96</v>
       </c>
-      <c r="G22" s="86" t="s">
-        <v>33</v>
-      </c>
-      <c r="H22" s="30" t="s">
+      <c r="H22" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="I22" s="30" t="s">
         <v>156</v>
       </c>
-      <c r="I22" s="86" t="s">
-        <v>33</v>
-      </c>
       <c r="J22" s="86" t="s">
         <v>33</v>
       </c>
       <c r="K22" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="L22" s="86" t="s">
         <v>46</v>
-      </c>
-      <c r="L22" s="86" t="s">
-        <v>47</v>
       </c>
       <c r="M22" s="86" t="s">
         <v>47</v>
       </c>
       <c r="N22" s="86" t="s">
-        <v>33</v>
-      </c>
-      <c r="O22" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="P22" s="86" t="s">
+        <v>47</v>
+      </c>
+      <c r="O22" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q22" s="86" t="s">
         <v>180</v>
       </c>
-      <c r="Q22" s="86" t="s">
-        <v>33</v>
-      </c>
-      <c r="R22" s="30" t="s">
+      <c r="R22" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="S22" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="S22" s="1" t="s">
+      <c r="T22" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="T22" s="1" t="s">
+      <c r="U22" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="U22" s="1" t="s">
+      <c r="V22" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="V22" s="86" t="s">
-        <v>33</v>
-      </c>
-      <c r="W22" s="1" t="s">
+      <c r="W22" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="X22" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="X22" s="3"/>
-    </row>
-    <row r="23" spans="2:24" ht="41.25" thickBot="1">
-      <c r="B23" s="93"/>
-      <c r="C23" s="109" t="s">
+      <c r="Y22" s="3"/>
+    </row>
+    <row r="23" spans="2:25" ht="41.25" thickBot="1">
+      <c r="B23" s="98"/>
+      <c r="C23" s="95" t="s">
         <v>173</v>
       </c>
       <c r="D23" s="85" t="s">
@@ -3645,79 +3877,82 @@
       <c r="E23" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="F23" s="71" t="s">
+      <c r="F23" s="112" t="s">
+        <v>185</v>
+      </c>
+      <c r="G23" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="G23" s="87" t="s">
-        <v>33</v>
-      </c>
       <c r="H23" s="87" t="s">
+        <v>33</v>
+      </c>
+      <c r="I23" s="87" t="s">
         <v>85</v>
       </c>
-      <c r="I23" s="87" t="s">
-        <v>33</v>
-      </c>
       <c r="J23" s="87" t="s">
         <v>33</v>
       </c>
       <c r="K23" s="87" t="s">
+        <v>33</v>
+      </c>
+      <c r="L23" s="87" t="s">
         <v>46</v>
-      </c>
-      <c r="L23" s="87" t="s">
-        <v>47</v>
       </c>
       <c r="M23" s="87" t="s">
         <v>47</v>
       </c>
       <c r="N23" s="87" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="O23" s="87" t="s">
         <v>33</v>
       </c>
-      <c r="P23" s="86" t="s">
+      <c r="P23" s="87" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q23" s="86" t="s">
         <v>181</v>
       </c>
-      <c r="Q23" s="87" t="s">
-        <v>33</v>
-      </c>
-      <c r="R23" s="6" t="s">
+      <c r="R23" s="87" t="s">
+        <v>33</v>
+      </c>
+      <c r="S23" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="S23" s="6" t="s">
+      <c r="T23" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="T23" s="6" t="s">
+      <c r="U23" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="U23" s="6" t="s">
+      <c r="V23" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="V23" s="87" t="s">
-        <v>33</v>
-      </c>
-      <c r="W23" s="6" t="s">
+      <c r="W23" s="87" t="s">
+        <v>33</v>
+      </c>
+      <c r="X23" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="X23" s="7"/>
-    </row>
-    <row r="27" spans="2:24">
+      <c r="Y23" s="7"/>
+    </row>
+    <row r="27" spans="2:25">
       <c r="B27" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="28" spans="2:24">
+    <row r="28" spans="2:25">
       <c r="B28" s="60" t="s">
         <v>139</v>
       </c>
       <c r="C28" s="60"/>
     </row>
-    <row r="30" spans="2:24">
+    <row r="30" spans="2:25">
       <c r="B30" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="31" spans="2:24">
+    <row r="31" spans="2:25">
       <c r="B31" s="60" t="s">
         <v>138</v>
       </c>
@@ -3795,7 +4030,8 @@
     <hyperlink ref="B45" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="8" scale="49" orientation="landscape" horizontalDpi="4294967293" r:id="rId9"/>
+  <pageSetup paperSize="8" scale="42" orientation="landscape" horizontalDpi="4294967293" r:id="rId9"/>
+  <legacyDrawing r:id="rId10"/>
 </worksheet>
 </file>
 
@@ -3912,7 +4148,7 @@
       <c r="V5" s="76"/>
     </row>
     <row r="6" spans="2:22" ht="17.25">
-      <c r="B6" s="91" t="s">
+      <c r="B6" s="99" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="83" t="s">
@@ -3971,7 +4207,7 @@
       <c r="V6" s="73"/>
     </row>
     <row r="7" spans="2:22" ht="17.25">
-      <c r="B7" s="92"/>
+      <c r="B7" s="97"/>
       <c r="C7" s="84" t="s">
         <v>2</v>
       </c>
@@ -4028,7 +4264,7 @@
       <c r="V7" s="47"/>
     </row>
     <row r="8" spans="2:22" ht="17.25">
-      <c r="B8" s="92"/>
+      <c r="B8" s="97"/>
       <c r="C8" s="84" t="s">
         <v>3</v>
       </c>
@@ -4085,7 +4321,7 @@
       <c r="V8" s="47"/>
     </row>
     <row r="9" spans="2:22" ht="27">
-      <c r="B9" s="92"/>
+      <c r="B9" s="97"/>
       <c r="C9" s="84" t="s">
         <v>4</v>
       </c>
@@ -4142,7 +4378,7 @@
       <c r="V9" s="47"/>
     </row>
     <row r="10" spans="2:22" ht="40.5">
-      <c r="B10" s="92" t="s">
+      <c r="B10" s="97" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="84" t="s">
@@ -4203,7 +4439,7 @@
       <c r="V10" s="70"/>
     </row>
     <row r="11" spans="2:22" ht="40.5">
-      <c r="B11" s="92"/>
+      <c r="B11" s="97"/>
       <c r="C11" s="84" t="s">
         <v>9</v>
       </c>
@@ -4262,7 +4498,7 @@
       <c r="V11" s="3"/>
     </row>
     <row r="12" spans="2:22" ht="40.5">
-      <c r="B12" s="92"/>
+      <c r="B12" s="97"/>
       <c r="C12" s="84" t="s">
         <v>104</v>
       </c>
@@ -4321,7 +4557,7 @@
       <c r="V12" s="3"/>
     </row>
     <row r="13" spans="2:22" ht="40.5">
-      <c r="B13" s="92"/>
+      <c r="B13" s="97"/>
       <c r="C13" s="84" t="s">
         <v>105</v>
       </c>
@@ -4380,7 +4616,7 @@
       <c r="V13" s="3"/>
     </row>
     <row r="14" spans="2:22" ht="54">
-      <c r="B14" s="92"/>
+      <c r="B14" s="97"/>
       <c r="C14" s="84" t="s">
         <v>148</v>
       </c>
@@ -4439,7 +4675,7 @@
       <c r="V14" s="3"/>
     </row>
     <row r="15" spans="2:22" ht="40.5">
-      <c r="B15" s="92"/>
+      <c r="B15" s="97"/>
       <c r="C15" s="84" t="s">
         <v>146</v>
       </c>
@@ -4498,7 +4734,7 @@
       <c r="V15" s="3"/>
     </row>
     <row r="16" spans="2:22" ht="40.5">
-      <c r="B16" s="92"/>
+      <c r="B16" s="97"/>
       <c r="C16" s="84" t="s">
         <v>147</v>
       </c>
@@ -4557,7 +4793,7 @@
       <c r="V16" s="3"/>
     </row>
     <row r="17" spans="2:22" ht="40.5">
-      <c r="B17" s="92"/>
+      <c r="B17" s="97"/>
       <c r="C17" s="84" t="s">
         <v>160</v>
       </c>
@@ -4616,7 +4852,7 @@
       <c r="V17" s="3"/>
     </row>
     <row r="18" spans="2:22" ht="17.25">
-      <c r="B18" s="92"/>
+      <c r="B18" s="97"/>
       <c r="C18" s="84" t="s">
         <v>10</v>
       </c>
@@ -4677,7 +4913,7 @@
       <c r="V18" s="3"/>
     </row>
     <row r="19" spans="2:22" ht="17.25">
-      <c r="B19" s="92"/>
+      <c r="B19" s="97"/>
       <c r="C19" s="84" t="s">
         <v>3</v>
       </c>
@@ -4738,7 +4974,7 @@
       <c r="V19" s="3"/>
     </row>
     <row r="20" spans="2:22" ht="17.25">
-      <c r="B20" s="92"/>
+      <c r="B20" s="97"/>
       <c r="C20" s="84" t="s">
         <v>11</v>
       </c>
@@ -4799,7 +5035,7 @@
       <c r="V20" s="3"/>
     </row>
     <row r="21" spans="2:22" ht="54">
-      <c r="B21" s="92"/>
+      <c r="B21" s="97"/>
       <c r="C21" s="84" t="s">
         <v>58</v>
       </c>
@@ -4860,7 +5096,7 @@
       <c r="V21" s="3"/>
     </row>
     <row r="22" spans="2:22" ht="54">
-      <c r="B22" s="92"/>
+      <c r="B22" s="97"/>
       <c r="C22" s="84" t="s">
         <v>59</v>
       </c>
@@ -4921,7 +5157,7 @@
       <c r="V22" s="3"/>
     </row>
     <row r="23" spans="2:22" ht="67.5">
-      <c r="B23" s="92"/>
+      <c r="B23" s="97"/>
       <c r="C23" s="84" t="s">
         <v>12</v>
       </c>
@@ -4982,7 +5218,7 @@
       <c r="V23" s="3"/>
     </row>
     <row r="24" spans="2:22" ht="67.5">
-      <c r="B24" s="92"/>
+      <c r="B24" s="97"/>
       <c r="C24" s="84" t="s">
         <v>171</v>
       </c>
@@ -5043,7 +5279,7 @@
       <c r="V24" s="3"/>
     </row>
     <row r="25" spans="2:22" ht="67.5">
-      <c r="B25" s="92"/>
+      <c r="B25" s="97"/>
       <c r="C25" s="84" t="s">
         <v>94</v>
       </c>
@@ -5104,7 +5340,7 @@
       <c r="V25" s="3"/>
     </row>
     <row r="26" spans="2:22" ht="67.5">
-      <c r="B26" s="92"/>
+      <c r="B26" s="97"/>
       <c r="C26" s="84" t="s">
         <v>95</v>
       </c>
@@ -5165,7 +5401,7 @@
       <c r="V26" s="3"/>
     </row>
     <row r="27" spans="2:22" ht="41.25" thickBot="1">
-      <c r="B27" s="93"/>
+      <c r="B27" s="98"/>
       <c r="C27" s="85" t="s">
         <v>13</v>
       </c>
@@ -5429,7 +5665,7 @@
       <c r="V5" s="76"/>
     </row>
     <row r="6" spans="2:22" ht="17.25">
-      <c r="B6" s="91" t="s">
+      <c r="B6" s="99" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="83" t="s">
@@ -5488,7 +5724,7 @@
       <c r="V6" s="73"/>
     </row>
     <row r="7" spans="2:22" ht="17.25">
-      <c r="B7" s="92"/>
+      <c r="B7" s="97"/>
       <c r="C7" s="84" t="s">
         <v>2</v>
       </c>
@@ -5545,7 +5781,7 @@
       <c r="V7" s="47"/>
     </row>
     <row r="8" spans="2:22" ht="17.25">
-      <c r="B8" s="92"/>
+      <c r="B8" s="97"/>
       <c r="C8" s="84" t="s">
         <v>3</v>
       </c>
@@ -5602,7 +5838,7 @@
       <c r="V8" s="47"/>
     </row>
     <row r="9" spans="2:22" ht="27">
-      <c r="B9" s="92"/>
+      <c r="B9" s="97"/>
       <c r="C9" s="84" t="s">
         <v>4</v>
       </c>
@@ -5659,7 +5895,7 @@
       <c r="V9" s="47"/>
     </row>
     <row r="10" spans="2:22" ht="40.5">
-      <c r="B10" s="92" t="s">
+      <c r="B10" s="97" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="84" t="s">
@@ -5720,7 +5956,7 @@
       <c r="V10" s="70"/>
     </row>
     <row r="11" spans="2:22" ht="40.5">
-      <c r="B11" s="92"/>
+      <c r="B11" s="97"/>
       <c r="C11" s="84" t="s">
         <v>9</v>
       </c>
@@ -5779,7 +6015,7 @@
       <c r="V11" s="3"/>
     </row>
     <row r="12" spans="2:22" ht="40.5">
-      <c r="B12" s="92"/>
+      <c r="B12" s="97"/>
       <c r="C12" s="84" t="s">
         <v>104</v>
       </c>
@@ -5838,7 +6074,7 @@
       <c r="V12" s="3"/>
     </row>
     <row r="13" spans="2:22" ht="40.5">
-      <c r="B13" s="92"/>
+      <c r="B13" s="97"/>
       <c r="C13" s="84" t="s">
         <v>105</v>
       </c>
@@ -5897,7 +6133,7 @@
       <c r="V13" s="3"/>
     </row>
     <row r="14" spans="2:22" ht="54">
-      <c r="B14" s="92"/>
+      <c r="B14" s="97"/>
       <c r="C14" s="84" t="s">
         <v>148</v>
       </c>
@@ -5956,7 +6192,7 @@
       <c r="V14" s="3"/>
     </row>
     <row r="15" spans="2:22" ht="40.5">
-      <c r="B15" s="92"/>
+      <c r="B15" s="97"/>
       <c r="C15" s="84" t="s">
         <v>146</v>
       </c>
@@ -6015,7 +6251,7 @@
       <c r="V15" s="3"/>
     </row>
     <row r="16" spans="2:22" ht="40.5">
-      <c r="B16" s="92"/>
+      <c r="B16" s="97"/>
       <c r="C16" s="84" t="s">
         <v>147</v>
       </c>
@@ -6074,7 +6310,7 @@
       <c r="V16" s="3"/>
     </row>
     <row r="17" spans="2:22" ht="40.5">
-      <c r="B17" s="92"/>
+      <c r="B17" s="97"/>
       <c r="C17" s="84" t="s">
         <v>160</v>
       </c>
@@ -6133,7 +6369,7 @@
       <c r="V17" s="3"/>
     </row>
     <row r="18" spans="2:22" ht="17.25">
-      <c r="B18" s="92"/>
+      <c r="B18" s="97"/>
       <c r="C18" s="84" t="s">
         <v>10</v>
       </c>
@@ -6194,7 +6430,7 @@
       <c r="V18" s="3"/>
     </row>
     <row r="19" spans="2:22" ht="17.25">
-      <c r="B19" s="92"/>
+      <c r="B19" s="97"/>
       <c r="C19" s="84" t="s">
         <v>3</v>
       </c>
@@ -6255,7 +6491,7 @@
       <c r="V19" s="3"/>
     </row>
     <row r="20" spans="2:22" ht="17.25">
-      <c r="B20" s="92"/>
+      <c r="B20" s="97"/>
       <c r="C20" s="84" t="s">
         <v>11</v>
       </c>
@@ -6316,7 +6552,7 @@
       <c r="V20" s="3"/>
     </row>
     <row r="21" spans="2:22" ht="54">
-      <c r="B21" s="92"/>
+      <c r="B21" s="97"/>
       <c r="C21" s="84" t="s">
         <v>58</v>
       </c>
@@ -6377,7 +6613,7 @@
       <c r="V21" s="3"/>
     </row>
     <row r="22" spans="2:22" ht="54">
-      <c r="B22" s="92"/>
+      <c r="B22" s="97"/>
       <c r="C22" s="84" t="s">
         <v>59</v>
       </c>
@@ -6438,7 +6674,7 @@
       <c r="V22" s="3"/>
     </row>
     <row r="23" spans="2:22" ht="67.5">
-      <c r="B23" s="92"/>
+      <c r="B23" s="97"/>
       <c r="C23" s="84" t="s">
         <v>12</v>
       </c>
@@ -6499,7 +6735,7 @@
       <c r="V23" s="3"/>
     </row>
     <row r="24" spans="2:22" ht="67.5">
-      <c r="B24" s="92"/>
+      <c r="B24" s="97"/>
       <c r="C24" s="84" t="s">
         <v>94</v>
       </c>
@@ -6560,7 +6796,7 @@
       <c r="V24" s="3"/>
     </row>
     <row r="25" spans="2:22" ht="67.5">
-      <c r="B25" s="92"/>
+      <c r="B25" s="97"/>
       <c r="C25" s="84" t="s">
         <v>95</v>
       </c>
@@ -6621,7 +6857,7 @@
       <c r="V25" s="3"/>
     </row>
     <row r="26" spans="2:22" ht="41.25" thickBot="1">
-      <c r="B26" s="93"/>
+      <c r="B26" s="98"/>
       <c r="C26" s="85" t="s">
         <v>13</v>
       </c>
@@ -6806,31 +7042,31 @@
     <row r="3" spans="2:23" ht="14.25" thickBot="1"/>
     <row r="4" spans="2:23" ht="21.75" thickBot="1">
       <c r="B4" s="8"/>
-      <c r="C4" s="94" t="s">
+      <c r="C4" s="100" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="95"/>
-      <c r="E4" s="95"/>
-      <c r="F4" s="96"/>
-      <c r="G4" s="97" t="s">
+      <c r="D4" s="101"/>
+      <c r="E4" s="101"/>
+      <c r="F4" s="102"/>
+      <c r="G4" s="103" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="97"/>
-      <c r="I4" s="97"/>
-      <c r="J4" s="95"/>
-      <c r="K4" s="95"/>
-      <c r="L4" s="95"/>
-      <c r="M4" s="95"/>
-      <c r="N4" s="95"/>
-      <c r="O4" s="95"/>
-      <c r="P4" s="95"/>
-      <c r="Q4" s="95"/>
-      <c r="R4" s="95"/>
-      <c r="S4" s="95"/>
-      <c r="T4" s="95"/>
-      <c r="U4" s="98"/>
-      <c r="V4" s="98"/>
-      <c r="W4" s="96"/>
+      <c r="H4" s="103"/>
+      <c r="I4" s="103"/>
+      <c r="J4" s="101"/>
+      <c r="K4" s="101"/>
+      <c r="L4" s="101"/>
+      <c r="M4" s="101"/>
+      <c r="N4" s="101"/>
+      <c r="O4" s="101"/>
+      <c r="P4" s="101"/>
+      <c r="Q4" s="101"/>
+      <c r="R4" s="101"/>
+      <c r="S4" s="101"/>
+      <c r="T4" s="101"/>
+      <c r="U4" s="104"/>
+      <c r="V4" s="104"/>
+      <c r="W4" s="102"/>
     </row>
     <row r="5" spans="2:23" ht="18" thickBot="1">
       <c r="B5" s="9" t="s">
@@ -8163,27 +8399,27 @@
     <row r="3" spans="2:19" ht="14.25" thickBot="1"/>
     <row r="4" spans="2:19" ht="21.75" thickBot="1">
       <c r="B4" s="8"/>
-      <c r="C4" s="99" t="s">
+      <c r="C4" s="105" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="100"/>
-      <c r="E4" s="100"/>
-      <c r="F4" s="101"/>
-      <c r="G4" s="102" t="s">
+      <c r="D4" s="106"/>
+      <c r="E4" s="106"/>
+      <c r="F4" s="107"/>
+      <c r="G4" s="108" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="102"/>
-      <c r="I4" s="102"/>
-      <c r="J4" s="100"/>
-      <c r="K4" s="100"/>
-      <c r="L4" s="100"/>
-      <c r="M4" s="100"/>
-      <c r="N4" s="100"/>
-      <c r="O4" s="100"/>
-      <c r="P4" s="100"/>
-      <c r="Q4" s="103"/>
-      <c r="R4" s="103"/>
-      <c r="S4" s="101"/>
+      <c r="H4" s="108"/>
+      <c r="I4" s="108"/>
+      <c r="J4" s="106"/>
+      <c r="K4" s="106"/>
+      <c r="L4" s="106"/>
+      <c r="M4" s="106"/>
+      <c r="N4" s="106"/>
+      <c r="O4" s="106"/>
+      <c r="P4" s="106"/>
+      <c r="Q4" s="109"/>
+      <c r="R4" s="109"/>
+      <c r="S4" s="107"/>
     </row>
     <row r="5" spans="2:19" ht="18" thickBot="1">
       <c r="B5" s="9" t="s">
@@ -9181,23 +9417,23 @@
     <row r="3" spans="2:15" ht="14.25" thickBot="1"/>
     <row r="4" spans="2:15" ht="21.75" thickBot="1">
       <c r="B4" s="8"/>
-      <c r="C4" s="99" t="s">
+      <c r="C4" s="105" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="100"/>
-      <c r="E4" s="100"/>
-      <c r="F4" s="101"/>
-      <c r="G4" s="102" t="s">
+      <c r="D4" s="106"/>
+      <c r="E4" s="106"/>
+      <c r="F4" s="107"/>
+      <c r="G4" s="108" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="100"/>
-      <c r="I4" s="100"/>
-      <c r="J4" s="100"/>
-      <c r="K4" s="100"/>
-      <c r="L4" s="100"/>
-      <c r="M4" s="100"/>
-      <c r="N4" s="100"/>
-      <c r="O4" s="101"/>
+      <c r="H4" s="106"/>
+      <c r="I4" s="106"/>
+      <c r="J4" s="106"/>
+      <c r="K4" s="106"/>
+      <c r="L4" s="106"/>
+      <c r="M4" s="106"/>
+      <c r="N4" s="106"/>
+      <c r="O4" s="107"/>
     </row>
     <row r="5" spans="2:15" ht="18" thickBot="1">
       <c r="B5" s="9" t="s">

--- a/msx3gen/files/msx_gen3.xlsx
+++ b/msx3gen/files/msx_gen3.xlsx
@@ -22,7 +22,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'2024年9月28日 ver2'!$A$1:$W$50</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'2024年9月28日 ver3'!$A$1:$W$51</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'2024年9月28日 ver4'!$A$1:$Z$47</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'2024年9月28日 ver4'!$A$1:$Z$48</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -39,7 +39,7 @@
     <author>Takayuki Hara</author>
   </authors>
   <commentList>
-    <comment ref="F15" authorId="0" shapeId="0">
+    <comment ref="F16" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -56,7 +56,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F16" authorId="0" shapeId="0">
+    <comment ref="F17" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2185" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2206" uniqueCount="194">
   <si>
     <t>旧来のMSX</t>
     <rPh sb="0" eb="2">
@@ -1200,6 +1200,10 @@
     <rPh sb="7" eb="8">
       <t>ダレ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MSX0Atom</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2225,6 +2229,21 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2266,21 +2285,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2573,10 +2577,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:Y45"/>
+  <dimension ref="B1:Y46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" topLeftCell="D5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2691,7 +2695,7 @@
       <c r="Y5" s="76"/>
     </row>
     <row r="6" spans="2:25" ht="51.75">
-      <c r="B6" s="96" t="s">
+      <c r="B6" s="101" t="s">
         <v>14</v>
       </c>
       <c r="C6" s="93" t="s">
@@ -2703,7 +2707,7 @@
       <c r="E6" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="113" t="s">
+      <c r="F6" s="99" t="s">
         <v>186</v>
       </c>
       <c r="G6" s="68" t="s">
@@ -2761,7 +2765,7 @@
       <c r="Y6" s="70"/>
     </row>
     <row r="7" spans="2:25" ht="40.5">
-      <c r="B7" s="97"/>
+      <c r="B7" s="102"/>
       <c r="C7" s="92" t="s">
         <v>173</v>
       </c>
@@ -2771,7 +2775,7 @@
       <c r="E7" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="110" t="s">
+      <c r="F7" s="96" t="s">
         <v>183</v>
       </c>
       <c r="G7" s="30" t="s">
@@ -2829,7 +2833,7 @@
       <c r="Y7" s="3"/>
     </row>
     <row r="8" spans="2:25" ht="40.5">
-      <c r="B8" s="97"/>
+      <c r="B8" s="102"/>
       <c r="C8" s="92" t="s">
         <v>174</v>
       </c>
@@ -2839,7 +2843,7 @@
       <c r="E8" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="110" t="s">
+      <c r="F8" s="96" t="s">
         <v>187</v>
       </c>
       <c r="G8" s="30" t="s">
@@ -2897,7 +2901,7 @@
       <c r="Y8" s="3"/>
     </row>
     <row r="9" spans="2:25" ht="40.5">
-      <c r="B9" s="97"/>
+      <c r="B9" s="102"/>
       <c r="C9" s="92" t="s">
         <v>174</v>
       </c>
@@ -2907,7 +2911,7 @@
       <c r="E9" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="111" t="s">
+      <c r="F9" s="97" t="s">
         <v>184</v>
       </c>
       <c r="G9" s="30" t="s">
@@ -2965,7 +2969,7 @@
       <c r="Y9" s="3"/>
     </row>
     <row r="10" spans="2:25" ht="54">
-      <c r="B10" s="97"/>
+      <c r="B10" s="102"/>
       <c r="C10" s="92" t="s">
         <v>174</v>
       </c>
@@ -2975,7 +2979,7 @@
       <c r="E10" s="80" t="s">
         <v>161</v>
       </c>
-      <c r="F10" s="110" t="s">
+      <c r="F10" s="96" t="s">
         <v>187</v>
       </c>
       <c r="G10" s="30" t="s">
@@ -3033,7 +3037,7 @@
       <c r="Y10" s="3"/>
     </row>
     <row r="11" spans="2:25" ht="40.5">
-      <c r="B11" s="97"/>
+      <c r="B11" s="102"/>
       <c r="C11" s="92" t="s">
         <v>173</v>
       </c>
@@ -3043,7 +3047,7 @@
       <c r="E11" s="80" t="s">
         <v>161</v>
       </c>
-      <c r="F11" s="111" t="s">
+      <c r="F11" s="97" t="s">
         <v>183</v>
       </c>
       <c r="G11" s="30" t="s">
@@ -3076,8 +3080,8 @@
       <c r="P11" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="Q11" s="30" t="s">
-        <v>178</v>
+      <c r="Q11" s="86" t="s">
+        <v>179</v>
       </c>
       <c r="R11" s="1" t="s">
         <v>39</v>
@@ -3101,7 +3105,7 @@
       <c r="Y11" s="3"/>
     </row>
     <row r="12" spans="2:25" ht="40.5">
-      <c r="B12" s="97"/>
+      <c r="B12" s="102"/>
       <c r="C12" s="92" t="s">
         <v>173</v>
       </c>
@@ -3111,7 +3115,7 @@
       <c r="E12" s="80" t="s">
         <v>161</v>
       </c>
-      <c r="F12" s="111" t="s">
+      <c r="F12" s="97" t="s">
         <v>183</v>
       </c>
       <c r="G12" s="30" t="s">
@@ -3144,8 +3148,8 @@
       <c r="P12" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="Q12" s="30" t="s">
-        <v>178</v>
+      <c r="Q12" s="86" t="s">
+        <v>179</v>
       </c>
       <c r="R12" s="1" t="s">
         <v>39</v>
@@ -3169,24 +3173,24 @@
       <c r="Y12" s="3"/>
     </row>
     <row r="13" spans="2:25" ht="40.5">
-      <c r="B13" s="97"/>
+      <c r="B13" s="102"/>
       <c r="C13" s="92" t="s">
         <v>173</v>
       </c>
       <c r="D13" s="84" t="s">
-        <v>160</v>
+        <v>193</v>
       </c>
       <c r="E13" s="80" t="s">
         <v>161</v>
       </c>
-      <c r="F13" s="110" t="s">
-        <v>187</v>
+      <c r="F13" s="97" t="s">
+        <v>183</v>
       </c>
       <c r="G13" s="30" t="s">
         <v>162</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>30</v>
+        <v>175</v>
       </c>
       <c r="I13" s="30" t="s">
         <v>56</v>
@@ -3219,14 +3223,14 @@
         <v>39</v>
       </c>
       <c r="S13" s="1" t="s">
-        <v>164</v>
+        <v>70</v>
       </c>
       <c r="T13" s="1" t="s">
-        <v>69</v>
+        <v>166</v>
       </c>
       <c r="U13" s="1"/>
       <c r="V13" s="1" t="s">
-        <v>117</v>
+        <v>165</v>
       </c>
       <c r="W13" s="86" t="s">
         <v>163</v>
@@ -3236,28 +3240,28 @@
       </c>
       <c r="Y13" s="3"/>
     </row>
-    <row r="14" spans="2:25" ht="51.75">
-      <c r="B14" s="97"/>
+    <row r="14" spans="2:25" ht="40.5">
+      <c r="B14" s="102"/>
       <c r="C14" s="92" t="s">
         <v>173</v>
       </c>
       <c r="D14" s="84" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" s="81" t="s">
-        <v>16</v>
-      </c>
-      <c r="F14" s="110" t="s">
-        <v>188</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>18</v>
+        <v>160</v>
+      </c>
+      <c r="E14" s="80" t="s">
+        <v>161</v>
+      </c>
+      <c r="F14" s="96" t="s">
+        <v>187</v>
+      </c>
+      <c r="G14" s="30" t="s">
+        <v>162</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
+      </c>
+      <c r="I14" s="30" t="s">
+        <v>56</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>37</v>
@@ -3266,40 +3270,38 @@
         <v>42</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="N14" s="1" t="s">
         <v>45</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>106</v>
+        <v>52</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="Q14" s="86" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>72</v>
+        <v>164</v>
       </c>
       <c r="T14" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="U14" s="1" t="s">
-        <v>82</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="U14" s="1"/>
       <c r="V14" s="1" t="s">
         <v>117</v>
       </c>
       <c r="W14" s="86" t="s">
-        <v>144</v>
+        <v>163</v>
       </c>
       <c r="X14" s="1" t="s">
         <v>128</v>
@@ -3307,33 +3309,33 @@
       <c r="Y14" s="3"/>
     </row>
     <row r="15" spans="2:25" ht="51.75">
-      <c r="B15" s="97"/>
+      <c r="B15" s="102"/>
       <c r="C15" s="92" t="s">
         <v>173</v>
       </c>
       <c r="D15" s="84" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E15" s="81" t="s">
         <v>16</v>
       </c>
-      <c r="F15" s="110" t="s">
-        <v>189</v>
+      <c r="F15" s="96" t="s">
+        <v>188</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>18</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>151</v>
+        <v>27</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>37</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="L15" s="1" t="s">
         <v>45</v>
@@ -3357,19 +3359,19 @@
         <v>42</v>
       </c>
       <c r="S15" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="T15" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U15" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V15" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="W15" s="86" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="X15" s="1" t="s">
         <v>128</v>
@@ -3377,17 +3379,17 @@
       <c r="Y15" s="3"/>
     </row>
     <row r="16" spans="2:25" ht="51.75">
-      <c r="B16" s="97"/>
+      <c r="B16" s="102"/>
       <c r="C16" s="92" t="s">
         <v>173</v>
       </c>
       <c r="D16" s="84" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E16" s="81" t="s">
         <v>16</v>
       </c>
-      <c r="F16" s="110" t="s">
+      <c r="F16" s="96" t="s">
         <v>189</v>
       </c>
       <c r="G16" s="1" t="s">
@@ -3446,37 +3448,37 @@
       </c>
       <c r="Y16" s="3"/>
     </row>
-    <row r="17" spans="2:25" ht="54">
-      <c r="B17" s="97"/>
+    <row r="17" spans="2:25" ht="51.75">
+      <c r="B17" s="102"/>
       <c r="C17" s="92" t="s">
         <v>173</v>
       </c>
       <c r="D17" s="84" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="E17" s="81" t="s">
-        <v>60</v>
-      </c>
-      <c r="F17" s="110" t="s">
-        <v>190</v>
-      </c>
-      <c r="G17" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="H17" s="86" t="s">
-        <v>62</v>
-      </c>
-      <c r="I17" s="30" t="s">
-        <v>152</v>
+        <v>16</v>
+      </c>
+      <c r="F17" s="96" t="s">
+        <v>189</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>151</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="K17" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="L17" s="86" t="s">
-        <v>46</v>
+        <v>37</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="M17" s="1" t="s">
         <v>44</v>
@@ -3485,7 +3487,7 @@
         <v>45</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="P17" s="1" t="s">
         <v>45</v>
@@ -3494,10 +3496,10 @@
         <v>180</v>
       </c>
       <c r="R17" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="S17" s="1" t="s">
-        <v>109</v>
+        <v>73</v>
       </c>
       <c r="T17" s="1" t="s">
         <v>79</v>
@@ -3509,7 +3511,7 @@
         <v>116</v>
       </c>
       <c r="W17" s="86" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="X17" s="1" t="s">
         <v>128</v>
@@ -3517,27 +3519,27 @@
       <c r="Y17" s="3"/>
     </row>
     <row r="18" spans="2:25" ht="54">
-      <c r="B18" s="97"/>
+      <c r="B18" s="102"/>
       <c r="C18" s="92" t="s">
         <v>173</v>
       </c>
       <c r="D18" s="84" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E18" s="81" t="s">
-        <v>57</v>
-      </c>
-      <c r="F18" s="110" t="s">
+        <v>60</v>
+      </c>
+      <c r="F18" s="96" t="s">
         <v>190</v>
       </c>
       <c r="G18" s="30" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="H18" s="86" t="s">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="I18" s="30" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>90</v>
@@ -3567,10 +3569,10 @@
         <v>39</v>
       </c>
       <c r="S18" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="T18" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="U18" s="1" t="s">
         <v>81</v>
@@ -3579,53 +3581,53 @@
         <v>116</v>
       </c>
       <c r="W18" s="86" t="s">
-        <v>33</v>
+        <v>145</v>
       </c>
       <c r="X18" s="1" t="s">
         <v>128</v>
       </c>
       <c r="Y18" s="3"/>
     </row>
-    <row r="19" spans="2:25" ht="67.5">
-      <c r="B19" s="97"/>
+    <row r="19" spans="2:25" ht="54">
+      <c r="B19" s="102"/>
       <c r="C19" s="92" t="s">
         <v>173</v>
       </c>
       <c r="D19" s="84" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="E19" s="81" t="s">
-        <v>100</v>
-      </c>
-      <c r="F19" s="110" t="s">
-        <v>191</v>
+        <v>57</v>
+      </c>
+      <c r="F19" s="96" t="s">
+        <v>190</v>
       </c>
       <c r="G19" s="30" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="H19" s="86" t="s">
         <v>33</v>
       </c>
       <c r="I19" s="30" t="s">
-        <v>154</v>
-      </c>
-      <c r="J19" s="86" t="s">
-        <v>33</v>
-      </c>
-      <c r="K19" s="86" t="s">
-        <v>33</v>
+        <v>153</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K19" s="30" t="s">
+        <v>45</v>
       </c>
       <c r="L19" s="86" t="s">
         <v>46</v>
       </c>
-      <c r="M19" s="86" t="s">
-        <v>47</v>
-      </c>
-      <c r="N19" s="86" t="s">
-        <v>47</v>
-      </c>
-      <c r="O19" s="86" t="s">
-        <v>33</v>
+      <c r="M19" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>107</v>
       </c>
       <c r="P19" s="1" t="s">
         <v>45</v>
@@ -3633,14 +3635,14 @@
       <c r="Q19" s="86" t="s">
         <v>180</v>
       </c>
-      <c r="R19" s="86" t="s">
-        <v>33</v>
-      </c>
-      <c r="S19" s="30" t="s">
-        <v>111</v>
+      <c r="R19" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="S19" s="1" t="s">
+        <v>110</v>
       </c>
       <c r="T19" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="U19" s="1" t="s">
         <v>81</v>
@@ -3657,18 +3659,18 @@
       <c r="Y19" s="3"/>
     </row>
     <row r="20" spans="2:25" ht="67.5">
-      <c r="B20" s="97"/>
+      <c r="B20" s="102"/>
       <c r="C20" s="92" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D20" s="84" t="s">
-        <v>171</v>
-      </c>
-      <c r="E20" s="80" t="s">
-        <v>172</v>
-      </c>
-      <c r="F20" s="111" t="s">
-        <v>184</v>
+        <v>12</v>
+      </c>
+      <c r="E20" s="81" t="s">
+        <v>100</v>
+      </c>
+      <c r="F20" s="96" t="s">
+        <v>191</v>
       </c>
       <c r="G20" s="30" t="s">
         <v>87</v>
@@ -3721,33 +3723,33 @@
       <c r="W20" s="86" t="s">
         <v>33</v>
       </c>
-      <c r="X20" s="86" t="s">
-        <v>33</v>
+      <c r="X20" s="1" t="s">
+        <v>128</v>
       </c>
       <c r="Y20" s="3"/>
     </row>
     <row r="21" spans="2:25" ht="67.5">
-      <c r="B21" s="97"/>
+      <c r="B21" s="102"/>
       <c r="C21" s="92" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D21" s="84" t="s">
-        <v>94</v>
-      </c>
-      <c r="E21" s="81" t="s">
-        <v>101</v>
-      </c>
-      <c r="F21" s="114" t="s">
-        <v>192</v>
+        <v>171</v>
+      </c>
+      <c r="E21" s="80" t="s">
+        <v>172</v>
+      </c>
+      <c r="F21" s="97" t="s">
+        <v>184</v>
       </c>
       <c r="G21" s="30" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="H21" s="86" t="s">
         <v>33</v>
       </c>
       <c r="I21" s="30" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J21" s="86" t="s">
         <v>33</v>
@@ -3777,7 +3779,7 @@
         <v>33</v>
       </c>
       <c r="S21" s="30" t="s">
-        <v>84</v>
+        <v>111</v>
       </c>
       <c r="T21" s="1" t="s">
         <v>79</v>
@@ -3791,23 +3793,23 @@
       <c r="W21" s="86" t="s">
         <v>33</v>
       </c>
-      <c r="X21" s="1" t="s">
-        <v>128</v>
+      <c r="X21" s="86" t="s">
+        <v>33</v>
       </c>
       <c r="Y21" s="3"/>
     </row>
     <row r="22" spans="2:25" ht="67.5">
-      <c r="B22" s="97"/>
+      <c r="B22" s="102"/>
       <c r="C22" s="92" t="s">
         <v>173</v>
       </c>
       <c r="D22" s="84" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E22" s="81" t="s">
         <v>101</v>
       </c>
-      <c r="F22" s="114" t="s">
+      <c r="F22" s="100" t="s">
         <v>192</v>
       </c>
       <c r="G22" s="30" t="s">
@@ -3817,7 +3819,7 @@
         <v>33</v>
       </c>
       <c r="I22" s="30" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J22" s="86" t="s">
         <v>33</v>
@@ -3866,168 +3868,238 @@
       </c>
       <c r="Y22" s="3"/>
     </row>
-    <row r="23" spans="2:25" ht="41.25" thickBot="1">
-      <c r="B23" s="98"/>
-      <c r="C23" s="95" t="s">
+    <row r="23" spans="2:25" ht="67.5">
+      <c r="B23" s="102"/>
+      <c r="C23" s="92" t="s">
         <v>173</v>
       </c>
-      <c r="D23" s="85" t="s">
+      <c r="D23" s="84" t="s">
+        <v>95</v>
+      </c>
+      <c r="E23" s="81" t="s">
+        <v>101</v>
+      </c>
+      <c r="F23" s="100" t="s">
+        <v>192</v>
+      </c>
+      <c r="G23" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="H23" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="I23" s="30" t="s">
+        <v>156</v>
+      </c>
+      <c r="J23" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="K23" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="L23" s="86" t="s">
+        <v>46</v>
+      </c>
+      <c r="M23" s="86" t="s">
+        <v>47</v>
+      </c>
+      <c r="N23" s="86" t="s">
+        <v>47</v>
+      </c>
+      <c r="O23" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="P23" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q23" s="86" t="s">
+        <v>180</v>
+      </c>
+      <c r="R23" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="S23" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="T23" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="U23" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="V23" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="W23" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="X23" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y23" s="3"/>
+    </row>
+    <row r="24" spans="2:25" ht="41.25" thickBot="1">
+      <c r="B24" s="103"/>
+      <c r="C24" s="95" t="s">
+        <v>173</v>
+      </c>
+      <c r="D24" s="85" t="s">
         <v>13</v>
       </c>
-      <c r="E23" s="82" t="s">
+      <c r="E24" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="F23" s="112" t="s">
+      <c r="F24" s="98" t="s">
         <v>185</v>
       </c>
-      <c r="G23" s="71" t="s">
+      <c r="G24" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="H23" s="87" t="s">
-        <v>33</v>
-      </c>
-      <c r="I23" s="87" t="s">
+      <c r="H24" s="87" t="s">
+        <v>33</v>
+      </c>
+      <c r="I24" s="87" t="s">
         <v>85</v>
       </c>
-      <c r="J23" s="87" t="s">
-        <v>33</v>
-      </c>
-      <c r="K23" s="87" t="s">
-        <v>33</v>
-      </c>
-      <c r="L23" s="87" t="s">
+      <c r="J24" s="87" t="s">
+        <v>33</v>
+      </c>
+      <c r="K24" s="87" t="s">
+        <v>33</v>
+      </c>
+      <c r="L24" s="87" t="s">
         <v>46</v>
       </c>
-      <c r="M23" s="87" t="s">
+      <c r="M24" s="87" t="s">
         <v>47</v>
       </c>
-      <c r="N23" s="87" t="s">
+      <c r="N24" s="87" t="s">
         <v>47</v>
       </c>
-      <c r="O23" s="87" t="s">
-        <v>33</v>
-      </c>
-      <c r="P23" s="87" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q23" s="86" t="s">
+      <c r="O24" s="87" t="s">
+        <v>33</v>
+      </c>
+      <c r="P24" s="87" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q24" s="86" t="s">
         <v>181</v>
       </c>
-      <c r="R23" s="87" t="s">
-        <v>33</v>
-      </c>
-      <c r="S23" s="6" t="s">
+      <c r="R24" s="87" t="s">
+        <v>33</v>
+      </c>
+      <c r="S24" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="T23" s="6" t="s">
+      <c r="T24" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="U23" s="6" t="s">
+      <c r="U24" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="V23" s="6" t="s">
+      <c r="V24" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="W23" s="87" t="s">
-        <v>33</v>
-      </c>
-      <c r="X23" s="6" t="s">
+      <c r="W24" s="87" t="s">
+        <v>33</v>
+      </c>
+      <c r="X24" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="Y23" s="7"/>
-    </row>
-    <row r="27" spans="2:25">
-      <c r="B27" t="s">
+      <c r="Y24" s="7"/>
+    </row>
+    <row r="28" spans="2:25">
+      <c r="B28" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="28" spans="2:25">
-      <c r="B28" s="60" t="s">
+    <row r="29" spans="2:25">
+      <c r="B29" s="60" t="s">
         <v>139</v>
       </c>
-      <c r="C28" s="60"/>
-    </row>
-    <row r="30" spans="2:25">
-      <c r="B30" t="s">
+      <c r="C29" s="60"/>
+    </row>
+    <row r="31" spans="2:25">
+      <c r="B31" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="31" spans="2:25">
-      <c r="B31" s="60" t="s">
+    <row r="32" spans="2:25">
+      <c r="B32" s="60" t="s">
         <v>138</v>
       </c>
-      <c r="C31" s="60"/>
-    </row>
-    <row r="33" spans="2:3">
-      <c r="B33" t="s">
+      <c r="C32" s="60"/>
+    </row>
+    <row r="34" spans="2:3">
+      <c r="B34" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="34" spans="2:3">
-      <c r="B34" s="60" t="s">
+    <row r="35" spans="2:3">
+      <c r="B35" s="60" t="s">
         <v>137</v>
       </c>
-      <c r="C34" s="60"/>
-    </row>
-    <row r="36" spans="2:3">
-      <c r="B36" t="s">
+      <c r="C35" s="60"/>
+    </row>
+    <row r="37" spans="2:3">
+      <c r="B37" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="37" spans="2:3">
-      <c r="B37" s="60" t="s">
+    <row r="38" spans="2:3">
+      <c r="B38" s="60" t="s">
         <v>136</v>
       </c>
-      <c r="C37" s="60"/>
-    </row>
-    <row r="39" spans="2:3">
-      <c r="B39" t="s">
+      <c r="C38" s="60"/>
+    </row>
+    <row r="40" spans="2:3">
+      <c r="B40" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="40" spans="2:3">
-      <c r="B40" s="61" t="s">
+    <row r="41" spans="2:3">
+      <c r="B41" s="61" t="s">
         <v>131</v>
       </c>
-      <c r="C40" s="61"/>
-    </row>
-    <row r="41" spans="2:3">
-      <c r="B41" s="60" t="s">
-        <v>135</v>
-      </c>
-      <c r="C41" s="60"/>
+      <c r="C41" s="61"/>
     </row>
     <row r="42" spans="2:3">
       <c r="B42" s="60" t="s">
+        <v>135</v>
+      </c>
+      <c r="C42" s="60"/>
+    </row>
+    <row r="43" spans="2:3">
+      <c r="B43" s="60" t="s">
         <v>140</v>
       </c>
-      <c r="C42" s="60"/>
-    </row>
-    <row r="44" spans="2:3">
-      <c r="B44" t="s">
+      <c r="C43" s="60"/>
+    </row>
+    <row r="45" spans="2:3">
+      <c r="B45" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="45" spans="2:3">
-      <c r="B45" s="60" t="s">
+    <row r="46" spans="2:3">
+      <c r="B46" s="60" t="s">
         <v>158</v>
       </c>
-      <c r="C45" s="60"/>
+      <c r="C46" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B6:B23"/>
+    <mergeCell ref="B6:B24"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="B40" r:id="rId1"/>
-    <hyperlink ref="B41" r:id="rId2"/>
-    <hyperlink ref="B37" r:id="rId3"/>
-    <hyperlink ref="B34" r:id="rId4"/>
-    <hyperlink ref="B31" r:id="rId5"/>
-    <hyperlink ref="B28" r:id="rId6"/>
-    <hyperlink ref="B42" r:id="rId7"/>
-    <hyperlink ref="B45" r:id="rId8"/>
+    <hyperlink ref="B41" r:id="rId1"/>
+    <hyperlink ref="B42" r:id="rId2"/>
+    <hyperlink ref="B38" r:id="rId3"/>
+    <hyperlink ref="B35" r:id="rId4"/>
+    <hyperlink ref="B32" r:id="rId5"/>
+    <hyperlink ref="B29" r:id="rId6"/>
+    <hyperlink ref="B43" r:id="rId7"/>
+    <hyperlink ref="B46" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" scale="42" orientation="landscape" horizontalDpi="4294967293" r:id="rId9"/>
@@ -4148,7 +4220,7 @@
       <c r="V5" s="76"/>
     </row>
     <row r="6" spans="2:22" ht="17.25">
-      <c r="B6" s="99" t="s">
+      <c r="B6" s="104" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="83" t="s">
@@ -4207,7 +4279,7 @@
       <c r="V6" s="73"/>
     </row>
     <row r="7" spans="2:22" ht="17.25">
-      <c r="B7" s="97"/>
+      <c r="B7" s="102"/>
       <c r="C7" s="84" t="s">
         <v>2</v>
       </c>
@@ -4264,7 +4336,7 @@
       <c r="V7" s="47"/>
     </row>
     <row r="8" spans="2:22" ht="17.25">
-      <c r="B8" s="97"/>
+      <c r="B8" s="102"/>
       <c r="C8" s="84" t="s">
         <v>3</v>
       </c>
@@ -4321,7 +4393,7 @@
       <c r="V8" s="47"/>
     </row>
     <row r="9" spans="2:22" ht="27">
-      <c r="B9" s="97"/>
+      <c r="B9" s="102"/>
       <c r="C9" s="84" t="s">
         <v>4</v>
       </c>
@@ -4378,7 +4450,7 @@
       <c r="V9" s="47"/>
     </row>
     <row r="10" spans="2:22" ht="40.5">
-      <c r="B10" s="97" t="s">
+      <c r="B10" s="102" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="84" t="s">
@@ -4439,7 +4511,7 @@
       <c r="V10" s="70"/>
     </row>
     <row r="11" spans="2:22" ht="40.5">
-      <c r="B11" s="97"/>
+      <c r="B11" s="102"/>
       <c r="C11" s="84" t="s">
         <v>9</v>
       </c>
@@ -4498,7 +4570,7 @@
       <c r="V11" s="3"/>
     </row>
     <row r="12" spans="2:22" ht="40.5">
-      <c r="B12" s="97"/>
+      <c r="B12" s="102"/>
       <c r="C12" s="84" t="s">
         <v>104</v>
       </c>
@@ -4557,7 +4629,7 @@
       <c r="V12" s="3"/>
     </row>
     <row r="13" spans="2:22" ht="40.5">
-      <c r="B13" s="97"/>
+      <c r="B13" s="102"/>
       <c r="C13" s="84" t="s">
         <v>105</v>
       </c>
@@ -4616,7 +4688,7 @@
       <c r="V13" s="3"/>
     </row>
     <row r="14" spans="2:22" ht="54">
-      <c r="B14" s="97"/>
+      <c r="B14" s="102"/>
       <c r="C14" s="84" t="s">
         <v>148</v>
       </c>
@@ -4675,7 +4747,7 @@
       <c r="V14" s="3"/>
     </row>
     <row r="15" spans="2:22" ht="40.5">
-      <c r="B15" s="97"/>
+      <c r="B15" s="102"/>
       <c r="C15" s="84" t="s">
         <v>146</v>
       </c>
@@ -4734,7 +4806,7 @@
       <c r="V15" s="3"/>
     </row>
     <row r="16" spans="2:22" ht="40.5">
-      <c r="B16" s="97"/>
+      <c r="B16" s="102"/>
       <c r="C16" s="84" t="s">
         <v>147</v>
       </c>
@@ -4793,7 +4865,7 @@
       <c r="V16" s="3"/>
     </row>
     <row r="17" spans="2:22" ht="40.5">
-      <c r="B17" s="97"/>
+      <c r="B17" s="102"/>
       <c r="C17" s="84" t="s">
         <v>160</v>
       </c>
@@ -4852,7 +4924,7 @@
       <c r="V17" s="3"/>
     </row>
     <row r="18" spans="2:22" ht="17.25">
-      <c r="B18" s="97"/>
+      <c r="B18" s="102"/>
       <c r="C18" s="84" t="s">
         <v>10</v>
       </c>
@@ -4913,7 +4985,7 @@
       <c r="V18" s="3"/>
     </row>
     <row r="19" spans="2:22" ht="17.25">
-      <c r="B19" s="97"/>
+      <c r="B19" s="102"/>
       <c r="C19" s="84" t="s">
         <v>3</v>
       </c>
@@ -4974,7 +5046,7 @@
       <c r="V19" s="3"/>
     </row>
     <row r="20" spans="2:22" ht="17.25">
-      <c r="B20" s="97"/>
+      <c r="B20" s="102"/>
       <c r="C20" s="84" t="s">
         <v>11</v>
       </c>
@@ -5035,7 +5107,7 @@
       <c r="V20" s="3"/>
     </row>
     <row r="21" spans="2:22" ht="54">
-      <c r="B21" s="97"/>
+      <c r="B21" s="102"/>
       <c r="C21" s="84" t="s">
         <v>58</v>
       </c>
@@ -5096,7 +5168,7 @@
       <c r="V21" s="3"/>
     </row>
     <row r="22" spans="2:22" ht="54">
-      <c r="B22" s="97"/>
+      <c r="B22" s="102"/>
       <c r="C22" s="84" t="s">
         <v>59</v>
       </c>
@@ -5157,7 +5229,7 @@
       <c r="V22" s="3"/>
     </row>
     <row r="23" spans="2:22" ht="67.5">
-      <c r="B23" s="97"/>
+      <c r="B23" s="102"/>
       <c r="C23" s="84" t="s">
         <v>12</v>
       </c>
@@ -5218,7 +5290,7 @@
       <c r="V23" s="3"/>
     </row>
     <row r="24" spans="2:22" ht="67.5">
-      <c r="B24" s="97"/>
+      <c r="B24" s="102"/>
       <c r="C24" s="84" t="s">
         <v>171</v>
       </c>
@@ -5279,7 +5351,7 @@
       <c r="V24" s="3"/>
     </row>
     <row r="25" spans="2:22" ht="67.5">
-      <c r="B25" s="97"/>
+      <c r="B25" s="102"/>
       <c r="C25" s="84" t="s">
         <v>94</v>
       </c>
@@ -5340,7 +5412,7 @@
       <c r="V25" s="3"/>
     </row>
     <row r="26" spans="2:22" ht="67.5">
-      <c r="B26" s="97"/>
+      <c r="B26" s="102"/>
       <c r="C26" s="84" t="s">
         <v>95</v>
       </c>
@@ -5401,7 +5473,7 @@
       <c r="V26" s="3"/>
     </row>
     <row r="27" spans="2:22" ht="41.25" thickBot="1">
-      <c r="B27" s="98"/>
+      <c r="B27" s="103"/>
       <c r="C27" s="85" t="s">
         <v>13</v>
       </c>
@@ -5665,7 +5737,7 @@
       <c r="V5" s="76"/>
     </row>
     <row r="6" spans="2:22" ht="17.25">
-      <c r="B6" s="99" t="s">
+      <c r="B6" s="104" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="83" t="s">
@@ -5724,7 +5796,7 @@
       <c r="V6" s="73"/>
     </row>
     <row r="7" spans="2:22" ht="17.25">
-      <c r="B7" s="97"/>
+      <c r="B7" s="102"/>
       <c r="C7" s="84" t="s">
         <v>2</v>
       </c>
@@ -5781,7 +5853,7 @@
       <c r="V7" s="47"/>
     </row>
     <row r="8" spans="2:22" ht="17.25">
-      <c r="B8" s="97"/>
+      <c r="B8" s="102"/>
       <c r="C8" s="84" t="s">
         <v>3</v>
       </c>
@@ -5838,7 +5910,7 @@
       <c r="V8" s="47"/>
     </row>
     <row r="9" spans="2:22" ht="27">
-      <c r="B9" s="97"/>
+      <c r="B9" s="102"/>
       <c r="C9" s="84" t="s">
         <v>4</v>
       </c>
@@ -5895,7 +5967,7 @@
       <c r="V9" s="47"/>
     </row>
     <row r="10" spans="2:22" ht="40.5">
-      <c r="B10" s="97" t="s">
+      <c r="B10" s="102" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="84" t="s">
@@ -5956,7 +6028,7 @@
       <c r="V10" s="70"/>
     </row>
     <row r="11" spans="2:22" ht="40.5">
-      <c r="B11" s="97"/>
+      <c r="B11" s="102"/>
       <c r="C11" s="84" t="s">
         <v>9</v>
       </c>
@@ -6015,7 +6087,7 @@
       <c r="V11" s="3"/>
     </row>
     <row r="12" spans="2:22" ht="40.5">
-      <c r="B12" s="97"/>
+      <c r="B12" s="102"/>
       <c r="C12" s="84" t="s">
         <v>104</v>
       </c>
@@ -6074,7 +6146,7 @@
       <c r="V12" s="3"/>
     </row>
     <row r="13" spans="2:22" ht="40.5">
-      <c r="B13" s="97"/>
+      <c r="B13" s="102"/>
       <c r="C13" s="84" t="s">
         <v>105</v>
       </c>
@@ -6133,7 +6205,7 @@
       <c r="V13" s="3"/>
     </row>
     <row r="14" spans="2:22" ht="54">
-      <c r="B14" s="97"/>
+      <c r="B14" s="102"/>
       <c r="C14" s="84" t="s">
         <v>148</v>
       </c>
@@ -6192,7 +6264,7 @@
       <c r="V14" s="3"/>
     </row>
     <row r="15" spans="2:22" ht="40.5">
-      <c r="B15" s="97"/>
+      <c r="B15" s="102"/>
       <c r="C15" s="84" t="s">
         <v>146</v>
       </c>
@@ -6251,7 +6323,7 @@
       <c r="V15" s="3"/>
     </row>
     <row r="16" spans="2:22" ht="40.5">
-      <c r="B16" s="97"/>
+      <c r="B16" s="102"/>
       <c r="C16" s="84" t="s">
         <v>147</v>
       </c>
@@ -6310,7 +6382,7 @@
       <c r="V16" s="3"/>
     </row>
     <row r="17" spans="2:22" ht="40.5">
-      <c r="B17" s="97"/>
+      <c r="B17" s="102"/>
       <c r="C17" s="84" t="s">
         <v>160</v>
       </c>
@@ -6369,7 +6441,7 @@
       <c r="V17" s="3"/>
     </row>
     <row r="18" spans="2:22" ht="17.25">
-      <c r="B18" s="97"/>
+      <c r="B18" s="102"/>
       <c r="C18" s="84" t="s">
         <v>10</v>
       </c>
@@ -6430,7 +6502,7 @@
       <c r="V18" s="3"/>
     </row>
     <row r="19" spans="2:22" ht="17.25">
-      <c r="B19" s="97"/>
+      <c r="B19" s="102"/>
       <c r="C19" s="84" t="s">
         <v>3</v>
       </c>
@@ -6491,7 +6563,7 @@
       <c r="V19" s="3"/>
     </row>
     <row r="20" spans="2:22" ht="17.25">
-      <c r="B20" s="97"/>
+      <c r="B20" s="102"/>
       <c r="C20" s="84" t="s">
         <v>11</v>
       </c>
@@ -6552,7 +6624,7 @@
       <c r="V20" s="3"/>
     </row>
     <row r="21" spans="2:22" ht="54">
-      <c r="B21" s="97"/>
+      <c r="B21" s="102"/>
       <c r="C21" s="84" t="s">
         <v>58</v>
       </c>
@@ -6613,7 +6685,7 @@
       <c r="V21" s="3"/>
     </row>
     <row r="22" spans="2:22" ht="54">
-      <c r="B22" s="97"/>
+      <c r="B22" s="102"/>
       <c r="C22" s="84" t="s">
         <v>59</v>
       </c>
@@ -6674,7 +6746,7 @@
       <c r="V22" s="3"/>
     </row>
     <row r="23" spans="2:22" ht="67.5">
-      <c r="B23" s="97"/>
+      <c r="B23" s="102"/>
       <c r="C23" s="84" t="s">
         <v>12</v>
       </c>
@@ -6735,7 +6807,7 @@
       <c r="V23" s="3"/>
     </row>
     <row r="24" spans="2:22" ht="67.5">
-      <c r="B24" s="97"/>
+      <c r="B24" s="102"/>
       <c r="C24" s="84" t="s">
         <v>94</v>
       </c>
@@ -6796,7 +6868,7 @@
       <c r="V24" s="3"/>
     </row>
     <row r="25" spans="2:22" ht="67.5">
-      <c r="B25" s="97"/>
+      <c r="B25" s="102"/>
       <c r="C25" s="84" t="s">
         <v>95</v>
       </c>
@@ -6857,7 +6929,7 @@
       <c r="V25" s="3"/>
     </row>
     <row r="26" spans="2:22" ht="41.25" thickBot="1">
-      <c r="B26" s="98"/>
+      <c r="B26" s="103"/>
       <c r="C26" s="85" t="s">
         <v>13</v>
       </c>
@@ -7042,31 +7114,31 @@
     <row r="3" spans="2:23" ht="14.25" thickBot="1"/>
     <row r="4" spans="2:23" ht="21.75" thickBot="1">
       <c r="B4" s="8"/>
-      <c r="C4" s="100" t="s">
+      <c r="C4" s="105" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="101"/>
-      <c r="E4" s="101"/>
-      <c r="F4" s="102"/>
-      <c r="G4" s="103" t="s">
+      <c r="D4" s="106"/>
+      <c r="E4" s="106"/>
+      <c r="F4" s="107"/>
+      <c r="G4" s="108" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="103"/>
-      <c r="I4" s="103"/>
-      <c r="J4" s="101"/>
-      <c r="K4" s="101"/>
-      <c r="L4" s="101"/>
-      <c r="M4" s="101"/>
-      <c r="N4" s="101"/>
-      <c r="O4" s="101"/>
-      <c r="P4" s="101"/>
-      <c r="Q4" s="101"/>
-      <c r="R4" s="101"/>
-      <c r="S4" s="101"/>
-      <c r="T4" s="101"/>
-      <c r="U4" s="104"/>
-      <c r="V4" s="104"/>
-      <c r="W4" s="102"/>
+      <c r="H4" s="108"/>
+      <c r="I4" s="108"/>
+      <c r="J4" s="106"/>
+      <c r="K4" s="106"/>
+      <c r="L4" s="106"/>
+      <c r="M4" s="106"/>
+      <c r="N4" s="106"/>
+      <c r="O4" s="106"/>
+      <c r="P4" s="106"/>
+      <c r="Q4" s="106"/>
+      <c r="R4" s="106"/>
+      <c r="S4" s="106"/>
+      <c r="T4" s="106"/>
+      <c r="U4" s="109"/>
+      <c r="V4" s="109"/>
+      <c r="W4" s="107"/>
     </row>
     <row r="5" spans="2:23" ht="18" thickBot="1">
       <c r="B5" s="9" t="s">
@@ -8399,27 +8471,27 @@
     <row r="3" spans="2:19" ht="14.25" thickBot="1"/>
     <row r="4" spans="2:19" ht="21.75" thickBot="1">
       <c r="B4" s="8"/>
-      <c r="C4" s="105" t="s">
+      <c r="C4" s="110" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="106"/>
-      <c r="E4" s="106"/>
-      <c r="F4" s="107"/>
-      <c r="G4" s="108" t="s">
+      <c r="D4" s="111"/>
+      <c r="E4" s="111"/>
+      <c r="F4" s="112"/>
+      <c r="G4" s="113" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="108"/>
-      <c r="I4" s="108"/>
-      <c r="J4" s="106"/>
-      <c r="K4" s="106"/>
-      <c r="L4" s="106"/>
-      <c r="M4" s="106"/>
-      <c r="N4" s="106"/>
-      <c r="O4" s="106"/>
-      <c r="P4" s="106"/>
-      <c r="Q4" s="109"/>
-      <c r="R4" s="109"/>
-      <c r="S4" s="107"/>
+      <c r="H4" s="113"/>
+      <c r="I4" s="113"/>
+      <c r="J4" s="111"/>
+      <c r="K4" s="111"/>
+      <c r="L4" s="111"/>
+      <c r="M4" s="111"/>
+      <c r="N4" s="111"/>
+      <c r="O4" s="111"/>
+      <c r="P4" s="111"/>
+      <c r="Q4" s="114"/>
+      <c r="R4" s="114"/>
+      <c r="S4" s="112"/>
     </row>
     <row r="5" spans="2:19" ht="18" thickBot="1">
       <c r="B5" s="9" t="s">
@@ -9417,23 +9489,23 @@
     <row r="3" spans="2:15" ht="14.25" thickBot="1"/>
     <row r="4" spans="2:15" ht="21.75" thickBot="1">
       <c r="B4" s="8"/>
-      <c r="C4" s="105" t="s">
+      <c r="C4" s="110" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="106"/>
-      <c r="E4" s="106"/>
-      <c r="F4" s="107"/>
-      <c r="G4" s="108" t="s">
+      <c r="D4" s="111"/>
+      <c r="E4" s="111"/>
+      <c r="F4" s="112"/>
+      <c r="G4" s="113" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="106"/>
-      <c r="I4" s="106"/>
-      <c r="J4" s="106"/>
-      <c r="K4" s="106"/>
-      <c r="L4" s="106"/>
-      <c r="M4" s="106"/>
-      <c r="N4" s="106"/>
-      <c r="O4" s="107"/>
+      <c r="H4" s="111"/>
+      <c r="I4" s="111"/>
+      <c r="J4" s="111"/>
+      <c r="K4" s="111"/>
+      <c r="L4" s="111"/>
+      <c r="M4" s="111"/>
+      <c r="N4" s="111"/>
+      <c r="O4" s="112"/>
     </row>
     <row r="5" spans="2:15" ht="18" thickBot="1">
       <c r="B5" s="9" t="s">

--- a/msx3gen/files/msx_gen3.xlsx
+++ b/msx3gen/files/msx_gen3.xlsx
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2206" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2206" uniqueCount="195">
   <si>
     <t>旧来のMSX</t>
     <rPh sb="0" eb="2">
@@ -1204,6 +1204,17 @@
   </si>
   <si>
     <t>MSX0Atom</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アップデート可
+MSX DIY の内部スロットに MSXengine3 を装着したもの。</t>
+    <rPh sb="17" eb="19">
+      <t>ナイブ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ソウチャク</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2579,8 +2590,8 @@
   </sheetPr>
   <dimension ref="B1:Y46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3714,8 +3725,8 @@
       <c r="T20" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="U20" s="1" t="s">
-        <v>81</v>
+      <c r="U20" s="30" t="s">
+        <v>194</v>
       </c>
       <c r="V20" s="1" t="s">
         <v>116</v>

--- a/msx3gen/files/msx_gen3.xlsx
+++ b/msx3gen/files/msx_gen3.xlsx
@@ -12,17 +12,19 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="23310" windowHeight="6915"/>
   </bookViews>
   <sheets>
-    <sheet name="2024年9月28日 ver4" sheetId="6" r:id="rId1"/>
-    <sheet name="2024年9月28日 ver3" sheetId="5" r:id="rId2"/>
-    <sheet name="2024年9月28日 ver2" sheetId="4" r:id="rId3"/>
-    <sheet name="2024年9月28日 ver" sheetId="3" r:id="rId4"/>
-    <sheet name="2024年9月27日 ver" sheetId="2" r:id="rId5"/>
-    <sheet name="2024年9月25日 ver" sheetId="1" r:id="rId6"/>
+    <sheet name="2024年9月29日" sheetId="7" r:id="rId1"/>
+    <sheet name="2024年9月28日 ver4" sheetId="6" r:id="rId2"/>
+    <sheet name="2024年9月28日 ver3" sheetId="5" r:id="rId3"/>
+    <sheet name="2024年9月28日 ver2" sheetId="4" r:id="rId4"/>
+    <sheet name="2024年9月28日 ver" sheetId="3" r:id="rId5"/>
+    <sheet name="2024年9月27日 ver" sheetId="2" r:id="rId6"/>
+    <sheet name="2024年9月25日 ver" sheetId="1" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'2024年9月28日 ver2'!$A$1:$W$50</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'2024年9月28日 ver3'!$A$1:$W$51</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'2024年9月28日 ver4'!$A$1:$Z$48</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'2024年9月28日 ver2'!$A$1:$W$50</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'2024年9月28日 ver3'!$A$1:$W$51</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'2024年9月28日 ver4'!$A$1:$Z$48</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'2024年9月29日'!$A$1:$Y$48</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -34,6 +36,50 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Takayuki Hara</author>
+  </authors>
+  <commentList>
+    <comment ref="E16" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="14"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">ペラペラアニメ再生がキラーアプリ
+→ ペラペラアニメ見たいだけの顧客に、半田付けして組み立て・・を強いるのか？
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E17" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="14"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">ペラペラアニメ再生がキラーアプリ
+→ ペラペラアニメ見たいだけの顧客に、半田付けして組み立て・・を強いるのか？
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Takayuki Hara</author>
@@ -78,7 +124,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2206" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2639" uniqueCount="203">
   <si>
     <t>旧来のMSX</t>
     <rPh sb="0" eb="2">
@@ -1214,6 +1260,68 @@
     </rPh>
     <rPh sb="37" eb="39">
       <t>ソウチャク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://x.com/nishikazuhiko/status/1840084606302990775</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>別の機種も動くようにする仕組みは、MSX DIY MSX1+ から分離して、カートリッジでの提供を検討する。旧MSXでも使えるように。</t>
+    <rPh sb="0" eb="1">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キシュ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ウゴ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>シク</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ブンリ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>テイキョウ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>ケントウ</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>キュウ</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MSXIOT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MSXポケット・ポータブル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MSXDIY</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MSXHandHeld</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MSX Gen4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>分類</t>
+    <rPh sb="0" eb="2">
+      <t>ブンルイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1386,7 +1494,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="43">
+  <borders count="44">
     <border>
       <left/>
       <right/>
@@ -1942,6 +2050,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1951,7 +2070,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2295,6 +2414,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2588,9 +2719,1499 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
+  <dimension ref="B1:X49"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="2.875" customWidth="1"/>
+    <col min="2" max="2" width="20.125" customWidth="1"/>
+    <col min="3" max="3" width="34.125" customWidth="1"/>
+    <col min="4" max="4" width="23" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.875" customWidth="1"/>
+    <col min="6" max="6" width="25.125" customWidth="1"/>
+    <col min="7" max="7" width="12.75" customWidth="1"/>
+    <col min="8" max="10" width="16.75" customWidth="1"/>
+    <col min="11" max="14" width="16.625" customWidth="1"/>
+    <col min="15" max="15" width="21.625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.75" customWidth="1"/>
+    <col min="17" max="17" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="24" customWidth="1"/>
+    <col min="20" max="21" width="19.875" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="24.75" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="3.125" customWidth="1"/>
+    <col min="25" max="25" width="15.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:24">
+      <c r="G1" s="88" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="2" spans="2:24">
+      <c r="B2" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="29"/>
+      <c r="G2" s="89" t="s">
+        <v>169</v>
+      </c>
+      <c r="X2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="3" spans="2:24">
+      <c r="G3" s="90" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="4" spans="2:24" ht="14.25" thickBot="1"/>
+    <row r="5" spans="2:24" ht="14.25" thickBot="1">
+      <c r="B5" s="74"/>
+      <c r="C5" s="91" t="s">
+        <v>202</v>
+      </c>
+      <c r="D5" s="76" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="74" t="s">
+        <v>182</v>
+      </c>
+      <c r="F5" s="75" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="75" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" s="75" t="s">
+        <v>35</v>
+      </c>
+      <c r="J5" s="75" t="s">
+        <v>38</v>
+      </c>
+      <c r="K5" s="75" t="s">
+        <v>41</v>
+      </c>
+      <c r="L5" s="75" t="s">
+        <v>43</v>
+      </c>
+      <c r="M5" s="75" t="s">
+        <v>48</v>
+      </c>
+      <c r="N5" s="75" t="s">
+        <v>49</v>
+      </c>
+      <c r="O5" s="75" t="s">
+        <v>53</v>
+      </c>
+      <c r="P5" s="75" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q5" s="75" t="s">
+        <v>55</v>
+      </c>
+      <c r="R5" s="75" t="s">
+        <v>68</v>
+      </c>
+      <c r="S5" s="75" t="s">
+        <v>78</v>
+      </c>
+      <c r="T5" s="75"/>
+      <c r="U5" s="75" t="s">
+        <v>112</v>
+      </c>
+      <c r="V5" s="75" t="s">
+        <v>120</v>
+      </c>
+      <c r="W5" s="75" t="s">
+        <v>127</v>
+      </c>
+      <c r="X5" s="76"/>
+    </row>
+    <row r="6" spans="2:24" ht="51.75">
+      <c r="B6" s="105" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="93" t="s">
+        <v>197</v>
+      </c>
+      <c r="D6" s="94" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="99" t="s">
+        <v>186</v>
+      </c>
+      <c r="F6" s="68" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="69" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="68" t="s">
+        <v>56</v>
+      </c>
+      <c r="I6" s="69" t="s">
+        <v>37</v>
+      </c>
+      <c r="J6" s="69" t="s">
+        <v>42</v>
+      </c>
+      <c r="K6" s="69" t="s">
+        <v>42</v>
+      </c>
+      <c r="L6" s="69" t="s">
+        <v>42</v>
+      </c>
+      <c r="M6" s="69" t="s">
+        <v>45</v>
+      </c>
+      <c r="N6" s="69" t="s">
+        <v>52</v>
+      </c>
+      <c r="O6" s="69" t="s">
+        <v>39</v>
+      </c>
+      <c r="P6" s="68" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q6" s="69" t="s">
+        <v>39</v>
+      </c>
+      <c r="R6" s="69" t="s">
+        <v>71</v>
+      </c>
+      <c r="S6" s="69" t="s">
+        <v>102</v>
+      </c>
+      <c r="T6" s="69"/>
+      <c r="U6" s="69" t="s">
+        <v>114</v>
+      </c>
+      <c r="V6" s="69" t="s">
+        <v>121</v>
+      </c>
+      <c r="W6" s="69" t="s">
+        <v>129</v>
+      </c>
+      <c r="X6" s="70"/>
+    </row>
+    <row r="7" spans="2:24" ht="40.5">
+      <c r="B7" s="118"/>
+      <c r="C7" s="92" t="s">
+        <v>198</v>
+      </c>
+      <c r="D7" s="84" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="96" t="s">
+        <v>183</v>
+      </c>
+      <c r="F7" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="P7" s="30" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="V7" s="86" t="s">
+        <v>126</v>
+      </c>
+      <c r="W7" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="X7" s="3"/>
+    </row>
+    <row r="8" spans="2:24" ht="40.5">
+      <c r="B8" s="118"/>
+      <c r="C8" s="92" t="s">
+        <v>198</v>
+      </c>
+      <c r="D8" s="84" t="s">
+        <v>104</v>
+      </c>
+      <c r="E8" s="96" t="s">
+        <v>187</v>
+      </c>
+      <c r="F8" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="P8" s="30" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="V8" s="86" t="s">
+        <v>141</v>
+      </c>
+      <c r="W8" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="X8" s="3"/>
+    </row>
+    <row r="9" spans="2:24" ht="40.5">
+      <c r="B9" s="118"/>
+      <c r="C9" s="92" t="s">
+        <v>198</v>
+      </c>
+      <c r="D9" s="84" t="s">
+        <v>105</v>
+      </c>
+      <c r="E9" s="97" t="s">
+        <v>184</v>
+      </c>
+      <c r="F9" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="P9" s="30" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="V9" s="86" t="s">
+        <v>142</v>
+      </c>
+      <c r="W9" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="X9" s="3"/>
+    </row>
+    <row r="10" spans="2:24" ht="54">
+      <c r="B10" s="118"/>
+      <c r="C10" s="116" t="s">
+        <v>197</v>
+      </c>
+      <c r="D10" s="84" t="s">
+        <v>148</v>
+      </c>
+      <c r="E10" s="96" t="s">
+        <v>187</v>
+      </c>
+      <c r="F10" s="30" t="s">
+        <v>149</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H10" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="P10" s="30" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="V10" s="86" t="s">
+        <v>163</v>
+      </c>
+      <c r="W10" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="X10" s="3"/>
+    </row>
+    <row r="11" spans="2:24" ht="40.5">
+      <c r="B11" s="118"/>
+      <c r="C11" s="115" t="s">
+        <v>197</v>
+      </c>
+      <c r="D11" s="84" t="s">
+        <v>146</v>
+      </c>
+      <c r="E11" s="97" t="s">
+        <v>183</v>
+      </c>
+      <c r="F11" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H11" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="P11" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="V11" s="86" t="s">
+        <v>163</v>
+      </c>
+      <c r="W11" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="2:24" ht="40.5">
+      <c r="B12" s="118"/>
+      <c r="C12" s="116" t="s">
+        <v>197</v>
+      </c>
+      <c r="D12" s="84" t="s">
+        <v>147</v>
+      </c>
+      <c r="E12" s="97" t="s">
+        <v>183</v>
+      </c>
+      <c r="F12" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="P12" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="V12" s="86" t="s">
+        <v>163</v>
+      </c>
+      <c r="W12" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="X12" s="3"/>
+    </row>
+    <row r="13" spans="2:24" ht="40.5">
+      <c r="B13" s="118"/>
+      <c r="C13" s="115" t="s">
+        <v>197</v>
+      </c>
+      <c r="D13" s="84" t="s">
+        <v>193</v>
+      </c>
+      <c r="E13" s="97" t="s">
+        <v>183</v>
+      </c>
+      <c r="F13" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H13" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="P13" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="S13" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="V13" s="86" t="s">
+        <v>163</v>
+      </c>
+      <c r="W13" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="X13" s="3"/>
+    </row>
+    <row r="14" spans="2:24" ht="40.5">
+      <c r="B14" s="118"/>
+      <c r="C14" s="92" t="s">
+        <v>69</v>
+      </c>
+      <c r="D14" s="84" t="s">
+        <v>160</v>
+      </c>
+      <c r="E14" s="96" t="s">
+        <v>187</v>
+      </c>
+      <c r="F14" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H14" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="P14" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="S14" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="V14" s="86" t="s">
+        <v>163</v>
+      </c>
+      <c r="W14" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="X14" s="3"/>
+    </row>
+    <row r="15" spans="2:24" ht="51.75">
+      <c r="B15" s="118"/>
+      <c r="C15" s="92" t="s">
+        <v>199</v>
+      </c>
+      <c r="D15" s="84" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="96" t="s">
+        <v>188</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="P15" s="86" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="R15" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="S15" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="T15" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="U15" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="V15" s="86" t="s">
+        <v>144</v>
+      </c>
+      <c r="W15" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="X15" s="3"/>
+    </row>
+    <row r="16" spans="2:24" ht="51.75">
+      <c r="B16" s="118"/>
+      <c r="C16" s="92" t="s">
+        <v>199</v>
+      </c>
+      <c r="D16" s="84" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" s="96" t="s">
+        <v>189</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="P16" s="86" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="R16" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="S16" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="T16" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="U16" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="V16" s="86" t="s">
+        <v>143</v>
+      </c>
+      <c r="W16" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="2:24" ht="51.75">
+      <c r="B17" s="118"/>
+      <c r="C17" s="92" t="s">
+        <v>198</v>
+      </c>
+      <c r="D17" s="84" t="s">
+        <v>200</v>
+      </c>
+      <c r="E17" s="96" t="s">
+        <v>189</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="P17" s="86" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="R17" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="S17" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="T17" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="U17" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="V17" s="86" t="s">
+        <v>143</v>
+      </c>
+      <c r="W17" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="X17" s="3"/>
+    </row>
+    <row r="18" spans="2:24" ht="54">
+      <c r="B18" s="118"/>
+      <c r="C18" s="92" t="s">
+        <v>199</v>
+      </c>
+      <c r="D18" s="84" t="s">
+        <v>58</v>
+      </c>
+      <c r="E18" s="96" t="s">
+        <v>190</v>
+      </c>
+      <c r="F18" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="G18" s="86" t="s">
+        <v>62</v>
+      </c>
+      <c r="H18" s="30" t="s">
+        <v>152</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="J18" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="K18" s="86" t="s">
+        <v>46</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="P18" s="86" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R18" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="S18" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="T18" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="U18" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="V18" s="86" t="s">
+        <v>145</v>
+      </c>
+      <c r="W18" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="X18" s="3"/>
+    </row>
+    <row r="19" spans="2:24" ht="54">
+      <c r="B19" s="118"/>
+      <c r="C19" s="92" t="s">
+        <v>199</v>
+      </c>
+      <c r="D19" s="84" t="s">
+        <v>59</v>
+      </c>
+      <c r="E19" s="96" t="s">
+        <v>190</v>
+      </c>
+      <c r="F19" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="G19" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="H19" s="30" t="s">
+        <v>153</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="J19" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="K19" s="86" t="s">
+        <v>46</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="P19" s="86" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q19" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R19" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="S19" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="T19" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="U19" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="V19" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="W19" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="2:24" ht="67.5">
+      <c r="B20" s="118"/>
+      <c r="C20" s="92" t="s">
+        <v>199</v>
+      </c>
+      <c r="D20" s="84" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="96" t="s">
+        <v>191</v>
+      </c>
+      <c r="F20" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="G20" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="H20" s="30" t="s">
+        <v>154</v>
+      </c>
+      <c r="I20" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="J20" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="K20" s="86" t="s">
+        <v>46</v>
+      </c>
+      <c r="L20" s="86" t="s">
+        <v>47</v>
+      </c>
+      <c r="M20" s="86" t="s">
+        <v>47</v>
+      </c>
+      <c r="N20" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="P20" s="86" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q20" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="R20" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="S20" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="T20" s="30" t="s">
+        <v>194</v>
+      </c>
+      <c r="U20" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="V20" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="W20" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="X20" s="3"/>
+    </row>
+    <row r="21" spans="2:24" ht="67.5">
+      <c r="B21" s="118"/>
+      <c r="C21" s="92" t="s">
+        <v>199</v>
+      </c>
+      <c r="D21" s="84" t="s">
+        <v>171</v>
+      </c>
+      <c r="E21" s="97" t="s">
+        <v>184</v>
+      </c>
+      <c r="F21" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="G21" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="H21" s="30" t="s">
+        <v>154</v>
+      </c>
+      <c r="I21" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="J21" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="K21" s="86" t="s">
+        <v>46</v>
+      </c>
+      <c r="L21" s="86" t="s">
+        <v>47</v>
+      </c>
+      <c r="M21" s="86" t="s">
+        <v>47</v>
+      </c>
+      <c r="N21" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="P21" s="86" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q21" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="R21" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="S21" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="T21" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="U21" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="V21" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="W21" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="X21" s="3"/>
+    </row>
+    <row r="22" spans="2:24" ht="67.5">
+      <c r="B22" s="118"/>
+      <c r="C22" s="92" t="s">
+        <v>199</v>
+      </c>
+      <c r="D22" s="84" t="s">
+        <v>94</v>
+      </c>
+      <c r="E22" s="100" t="s">
+        <v>192</v>
+      </c>
+      <c r="F22" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="G22" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="H22" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="I22" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="J22" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="K22" s="86" t="s">
+        <v>46</v>
+      </c>
+      <c r="L22" s="86" t="s">
+        <v>47</v>
+      </c>
+      <c r="M22" s="86" t="s">
+        <v>47</v>
+      </c>
+      <c r="N22" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="P22" s="86" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q22" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="R22" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="S22" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="T22" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="U22" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="V22" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="W22" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="X22" s="3"/>
+    </row>
+    <row r="23" spans="2:24" ht="67.5">
+      <c r="B23" s="104"/>
+      <c r="C23" s="92" t="s">
+        <v>199</v>
+      </c>
+      <c r="D23" s="84" t="s">
+        <v>95</v>
+      </c>
+      <c r="E23" s="100" t="s">
+        <v>192</v>
+      </c>
+      <c r="F23" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="G23" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="H23" s="30" t="s">
+        <v>156</v>
+      </c>
+      <c r="I23" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="J23" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="K23" s="86" t="s">
+        <v>46</v>
+      </c>
+      <c r="L23" s="86" t="s">
+        <v>47</v>
+      </c>
+      <c r="M23" s="86" t="s">
+        <v>47</v>
+      </c>
+      <c r="N23" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="P23" s="86" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q23" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="R23" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="S23" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="T23" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="U23" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="V23" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="W23" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="X23" s="3"/>
+    </row>
+    <row r="24" spans="2:24" ht="41.25" thickBot="1">
+      <c r="B24" s="117" t="s">
+        <v>201</v>
+      </c>
+      <c r="C24" s="95" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" s="85" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" s="98" t="s">
+        <v>185</v>
+      </c>
+      <c r="F24" s="71" t="s">
+        <v>21</v>
+      </c>
+      <c r="G24" s="87" t="s">
+        <v>33</v>
+      </c>
+      <c r="H24" s="87" t="s">
+        <v>85</v>
+      </c>
+      <c r="I24" s="87" t="s">
+        <v>33</v>
+      </c>
+      <c r="J24" s="87" t="s">
+        <v>33</v>
+      </c>
+      <c r="K24" s="87" t="s">
+        <v>46</v>
+      </c>
+      <c r="L24" s="87" t="s">
+        <v>47</v>
+      </c>
+      <c r="M24" s="87" t="s">
+        <v>47</v>
+      </c>
+      <c r="N24" s="87" t="s">
+        <v>33</v>
+      </c>
+      <c r="O24" s="87" t="s">
+        <v>33</v>
+      </c>
+      <c r="P24" s="86" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q24" s="87" t="s">
+        <v>33</v>
+      </c>
+      <c r="R24" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="S24" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="T24" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="U24" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="V24" s="87" t="s">
+        <v>33</v>
+      </c>
+      <c r="W24" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="X24" s="7"/>
+    </row>
+    <row r="28" spans="2:24">
+      <c r="B28" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="29" spans="2:24">
+      <c r="B29" s="60" t="s">
+        <v>139</v>
+      </c>
+      <c r="C29" s="60"/>
+    </row>
+    <row r="31" spans="2:24">
+      <c r="B31" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="32" spans="2:24">
+      <c r="B32" s="60" t="s">
+        <v>138</v>
+      </c>
+      <c r="C32" s="60"/>
+    </row>
+    <row r="34" spans="2:3">
+      <c r="B34" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3">
+      <c r="B35" s="60" t="s">
+        <v>137</v>
+      </c>
+      <c r="C35" s="60"/>
+    </row>
+    <row r="37" spans="2:3">
+      <c r="B37" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3">
+      <c r="B38" s="60" t="s">
+        <v>136</v>
+      </c>
+      <c r="C38" s="60"/>
+    </row>
+    <row r="40" spans="2:3">
+      <c r="B40" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3">
+      <c r="B41" s="61" t="s">
+        <v>131</v>
+      </c>
+      <c r="C41" s="61"/>
+    </row>
+    <row r="42" spans="2:3">
+      <c r="B42" s="60" t="s">
+        <v>135</v>
+      </c>
+      <c r="C42" s="60"/>
+    </row>
+    <row r="43" spans="2:3">
+      <c r="B43" s="60" t="s">
+        <v>140</v>
+      </c>
+      <c r="C43" s="60"/>
+    </row>
+    <row r="45" spans="2:3">
+      <c r="B45" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3">
+      <c r="B46" s="60" t="s">
+        <v>158</v>
+      </c>
+      <c r="C46" s="60"/>
+    </row>
+    <row r="48" spans="2:3">
+      <c r="B48" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2">
+      <c r="B49" s="60" t="s">
+        <v>195</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B6:B23"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="B41" r:id="rId1"/>
+    <hyperlink ref="B42" r:id="rId2"/>
+    <hyperlink ref="B38" r:id="rId3"/>
+    <hyperlink ref="B35" r:id="rId4"/>
+    <hyperlink ref="B32" r:id="rId5"/>
+    <hyperlink ref="B29" r:id="rId6"/>
+    <hyperlink ref="B43" r:id="rId7"/>
+    <hyperlink ref="B46" r:id="rId8"/>
+    <hyperlink ref="B49" r:id="rId9"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="8" scale="42" orientation="landscape" horizontalDpi="4294967293" r:id="rId10"/>
+  <legacyDrawing r:id="rId11"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="B1:Y46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
@@ -4118,7 +5739,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -5635,7 +7256,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -7091,7 +8712,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:W42"/>
   <sheetViews>
@@ -8447,7 +10068,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:S35"/>
   <sheetViews>
@@ -9465,7 +11086,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:O35"/>
   <sheetViews>

--- a/msx3gen/files/msx_gen3.xlsx
+++ b/msx3gen/files/msx_gen3.xlsx
@@ -124,7 +124,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2639" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2641" uniqueCount="205">
   <si>
     <t>旧来のMSX</t>
     <rPh sb="0" eb="2">
@@ -1323,6 +1323,35 @@
     <rPh sb="0" eb="2">
       <t>ブンルイ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MSX0Stamp を OLD MSX のフィギュアに収めて販売という話はどうなったのか？→ 生産数が合わないので棚上げ中</t>
+    <rPh sb="27" eb="28">
+      <t>オサ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ハンバイ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>ハナシ</t>
+    </rPh>
+    <rPh sb="47" eb="50">
+      <t>セイサンスウ</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>タナア</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>チュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://x.com/nishikazuhiko/status/1840090158215115276</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2374,6 +2403,24 @@
     <xf numFmtId="0" fontId="10" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2383,12 +2430,6 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2414,18 +2455,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2719,10 +2748,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:X49"/>
+  <dimension ref="B1:X52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2836,7 +2865,7 @@
       <c r="X5" s="76"/>
     </row>
     <row r="6" spans="2:24" ht="51.75">
-      <c r="B6" s="105" t="s">
+      <c r="B6" s="104" t="s">
         <v>14</v>
       </c>
       <c r="C6" s="93" t="s">
@@ -2903,7 +2932,7 @@
       <c r="X6" s="70"/>
     </row>
     <row r="7" spans="2:24" ht="40.5">
-      <c r="B7" s="118"/>
+      <c r="B7" s="105"/>
       <c r="C7" s="92" t="s">
         <v>198</v>
       </c>
@@ -2968,7 +2997,7 @@
       <c r="X7" s="3"/>
     </row>
     <row r="8" spans="2:24" ht="40.5">
-      <c r="B8" s="118"/>
+      <c r="B8" s="105"/>
       <c r="C8" s="92" t="s">
         <v>198</v>
       </c>
@@ -3033,7 +3062,7 @@
       <c r="X8" s="3"/>
     </row>
     <row r="9" spans="2:24" ht="40.5">
-      <c r="B9" s="118"/>
+      <c r="B9" s="105"/>
       <c r="C9" s="92" t="s">
         <v>198</v>
       </c>
@@ -3098,8 +3127,8 @@
       <c r="X9" s="3"/>
     </row>
     <row r="10" spans="2:24" ht="54">
-      <c r="B10" s="118"/>
-      <c r="C10" s="116" t="s">
+      <c r="B10" s="105"/>
+      <c r="C10" s="102" t="s">
         <v>197</v>
       </c>
       <c r="D10" s="84" t="s">
@@ -3163,8 +3192,8 @@
       <c r="X10" s="3"/>
     </row>
     <row r="11" spans="2:24" ht="40.5">
-      <c r="B11" s="118"/>
-      <c r="C11" s="115" t="s">
+      <c r="B11" s="105"/>
+      <c r="C11" s="101" t="s">
         <v>197</v>
       </c>
       <c r="D11" s="84" t="s">
@@ -3228,8 +3257,8 @@
       <c r="X11" s="3"/>
     </row>
     <row r="12" spans="2:24" ht="40.5">
-      <c r="B12" s="118"/>
-      <c r="C12" s="116" t="s">
+      <c r="B12" s="105"/>
+      <c r="C12" s="102" t="s">
         <v>197</v>
       </c>
       <c r="D12" s="84" t="s">
@@ -3293,8 +3322,8 @@
       <c r="X12" s="3"/>
     </row>
     <row r="13" spans="2:24" ht="40.5">
-      <c r="B13" s="118"/>
-      <c r="C13" s="115" t="s">
+      <c r="B13" s="105"/>
+      <c r="C13" s="101" t="s">
         <v>197</v>
       </c>
       <c r="D13" s="84" t="s">
@@ -3358,7 +3387,7 @@
       <c r="X13" s="3"/>
     </row>
     <row r="14" spans="2:24" ht="40.5">
-      <c r="B14" s="118"/>
+      <c r="B14" s="105"/>
       <c r="C14" s="92" t="s">
         <v>69</v>
       </c>
@@ -3423,7 +3452,7 @@
       <c r="X14" s="3"/>
     </row>
     <row r="15" spans="2:24" ht="51.75">
-      <c r="B15" s="118"/>
+      <c r="B15" s="105"/>
       <c r="C15" s="92" t="s">
         <v>199</v>
       </c>
@@ -3490,7 +3519,7 @@
       <c r="X15" s="3"/>
     </row>
     <row r="16" spans="2:24" ht="51.75">
-      <c r="B16" s="118"/>
+      <c r="B16" s="105"/>
       <c r="C16" s="92" t="s">
         <v>199</v>
       </c>
@@ -3557,7 +3586,7 @@
       <c r="X16" s="3"/>
     </row>
     <row r="17" spans="2:24" ht="51.75">
-      <c r="B17" s="118"/>
+      <c r="B17" s="105"/>
       <c r="C17" s="92" t="s">
         <v>198</v>
       </c>
@@ -3624,7 +3653,7 @@
       <c r="X17" s="3"/>
     </row>
     <row r="18" spans="2:24" ht="54">
-      <c r="B18" s="118"/>
+      <c r="B18" s="105"/>
       <c r="C18" s="92" t="s">
         <v>199</v>
       </c>
@@ -3691,7 +3720,7 @@
       <c r="X18" s="3"/>
     </row>
     <row r="19" spans="2:24" ht="54">
-      <c r="B19" s="118"/>
+      <c r="B19" s="105"/>
       <c r="C19" s="92" t="s">
         <v>199</v>
       </c>
@@ -3758,7 +3787,7 @@
       <c r="X19" s="3"/>
     </row>
     <row r="20" spans="2:24" ht="67.5">
-      <c r="B20" s="118"/>
+      <c r="B20" s="105"/>
       <c r="C20" s="92" t="s">
         <v>199</v>
       </c>
@@ -3825,7 +3854,7 @@
       <c r="X20" s="3"/>
     </row>
     <row r="21" spans="2:24" ht="67.5">
-      <c r="B21" s="118"/>
+      <c r="B21" s="105"/>
       <c r="C21" s="92" t="s">
         <v>199</v>
       </c>
@@ -3892,7 +3921,7 @@
       <c r="X21" s="3"/>
     </row>
     <row r="22" spans="2:24" ht="67.5">
-      <c r="B22" s="118"/>
+      <c r="B22" s="105"/>
       <c r="C22" s="92" t="s">
         <v>199</v>
       </c>
@@ -3959,7 +3988,7 @@
       <c r="X22" s="3"/>
     </row>
     <row r="23" spans="2:24" ht="67.5">
-      <c r="B23" s="104"/>
+      <c r="B23" s="106"/>
       <c r="C23" s="92" t="s">
         <v>199</v>
       </c>
@@ -4026,7 +4055,7 @@
       <c r="X23" s="3"/>
     </row>
     <row r="24" spans="2:24" ht="41.25" thickBot="1">
-      <c r="B24" s="117" t="s">
+      <c r="B24" s="103" t="s">
         <v>201</v>
       </c>
       <c r="C24" s="95" t="s">
@@ -4180,6 +4209,16 @@
     <row r="49" spans="2:2">
       <c r="B49" s="60" t="s">
         <v>195</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2">
+      <c r="B51" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2">
+      <c r="B52" s="60" t="s">
+        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -4197,10 +4236,11 @@
     <hyperlink ref="B43" r:id="rId7"/>
     <hyperlink ref="B46" r:id="rId8"/>
     <hyperlink ref="B49" r:id="rId9"/>
+    <hyperlink ref="B52" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="8" scale="42" orientation="landscape" horizontalDpi="4294967293" r:id="rId10"/>
-  <legacyDrawing r:id="rId11"/>
+  <pageSetup paperSize="8" scale="42" orientation="landscape" horizontalDpi="4294967293" r:id="rId11"/>
+  <legacyDrawing r:id="rId12"/>
 </worksheet>
 </file>
 
@@ -4327,7 +4367,7 @@
       <c r="Y5" s="76"/>
     </row>
     <row r="6" spans="2:25" ht="51.75">
-      <c r="B6" s="101" t="s">
+      <c r="B6" s="107" t="s">
         <v>14</v>
       </c>
       <c r="C6" s="93" t="s">
@@ -4397,7 +4437,7 @@
       <c r="Y6" s="70"/>
     </row>
     <row r="7" spans="2:25" ht="40.5">
-      <c r="B7" s="102"/>
+      <c r="B7" s="108"/>
       <c r="C7" s="92" t="s">
         <v>173</v>
       </c>
@@ -4465,7 +4505,7 @@
       <c r="Y7" s="3"/>
     </row>
     <row r="8" spans="2:25" ht="40.5">
-      <c r="B8" s="102"/>
+      <c r="B8" s="108"/>
       <c r="C8" s="92" t="s">
         <v>174</v>
       </c>
@@ -4533,7 +4573,7 @@
       <c r="Y8" s="3"/>
     </row>
     <row r="9" spans="2:25" ht="40.5">
-      <c r="B9" s="102"/>
+      <c r="B9" s="108"/>
       <c r="C9" s="92" t="s">
         <v>174</v>
       </c>
@@ -4601,7 +4641,7 @@
       <c r="Y9" s="3"/>
     </row>
     <row r="10" spans="2:25" ht="54">
-      <c r="B10" s="102"/>
+      <c r="B10" s="108"/>
       <c r="C10" s="92" t="s">
         <v>174</v>
       </c>
@@ -4669,7 +4709,7 @@
       <c r="Y10" s="3"/>
     </row>
     <row r="11" spans="2:25" ht="40.5">
-      <c r="B11" s="102"/>
+      <c r="B11" s="108"/>
       <c r="C11" s="92" t="s">
         <v>173</v>
       </c>
@@ -4737,7 +4777,7 @@
       <c r="Y11" s="3"/>
     </row>
     <row r="12" spans="2:25" ht="40.5">
-      <c r="B12" s="102"/>
+      <c r="B12" s="108"/>
       <c r="C12" s="92" t="s">
         <v>173</v>
       </c>
@@ -4805,7 +4845,7 @@
       <c r="Y12" s="3"/>
     </row>
     <row r="13" spans="2:25" ht="40.5">
-      <c r="B13" s="102"/>
+      <c r="B13" s="108"/>
       <c r="C13" s="92" t="s">
         <v>173</v>
       </c>
@@ -4873,7 +4913,7 @@
       <c r="Y13" s="3"/>
     </row>
     <row r="14" spans="2:25" ht="40.5">
-      <c r="B14" s="102"/>
+      <c r="B14" s="108"/>
       <c r="C14" s="92" t="s">
         <v>173</v>
       </c>
@@ -4941,7 +4981,7 @@
       <c r="Y14" s="3"/>
     </row>
     <row r="15" spans="2:25" ht="51.75">
-      <c r="B15" s="102"/>
+      <c r="B15" s="108"/>
       <c r="C15" s="92" t="s">
         <v>173</v>
       </c>
@@ -5011,7 +5051,7 @@
       <c r="Y15" s="3"/>
     </row>
     <row r="16" spans="2:25" ht="51.75">
-      <c r="B16" s="102"/>
+      <c r="B16" s="108"/>
       <c r="C16" s="92" t="s">
         <v>173</v>
       </c>
@@ -5081,7 +5121,7 @@
       <c r="Y16" s="3"/>
     </row>
     <row r="17" spans="2:25" ht="51.75">
-      <c r="B17" s="102"/>
+      <c r="B17" s="108"/>
       <c r="C17" s="92" t="s">
         <v>173</v>
       </c>
@@ -5151,7 +5191,7 @@
       <c r="Y17" s="3"/>
     </row>
     <row r="18" spans="2:25" ht="54">
-      <c r="B18" s="102"/>
+      <c r="B18" s="108"/>
       <c r="C18" s="92" t="s">
         <v>173</v>
       </c>
@@ -5221,7 +5261,7 @@
       <c r="Y18" s="3"/>
     </row>
     <row r="19" spans="2:25" ht="54">
-      <c r="B19" s="102"/>
+      <c r="B19" s="108"/>
       <c r="C19" s="92" t="s">
         <v>173</v>
       </c>
@@ -5291,7 +5331,7 @@
       <c r="Y19" s="3"/>
     </row>
     <row r="20" spans="2:25" ht="67.5">
-      <c r="B20" s="102"/>
+      <c r="B20" s="108"/>
       <c r="C20" s="92" t="s">
         <v>173</v>
       </c>
@@ -5361,7 +5401,7 @@
       <c r="Y20" s="3"/>
     </row>
     <row r="21" spans="2:25" ht="67.5">
-      <c r="B21" s="102"/>
+      <c r="B21" s="108"/>
       <c r="C21" s="92" t="s">
         <v>174</v>
       </c>
@@ -5431,7 +5471,7 @@
       <c r="Y21" s="3"/>
     </row>
     <row r="22" spans="2:25" ht="67.5">
-      <c r="B22" s="102"/>
+      <c r="B22" s="108"/>
       <c r="C22" s="92" t="s">
         <v>173</v>
       </c>
@@ -5501,7 +5541,7 @@
       <c r="Y22" s="3"/>
     </row>
     <row r="23" spans="2:25" ht="67.5">
-      <c r="B23" s="102"/>
+      <c r="B23" s="108"/>
       <c r="C23" s="92" t="s">
         <v>173</v>
       </c>
@@ -5571,7 +5611,7 @@
       <c r="Y23" s="3"/>
     </row>
     <row r="24" spans="2:25" ht="41.25" thickBot="1">
-      <c r="B24" s="103"/>
+      <c r="B24" s="109"/>
       <c r="C24" s="95" t="s">
         <v>173</v>
       </c>
@@ -5852,7 +5892,7 @@
       <c r="V5" s="76"/>
     </row>
     <row r="6" spans="2:22" ht="17.25">
-      <c r="B6" s="104" t="s">
+      <c r="B6" s="106" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="83" t="s">
@@ -5911,7 +5951,7 @@
       <c r="V6" s="73"/>
     </row>
     <row r="7" spans="2:22" ht="17.25">
-      <c r="B7" s="102"/>
+      <c r="B7" s="108"/>
       <c r="C7" s="84" t="s">
         <v>2</v>
       </c>
@@ -5968,7 +6008,7 @@
       <c r="V7" s="47"/>
     </row>
     <row r="8" spans="2:22" ht="17.25">
-      <c r="B8" s="102"/>
+      <c r="B8" s="108"/>
       <c r="C8" s="84" t="s">
         <v>3</v>
       </c>
@@ -6025,7 +6065,7 @@
       <c r="V8" s="47"/>
     </row>
     <row r="9" spans="2:22" ht="27">
-      <c r="B9" s="102"/>
+      <c r="B9" s="108"/>
       <c r="C9" s="84" t="s">
         <v>4</v>
       </c>
@@ -6082,7 +6122,7 @@
       <c r="V9" s="47"/>
     </row>
     <row r="10" spans="2:22" ht="40.5">
-      <c r="B10" s="102" t="s">
+      <c r="B10" s="108" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="84" t="s">
@@ -6143,7 +6183,7 @@
       <c r="V10" s="70"/>
     </row>
     <row r="11" spans="2:22" ht="40.5">
-      <c r="B11" s="102"/>
+      <c r="B11" s="108"/>
       <c r="C11" s="84" t="s">
         <v>9</v>
       </c>
@@ -6202,7 +6242,7 @@
       <c r="V11" s="3"/>
     </row>
     <row r="12" spans="2:22" ht="40.5">
-      <c r="B12" s="102"/>
+      <c r="B12" s="108"/>
       <c r="C12" s="84" t="s">
         <v>104</v>
       </c>
@@ -6261,7 +6301,7 @@
       <c r="V12" s="3"/>
     </row>
     <row r="13" spans="2:22" ht="40.5">
-      <c r="B13" s="102"/>
+      <c r="B13" s="108"/>
       <c r="C13" s="84" t="s">
         <v>105</v>
       </c>
@@ -6320,7 +6360,7 @@
       <c r="V13" s="3"/>
     </row>
     <row r="14" spans="2:22" ht="54">
-      <c r="B14" s="102"/>
+      <c r="B14" s="108"/>
       <c r="C14" s="84" t="s">
         <v>148</v>
       </c>
@@ -6379,7 +6419,7 @@
       <c r="V14" s="3"/>
     </row>
     <row r="15" spans="2:22" ht="40.5">
-      <c r="B15" s="102"/>
+      <c r="B15" s="108"/>
       <c r="C15" s="84" t="s">
         <v>146</v>
       </c>
@@ -6438,7 +6478,7 @@
       <c r="V15" s="3"/>
     </row>
     <row r="16" spans="2:22" ht="40.5">
-      <c r="B16" s="102"/>
+      <c r="B16" s="108"/>
       <c r="C16" s="84" t="s">
         <v>147</v>
       </c>
@@ -6497,7 +6537,7 @@
       <c r="V16" s="3"/>
     </row>
     <row r="17" spans="2:22" ht="40.5">
-      <c r="B17" s="102"/>
+      <c r="B17" s="108"/>
       <c r="C17" s="84" t="s">
         <v>160</v>
       </c>
@@ -6556,7 +6596,7 @@
       <c r="V17" s="3"/>
     </row>
     <row r="18" spans="2:22" ht="17.25">
-      <c r="B18" s="102"/>
+      <c r="B18" s="108"/>
       <c r="C18" s="84" t="s">
         <v>10</v>
       </c>
@@ -6617,7 +6657,7 @@
       <c r="V18" s="3"/>
     </row>
     <row r="19" spans="2:22" ht="17.25">
-      <c r="B19" s="102"/>
+      <c r="B19" s="108"/>
       <c r="C19" s="84" t="s">
         <v>3</v>
       </c>
@@ -6678,7 +6718,7 @@
       <c r="V19" s="3"/>
     </row>
     <row r="20" spans="2:22" ht="17.25">
-      <c r="B20" s="102"/>
+      <c r="B20" s="108"/>
       <c r="C20" s="84" t="s">
         <v>11</v>
       </c>
@@ -6739,7 +6779,7 @@
       <c r="V20" s="3"/>
     </row>
     <row r="21" spans="2:22" ht="54">
-      <c r="B21" s="102"/>
+      <c r="B21" s="108"/>
       <c r="C21" s="84" t="s">
         <v>58</v>
       </c>
@@ -6800,7 +6840,7 @@
       <c r="V21" s="3"/>
     </row>
     <row r="22" spans="2:22" ht="54">
-      <c r="B22" s="102"/>
+      <c r="B22" s="108"/>
       <c r="C22" s="84" t="s">
         <v>59</v>
       </c>
@@ -6861,7 +6901,7 @@
       <c r="V22" s="3"/>
     </row>
     <row r="23" spans="2:22" ht="67.5">
-      <c r="B23" s="102"/>
+      <c r="B23" s="108"/>
       <c r="C23" s="84" t="s">
         <v>12</v>
       </c>
@@ -6922,7 +6962,7 @@
       <c r="V23" s="3"/>
     </row>
     <row r="24" spans="2:22" ht="67.5">
-      <c r="B24" s="102"/>
+      <c r="B24" s="108"/>
       <c r="C24" s="84" t="s">
         <v>171</v>
       </c>
@@ -6983,7 +7023,7 @@
       <c r="V24" s="3"/>
     </row>
     <row r="25" spans="2:22" ht="67.5">
-      <c r="B25" s="102"/>
+      <c r="B25" s="108"/>
       <c r="C25" s="84" t="s">
         <v>94</v>
       </c>
@@ -7044,7 +7084,7 @@
       <c r="V25" s="3"/>
     </row>
     <row r="26" spans="2:22" ht="67.5">
-      <c r="B26" s="102"/>
+      <c r="B26" s="108"/>
       <c r="C26" s="84" t="s">
         <v>95</v>
       </c>
@@ -7105,7 +7145,7 @@
       <c r="V26" s="3"/>
     </row>
     <row r="27" spans="2:22" ht="41.25" thickBot="1">
-      <c r="B27" s="103"/>
+      <c r="B27" s="109"/>
       <c r="C27" s="85" t="s">
         <v>13</v>
       </c>
@@ -7369,7 +7409,7 @@
       <c r="V5" s="76"/>
     </row>
     <row r="6" spans="2:22" ht="17.25">
-      <c r="B6" s="104" t="s">
+      <c r="B6" s="106" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="83" t="s">
@@ -7428,7 +7468,7 @@
       <c r="V6" s="73"/>
     </row>
     <row r="7" spans="2:22" ht="17.25">
-      <c r="B7" s="102"/>
+      <c r="B7" s="108"/>
       <c r="C7" s="84" t="s">
         <v>2</v>
       </c>
@@ -7485,7 +7525,7 @@
       <c r="V7" s="47"/>
     </row>
     <row r="8" spans="2:22" ht="17.25">
-      <c r="B8" s="102"/>
+      <c r="B8" s="108"/>
       <c r="C8" s="84" t="s">
         <v>3</v>
       </c>
@@ -7542,7 +7582,7 @@
       <c r="V8" s="47"/>
     </row>
     <row r="9" spans="2:22" ht="27">
-      <c r="B9" s="102"/>
+      <c r="B9" s="108"/>
       <c r="C9" s="84" t="s">
         <v>4</v>
       </c>
@@ -7599,7 +7639,7 @@
       <c r="V9" s="47"/>
     </row>
     <row r="10" spans="2:22" ht="40.5">
-      <c r="B10" s="102" t="s">
+      <c r="B10" s="108" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="84" t="s">
@@ -7660,7 +7700,7 @@
       <c r="V10" s="70"/>
     </row>
     <row r="11" spans="2:22" ht="40.5">
-      <c r="B11" s="102"/>
+      <c r="B11" s="108"/>
       <c r="C11" s="84" t="s">
         <v>9</v>
       </c>
@@ -7719,7 +7759,7 @@
       <c r="V11" s="3"/>
     </row>
     <row r="12" spans="2:22" ht="40.5">
-      <c r="B12" s="102"/>
+      <c r="B12" s="108"/>
       <c r="C12" s="84" t="s">
         <v>104</v>
       </c>
@@ -7778,7 +7818,7 @@
       <c r="V12" s="3"/>
     </row>
     <row r="13" spans="2:22" ht="40.5">
-      <c r="B13" s="102"/>
+      <c r="B13" s="108"/>
       <c r="C13" s="84" t="s">
         <v>105</v>
       </c>
@@ -7837,7 +7877,7 @@
       <c r="V13" s="3"/>
     </row>
     <row r="14" spans="2:22" ht="54">
-      <c r="B14" s="102"/>
+      <c r="B14" s="108"/>
       <c r="C14" s="84" t="s">
         <v>148</v>
       </c>
@@ -7896,7 +7936,7 @@
       <c r="V14" s="3"/>
     </row>
     <row r="15" spans="2:22" ht="40.5">
-      <c r="B15" s="102"/>
+      <c r="B15" s="108"/>
       <c r="C15" s="84" t="s">
         <v>146</v>
       </c>
@@ -7955,7 +7995,7 @@
       <c r="V15" s="3"/>
     </row>
     <row r="16" spans="2:22" ht="40.5">
-      <c r="B16" s="102"/>
+      <c r="B16" s="108"/>
       <c r="C16" s="84" t="s">
         <v>147</v>
       </c>
@@ -8014,7 +8054,7 @@
       <c r="V16" s="3"/>
     </row>
     <row r="17" spans="2:22" ht="40.5">
-      <c r="B17" s="102"/>
+      <c r="B17" s="108"/>
       <c r="C17" s="84" t="s">
         <v>160</v>
       </c>
@@ -8073,7 +8113,7 @@
       <c r="V17" s="3"/>
     </row>
     <row r="18" spans="2:22" ht="17.25">
-      <c r="B18" s="102"/>
+      <c r="B18" s="108"/>
       <c r="C18" s="84" t="s">
         <v>10</v>
       </c>
@@ -8134,7 +8174,7 @@
       <c r="V18" s="3"/>
     </row>
     <row r="19" spans="2:22" ht="17.25">
-      <c r="B19" s="102"/>
+      <c r="B19" s="108"/>
       <c r="C19" s="84" t="s">
         <v>3</v>
       </c>
@@ -8195,7 +8235,7 @@
       <c r="V19" s="3"/>
     </row>
     <row r="20" spans="2:22" ht="17.25">
-      <c r="B20" s="102"/>
+      <c r="B20" s="108"/>
       <c r="C20" s="84" t="s">
         <v>11</v>
       </c>
@@ -8256,7 +8296,7 @@
       <c r="V20" s="3"/>
     </row>
     <row r="21" spans="2:22" ht="54">
-      <c r="B21" s="102"/>
+      <c r="B21" s="108"/>
       <c r="C21" s="84" t="s">
         <v>58</v>
       </c>
@@ -8317,7 +8357,7 @@
       <c r="V21" s="3"/>
     </row>
     <row r="22" spans="2:22" ht="54">
-      <c r="B22" s="102"/>
+      <c r="B22" s="108"/>
       <c r="C22" s="84" t="s">
         <v>59</v>
       </c>
@@ -8378,7 +8418,7 @@
       <c r="V22" s="3"/>
     </row>
     <row r="23" spans="2:22" ht="67.5">
-      <c r="B23" s="102"/>
+      <c r="B23" s="108"/>
       <c r="C23" s="84" t="s">
         <v>12</v>
       </c>
@@ -8439,7 +8479,7 @@
       <c r="V23" s="3"/>
     </row>
     <row r="24" spans="2:22" ht="67.5">
-      <c r="B24" s="102"/>
+      <c r="B24" s="108"/>
       <c r="C24" s="84" t="s">
         <v>94</v>
       </c>
@@ -8500,7 +8540,7 @@
       <c r="V24" s="3"/>
     </row>
     <row r="25" spans="2:22" ht="67.5">
-      <c r="B25" s="102"/>
+      <c r="B25" s="108"/>
       <c r="C25" s="84" t="s">
         <v>95</v>
       </c>
@@ -8561,7 +8601,7 @@
       <c r="V25" s="3"/>
     </row>
     <row r="26" spans="2:22" ht="41.25" thickBot="1">
-      <c r="B26" s="103"/>
+      <c r="B26" s="109"/>
       <c r="C26" s="85" t="s">
         <v>13</v>
       </c>
@@ -8746,31 +8786,31 @@
     <row r="3" spans="2:23" ht="14.25" thickBot="1"/>
     <row r="4" spans="2:23" ht="21.75" thickBot="1">
       <c r="B4" s="8"/>
-      <c r="C4" s="105" t="s">
+      <c r="C4" s="104" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="106"/>
-      <c r="E4" s="106"/>
-      <c r="F4" s="107"/>
-      <c r="G4" s="108" t="s">
+      <c r="D4" s="110"/>
+      <c r="E4" s="110"/>
+      <c r="F4" s="111"/>
+      <c r="G4" s="112" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="108"/>
-      <c r="I4" s="108"/>
-      <c r="J4" s="106"/>
-      <c r="K4" s="106"/>
-      <c r="L4" s="106"/>
-      <c r="M4" s="106"/>
-      <c r="N4" s="106"/>
-      <c r="O4" s="106"/>
-      <c r="P4" s="106"/>
-      <c r="Q4" s="106"/>
-      <c r="R4" s="106"/>
-      <c r="S4" s="106"/>
-      <c r="T4" s="106"/>
-      <c r="U4" s="109"/>
-      <c r="V4" s="109"/>
-      <c r="W4" s="107"/>
+      <c r="H4" s="112"/>
+      <c r="I4" s="112"/>
+      <c r="J4" s="110"/>
+      <c r="K4" s="110"/>
+      <c r="L4" s="110"/>
+      <c r="M4" s="110"/>
+      <c r="N4" s="110"/>
+      <c r="O4" s="110"/>
+      <c r="P4" s="110"/>
+      <c r="Q4" s="110"/>
+      <c r="R4" s="110"/>
+      <c r="S4" s="110"/>
+      <c r="T4" s="110"/>
+      <c r="U4" s="113"/>
+      <c r="V4" s="113"/>
+      <c r="W4" s="111"/>
     </row>
     <row r="5" spans="2:23" ht="18" thickBot="1">
       <c r="B5" s="9" t="s">
@@ -10103,27 +10143,27 @@
     <row r="3" spans="2:19" ht="14.25" thickBot="1"/>
     <row r="4" spans="2:19" ht="21.75" thickBot="1">
       <c r="B4" s="8"/>
-      <c r="C4" s="110" t="s">
+      <c r="C4" s="114" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="111"/>
-      <c r="E4" s="111"/>
-      <c r="F4" s="112"/>
-      <c r="G4" s="113" t="s">
+      <c r="D4" s="115"/>
+      <c r="E4" s="115"/>
+      <c r="F4" s="116"/>
+      <c r="G4" s="117" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="113"/>
-      <c r="I4" s="113"/>
-      <c r="J4" s="111"/>
-      <c r="K4" s="111"/>
-      <c r="L4" s="111"/>
-      <c r="M4" s="111"/>
-      <c r="N4" s="111"/>
-      <c r="O4" s="111"/>
-      <c r="P4" s="111"/>
-      <c r="Q4" s="114"/>
-      <c r="R4" s="114"/>
-      <c r="S4" s="112"/>
+      <c r="H4" s="117"/>
+      <c r="I4" s="117"/>
+      <c r="J4" s="115"/>
+      <c r="K4" s="115"/>
+      <c r="L4" s="115"/>
+      <c r="M4" s="115"/>
+      <c r="N4" s="115"/>
+      <c r="O4" s="115"/>
+      <c r="P4" s="115"/>
+      <c r="Q4" s="118"/>
+      <c r="R4" s="118"/>
+      <c r="S4" s="116"/>
     </row>
     <row r="5" spans="2:19" ht="18" thickBot="1">
       <c r="B5" s="9" t="s">
@@ -11121,23 +11161,23 @@
     <row r="3" spans="2:15" ht="14.25" thickBot="1"/>
     <row r="4" spans="2:15" ht="21.75" thickBot="1">
       <c r="B4" s="8"/>
-      <c r="C4" s="110" t="s">
+      <c r="C4" s="114" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="111"/>
-      <c r="E4" s="111"/>
-      <c r="F4" s="112"/>
-      <c r="G4" s="113" t="s">
+      <c r="D4" s="115"/>
+      <c r="E4" s="115"/>
+      <c r="F4" s="116"/>
+      <c r="G4" s="117" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="111"/>
-      <c r="I4" s="111"/>
-      <c r="J4" s="111"/>
-      <c r="K4" s="111"/>
-      <c r="L4" s="111"/>
-      <c r="M4" s="111"/>
-      <c r="N4" s="111"/>
-      <c r="O4" s="112"/>
+      <c r="H4" s="115"/>
+      <c r="I4" s="115"/>
+      <c r="J4" s="115"/>
+      <c r="K4" s="115"/>
+      <c r="L4" s="115"/>
+      <c r="M4" s="115"/>
+      <c r="N4" s="115"/>
+      <c r="O4" s="116"/>
     </row>
     <row r="5" spans="2:15" ht="18" thickBot="1">
       <c r="B5" s="9" t="s">

--- a/msx3gen/files/msx_gen3.xlsx
+++ b/msx3gen/files/msx_gen3.xlsx
@@ -24,7 +24,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="3">'2024年9月28日 ver2'!$A$1:$W$50</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'2024年9月28日 ver3'!$A$1:$W$51</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'2024年9月28日 ver4'!$A$1:$Z$48</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'2024年9月29日'!$A$1:$Y$48</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'2024年9月29日'!$A$2:$Y$49</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -41,7 +41,7 @@
     <author>Takayuki Hara</author>
   </authors>
   <commentList>
-    <comment ref="E16" authorId="0" shapeId="0">
+    <comment ref="E17" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -58,7 +58,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E17" authorId="0" shapeId="0">
+    <comment ref="E18" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2482,6 +2482,76 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>1428</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>1</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>132523</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>167599</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2051" name="Object 3" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2051"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd type="none" w="med" len="med"/>
+            </a:ln>
+            <a:effectLst/>
+            <a:extLst>
+              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+                <a14:hiddenEffects>
+                  <a:effectLst>
+                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="808080"/>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a14:hiddenEffects>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
@@ -2748,10 +2818,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:X52"/>
+  <dimension ref="B2:X53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2776,225 +2846,160 @@
     <col min="25" max="25" width="15.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:24">
-      <c r="G1" s="88" t="s">
+    <row r="2" spans="2:24">
+      <c r="G2" s="88" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="2" spans="2:24">
-      <c r="B2" s="29" t="s">
+    <row r="3" spans="2:24">
+      <c r="C3" s="29"/>
+      <c r="G3" s="89" t="s">
+        <v>169</v>
+      </c>
+      <c r="X3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="4" spans="2:24">
+      <c r="B4" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="G2" s="89" t="s">
-        <v>169</v>
-      </c>
-      <c r="X2" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="3" spans="2:24">
-      <c r="G3" s="90" t="s">
+      <c r="G4" s="90" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="4" spans="2:24" ht="14.25" thickBot="1"/>
-    <row r="5" spans="2:24" ht="14.25" thickBot="1">
-      <c r="B5" s="74"/>
-      <c r="C5" s="91" t="s">
+    <row r="5" spans="2:24" ht="14.25" thickBot="1"/>
+    <row r="6" spans="2:24" ht="14.25" thickBot="1">
+      <c r="B6" s="74"/>
+      <c r="C6" s="91" t="s">
         <v>202</v>
       </c>
-      <c r="D5" s="76" t="s">
+      <c r="D6" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="74" t="s">
+      <c r="E6" s="74" t="s">
         <v>182</v>
       </c>
-      <c r="F5" s="75" t="s">
+      <c r="F6" s="75" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="75" t="s">
+      <c r="G6" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="75" t="s">
+      <c r="H6" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="I5" s="75" t="s">
+      <c r="I6" s="75" t="s">
         <v>35</v>
       </c>
-      <c r="J5" s="75" t="s">
+      <c r="J6" s="75" t="s">
         <v>38</v>
       </c>
-      <c r="K5" s="75" t="s">
+      <c r="K6" s="75" t="s">
         <v>41</v>
       </c>
-      <c r="L5" s="75" t="s">
+      <c r="L6" s="75" t="s">
         <v>43</v>
       </c>
-      <c r="M5" s="75" t="s">
+      <c r="M6" s="75" t="s">
         <v>48</v>
       </c>
-      <c r="N5" s="75" t="s">
+      <c r="N6" s="75" t="s">
         <v>49</v>
       </c>
-      <c r="O5" s="75" t="s">
+      <c r="O6" s="75" t="s">
         <v>53</v>
       </c>
-      <c r="P5" s="75" t="s">
+      <c r="P6" s="75" t="s">
         <v>176</v>
       </c>
-      <c r="Q5" s="75" t="s">
+      <c r="Q6" s="75" t="s">
         <v>55</v>
       </c>
-      <c r="R5" s="75" t="s">
+      <c r="R6" s="75" t="s">
         <v>68</v>
       </c>
-      <c r="S5" s="75" t="s">
+      <c r="S6" s="75" t="s">
         <v>78</v>
       </c>
-      <c r="T5" s="75"/>
-      <c r="U5" s="75" t="s">
+      <c r="T6" s="75"/>
+      <c r="U6" s="75" t="s">
         <v>112</v>
       </c>
-      <c r="V5" s="75" t="s">
+      <c r="V6" s="75" t="s">
         <v>120</v>
       </c>
-      <c r="W5" s="75" t="s">
+      <c r="W6" s="75" t="s">
         <v>127</v>
       </c>
-      <c r="X5" s="76"/>
-    </row>
-    <row r="6" spans="2:24" ht="51.75">
-      <c r="B6" s="104" t="s">
+      <c r="X6" s="76"/>
+    </row>
+    <row r="7" spans="2:24" ht="51.75">
+      <c r="B7" s="104" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="93" t="s">
+      <c r="C7" s="93" t="s">
         <v>197</v>
       </c>
-      <c r="D6" s="94" t="s">
+      <c r="D7" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="99" t="s">
+      <c r="E7" s="99" t="s">
         <v>186</v>
       </c>
-      <c r="F6" s="68" t="s">
+      <c r="F7" s="68" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="69" t="s">
+      <c r="G7" s="69" t="s">
         <v>30</v>
       </c>
-      <c r="H6" s="68" t="s">
+      <c r="H7" s="68" t="s">
         <v>56</v>
       </c>
-      <c r="I6" s="69" t="s">
+      <c r="I7" s="69" t="s">
         <v>37</v>
       </c>
-      <c r="J6" s="69" t="s">
-        <v>42</v>
-      </c>
-      <c r="K6" s="69" t="s">
-        <v>42</v>
-      </c>
-      <c r="L6" s="69" t="s">
-        <v>42</v>
-      </c>
-      <c r="M6" s="69" t="s">
-        <v>45</v>
-      </c>
-      <c r="N6" s="69" t="s">
+      <c r="J7" s="69" t="s">
+        <v>42</v>
+      </c>
+      <c r="K7" s="69" t="s">
+        <v>42</v>
+      </c>
+      <c r="L7" s="69" t="s">
+        <v>42</v>
+      </c>
+      <c r="M7" s="69" t="s">
+        <v>45</v>
+      </c>
+      <c r="N7" s="69" t="s">
         <v>52</v>
       </c>
-      <c r="O6" s="69" t="s">
+      <c r="O7" s="69" t="s">
         <v>39</v>
       </c>
-      <c r="P6" s="68" t="s">
+      <c r="P7" s="68" t="s">
         <v>177</v>
       </c>
-      <c r="Q6" s="69" t="s">
+      <c r="Q7" s="69" t="s">
         <v>39</v>
       </c>
-      <c r="R6" s="69" t="s">
+      <c r="R7" s="69" t="s">
         <v>71</v>
       </c>
-      <c r="S6" s="69" t="s">
+      <c r="S7" s="69" t="s">
         <v>102</v>
       </c>
-      <c r="T6" s="69"/>
-      <c r="U6" s="69" t="s">
+      <c r="T7" s="69"/>
+      <c r="U7" s="69" t="s">
         <v>114</v>
       </c>
-      <c r="V6" s="69" t="s">
+      <c r="V7" s="69" t="s">
         <v>121</v>
       </c>
-      <c r="W6" s="69" t="s">
+      <c r="W7" s="69" t="s">
         <v>129</v>
       </c>
-      <c r="X6" s="70"/>
-    </row>
-    <row r="7" spans="2:24" ht="40.5">
-      <c r="B7" s="105"/>
-      <c r="C7" s="92" t="s">
-        <v>198</v>
-      </c>
-      <c r="D7" s="84" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="96" t="s">
-        <v>183</v>
-      </c>
-      <c r="F7" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H7" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="O7" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="P7" s="30" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q7" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="R7" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="S7" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="T7" s="1"/>
-      <c r="U7" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="V7" s="86" t="s">
-        <v>126</v>
-      </c>
-      <c r="W7" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="X7" s="3"/>
+      <c r="X7" s="70"/>
     </row>
     <row r="8" spans="2:24" ht="40.5">
       <c r="B8" s="105"/>
@@ -3002,10 +3007,10 @@
         <v>198</v>
       </c>
       <c r="D8" s="84" t="s">
-        <v>104</v>
+        <v>9</v>
       </c>
       <c r="E8" s="96" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="F8" s="30" t="s">
         <v>20</v>
@@ -3051,10 +3056,10 @@
       </c>
       <c r="T8" s="1"/>
       <c r="U8" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="V8" s="86" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="W8" s="1" t="s">
         <v>128</v>
@@ -3067,10 +3072,10 @@
         <v>198</v>
       </c>
       <c r="D9" s="84" t="s">
-        <v>105</v>
-      </c>
-      <c r="E9" s="97" t="s">
-        <v>184</v>
+        <v>104</v>
+      </c>
+      <c r="E9" s="96" t="s">
+        <v>187</v>
       </c>
       <c r="F9" s="30" t="s">
         <v>20</v>
@@ -3116,35 +3121,35 @@
       </c>
       <c r="T9" s="1"/>
       <c r="U9" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="V9" s="86" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="W9" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="X9" s="3"/>
     </row>
-    <row r="10" spans="2:24" ht="54">
+    <row r="10" spans="2:24" ht="40.5">
       <c r="B10" s="105"/>
-      <c r="C10" s="102" t="s">
-        <v>197</v>
+      <c r="C10" s="92" t="s">
+        <v>198</v>
       </c>
       <c r="D10" s="84" t="s">
-        <v>148</v>
-      </c>
-      <c r="E10" s="96" t="s">
-        <v>187</v>
+        <v>105</v>
+      </c>
+      <c r="E10" s="97" t="s">
+        <v>184</v>
       </c>
       <c r="F10" s="30" t="s">
-        <v>149</v>
+        <v>20</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>30</v>
       </c>
       <c r="H10" s="30" t="s">
-        <v>150</v>
+        <v>56</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>37</v>
@@ -3177,39 +3182,39 @@
         <v>70</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>166</v>
+        <v>103</v>
       </c>
       <c r="T10" s="1"/>
       <c r="U10" s="1" t="s">
-        <v>165</v>
+        <v>118</v>
       </c>
       <c r="V10" s="86" t="s">
-        <v>163</v>
+        <v>142</v>
       </c>
       <c r="W10" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="X10" s="3"/>
     </row>
-    <row r="11" spans="2:24" ht="40.5">
+    <row r="11" spans="2:24" ht="54">
       <c r="B11" s="105"/>
-      <c r="C11" s="101" t="s">
+      <c r="C11" s="102" t="s">
         <v>197</v>
       </c>
       <c r="D11" s="84" t="s">
-        <v>146</v>
-      </c>
-      <c r="E11" s="97" t="s">
-        <v>183</v>
+        <v>148</v>
+      </c>
+      <c r="E11" s="96" t="s">
+        <v>187</v>
       </c>
       <c r="F11" s="30" t="s">
-        <v>20</v>
+        <v>149</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>30</v>
       </c>
       <c r="H11" s="30" t="s">
-        <v>56</v>
+        <v>150</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>37</v>
@@ -3232,8 +3237,8 @@
       <c r="O11" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="P11" s="86" t="s">
-        <v>33</v>
+      <c r="P11" s="30" t="s">
+        <v>178</v>
       </c>
       <c r="Q11" s="1" t="s">
         <v>39</v>
@@ -3258,11 +3263,11 @@
     </row>
     <row r="12" spans="2:24" ht="40.5">
       <c r="B12" s="105"/>
-      <c r="C12" s="102" t="s">
+      <c r="C12" s="101" t="s">
         <v>197</v>
       </c>
       <c r="D12" s="84" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E12" s="97" t="s">
         <v>183</v>
@@ -3323,11 +3328,11 @@
     </row>
     <row r="13" spans="2:24" ht="40.5">
       <c r="B13" s="105"/>
-      <c r="C13" s="101" t="s">
+      <c r="C13" s="102" t="s">
         <v>197</v>
       </c>
       <c r="D13" s="84" t="s">
-        <v>193</v>
+        <v>147</v>
       </c>
       <c r="E13" s="97" t="s">
         <v>183</v>
@@ -3388,14 +3393,14 @@
     </row>
     <row r="14" spans="2:24" ht="40.5">
       <c r="B14" s="105"/>
-      <c r="C14" s="92" t="s">
-        <v>69</v>
+      <c r="C14" s="101" t="s">
+        <v>197</v>
       </c>
       <c r="D14" s="84" t="s">
-        <v>160</v>
-      </c>
-      <c r="E14" s="96" t="s">
-        <v>187</v>
+        <v>193</v>
+      </c>
+      <c r="E14" s="97" t="s">
+        <v>183</v>
       </c>
       <c r="F14" s="30" t="s">
         <v>20</v>
@@ -3434,14 +3439,14 @@
         <v>39</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>164</v>
+        <v>70</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>69</v>
+        <v>166</v>
       </c>
       <c r="T14" s="1"/>
       <c r="U14" s="1" t="s">
-        <v>117</v>
+        <v>165</v>
       </c>
       <c r="V14" s="86" t="s">
         <v>163</v>
@@ -3451,25 +3456,25 @@
       </c>
       <c r="X14" s="3"/>
     </row>
-    <row r="15" spans="2:24" ht="51.75">
+    <row r="15" spans="2:24" ht="40.5">
       <c r="B15" s="105"/>
       <c r="C15" s="92" t="s">
-        <v>199</v>
+        <v>69</v>
       </c>
       <c r="D15" s="84" t="s">
-        <v>10</v>
+        <v>160</v>
       </c>
       <c r="E15" s="96" t="s">
-        <v>188</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>18</v>
+        <v>187</v>
+      </c>
+      <c r="F15" s="30" t="s">
+        <v>20</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
+      </c>
+      <c r="H15" s="30" t="s">
+        <v>56</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>37</v>
@@ -3478,40 +3483,38 @@
         <v>42</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="M15" s="1" t="s">
         <v>45</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>106</v>
+        <v>52</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="P15" s="86" t="s">
-        <v>180</v>
+        <v>33</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="R15" s="1" t="s">
-        <v>72</v>
+        <v>164</v>
       </c>
       <c r="S15" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="T15" s="1" t="s">
-        <v>82</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="T15" s="1"/>
       <c r="U15" s="1" t="s">
         <v>117</v>
       </c>
       <c r="V15" s="86" t="s">
-        <v>144</v>
+        <v>163</v>
       </c>
       <c r="W15" s="1" t="s">
         <v>128</v>
@@ -3524,25 +3527,25 @@
         <v>199</v>
       </c>
       <c r="D16" s="84" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E16" s="96" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>151</v>
+        <v>27</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>37</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="K16" s="1" t="s">
         <v>45</v>
@@ -3566,19 +3569,19 @@
         <v>42</v>
       </c>
       <c r="R16" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="S16" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T16" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U16" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="V16" s="86" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="W16" s="1" t="s">
         <v>128</v>
@@ -3588,10 +3591,10 @@
     <row r="17" spans="2:24" ht="51.75">
       <c r="B17" s="105"/>
       <c r="C17" s="92" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D17" s="84" t="s">
-        <v>200</v>
+        <v>3</v>
       </c>
       <c r="E17" s="96" t="s">
         <v>189</v>
@@ -3652,34 +3655,34 @@
       </c>
       <c r="X17" s="3"/>
     </row>
-    <row r="18" spans="2:24" ht="54">
+    <row r="18" spans="2:24" ht="51.75">
       <c r="B18" s="105"/>
       <c r="C18" s="92" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D18" s="84" t="s">
-        <v>58</v>
+        <v>200</v>
       </c>
       <c r="E18" s="96" t="s">
-        <v>190</v>
-      </c>
-      <c r="F18" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="G18" s="86" t="s">
-        <v>62</v>
-      </c>
-      <c r="H18" s="30" t="s">
-        <v>152</v>
+        <v>189</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>151</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="J18" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="K18" s="86" t="s">
-        <v>46</v>
+        <v>37</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="L18" s="1" t="s">
         <v>44</v>
@@ -3688,7 +3691,7 @@
         <v>45</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O18" s="1" t="s">
         <v>45</v>
@@ -3697,10 +3700,10 @@
         <v>180</v>
       </c>
       <c r="Q18" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="R18" s="1" t="s">
-        <v>109</v>
+        <v>73</v>
       </c>
       <c r="S18" s="1" t="s">
         <v>79</v>
@@ -3712,7 +3715,7 @@
         <v>116</v>
       </c>
       <c r="V18" s="86" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="W18" s="1" t="s">
         <v>128</v>
@@ -3725,19 +3728,19 @@
         <v>199</v>
       </c>
       <c r="D19" s="84" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E19" s="96" t="s">
         <v>190</v>
       </c>
       <c r="F19" s="30" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G19" s="86" t="s">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="H19" s="30" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I19" s="1" t="s">
         <v>90</v>
@@ -3767,10 +3770,10 @@
         <v>39</v>
       </c>
       <c r="R19" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="S19" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="T19" s="1" t="s">
         <v>81</v>
@@ -3779,50 +3782,50 @@
         <v>116</v>
       </c>
       <c r="V19" s="86" t="s">
-        <v>33</v>
+        <v>145</v>
       </c>
       <c r="W19" s="1" t="s">
         <v>128</v>
       </c>
       <c r="X19" s="3"/>
     </row>
-    <row r="20" spans="2:24" ht="67.5">
+    <row r="20" spans="2:24" ht="54">
       <c r="B20" s="105"/>
       <c r="C20" s="92" t="s">
         <v>199</v>
       </c>
       <c r="D20" s="84" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="E20" s="96" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F20" s="30" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="G20" s="86" t="s">
         <v>33</v>
       </c>
       <c r="H20" s="30" t="s">
-        <v>154</v>
-      </c>
-      <c r="I20" s="86" t="s">
-        <v>33</v>
-      </c>
-      <c r="J20" s="86" t="s">
-        <v>33</v>
+        <v>153</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="J20" s="30" t="s">
+        <v>45</v>
       </c>
       <c r="K20" s="86" t="s">
         <v>46</v>
       </c>
-      <c r="L20" s="86" t="s">
-        <v>47</v>
-      </c>
-      <c r="M20" s="86" t="s">
-        <v>47</v>
-      </c>
-      <c r="N20" s="86" t="s">
-        <v>33</v>
+      <c r="L20" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>107</v>
       </c>
       <c r="O20" s="1" t="s">
         <v>45</v>
@@ -3830,17 +3833,17 @@
       <c r="P20" s="86" t="s">
         <v>180</v>
       </c>
-      <c r="Q20" s="86" t="s">
-        <v>33</v>
-      </c>
-      <c r="R20" s="30" t="s">
-        <v>111</v>
+      <c r="Q20" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R20" s="1" t="s">
+        <v>110</v>
       </c>
       <c r="S20" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="T20" s="30" t="s">
-        <v>194</v>
+        <v>83</v>
+      </c>
+      <c r="T20" s="1" t="s">
+        <v>81</v>
       </c>
       <c r="U20" s="1" t="s">
         <v>116</v>
@@ -3859,10 +3862,10 @@
         <v>199</v>
       </c>
       <c r="D21" s="84" t="s">
-        <v>171</v>
-      </c>
-      <c r="E21" s="97" t="s">
-        <v>184</v>
+        <v>12</v>
+      </c>
+      <c r="E21" s="96" t="s">
+        <v>191</v>
       </c>
       <c r="F21" s="30" t="s">
         <v>87</v>
@@ -3906,8 +3909,8 @@
       <c r="S21" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="T21" s="1" t="s">
-        <v>81</v>
+      <c r="T21" s="30" t="s">
+        <v>194</v>
       </c>
       <c r="U21" s="1" t="s">
         <v>116</v>
@@ -3915,8 +3918,8 @@
       <c r="V21" s="86" t="s">
         <v>33</v>
       </c>
-      <c r="W21" s="86" t="s">
-        <v>33</v>
+      <c r="W21" s="1" t="s">
+        <v>128</v>
       </c>
       <c r="X21" s="3"/>
     </row>
@@ -3926,19 +3929,19 @@
         <v>199</v>
       </c>
       <c r="D22" s="84" t="s">
-        <v>94</v>
-      </c>
-      <c r="E22" s="100" t="s">
-        <v>192</v>
+        <v>171</v>
+      </c>
+      <c r="E22" s="97" t="s">
+        <v>184</v>
       </c>
       <c r="F22" s="30" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="G22" s="86" t="s">
         <v>33</v>
       </c>
       <c r="H22" s="30" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I22" s="86" t="s">
         <v>33</v>
@@ -3968,7 +3971,7 @@
         <v>33</v>
       </c>
       <c r="R22" s="30" t="s">
-        <v>84</v>
+        <v>111</v>
       </c>
       <c r="S22" s="1" t="s">
         <v>79</v>
@@ -3982,18 +3985,18 @@
       <c r="V22" s="86" t="s">
         <v>33</v>
       </c>
-      <c r="W22" s="1" t="s">
-        <v>128</v>
+      <c r="W22" s="86" t="s">
+        <v>33</v>
       </c>
       <c r="X22" s="3"/>
     </row>
     <row r="23" spans="2:24" ht="67.5">
-      <c r="B23" s="106"/>
+      <c r="B23" s="105"/>
       <c r="C23" s="92" t="s">
         <v>199</v>
       </c>
       <c r="D23" s="84" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E23" s="100" t="s">
         <v>192</v>
@@ -4005,7 +4008,7 @@
         <v>33</v>
       </c>
       <c r="H23" s="30" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I23" s="86" t="s">
         <v>33</v>
@@ -4054,193 +4057,288 @@
       </c>
       <c r="X23" s="3"/>
     </row>
-    <row r="24" spans="2:24" ht="41.25" thickBot="1">
-      <c r="B24" s="103" t="s">
+    <row r="24" spans="2:24" ht="67.5">
+      <c r="B24" s="106"/>
+      <c r="C24" s="92" t="s">
+        <v>199</v>
+      </c>
+      <c r="D24" s="84" t="s">
+        <v>95</v>
+      </c>
+      <c r="E24" s="100" t="s">
+        <v>192</v>
+      </c>
+      <c r="F24" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="G24" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="H24" s="30" t="s">
+        <v>156</v>
+      </c>
+      <c r="I24" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="J24" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="K24" s="86" t="s">
+        <v>46</v>
+      </c>
+      <c r="L24" s="86" t="s">
+        <v>47</v>
+      </c>
+      <c r="M24" s="86" t="s">
+        <v>47</v>
+      </c>
+      <c r="N24" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="O24" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="P24" s="86" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q24" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="R24" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="S24" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="T24" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="U24" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="V24" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="W24" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="X24" s="3"/>
+    </row>
+    <row r="25" spans="2:24" ht="41.25" thickBot="1">
+      <c r="B25" s="103" t="s">
         <v>201</v>
       </c>
-      <c r="C24" s="95" t="s">
+      <c r="C25" s="95" t="s">
         <v>13</v>
       </c>
-      <c r="D24" s="85" t="s">
+      <c r="D25" s="85" t="s">
         <v>13</v>
       </c>
-      <c r="E24" s="98" t="s">
+      <c r="E25" s="98" t="s">
         <v>185</v>
       </c>
-      <c r="F24" s="71" t="s">
+      <c r="F25" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="G24" s="87" t="s">
-        <v>33</v>
-      </c>
-      <c r="H24" s="87" t="s">
+      <c r="G25" s="87" t="s">
+        <v>33</v>
+      </c>
+      <c r="H25" s="87" t="s">
         <v>85</v>
       </c>
-      <c r="I24" s="87" t="s">
-        <v>33</v>
-      </c>
-      <c r="J24" s="87" t="s">
-        <v>33</v>
-      </c>
-      <c r="K24" s="87" t="s">
+      <c r="I25" s="87" t="s">
+        <v>33</v>
+      </c>
+      <c r="J25" s="87" t="s">
+        <v>33</v>
+      </c>
+      <c r="K25" s="87" t="s">
         <v>46</v>
       </c>
-      <c r="L24" s="87" t="s">
+      <c r="L25" s="87" t="s">
         <v>47</v>
       </c>
-      <c r="M24" s="87" t="s">
+      <c r="M25" s="87" t="s">
         <v>47</v>
       </c>
-      <c r="N24" s="87" t="s">
-        <v>33</v>
-      </c>
-      <c r="O24" s="87" t="s">
-        <v>33</v>
-      </c>
-      <c r="P24" s="86" t="s">
+      <c r="N25" s="87" t="s">
+        <v>33</v>
+      </c>
+      <c r="O25" s="87" t="s">
+        <v>33</v>
+      </c>
+      <c r="P25" s="86" t="s">
         <v>181</v>
       </c>
-      <c r="Q24" s="87" t="s">
-        <v>33</v>
-      </c>
-      <c r="R24" s="6" t="s">
+      <c r="Q25" s="87" t="s">
+        <v>33</v>
+      </c>
+      <c r="R25" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="S24" s="6" t="s">
+      <c r="S25" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="T24" s="6" t="s">
+      <c r="T25" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="U24" s="6" t="s">
+      <c r="U25" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="V24" s="87" t="s">
-        <v>33</v>
-      </c>
-      <c r="W24" s="6" t="s">
+      <c r="V25" s="87" t="s">
+        <v>33</v>
+      </c>
+      <c r="W25" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="X24" s="7"/>
-    </row>
-    <row r="28" spans="2:24">
-      <c r="B28" t="s">
+      <c r="X25" s="7"/>
+    </row>
+    <row r="29" spans="2:24">
+      <c r="B29" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="29" spans="2:24">
-      <c r="B29" s="60" t="s">
+    <row r="30" spans="2:24">
+      <c r="B30" s="60" t="s">
         <v>139</v>
       </c>
-      <c r="C29" s="60"/>
-    </row>
-    <row r="31" spans="2:24">
-      <c r="B31" t="s">
+      <c r="C30" s="60"/>
+    </row>
+    <row r="32" spans="2:24">
+      <c r="B32" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="32" spans="2:24">
-      <c r="B32" s="60" t="s">
+    <row r="33" spans="2:3">
+      <c r="B33" s="60" t="s">
         <v>138</v>
       </c>
-      <c r="C32" s="60"/>
-    </row>
-    <row r="34" spans="2:3">
-      <c r="B34" t="s">
+      <c r="C33" s="60"/>
+    </row>
+    <row r="35" spans="2:3">
+      <c r="B35" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="35" spans="2:3">
-      <c r="B35" s="60" t="s">
+    <row r="36" spans="2:3">
+      <c r="B36" s="60" t="s">
         <v>137</v>
       </c>
-      <c r="C35" s="60"/>
-    </row>
-    <row r="37" spans="2:3">
-      <c r="B37" t="s">
+      <c r="C36" s="60"/>
+    </row>
+    <row r="38" spans="2:3">
+      <c r="B38" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="38" spans="2:3">
-      <c r="B38" s="60" t="s">
+    <row r="39" spans="2:3">
+      <c r="B39" s="60" t="s">
         <v>136</v>
       </c>
-      <c r="C38" s="60"/>
-    </row>
-    <row r="40" spans="2:3">
-      <c r="B40" t="s">
+      <c r="C39" s="60"/>
+    </row>
+    <row r="41" spans="2:3">
+      <c r="B41" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="41" spans="2:3">
-      <c r="B41" s="61" t="s">
+    <row r="42" spans="2:3">
+      <c r="B42" s="61" t="s">
         <v>131</v>
       </c>
-      <c r="C41" s="61"/>
-    </row>
-    <row r="42" spans="2:3">
-      <c r="B42" s="60" t="s">
-        <v>135</v>
-      </c>
-      <c r="C42" s="60"/>
+      <c r="C42" s="61"/>
     </row>
     <row r="43" spans="2:3">
       <c r="B43" s="60" t="s">
+        <v>135</v>
+      </c>
+      <c r="C43" s="60"/>
+    </row>
+    <row r="44" spans="2:3">
+      <c r="B44" s="60" t="s">
         <v>140</v>
       </c>
-      <c r="C43" s="60"/>
-    </row>
-    <row r="45" spans="2:3">
-      <c r="B45" t="s">
+      <c r="C44" s="60"/>
+    </row>
+    <row r="46" spans="2:3">
+      <c r="B46" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="46" spans="2:3">
-      <c r="B46" s="60" t="s">
+    <row r="47" spans="2:3">
+      <c r="B47" s="60" t="s">
         <v>158</v>
       </c>
-      <c r="C46" s="60"/>
-    </row>
-    <row r="48" spans="2:3">
-      <c r="B48" t="s">
+      <c r="C47" s="60"/>
+    </row>
+    <row r="49" spans="2:2">
+      <c r="B49" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="49" spans="2:2">
-      <c r="B49" s="60" t="s">
+    <row r="50" spans="2:2">
+      <c r="B50" s="60" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="51" spans="2:2">
-      <c r="B51" t="s">
+    <row r="52" spans="2:2">
+      <c r="B52" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="52" spans="2:2">
-      <c r="B52" s="60" t="s">
+    <row r="53" spans="2:2">
+      <c r="B53" s="60" t="s">
         <v>204</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B6:B23"/>
+    <mergeCell ref="B7:B24"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="B41" r:id="rId1"/>
-    <hyperlink ref="B42" r:id="rId2"/>
-    <hyperlink ref="B38" r:id="rId3"/>
-    <hyperlink ref="B35" r:id="rId4"/>
-    <hyperlink ref="B32" r:id="rId5"/>
-    <hyperlink ref="B29" r:id="rId6"/>
-    <hyperlink ref="B43" r:id="rId7"/>
-    <hyperlink ref="B46" r:id="rId8"/>
-    <hyperlink ref="B49" r:id="rId9"/>
-    <hyperlink ref="B52" r:id="rId10"/>
+    <hyperlink ref="B42" r:id="rId1"/>
+    <hyperlink ref="B43" r:id="rId2"/>
+    <hyperlink ref="B39" r:id="rId3"/>
+    <hyperlink ref="B36" r:id="rId4"/>
+    <hyperlink ref="B33" r:id="rId5"/>
+    <hyperlink ref="B30" r:id="rId6"/>
+    <hyperlink ref="B44" r:id="rId7"/>
+    <hyperlink ref="B47" r:id="rId8"/>
+    <hyperlink ref="B50" r:id="rId9"/>
+    <hyperlink ref="B53" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" scale="42" orientation="landscape" horizontalDpi="4294967293" r:id="rId11"/>
-  <legacyDrawing r:id="rId12"/>
+  <drawing r:id="rId12"/>
+  <legacyDrawing r:id="rId13"/>
+  <oleObjects>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Visio.Drawing.15" shapeId="2051" r:id="rId14">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>133350</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>171450</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Visio.Drawing.15" shapeId="2051" r:id="rId14"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </oleObjects>
 </worksheet>
 </file>
 

--- a/msx3gen/files/msx_gen3.xlsx
+++ b/msx3gen/files/msx_gen3.xlsx
@@ -2489,15 +2489,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>1428</xdr:colOff>
+          <xdr:colOff>16564</xdr:colOff>
           <xdr:row>0</xdr:row>
-          <xdr:rowOff>1</xdr:rowOff>
+          <xdr:rowOff>72025</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>5</xdr:col>
-          <xdr:colOff>132523</xdr:colOff>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>1076739</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>167599</xdr:rowOff>
+          <xdr:rowOff>171449</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2525,23 +2525,10 @@
               <a:solidFill>
                 <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:miter lim="800000"/>
               <a:headEnd/>
-              <a:tailEnd type="none" w="med" len="med"/>
+              <a:tailEnd/>
             </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="808080"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2821,7 +2808,7 @@
   <dimension ref="B2:X53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4320,13 +4307,13 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
+                <xdr:colOff>19050</xdr:colOff>
                 <xdr:row>0</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:rowOff>76200</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>133350</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>1076325</xdr:colOff>
                 <xdr:row>2</xdr:row>
                 <xdr:rowOff>171450</xdr:rowOff>
               </to>

--- a/msx3gen/files/msx_gen3.xlsx
+++ b/msx3gen/files/msx_gen3.xlsx
@@ -24,7 +24,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="3">'2024年9月28日 ver2'!$A$1:$W$50</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'2024年9月28日 ver3'!$A$1:$W$51</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'2024年9月28日 ver4'!$A$1:$Z$48</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'2024年9月29日'!$A$2:$Y$49</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'2024年9月29日'!$A$1:$Y$55</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -41,7 +41,7 @@
     <author>Takayuki Hara</author>
   </authors>
   <commentList>
-    <comment ref="E17" authorId="0" shapeId="0">
+    <comment ref="E18" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -58,7 +58,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E18" authorId="0" shapeId="0">
+    <comment ref="E19" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2489,15 +2489,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>16564</xdr:colOff>
-          <xdr:row>0</xdr:row>
-          <xdr:rowOff>72025</xdr:rowOff>
+          <xdr:colOff>19050</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>76200</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>1076739</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>171449</xdr:rowOff>
+          <xdr:colOff>1076325</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>171451</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2805,10 +2805,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:X53"/>
+  <dimension ref="B3:X54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
+      <selection activeCell="Y24" sqref="Y24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2833,225 +2833,160 @@
     <col min="25" max="25" width="15.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:24">
-      <c r="G2" s="88" t="s">
+    <row r="3" spans="2:24">
+      <c r="G3" s="88" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="3" spans="2:24">
-      <c r="C3" s="29"/>
-      <c r="G3" s="89" t="s">
+    <row r="4" spans="2:24">
+      <c r="C4" s="29"/>
+      <c r="G4" s="89" t="s">
         <v>169</v>
       </c>
-      <c r="X3" t="s">
+      <c r="X4" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="4" spans="2:24">
-      <c r="B4" s="29" t="s">
+    <row r="5" spans="2:24">
+      <c r="B5" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="G4" s="90" t="s">
+      <c r="G5" s="90" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="5" spans="2:24" ht="14.25" thickBot="1"/>
-    <row r="6" spans="2:24" ht="14.25" thickBot="1">
-      <c r="B6" s="74"/>
-      <c r="C6" s="91" t="s">
+    <row r="6" spans="2:24" ht="14.25" thickBot="1"/>
+    <row r="7" spans="2:24" ht="14.25" thickBot="1">
+      <c r="B7" s="74"/>
+      <c r="C7" s="91" t="s">
         <v>202</v>
       </c>
-      <c r="D6" s="76" t="s">
+      <c r="D7" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="74" t="s">
+      <c r="E7" s="74" t="s">
         <v>182</v>
       </c>
-      <c r="F6" s="75" t="s">
+      <c r="F7" s="75" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="75" t="s">
+      <c r="G7" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="H6" s="75" t="s">
+      <c r="H7" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="I6" s="75" t="s">
+      <c r="I7" s="75" t="s">
         <v>35</v>
       </c>
-      <c r="J6" s="75" t="s">
+      <c r="J7" s="75" t="s">
         <v>38</v>
       </c>
-      <c r="K6" s="75" t="s">
+      <c r="K7" s="75" t="s">
         <v>41</v>
       </c>
-      <c r="L6" s="75" t="s">
+      <c r="L7" s="75" t="s">
         <v>43</v>
       </c>
-      <c r="M6" s="75" t="s">
+      <c r="M7" s="75" t="s">
         <v>48</v>
       </c>
-      <c r="N6" s="75" t="s">
+      <c r="N7" s="75" t="s">
         <v>49</v>
       </c>
-      <c r="O6" s="75" t="s">
+      <c r="O7" s="75" t="s">
         <v>53</v>
       </c>
-      <c r="P6" s="75" t="s">
+      <c r="P7" s="75" t="s">
         <v>176</v>
       </c>
-      <c r="Q6" s="75" t="s">
+      <c r="Q7" s="75" t="s">
         <v>55</v>
       </c>
-      <c r="R6" s="75" t="s">
+      <c r="R7" s="75" t="s">
         <v>68</v>
       </c>
-      <c r="S6" s="75" t="s">
+      <c r="S7" s="75" t="s">
         <v>78</v>
       </c>
-      <c r="T6" s="75"/>
-      <c r="U6" s="75" t="s">
+      <c r="T7" s="75"/>
+      <c r="U7" s="75" t="s">
         <v>112</v>
       </c>
-      <c r="V6" s="75" t="s">
+      <c r="V7" s="75" t="s">
         <v>120</v>
       </c>
-      <c r="W6" s="75" t="s">
+      <c r="W7" s="75" t="s">
         <v>127</v>
       </c>
-      <c r="X6" s="76"/>
-    </row>
-    <row r="7" spans="2:24" ht="51.75">
-      <c r="B7" s="104" t="s">
+      <c r="X7" s="76"/>
+    </row>
+    <row r="8" spans="2:24" ht="51.75">
+      <c r="B8" s="104" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="93" t="s">
+      <c r="C8" s="93" t="s">
         <v>197</v>
       </c>
-      <c r="D7" s="94" t="s">
+      <c r="D8" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="99" t="s">
+      <c r="E8" s="99" t="s">
         <v>186</v>
       </c>
-      <c r="F7" s="68" t="s">
+      <c r="F8" s="68" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="69" t="s">
+      <c r="G8" s="69" t="s">
         <v>30</v>
       </c>
-      <c r="H7" s="68" t="s">
+      <c r="H8" s="68" t="s">
         <v>56</v>
       </c>
-      <c r="I7" s="69" t="s">
+      <c r="I8" s="69" t="s">
         <v>37</v>
       </c>
-      <c r="J7" s="69" t="s">
-        <v>42</v>
-      </c>
-      <c r="K7" s="69" t="s">
-        <v>42</v>
-      </c>
-      <c r="L7" s="69" t="s">
-        <v>42</v>
-      </c>
-      <c r="M7" s="69" t="s">
-        <v>45</v>
-      </c>
-      <c r="N7" s="69" t="s">
+      <c r="J8" s="69" t="s">
+        <v>42</v>
+      </c>
+      <c r="K8" s="69" t="s">
+        <v>42</v>
+      </c>
+      <c r="L8" s="69" t="s">
+        <v>42</v>
+      </c>
+      <c r="M8" s="69" t="s">
+        <v>45</v>
+      </c>
+      <c r="N8" s="69" t="s">
         <v>52</v>
       </c>
-      <c r="O7" s="69" t="s">
+      <c r="O8" s="69" t="s">
         <v>39</v>
       </c>
-      <c r="P7" s="68" t="s">
+      <c r="P8" s="68" t="s">
         <v>177</v>
       </c>
-      <c r="Q7" s="69" t="s">
+      <c r="Q8" s="69" t="s">
         <v>39</v>
       </c>
-      <c r="R7" s="69" t="s">
+      <c r="R8" s="69" t="s">
         <v>71</v>
       </c>
-      <c r="S7" s="69" t="s">
+      <c r="S8" s="69" t="s">
         <v>102</v>
       </c>
-      <c r="T7" s="69"/>
-      <c r="U7" s="69" t="s">
+      <c r="T8" s="69"/>
+      <c r="U8" s="69" t="s">
         <v>114</v>
       </c>
-      <c r="V7" s="69" t="s">
+      <c r="V8" s="69" t="s">
         <v>121</v>
       </c>
-      <c r="W7" s="69" t="s">
+      <c r="W8" s="69" t="s">
         <v>129</v>
       </c>
-      <c r="X7" s="70"/>
-    </row>
-    <row r="8" spans="2:24" ht="40.5">
-      <c r="B8" s="105"/>
-      <c r="C8" s="92" t="s">
-        <v>198</v>
-      </c>
-      <c r="D8" s="84" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="96" t="s">
-        <v>183</v>
-      </c>
-      <c r="F8" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H8" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="O8" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="P8" s="30" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q8" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="R8" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="S8" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="T8" s="1"/>
-      <c r="U8" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="V8" s="86" t="s">
-        <v>126</v>
-      </c>
-      <c r="W8" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="X8" s="3"/>
+      <c r="X8" s="70"/>
     </row>
     <row r="9" spans="2:24" ht="40.5">
       <c r="B9" s="105"/>
@@ -3059,10 +2994,10 @@
         <v>198</v>
       </c>
       <c r="D9" s="84" t="s">
-        <v>104</v>
+        <v>9</v>
       </c>
       <c r="E9" s="96" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="F9" s="30" t="s">
         <v>20</v>
@@ -3108,10 +3043,10 @@
       </c>
       <c r="T9" s="1"/>
       <c r="U9" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="V9" s="86" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="W9" s="1" t="s">
         <v>128</v>
@@ -3124,10 +3059,10 @@
         <v>198</v>
       </c>
       <c r="D10" s="84" t="s">
-        <v>105</v>
-      </c>
-      <c r="E10" s="97" t="s">
-        <v>184</v>
+        <v>104</v>
+      </c>
+      <c r="E10" s="96" t="s">
+        <v>187</v>
       </c>
       <c r="F10" s="30" t="s">
         <v>20</v>
@@ -3173,35 +3108,35 @@
       </c>
       <c r="T10" s="1"/>
       <c r="U10" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="V10" s="86" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="W10" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="X10" s="3"/>
     </row>
-    <row r="11" spans="2:24" ht="54">
+    <row r="11" spans="2:24" ht="40.5">
       <c r="B11" s="105"/>
-      <c r="C11" s="102" t="s">
-        <v>197</v>
+      <c r="C11" s="92" t="s">
+        <v>198</v>
       </c>
       <c r="D11" s="84" t="s">
-        <v>148</v>
-      </c>
-      <c r="E11" s="96" t="s">
-        <v>187</v>
+        <v>105</v>
+      </c>
+      <c r="E11" s="97" t="s">
+        <v>184</v>
       </c>
       <c r="F11" s="30" t="s">
-        <v>149</v>
+        <v>20</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>30</v>
       </c>
       <c r="H11" s="30" t="s">
-        <v>150</v>
+        <v>56</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>37</v>
@@ -3234,39 +3169,39 @@
         <v>70</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>166</v>
+        <v>103</v>
       </c>
       <c r="T11" s="1"/>
       <c r="U11" s="1" t="s">
-        <v>165</v>
+        <v>118</v>
       </c>
       <c r="V11" s="86" t="s">
-        <v>163</v>
+        <v>142</v>
       </c>
       <c r="W11" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="X11" s="3"/>
     </row>
-    <row r="12" spans="2:24" ht="40.5">
+    <row r="12" spans="2:24" ht="54">
       <c r="B12" s="105"/>
-      <c r="C12" s="101" t="s">
+      <c r="C12" s="102" t="s">
         <v>197</v>
       </c>
       <c r="D12" s="84" t="s">
-        <v>146</v>
-      </c>
-      <c r="E12" s="97" t="s">
-        <v>183</v>
+        <v>148</v>
+      </c>
+      <c r="E12" s="96" t="s">
+        <v>187</v>
       </c>
       <c r="F12" s="30" t="s">
-        <v>20</v>
+        <v>149</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>30</v>
       </c>
       <c r="H12" s="30" t="s">
-        <v>56</v>
+        <v>150</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>37</v>
@@ -3289,8 +3224,8 @@
       <c r="O12" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="P12" s="86" t="s">
-        <v>33</v>
+      <c r="P12" s="30" t="s">
+        <v>178</v>
       </c>
       <c r="Q12" s="1" t="s">
         <v>39</v>
@@ -3315,11 +3250,11 @@
     </row>
     <row r="13" spans="2:24" ht="40.5">
       <c r="B13" s="105"/>
-      <c r="C13" s="102" t="s">
+      <c r="C13" s="101" t="s">
         <v>197</v>
       </c>
       <c r="D13" s="84" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E13" s="97" t="s">
         <v>183</v>
@@ -3380,11 +3315,11 @@
     </row>
     <row r="14" spans="2:24" ht="40.5">
       <c r="B14" s="105"/>
-      <c r="C14" s="101" t="s">
+      <c r="C14" s="102" t="s">
         <v>197</v>
       </c>
       <c r="D14" s="84" t="s">
-        <v>193</v>
+        <v>147</v>
       </c>
       <c r="E14" s="97" t="s">
         <v>183</v>
@@ -3445,14 +3380,14 @@
     </row>
     <row r="15" spans="2:24" ht="40.5">
       <c r="B15" s="105"/>
-      <c r="C15" s="92" t="s">
-        <v>69</v>
+      <c r="C15" s="101" t="s">
+        <v>197</v>
       </c>
       <c r="D15" s="84" t="s">
-        <v>160</v>
-      </c>
-      <c r="E15" s="96" t="s">
-        <v>187</v>
+        <v>193</v>
+      </c>
+      <c r="E15" s="97" t="s">
+        <v>183</v>
       </c>
       <c r="F15" s="30" t="s">
         <v>20</v>
@@ -3491,14 +3426,14 @@
         <v>39</v>
       </c>
       <c r="R15" s="1" t="s">
-        <v>164</v>
+        <v>70</v>
       </c>
       <c r="S15" s="1" t="s">
-        <v>69</v>
+        <v>166</v>
       </c>
       <c r="T15" s="1"/>
       <c r="U15" s="1" t="s">
-        <v>117</v>
+        <v>165</v>
       </c>
       <c r="V15" s="86" t="s">
         <v>163</v>
@@ -3508,25 +3443,25 @@
       </c>
       <c r="X15" s="3"/>
     </row>
-    <row r="16" spans="2:24" ht="51.75">
+    <row r="16" spans="2:24" ht="40.5">
       <c r="B16" s="105"/>
       <c r="C16" s="92" t="s">
-        <v>199</v>
+        <v>69</v>
       </c>
       <c r="D16" s="84" t="s">
-        <v>10</v>
+        <v>160</v>
       </c>
       <c r="E16" s="96" t="s">
-        <v>188</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>18</v>
+        <v>187</v>
+      </c>
+      <c r="F16" s="30" t="s">
+        <v>20</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
+      </c>
+      <c r="H16" s="30" t="s">
+        <v>56</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>37</v>
@@ -3535,40 +3470,38 @@
         <v>42</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="M16" s="1" t="s">
         <v>45</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>106</v>
+        <v>52</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="P16" s="86" t="s">
-        <v>180</v>
+        <v>33</v>
       </c>
       <c r="Q16" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="R16" s="1" t="s">
-        <v>72</v>
+        <v>164</v>
       </c>
       <c r="S16" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="T16" s="1" t="s">
-        <v>82</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="T16" s="1"/>
       <c r="U16" s="1" t="s">
         <v>117</v>
       </c>
       <c r="V16" s="86" t="s">
-        <v>144</v>
+        <v>163</v>
       </c>
       <c r="W16" s="1" t="s">
         <v>128</v>
@@ -3581,25 +3514,25 @@
         <v>199</v>
       </c>
       <c r="D17" s="84" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E17" s="96" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>151</v>
+        <v>27</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>37</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="K17" s="1" t="s">
         <v>45</v>
@@ -3623,19 +3556,19 @@
         <v>42</v>
       </c>
       <c r="R17" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="S17" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T17" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U17" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="V17" s="86" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="W17" s="1" t="s">
         <v>128</v>
@@ -3645,10 +3578,10 @@
     <row r="18" spans="2:24" ht="51.75">
       <c r="B18" s="105"/>
       <c r="C18" s="92" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D18" s="84" t="s">
-        <v>200</v>
+        <v>3</v>
       </c>
       <c r="E18" s="96" t="s">
         <v>189</v>
@@ -3709,34 +3642,34 @@
       </c>
       <c r="X18" s="3"/>
     </row>
-    <row r="19" spans="2:24" ht="54">
+    <row r="19" spans="2:24" ht="51.75">
       <c r="B19" s="105"/>
       <c r="C19" s="92" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D19" s="84" t="s">
-        <v>58</v>
+        <v>200</v>
       </c>
       <c r="E19" s="96" t="s">
-        <v>190</v>
-      </c>
-      <c r="F19" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="G19" s="86" t="s">
-        <v>62</v>
-      </c>
-      <c r="H19" s="30" t="s">
-        <v>152</v>
+        <v>189</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>151</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="J19" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="K19" s="86" t="s">
-        <v>46</v>
+        <v>37</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="L19" s="1" t="s">
         <v>44</v>
@@ -3745,7 +3678,7 @@
         <v>45</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O19" s="1" t="s">
         <v>45</v>
@@ -3754,10 +3687,10 @@
         <v>180</v>
       </c>
       <c r="Q19" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="R19" s="1" t="s">
-        <v>109</v>
+        <v>73</v>
       </c>
       <c r="S19" s="1" t="s">
         <v>79</v>
@@ -3769,7 +3702,7 @@
         <v>116</v>
       </c>
       <c r="V19" s="86" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="W19" s="1" t="s">
         <v>128</v>
@@ -3782,19 +3715,19 @@
         <v>199</v>
       </c>
       <c r="D20" s="84" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E20" s="96" t="s">
         <v>190</v>
       </c>
       <c r="F20" s="30" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G20" s="86" t="s">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="H20" s="30" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>90</v>
@@ -3824,10 +3757,10 @@
         <v>39</v>
       </c>
       <c r="R20" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="S20" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="T20" s="1" t="s">
         <v>81</v>
@@ -3836,50 +3769,50 @@
         <v>116</v>
       </c>
       <c r="V20" s="86" t="s">
-        <v>33</v>
+        <v>145</v>
       </c>
       <c r="W20" s="1" t="s">
         <v>128</v>
       </c>
       <c r="X20" s="3"/>
     </row>
-    <row r="21" spans="2:24" ht="67.5">
+    <row r="21" spans="2:24" ht="54">
       <c r="B21" s="105"/>
       <c r="C21" s="92" t="s">
         <v>199</v>
       </c>
       <c r="D21" s="84" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="E21" s="96" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F21" s="30" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="G21" s="86" t="s">
         <v>33</v>
       </c>
       <c r="H21" s="30" t="s">
-        <v>154</v>
-      </c>
-      <c r="I21" s="86" t="s">
-        <v>33</v>
-      </c>
-      <c r="J21" s="86" t="s">
-        <v>33</v>
+        <v>153</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="J21" s="30" t="s">
+        <v>45</v>
       </c>
       <c r="K21" s="86" t="s">
         <v>46</v>
       </c>
-      <c r="L21" s="86" t="s">
-        <v>47</v>
-      </c>
-      <c r="M21" s="86" t="s">
-        <v>47</v>
-      </c>
-      <c r="N21" s="86" t="s">
-        <v>33</v>
+      <c r="L21" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>107</v>
       </c>
       <c r="O21" s="1" t="s">
         <v>45</v>
@@ -3887,17 +3820,17 @@
       <c r="P21" s="86" t="s">
         <v>180</v>
       </c>
-      <c r="Q21" s="86" t="s">
-        <v>33</v>
-      </c>
-      <c r="R21" s="30" t="s">
-        <v>111</v>
+      <c r="Q21" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R21" s="1" t="s">
+        <v>110</v>
       </c>
       <c r="S21" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="T21" s="30" t="s">
-        <v>194</v>
+        <v>83</v>
+      </c>
+      <c r="T21" s="1" t="s">
+        <v>81</v>
       </c>
       <c r="U21" s="1" t="s">
         <v>116</v>
@@ -3916,10 +3849,10 @@
         <v>199</v>
       </c>
       <c r="D22" s="84" t="s">
-        <v>171</v>
-      </c>
-      <c r="E22" s="97" t="s">
-        <v>184</v>
+        <v>12</v>
+      </c>
+      <c r="E22" s="96" t="s">
+        <v>191</v>
       </c>
       <c r="F22" s="30" t="s">
         <v>87</v>
@@ -3963,8 +3896,8 @@
       <c r="S22" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="T22" s="1" t="s">
-        <v>81</v>
+      <c r="T22" s="30" t="s">
+        <v>194</v>
       </c>
       <c r="U22" s="1" t="s">
         <v>116</v>
@@ -3972,8 +3905,8 @@
       <c r="V22" s="86" t="s">
         <v>33</v>
       </c>
-      <c r="W22" s="86" t="s">
-        <v>33</v>
+      <c r="W22" s="1" t="s">
+        <v>128</v>
       </c>
       <c r="X22" s="3"/>
     </row>
@@ -3983,19 +3916,19 @@
         <v>199</v>
       </c>
       <c r="D23" s="84" t="s">
-        <v>94</v>
-      </c>
-      <c r="E23" s="100" t="s">
-        <v>192</v>
+        <v>171</v>
+      </c>
+      <c r="E23" s="97" t="s">
+        <v>184</v>
       </c>
       <c r="F23" s="30" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="G23" s="86" t="s">
         <v>33</v>
       </c>
       <c r="H23" s="30" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I23" s="86" t="s">
         <v>33</v>
@@ -4025,7 +3958,7 @@
         <v>33</v>
       </c>
       <c r="R23" s="30" t="s">
-        <v>84</v>
+        <v>111</v>
       </c>
       <c r="S23" s="1" t="s">
         <v>79</v>
@@ -4039,18 +3972,18 @@
       <c r="V23" s="86" t="s">
         <v>33</v>
       </c>
-      <c r="W23" s="1" t="s">
-        <v>128</v>
+      <c r="W23" s="86" t="s">
+        <v>33</v>
       </c>
       <c r="X23" s="3"/>
     </row>
     <row r="24" spans="2:24" ht="67.5">
-      <c r="B24" s="106"/>
+      <c r="B24" s="105"/>
       <c r="C24" s="92" t="s">
         <v>199</v>
       </c>
       <c r="D24" s="84" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E24" s="100" t="s">
         <v>192</v>
@@ -4062,7 +3995,7 @@
         <v>33</v>
       </c>
       <c r="H24" s="30" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I24" s="86" t="s">
         <v>33</v>
@@ -4111,189 +4044,256 @@
       </c>
       <c r="X24" s="3"/>
     </row>
-    <row r="25" spans="2:24" ht="41.25" thickBot="1">
-      <c r="B25" s="103" t="s">
+    <row r="25" spans="2:24" ht="67.5">
+      <c r="B25" s="106"/>
+      <c r="C25" s="92" t="s">
+        <v>199</v>
+      </c>
+      <c r="D25" s="84" t="s">
+        <v>95</v>
+      </c>
+      <c r="E25" s="100" t="s">
+        <v>192</v>
+      </c>
+      <c r="F25" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="G25" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="H25" s="30" t="s">
+        <v>156</v>
+      </c>
+      <c r="I25" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="J25" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="K25" s="86" t="s">
+        <v>46</v>
+      </c>
+      <c r="L25" s="86" t="s">
+        <v>47</v>
+      </c>
+      <c r="M25" s="86" t="s">
+        <v>47</v>
+      </c>
+      <c r="N25" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="P25" s="86" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q25" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="R25" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="S25" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="T25" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="U25" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="V25" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="W25" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="X25" s="3"/>
+    </row>
+    <row r="26" spans="2:24" ht="41.25" thickBot="1">
+      <c r="B26" s="103" t="s">
         <v>201</v>
       </c>
-      <c r="C25" s="95" t="s">
+      <c r="C26" s="95" t="s">
         <v>13</v>
       </c>
-      <c r="D25" s="85" t="s">
+      <c r="D26" s="85" t="s">
         <v>13</v>
       </c>
-      <c r="E25" s="98" t="s">
+      <c r="E26" s="98" t="s">
         <v>185</v>
       </c>
-      <c r="F25" s="71" t="s">
+      <c r="F26" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="G25" s="87" t="s">
-        <v>33</v>
-      </c>
-      <c r="H25" s="87" t="s">
+      <c r="G26" s="87" t="s">
+        <v>33</v>
+      </c>
+      <c r="H26" s="87" t="s">
         <v>85</v>
       </c>
-      <c r="I25" s="87" t="s">
-        <v>33</v>
-      </c>
-      <c r="J25" s="87" t="s">
-        <v>33</v>
-      </c>
-      <c r="K25" s="87" t="s">
+      <c r="I26" s="87" t="s">
+        <v>33</v>
+      </c>
+      <c r="J26" s="87" t="s">
+        <v>33</v>
+      </c>
+      <c r="K26" s="87" t="s">
         <v>46</v>
       </c>
-      <c r="L25" s="87" t="s">
+      <c r="L26" s="87" t="s">
         <v>47</v>
       </c>
-      <c r="M25" s="87" t="s">
+      <c r="M26" s="87" t="s">
         <v>47</v>
       </c>
-      <c r="N25" s="87" t="s">
-        <v>33</v>
-      </c>
-      <c r="O25" s="87" t="s">
-        <v>33</v>
-      </c>
-      <c r="P25" s="86" t="s">
+      <c r="N26" s="87" t="s">
+        <v>33</v>
+      </c>
+      <c r="O26" s="87" t="s">
+        <v>33</v>
+      </c>
+      <c r="P26" s="86" t="s">
         <v>181</v>
       </c>
-      <c r="Q25" s="87" t="s">
-        <v>33</v>
-      </c>
-      <c r="R25" s="6" t="s">
+      <c r="Q26" s="87" t="s">
+        <v>33</v>
+      </c>
+      <c r="R26" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="S25" s="6" t="s">
+      <c r="S26" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="T25" s="6" t="s">
+      <c r="T26" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="U25" s="6" t="s">
+      <c r="U26" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="V25" s="87" t="s">
-        <v>33</v>
-      </c>
-      <c r="W25" s="6" t="s">
+      <c r="V26" s="87" t="s">
+        <v>33</v>
+      </c>
+      <c r="W26" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="X25" s="7"/>
-    </row>
-    <row r="29" spans="2:24">
-      <c r="B29" t="s">
+      <c r="X26" s="7"/>
+    </row>
+    <row r="30" spans="2:24">
+      <c r="B30" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="30" spans="2:24">
-      <c r="B30" s="60" t="s">
+    <row r="31" spans="2:24">
+      <c r="B31" s="60" t="s">
         <v>139</v>
       </c>
-      <c r="C30" s="60"/>
-    </row>
-    <row r="32" spans="2:24">
-      <c r="B32" t="s">
+      <c r="C31" s="60"/>
+    </row>
+    <row r="33" spans="2:3">
+      <c r="B33" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="33" spans="2:3">
-      <c r="B33" s="60" t="s">
+    <row r="34" spans="2:3">
+      <c r="B34" s="60" t="s">
         <v>138</v>
       </c>
-      <c r="C33" s="60"/>
-    </row>
-    <row r="35" spans="2:3">
-      <c r="B35" t="s">
+      <c r="C34" s="60"/>
+    </row>
+    <row r="36" spans="2:3">
+      <c r="B36" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="36" spans="2:3">
-      <c r="B36" s="60" t="s">
+    <row r="37" spans="2:3">
+      <c r="B37" s="60" t="s">
         <v>137</v>
       </c>
-      <c r="C36" s="60"/>
-    </row>
-    <row r="38" spans="2:3">
-      <c r="B38" t="s">
+      <c r="C37" s="60"/>
+    </row>
+    <row r="39" spans="2:3">
+      <c r="B39" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="39" spans="2:3">
-      <c r="B39" s="60" t="s">
+    <row r="40" spans="2:3">
+      <c r="B40" s="60" t="s">
         <v>136</v>
       </c>
-      <c r="C39" s="60"/>
-    </row>
-    <row r="41" spans="2:3">
-      <c r="B41" t="s">
+      <c r="C40" s="60"/>
+    </row>
+    <row r="42" spans="2:3">
+      <c r="B42" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="42" spans="2:3">
-      <c r="B42" s="61" t="s">
+    <row r="43" spans="2:3">
+      <c r="B43" s="61" t="s">
         <v>131</v>
       </c>
-      <c r="C42" s="61"/>
-    </row>
-    <row r="43" spans="2:3">
-      <c r="B43" s="60" t="s">
-        <v>135</v>
-      </c>
-      <c r="C43" s="60"/>
+      <c r="C43" s="61"/>
     </row>
     <row r="44" spans="2:3">
       <c r="B44" s="60" t="s">
+        <v>135</v>
+      </c>
+      <c r="C44" s="60"/>
+    </row>
+    <row r="45" spans="2:3">
+      <c r="B45" s="60" t="s">
         <v>140</v>
       </c>
-      <c r="C44" s="60"/>
-    </row>
-    <row r="46" spans="2:3">
-      <c r="B46" t="s">
+      <c r="C45" s="60"/>
+    </row>
+    <row r="47" spans="2:3">
+      <c r="B47" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="47" spans="2:3">
-      <c r="B47" s="60" t="s">
+    <row r="48" spans="2:3">
+      <c r="B48" s="60" t="s">
         <v>158</v>
       </c>
-      <c r="C47" s="60"/>
-    </row>
-    <row r="49" spans="2:2">
-      <c r="B49" t="s">
+      <c r="C48" s="60"/>
+    </row>
+    <row r="50" spans="2:2">
+      <c r="B50" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="50" spans="2:2">
-      <c r="B50" s="60" t="s">
+    <row r="51" spans="2:2">
+      <c r="B51" s="60" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="52" spans="2:2">
-      <c r="B52" t="s">
+    <row r="53" spans="2:2">
+      <c r="B53" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="53" spans="2:2">
-      <c r="B53" s="60" t="s">
+    <row r="54" spans="2:2">
+      <c r="B54" s="60" t="s">
         <v>204</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B7:B24"/>
+    <mergeCell ref="B8:B25"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="B42" r:id="rId1"/>
-    <hyperlink ref="B43" r:id="rId2"/>
-    <hyperlink ref="B39" r:id="rId3"/>
-    <hyperlink ref="B36" r:id="rId4"/>
-    <hyperlink ref="B33" r:id="rId5"/>
-    <hyperlink ref="B30" r:id="rId6"/>
-    <hyperlink ref="B44" r:id="rId7"/>
-    <hyperlink ref="B47" r:id="rId8"/>
-    <hyperlink ref="B50" r:id="rId9"/>
-    <hyperlink ref="B53" r:id="rId10"/>
+    <hyperlink ref="B43" r:id="rId1"/>
+    <hyperlink ref="B44" r:id="rId2"/>
+    <hyperlink ref="B40" r:id="rId3"/>
+    <hyperlink ref="B37" r:id="rId4"/>
+    <hyperlink ref="B34" r:id="rId5"/>
+    <hyperlink ref="B31" r:id="rId6"/>
+    <hyperlink ref="B45" r:id="rId7"/>
+    <hyperlink ref="B48" r:id="rId8"/>
+    <hyperlink ref="B51" r:id="rId9"/>
+    <hyperlink ref="B54" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" scale="42" orientation="landscape" horizontalDpi="4294967293" r:id="rId11"/>
@@ -4308,13 +4308,13 @@
               <from>
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>0</xdr:row>
+                <xdr:row>1</xdr:row>
                 <xdr:rowOff>76200</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>4</xdr:col>
                 <xdr:colOff>1076325</xdr:colOff>
-                <xdr:row>2</xdr:row>
+                <xdr:row>3</xdr:row>
                 <xdr:rowOff>171450</xdr:rowOff>
               </to>
             </anchor>

--- a/msx3gen/files/msx_gen3.xlsx
+++ b/msx3gen/files/msx_gen3.xlsx
@@ -124,7 +124,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2641" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2643" uniqueCount="209">
   <si>
     <t>旧来のMSX</t>
     <rPh sb="0" eb="2">
@@ -1303,10 +1303,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>MSXポケット・ポータブル</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>MSXDIY</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1352,6 +1348,44 @@
   </si>
   <si>
     <t>https://x.com/nishikazuhiko/status/1840090158215115276</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MSX Pocket・Portable</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://x.com/nishikazuhiko/status/1838890692531061006</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MSXNetconnector</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MSXNetconnector のストレージに関するポスト</t>
+    <rPh sb="23" eb="24">
+      <t>カン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FDD等の元のMSXが装備している外部メディア＋ネット経由</t>
+    <rPh sb="3" eb="4">
+      <t>ナド</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ソウビ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ガイブ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ケイユ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2099,7 +2133,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="119">
+  <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2456,6 +2490,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2496,8 +2533,8 @@
         <xdr:to>
           <xdr:col>4</xdr:col>
           <xdr:colOff>1076325</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>171451</xdr:rowOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>2931</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2805,10 +2842,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B3:X54"/>
+  <dimension ref="B3:X57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
-      <selection activeCell="Y24" sqref="Y24"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2859,7 +2896,7 @@
     <row r="7" spans="2:24" ht="14.25" thickBot="1">
       <c r="B7" s="74"/>
       <c r="C7" s="91" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D7" s="76" t="s">
         <v>7</v>
@@ -2991,7 +3028,7 @@
     <row r="9" spans="2:24" ht="40.5">
       <c r="B9" s="105"/>
       <c r="C9" s="92" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="D9" s="84" t="s">
         <v>9</v>
@@ -3056,7 +3093,7 @@
     <row r="10" spans="2:24" ht="40.5">
       <c r="B10" s="105"/>
       <c r="C10" s="92" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="D10" s="84" t="s">
         <v>104</v>
@@ -3121,7 +3158,7 @@
     <row r="11" spans="2:24" ht="40.5">
       <c r="B11" s="105"/>
       <c r="C11" s="92" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="D11" s="84" t="s">
         <v>105</v>
@@ -3449,7 +3486,7 @@
         <v>69</v>
       </c>
       <c r="D16" s="84" t="s">
-        <v>160</v>
+        <v>206</v>
       </c>
       <c r="E16" s="96" t="s">
         <v>187</v>
@@ -3484,8 +3521,8 @@
       <c r="O16" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="P16" s="86" t="s">
-        <v>33</v>
+      <c r="P16" s="119" t="s">
+        <v>208</v>
       </c>
       <c r="Q16" s="1" t="s">
         <v>39</v>
@@ -3511,7 +3548,7 @@
     <row r="17" spans="2:24" ht="51.75">
       <c r="B17" s="105"/>
       <c r="C17" s="92" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D17" s="84" t="s">
         <v>10</v>
@@ -3578,7 +3615,7 @@
     <row r="18" spans="2:24" ht="51.75">
       <c r="B18" s="105"/>
       <c r="C18" s="92" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D18" s="84" t="s">
         <v>3</v>
@@ -3645,10 +3682,10 @@
     <row r="19" spans="2:24" ht="51.75">
       <c r="B19" s="105"/>
       <c r="C19" s="92" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="D19" s="84" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E19" s="96" t="s">
         <v>189</v>
@@ -3712,7 +3749,7 @@
     <row r="20" spans="2:24" ht="54">
       <c r="B20" s="105"/>
       <c r="C20" s="92" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D20" s="84" t="s">
         <v>58</v>
@@ -3779,7 +3816,7 @@
     <row r="21" spans="2:24" ht="54">
       <c r="B21" s="105"/>
       <c r="C21" s="92" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D21" s="84" t="s">
         <v>59</v>
@@ -3846,7 +3883,7 @@
     <row r="22" spans="2:24" ht="67.5">
       <c r="B22" s="105"/>
       <c r="C22" s="92" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D22" s="84" t="s">
         <v>12</v>
@@ -3913,7 +3950,7 @@
     <row r="23" spans="2:24" ht="67.5">
       <c r="B23" s="105"/>
       <c r="C23" s="92" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D23" s="84" t="s">
         <v>171</v>
@@ -3980,7 +4017,7 @@
     <row r="24" spans="2:24" ht="67.5">
       <c r="B24" s="105"/>
       <c r="C24" s="92" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D24" s="84" t="s">
         <v>94</v>
@@ -4047,7 +4084,7 @@
     <row r="25" spans="2:24" ht="67.5">
       <c r="B25" s="106"/>
       <c r="C25" s="92" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D25" s="84" t="s">
         <v>95</v>
@@ -4113,7 +4150,7 @@
     </row>
     <row r="26" spans="2:24" ht="41.25" thickBot="1">
       <c r="B26" s="103" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C26" s="95" t="s">
         <v>13</v>
@@ -4270,12 +4307,22 @@
     </row>
     <row r="53" spans="2:2">
       <c r="B53" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="54" spans="2:2">
       <c r="B54" s="60" t="s">
-        <v>204</v>
+        <v>203</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2">
+      <c r="B56" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2">
+      <c r="B57" s="60" t="s">
+        <v>205</v>
       </c>
     </row>
   </sheetData>
@@ -4294,16 +4341,17 @@
     <hyperlink ref="B48" r:id="rId8"/>
     <hyperlink ref="B51" r:id="rId9"/>
     <hyperlink ref="B54" r:id="rId10"/>
+    <hyperlink ref="B57" r:id="rId11"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="8" scale="42" orientation="landscape" horizontalDpi="4294967293" r:id="rId11"/>
-  <drawing r:id="rId12"/>
-  <legacyDrawing r:id="rId13"/>
+  <pageSetup paperSize="8" scale="42" orientation="landscape" horizontalDpi="4294967293" r:id="rId12"/>
+  <drawing r:id="rId13"/>
+  <legacyDrawing r:id="rId14"/>
   <oleObjects>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Visio.Drawing.15" shapeId="2051" r:id="rId14">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId15">
+        <oleObject progId="Visio.Drawing.15" shapeId="2051" r:id="rId15">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId16">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
@@ -4322,7 +4370,7 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Visio.Drawing.15" shapeId="2051" r:id="rId14"/>
+        <oleObject progId="Visio.Drawing.15" shapeId="2051" r:id="rId15"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </oleObjects>

--- a/msx3gen/files/msx_gen3.xlsx
+++ b/msx3gen/files/msx_gen3.xlsx
@@ -124,7 +124,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2643" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2643" uniqueCount="216">
   <si>
     <t>旧来のMSX</t>
     <rPh sb="0" eb="2">
@@ -1386,6 +1386,83 @@
     <rPh sb="27" eb="29">
       <t>ケイユ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アップグレード可
+アップデート可</t>
+    <rPh sb="7" eb="8">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>組み立てキット・組み立て済みの両方あり。
+ケース無し剥き出し。
+MSX DIY の内部スロットに MSXengine3 を装着したもの。</t>
+    <rPh sb="0" eb="1">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>リョウホウ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ム</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ナイブ</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>ソウチャク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>組み立てキット・組み立て済みの両方あり。
+ケース無し剥き出し。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1chipMSXのようなケース入り。</t>
+    <rPh sb="15" eb="16">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DIYは剥き出し。できれば、ケースのコンテストをやりたい。</t>
+    <rPh sb="4" eb="5">
+      <t>ム</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://x.com/nishikazuhiko/status/1840318150325457049</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://x.com/nishikazuhiko/status/1840321349509931150</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2446,6 +2523,9 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2491,9 +2571,6 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -2534,7 +2611,7 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>1076325</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>2931</xdr:rowOff>
+          <xdr:rowOff>3362</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2842,10 +2919,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B3:X57"/>
+  <dimension ref="B3:X61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2959,7 +3036,7 @@
       <c r="X7" s="76"/>
     </row>
     <row r="8" spans="2:24" ht="51.75">
-      <c r="B8" s="104" t="s">
+      <c r="B8" s="105" t="s">
         <v>14</v>
       </c>
       <c r="C8" s="93" t="s">
@@ -3026,7 +3103,7 @@
       <c r="X8" s="70"/>
     </row>
     <row r="9" spans="2:24" ht="40.5">
-      <c r="B9" s="105"/>
+      <c r="B9" s="106"/>
       <c r="C9" s="92" t="s">
         <v>204</v>
       </c>
@@ -3091,7 +3168,7 @@
       <c r="X9" s="3"/>
     </row>
     <row r="10" spans="2:24" ht="40.5">
-      <c r="B10" s="105"/>
+      <c r="B10" s="106"/>
       <c r="C10" s="92" t="s">
         <v>204</v>
       </c>
@@ -3156,7 +3233,7 @@
       <c r="X10" s="3"/>
     </row>
     <row r="11" spans="2:24" ht="40.5">
-      <c r="B11" s="105"/>
+      <c r="B11" s="106"/>
       <c r="C11" s="92" t="s">
         <v>204</v>
       </c>
@@ -3221,7 +3298,7 @@
       <c r="X11" s="3"/>
     </row>
     <row r="12" spans="2:24" ht="54">
-      <c r="B12" s="105"/>
+      <c r="B12" s="106"/>
       <c r="C12" s="102" t="s">
         <v>197</v>
       </c>
@@ -3286,7 +3363,7 @@
       <c r="X12" s="3"/>
     </row>
     <row r="13" spans="2:24" ht="40.5">
-      <c r="B13" s="105"/>
+      <c r="B13" s="106"/>
       <c r="C13" s="101" t="s">
         <v>197</v>
       </c>
@@ -3351,7 +3428,7 @@
       <c r="X13" s="3"/>
     </row>
     <row r="14" spans="2:24" ht="40.5">
-      <c r="B14" s="105"/>
+      <c r="B14" s="106"/>
       <c r="C14" s="102" t="s">
         <v>197</v>
       </c>
@@ -3416,7 +3493,7 @@
       <c r="X14" s="3"/>
     </row>
     <row r="15" spans="2:24" ht="40.5">
-      <c r="B15" s="105"/>
+      <c r="B15" s="106"/>
       <c r="C15" s="101" t="s">
         <v>197</v>
       </c>
@@ -3481,7 +3558,7 @@
       <c r="X15" s="3"/>
     </row>
     <row r="16" spans="2:24" ht="40.5">
-      <c r="B16" s="105"/>
+      <c r="B16" s="106"/>
       <c r="C16" s="92" t="s">
         <v>69</v>
       </c>
@@ -3521,7 +3598,7 @@
       <c r="O16" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="P16" s="119" t="s">
+      <c r="P16" s="104" t="s">
         <v>208</v>
       </c>
       <c r="Q16" s="1" t="s">
@@ -3546,7 +3623,7 @@
       <c r="X16" s="3"/>
     </row>
     <row r="17" spans="2:24" ht="51.75">
-      <c r="B17" s="105"/>
+      <c r="B17" s="106"/>
       <c r="C17" s="92" t="s">
         <v>198</v>
       </c>
@@ -3595,11 +3672,11 @@
       <c r="R17" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="S17" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="T17" s="1" t="s">
-        <v>82</v>
+      <c r="S17" s="30" t="s">
+        <v>209</v>
+      </c>
+      <c r="T17" s="30" t="s">
+        <v>211</v>
       </c>
       <c r="U17" s="1" t="s">
         <v>117</v>
@@ -3613,7 +3690,7 @@
       <c r="X17" s="3"/>
     </row>
     <row r="18" spans="2:24" ht="51.75">
-      <c r="B18" s="105"/>
+      <c r="B18" s="106"/>
       <c r="C18" s="92" t="s">
         <v>198</v>
       </c>
@@ -3662,11 +3739,11 @@
       <c r="R18" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="S18" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="T18" s="1" t="s">
-        <v>81</v>
+      <c r="S18" s="30" t="s">
+        <v>209</v>
+      </c>
+      <c r="T18" s="30" t="s">
+        <v>211</v>
       </c>
       <c r="U18" s="1" t="s">
         <v>116</v>
@@ -3680,7 +3757,7 @@
       <c r="X18" s="3"/>
     </row>
     <row r="19" spans="2:24" ht="51.75">
-      <c r="B19" s="105"/>
+      <c r="B19" s="106"/>
       <c r="C19" s="92" t="s">
         <v>204</v>
       </c>
@@ -3729,11 +3806,11 @@
       <c r="R19" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="S19" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="T19" s="1" t="s">
-        <v>81</v>
+      <c r="S19" s="30" t="s">
+        <v>209</v>
+      </c>
+      <c r="T19" s="30" t="s">
+        <v>211</v>
       </c>
       <c r="U19" s="1" t="s">
         <v>116</v>
@@ -3747,7 +3824,7 @@
       <c r="X19" s="3"/>
     </row>
     <row r="20" spans="2:24" ht="54">
-      <c r="B20" s="105"/>
+      <c r="B20" s="106"/>
       <c r="C20" s="92" t="s">
         <v>198</v>
       </c>
@@ -3796,11 +3873,11 @@
       <c r="R20" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="S20" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="T20" s="1" t="s">
-        <v>81</v>
+      <c r="S20" s="30" t="s">
+        <v>209</v>
+      </c>
+      <c r="T20" s="30" t="s">
+        <v>211</v>
       </c>
       <c r="U20" s="1" t="s">
         <v>116</v>
@@ -3814,7 +3891,7 @@
       <c r="X20" s="3"/>
     </row>
     <row r="21" spans="2:24" ht="54">
-      <c r="B21" s="105"/>
+      <c r="B21" s="106"/>
       <c r="C21" s="92" t="s">
         <v>198</v>
       </c>
@@ -3863,11 +3940,11 @@
       <c r="R21" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="S21" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="T21" s="1" t="s">
-        <v>81</v>
+      <c r="S21" s="30" t="s">
+        <v>209</v>
+      </c>
+      <c r="T21" s="30" t="s">
+        <v>211</v>
       </c>
       <c r="U21" s="1" t="s">
         <v>116</v>
@@ -3880,8 +3957,8 @@
       </c>
       <c r="X21" s="3"/>
     </row>
-    <row r="22" spans="2:24" ht="67.5">
-      <c r="B22" s="105"/>
+    <row r="22" spans="2:24" ht="94.5">
+      <c r="B22" s="106"/>
       <c r="C22" s="92" t="s">
         <v>198</v>
       </c>
@@ -3930,11 +4007,11 @@
       <c r="R22" s="30" t="s">
         <v>111</v>
       </c>
-      <c r="S22" s="1" t="s">
-        <v>79</v>
+      <c r="S22" s="30" t="s">
+        <v>209</v>
       </c>
       <c r="T22" s="30" t="s">
-        <v>194</v>
+        <v>210</v>
       </c>
       <c r="U22" s="1" t="s">
         <v>116</v>
@@ -3948,7 +4025,7 @@
       <c r="X22" s="3"/>
     </row>
     <row r="23" spans="2:24" ht="67.5">
-      <c r="B23" s="105"/>
+      <c r="B23" s="106"/>
       <c r="C23" s="92" t="s">
         <v>198</v>
       </c>
@@ -3997,11 +4074,11 @@
       <c r="R23" s="30" t="s">
         <v>111</v>
       </c>
-      <c r="S23" s="1" t="s">
-        <v>79</v>
+      <c r="S23" s="30" t="s">
+        <v>209</v>
       </c>
       <c r="T23" s="1" t="s">
-        <v>81</v>
+        <v>212</v>
       </c>
       <c r="U23" s="1" t="s">
         <v>116</v>
@@ -4015,7 +4092,7 @@
       <c r="X23" s="3"/>
     </row>
     <row r="24" spans="2:24" ht="67.5">
-      <c r="B24" s="105"/>
+      <c r="B24" s="106"/>
       <c r="C24" s="92" t="s">
         <v>198</v>
       </c>
@@ -4064,12 +4141,10 @@
       <c r="R24" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="S24" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="T24" s="1" t="s">
-        <v>81</v>
-      </c>
+      <c r="S24" s="30" t="s">
+        <v>209</v>
+      </c>
+      <c r="T24" s="1"/>
       <c r="U24" s="1" t="s">
         <v>116</v>
       </c>
@@ -4082,7 +4157,7 @@
       <c r="X24" s="3"/>
     </row>
     <row r="25" spans="2:24" ht="67.5">
-      <c r="B25" s="106"/>
+      <c r="B25" s="107"/>
       <c r="C25" s="92" t="s">
         <v>198</v>
       </c>
@@ -4131,12 +4206,10 @@
       <c r="R25" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="S25" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="T25" s="1" t="s">
-        <v>81</v>
-      </c>
+      <c r="S25" s="30" t="s">
+        <v>209</v>
+      </c>
+      <c r="T25" s="1"/>
       <c r="U25" s="1" t="s">
         <v>116</v>
       </c>
@@ -4200,12 +4273,10 @@
       <c r="R26" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="S26" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="T26" s="6" t="s">
-        <v>81</v>
-      </c>
+      <c r="S26" s="71" t="s">
+        <v>209</v>
+      </c>
+      <c r="T26" s="6"/>
       <c r="U26" s="6" t="s">
         <v>119</v>
       </c>
@@ -4323,6 +4394,21 @@
     <row r="57" spans="2:2">
       <c r="B57" s="60" t="s">
         <v>205</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2">
+      <c r="B59" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2">
+      <c r="B60" s="60" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2">
+      <c r="B61" s="60" t="s">
+        <v>215</v>
       </c>
     </row>
   </sheetData>
@@ -4342,16 +4428,18 @@
     <hyperlink ref="B51" r:id="rId9"/>
     <hyperlink ref="B54" r:id="rId10"/>
     <hyperlink ref="B57" r:id="rId11"/>
+    <hyperlink ref="B60" r:id="rId12"/>
+    <hyperlink ref="B61" r:id="rId13"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="8" scale="42" orientation="landscape" horizontalDpi="4294967293" r:id="rId12"/>
-  <drawing r:id="rId13"/>
-  <legacyDrawing r:id="rId14"/>
+  <pageSetup paperSize="8" scale="42" orientation="landscape" horizontalDpi="4294967293" r:id="rId14"/>
+  <drawing r:id="rId15"/>
+  <legacyDrawing r:id="rId16"/>
   <oleObjects>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Visio.Drawing.15" shapeId="2051" r:id="rId15">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId16">
+        <oleObject progId="Visio.Drawing.15" shapeId="2051" r:id="rId17">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId18">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
@@ -4370,7 +4458,7 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Visio.Drawing.15" shapeId="2051" r:id="rId15"/>
+        <oleObject progId="Visio.Drawing.15" shapeId="2051" r:id="rId17"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </oleObjects>
@@ -4500,7 +4588,7 @@
       <c r="Y5" s="76"/>
     </row>
     <row r="6" spans="2:25" ht="51.75">
-      <c r="B6" s="107" t="s">
+      <c r="B6" s="108" t="s">
         <v>14</v>
       </c>
       <c r="C6" s="93" t="s">
@@ -4570,7 +4658,7 @@
       <c r="Y6" s="70"/>
     </row>
     <row r="7" spans="2:25" ht="40.5">
-      <c r="B7" s="108"/>
+      <c r="B7" s="109"/>
       <c r="C7" s="92" t="s">
         <v>173</v>
       </c>
@@ -4638,7 +4726,7 @@
       <c r="Y7" s="3"/>
     </row>
     <row r="8" spans="2:25" ht="40.5">
-      <c r="B8" s="108"/>
+      <c r="B8" s="109"/>
       <c r="C8" s="92" t="s">
         <v>174</v>
       </c>
@@ -4706,7 +4794,7 @@
       <c r="Y8" s="3"/>
     </row>
     <row r="9" spans="2:25" ht="40.5">
-      <c r="B9" s="108"/>
+      <c r="B9" s="109"/>
       <c r="C9" s="92" t="s">
         <v>174</v>
       </c>
@@ -4774,7 +4862,7 @@
       <c r="Y9" s="3"/>
     </row>
     <row r="10" spans="2:25" ht="54">
-      <c r="B10" s="108"/>
+      <c r="B10" s="109"/>
       <c r="C10" s="92" t="s">
         <v>174</v>
       </c>
@@ -4842,7 +4930,7 @@
       <c r="Y10" s="3"/>
     </row>
     <row r="11" spans="2:25" ht="40.5">
-      <c r="B11" s="108"/>
+      <c r="B11" s="109"/>
       <c r="C11" s="92" t="s">
         <v>173</v>
       </c>
@@ -4910,7 +4998,7 @@
       <c r="Y11" s="3"/>
     </row>
     <row r="12" spans="2:25" ht="40.5">
-      <c r="B12" s="108"/>
+      <c r="B12" s="109"/>
       <c r="C12" s="92" t="s">
         <v>173</v>
       </c>
@@ -4978,7 +5066,7 @@
       <c r="Y12" s="3"/>
     </row>
     <row r="13" spans="2:25" ht="40.5">
-      <c r="B13" s="108"/>
+      <c r="B13" s="109"/>
       <c r="C13" s="92" t="s">
         <v>173</v>
       </c>
@@ -5046,7 +5134,7 @@
       <c r="Y13" s="3"/>
     </row>
     <row r="14" spans="2:25" ht="40.5">
-      <c r="B14" s="108"/>
+      <c r="B14" s="109"/>
       <c r="C14" s="92" t="s">
         <v>173</v>
       </c>
@@ -5114,7 +5202,7 @@
       <c r="Y14" s="3"/>
     </row>
     <row r="15" spans="2:25" ht="51.75">
-      <c r="B15" s="108"/>
+      <c r="B15" s="109"/>
       <c r="C15" s="92" t="s">
         <v>173</v>
       </c>
@@ -5184,7 +5272,7 @@
       <c r="Y15" s="3"/>
     </row>
     <row r="16" spans="2:25" ht="51.75">
-      <c r="B16" s="108"/>
+      <c r="B16" s="109"/>
       <c r="C16" s="92" t="s">
         <v>173</v>
       </c>
@@ -5254,7 +5342,7 @@
       <c r="Y16" s="3"/>
     </row>
     <row r="17" spans="2:25" ht="51.75">
-      <c r="B17" s="108"/>
+      <c r="B17" s="109"/>
       <c r="C17" s="92" t="s">
         <v>173</v>
       </c>
@@ -5324,7 +5412,7 @@
       <c r="Y17" s="3"/>
     </row>
     <row r="18" spans="2:25" ht="54">
-      <c r="B18" s="108"/>
+      <c r="B18" s="109"/>
       <c r="C18" s="92" t="s">
         <v>173</v>
       </c>
@@ -5394,7 +5482,7 @@
       <c r="Y18" s="3"/>
     </row>
     <row r="19" spans="2:25" ht="54">
-      <c r="B19" s="108"/>
+      <c r="B19" s="109"/>
       <c r="C19" s="92" t="s">
         <v>173</v>
       </c>
@@ -5464,7 +5552,7 @@
       <c r="Y19" s="3"/>
     </row>
     <row r="20" spans="2:25" ht="67.5">
-      <c r="B20" s="108"/>
+      <c r="B20" s="109"/>
       <c r="C20" s="92" t="s">
         <v>173</v>
       </c>
@@ -5534,7 +5622,7 @@
       <c r="Y20" s="3"/>
     </row>
     <row r="21" spans="2:25" ht="67.5">
-      <c r="B21" s="108"/>
+      <c r="B21" s="109"/>
       <c r="C21" s="92" t="s">
         <v>174</v>
       </c>
@@ -5604,7 +5692,7 @@
       <c r="Y21" s="3"/>
     </row>
     <row r="22" spans="2:25" ht="67.5">
-      <c r="B22" s="108"/>
+      <c r="B22" s="109"/>
       <c r="C22" s="92" t="s">
         <v>173</v>
       </c>
@@ -5674,7 +5762,7 @@
       <c r="Y22" s="3"/>
     </row>
     <row r="23" spans="2:25" ht="67.5">
-      <c r="B23" s="108"/>
+      <c r="B23" s="109"/>
       <c r="C23" s="92" t="s">
         <v>173</v>
       </c>
@@ -5744,7 +5832,7 @@
       <c r="Y23" s="3"/>
     </row>
     <row r="24" spans="2:25" ht="41.25" thickBot="1">
-      <c r="B24" s="109"/>
+      <c r="B24" s="110"/>
       <c r="C24" s="95" t="s">
         <v>173</v>
       </c>
@@ -6025,7 +6113,7 @@
       <c r="V5" s="76"/>
     </row>
     <row r="6" spans="2:22" ht="17.25">
-      <c r="B6" s="106" t="s">
+      <c r="B6" s="107" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="83" t="s">
@@ -6084,7 +6172,7 @@
       <c r="V6" s="73"/>
     </row>
     <row r="7" spans="2:22" ht="17.25">
-      <c r="B7" s="108"/>
+      <c r="B7" s="109"/>
       <c r="C7" s="84" t="s">
         <v>2</v>
       </c>
@@ -6141,7 +6229,7 @@
       <c r="V7" s="47"/>
     </row>
     <row r="8" spans="2:22" ht="17.25">
-      <c r="B8" s="108"/>
+      <c r="B8" s="109"/>
       <c r="C8" s="84" t="s">
         <v>3</v>
       </c>
@@ -6198,7 +6286,7 @@
       <c r="V8" s="47"/>
     </row>
     <row r="9" spans="2:22" ht="27">
-      <c r="B9" s="108"/>
+      <c r="B9" s="109"/>
       <c r="C9" s="84" t="s">
         <v>4</v>
       </c>
@@ -6255,7 +6343,7 @@
       <c r="V9" s="47"/>
     </row>
     <row r="10" spans="2:22" ht="40.5">
-      <c r="B10" s="108" t="s">
+      <c r="B10" s="109" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="84" t="s">
@@ -6316,7 +6404,7 @@
       <c r="V10" s="70"/>
     </row>
     <row r="11" spans="2:22" ht="40.5">
-      <c r="B11" s="108"/>
+      <c r="B11" s="109"/>
       <c r="C11" s="84" t="s">
         <v>9</v>
       </c>
@@ -6375,7 +6463,7 @@
       <c r="V11" s="3"/>
     </row>
     <row r="12" spans="2:22" ht="40.5">
-      <c r="B12" s="108"/>
+      <c r="B12" s="109"/>
       <c r="C12" s="84" t="s">
         <v>104</v>
       </c>
@@ -6434,7 +6522,7 @@
       <c r="V12" s="3"/>
     </row>
     <row r="13" spans="2:22" ht="40.5">
-      <c r="B13" s="108"/>
+      <c r="B13" s="109"/>
       <c r="C13" s="84" t="s">
         <v>105</v>
       </c>
@@ -6493,7 +6581,7 @@
       <c r="V13" s="3"/>
     </row>
     <row r="14" spans="2:22" ht="54">
-      <c r="B14" s="108"/>
+      <c r="B14" s="109"/>
       <c r="C14" s="84" t="s">
         <v>148</v>
       </c>
@@ -6552,7 +6640,7 @@
       <c r="V14" s="3"/>
     </row>
     <row r="15" spans="2:22" ht="40.5">
-      <c r="B15" s="108"/>
+      <c r="B15" s="109"/>
       <c r="C15" s="84" t="s">
         <v>146</v>
       </c>
@@ -6611,7 +6699,7 @@
       <c r="V15" s="3"/>
     </row>
     <row r="16" spans="2:22" ht="40.5">
-      <c r="B16" s="108"/>
+      <c r="B16" s="109"/>
       <c r="C16" s="84" t="s">
         <v>147</v>
       </c>
@@ -6670,7 +6758,7 @@
       <c r="V16" s="3"/>
     </row>
     <row r="17" spans="2:22" ht="40.5">
-      <c r="B17" s="108"/>
+      <c r="B17" s="109"/>
       <c r="C17" s="84" t="s">
         <v>160</v>
       </c>
@@ -6729,7 +6817,7 @@
       <c r="V17" s="3"/>
     </row>
     <row r="18" spans="2:22" ht="17.25">
-      <c r="B18" s="108"/>
+      <c r="B18" s="109"/>
       <c r="C18" s="84" t="s">
         <v>10</v>
       </c>
@@ -6790,7 +6878,7 @@
       <c r="V18" s="3"/>
     </row>
     <row r="19" spans="2:22" ht="17.25">
-      <c r="B19" s="108"/>
+      <c r="B19" s="109"/>
       <c r="C19" s="84" t="s">
         <v>3</v>
       </c>
@@ -6851,7 +6939,7 @@
       <c r="V19" s="3"/>
     </row>
     <row r="20" spans="2:22" ht="17.25">
-      <c r="B20" s="108"/>
+      <c r="B20" s="109"/>
       <c r="C20" s="84" t="s">
         <v>11</v>
       </c>
@@ -6912,7 +7000,7 @@
       <c r="V20" s="3"/>
     </row>
     <row r="21" spans="2:22" ht="54">
-      <c r="B21" s="108"/>
+      <c r="B21" s="109"/>
       <c r="C21" s="84" t="s">
         <v>58</v>
       </c>
@@ -6973,7 +7061,7 @@
       <c r="V21" s="3"/>
     </row>
     <row r="22" spans="2:22" ht="54">
-      <c r="B22" s="108"/>
+      <c r="B22" s="109"/>
       <c r="C22" s="84" t="s">
         <v>59</v>
       </c>
@@ -7034,7 +7122,7 @@
       <c r="V22" s="3"/>
     </row>
     <row r="23" spans="2:22" ht="67.5">
-      <c r="B23" s="108"/>
+      <c r="B23" s="109"/>
       <c r="C23" s="84" t="s">
         <v>12</v>
       </c>
@@ -7095,7 +7183,7 @@
       <c r="V23" s="3"/>
     </row>
     <row r="24" spans="2:22" ht="67.5">
-      <c r="B24" s="108"/>
+      <c r="B24" s="109"/>
       <c r="C24" s="84" t="s">
         <v>171</v>
       </c>
@@ -7156,7 +7244,7 @@
       <c r="V24" s="3"/>
     </row>
     <row r="25" spans="2:22" ht="67.5">
-      <c r="B25" s="108"/>
+      <c r="B25" s="109"/>
       <c r="C25" s="84" t="s">
         <v>94</v>
       </c>
@@ -7217,7 +7305,7 @@
       <c r="V25" s="3"/>
     </row>
     <row r="26" spans="2:22" ht="67.5">
-      <c r="B26" s="108"/>
+      <c r="B26" s="109"/>
       <c r="C26" s="84" t="s">
         <v>95</v>
       </c>
@@ -7278,7 +7366,7 @@
       <c r="V26" s="3"/>
     </row>
     <row r="27" spans="2:22" ht="41.25" thickBot="1">
-      <c r="B27" s="109"/>
+      <c r="B27" s="110"/>
       <c r="C27" s="85" t="s">
         <v>13</v>
       </c>
@@ -7542,7 +7630,7 @@
       <c r="V5" s="76"/>
     </row>
     <row r="6" spans="2:22" ht="17.25">
-      <c r="B6" s="106" t="s">
+      <c r="B6" s="107" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="83" t="s">
@@ -7601,7 +7689,7 @@
       <c r="V6" s="73"/>
     </row>
     <row r="7" spans="2:22" ht="17.25">
-      <c r="B7" s="108"/>
+      <c r="B7" s="109"/>
       <c r="C7" s="84" t="s">
         <v>2</v>
       </c>
@@ -7658,7 +7746,7 @@
       <c r="V7" s="47"/>
     </row>
     <row r="8" spans="2:22" ht="17.25">
-      <c r="B8" s="108"/>
+      <c r="B8" s="109"/>
       <c r="C8" s="84" t="s">
         <v>3</v>
       </c>
@@ -7715,7 +7803,7 @@
       <c r="V8" s="47"/>
     </row>
     <row r="9" spans="2:22" ht="27">
-      <c r="B9" s="108"/>
+      <c r="B9" s="109"/>
       <c r="C9" s="84" t="s">
         <v>4</v>
       </c>
@@ -7772,7 +7860,7 @@
       <c r="V9" s="47"/>
     </row>
     <row r="10" spans="2:22" ht="40.5">
-      <c r="B10" s="108" t="s">
+      <c r="B10" s="109" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="84" t="s">
@@ -7833,7 +7921,7 @@
       <c r="V10" s="70"/>
     </row>
     <row r="11" spans="2:22" ht="40.5">
-      <c r="B11" s="108"/>
+      <c r="B11" s="109"/>
       <c r="C11" s="84" t="s">
         <v>9</v>
       </c>
@@ -7892,7 +7980,7 @@
       <c r="V11" s="3"/>
     </row>
     <row r="12" spans="2:22" ht="40.5">
-      <c r="B12" s="108"/>
+      <c r="B12" s="109"/>
       <c r="C12" s="84" t="s">
         <v>104</v>
       </c>
@@ -7951,7 +8039,7 @@
       <c r="V12" s="3"/>
     </row>
     <row r="13" spans="2:22" ht="40.5">
-      <c r="B13" s="108"/>
+      <c r="B13" s="109"/>
       <c r="C13" s="84" t="s">
         <v>105</v>
       </c>
@@ -8010,7 +8098,7 @@
       <c r="V13" s="3"/>
     </row>
     <row r="14" spans="2:22" ht="54">
-      <c r="B14" s="108"/>
+      <c r="B14" s="109"/>
       <c r="C14" s="84" t="s">
         <v>148</v>
       </c>
@@ -8069,7 +8157,7 @@
       <c r="V14" s="3"/>
     </row>
     <row r="15" spans="2:22" ht="40.5">
-      <c r="B15" s="108"/>
+      <c r="B15" s="109"/>
       <c r="C15" s="84" t="s">
         <v>146</v>
       </c>
@@ -8128,7 +8216,7 @@
       <c r="V15" s="3"/>
     </row>
     <row r="16" spans="2:22" ht="40.5">
-      <c r="B16" s="108"/>
+      <c r="B16" s="109"/>
       <c r="C16" s="84" t="s">
         <v>147</v>
       </c>
@@ -8187,7 +8275,7 @@
       <c r="V16" s="3"/>
     </row>
     <row r="17" spans="2:22" ht="40.5">
-      <c r="B17" s="108"/>
+      <c r="B17" s="109"/>
       <c r="C17" s="84" t="s">
         <v>160</v>
       </c>
@@ -8246,7 +8334,7 @@
       <c r="V17" s="3"/>
     </row>
     <row r="18" spans="2:22" ht="17.25">
-      <c r="B18" s="108"/>
+      <c r="B18" s="109"/>
       <c r="C18" s="84" t="s">
         <v>10</v>
       </c>
@@ -8307,7 +8395,7 @@
       <c r="V18" s="3"/>
     </row>
     <row r="19" spans="2:22" ht="17.25">
-      <c r="B19" s="108"/>
+      <c r="B19" s="109"/>
       <c r="C19" s="84" t="s">
         <v>3</v>
       </c>
@@ -8368,7 +8456,7 @@
       <c r="V19" s="3"/>
     </row>
     <row r="20" spans="2:22" ht="17.25">
-      <c r="B20" s="108"/>
+      <c r="B20" s="109"/>
       <c r="C20" s="84" t="s">
         <v>11</v>
       </c>
@@ -8429,7 +8517,7 @@
       <c r="V20" s="3"/>
     </row>
     <row r="21" spans="2:22" ht="54">
-      <c r="B21" s="108"/>
+      <c r="B21" s="109"/>
       <c r="C21" s="84" t="s">
         <v>58</v>
       </c>
@@ -8490,7 +8578,7 @@
       <c r="V21" s="3"/>
     </row>
     <row r="22" spans="2:22" ht="54">
-      <c r="B22" s="108"/>
+      <c r="B22" s="109"/>
       <c r="C22" s="84" t="s">
         <v>59</v>
       </c>
@@ -8551,7 +8639,7 @@
       <c r="V22" s="3"/>
     </row>
     <row r="23" spans="2:22" ht="67.5">
-      <c r="B23" s="108"/>
+      <c r="B23" s="109"/>
       <c r="C23" s="84" t="s">
         <v>12</v>
       </c>
@@ -8612,7 +8700,7 @@
       <c r="V23" s="3"/>
     </row>
     <row r="24" spans="2:22" ht="67.5">
-      <c r="B24" s="108"/>
+      <c r="B24" s="109"/>
       <c r="C24" s="84" t="s">
         <v>94</v>
       </c>
@@ -8673,7 +8761,7 @@
       <c r="V24" s="3"/>
     </row>
     <row r="25" spans="2:22" ht="67.5">
-      <c r="B25" s="108"/>
+      <c r="B25" s="109"/>
       <c r="C25" s="84" t="s">
         <v>95</v>
       </c>
@@ -8734,7 +8822,7 @@
       <c r="V25" s="3"/>
     </row>
     <row r="26" spans="2:22" ht="41.25" thickBot="1">
-      <c r="B26" s="109"/>
+      <c r="B26" s="110"/>
       <c r="C26" s="85" t="s">
         <v>13</v>
       </c>
@@ -8919,31 +9007,31 @@
     <row r="3" spans="2:23" ht="14.25" thickBot="1"/>
     <row r="4" spans="2:23" ht="21.75" thickBot="1">
       <c r="B4" s="8"/>
-      <c r="C4" s="104" t="s">
+      <c r="C4" s="105" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="110"/>
-      <c r="E4" s="110"/>
-      <c r="F4" s="111"/>
-      <c r="G4" s="112" t="s">
+      <c r="D4" s="111"/>
+      <c r="E4" s="111"/>
+      <c r="F4" s="112"/>
+      <c r="G4" s="113" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="112"/>
-      <c r="I4" s="112"/>
-      <c r="J4" s="110"/>
-      <c r="K4" s="110"/>
-      <c r="L4" s="110"/>
-      <c r="M4" s="110"/>
-      <c r="N4" s="110"/>
-      <c r="O4" s="110"/>
-      <c r="P4" s="110"/>
-      <c r="Q4" s="110"/>
-      <c r="R4" s="110"/>
-      <c r="S4" s="110"/>
-      <c r="T4" s="110"/>
-      <c r="U4" s="113"/>
-      <c r="V4" s="113"/>
-      <c r="W4" s="111"/>
+      <c r="H4" s="113"/>
+      <c r="I4" s="113"/>
+      <c r="J4" s="111"/>
+      <c r="K4" s="111"/>
+      <c r="L4" s="111"/>
+      <c r="M4" s="111"/>
+      <c r="N4" s="111"/>
+      <c r="O4" s="111"/>
+      <c r="P4" s="111"/>
+      <c r="Q4" s="111"/>
+      <c r="R4" s="111"/>
+      <c r="S4" s="111"/>
+      <c r="T4" s="111"/>
+      <c r="U4" s="114"/>
+      <c r="V4" s="114"/>
+      <c r="W4" s="112"/>
     </row>
     <row r="5" spans="2:23" ht="18" thickBot="1">
       <c r="B5" s="9" t="s">
@@ -10276,27 +10364,27 @@
     <row r="3" spans="2:19" ht="14.25" thickBot="1"/>
     <row r="4" spans="2:19" ht="21.75" thickBot="1">
       <c r="B4" s="8"/>
-      <c r="C4" s="114" t="s">
+      <c r="C4" s="115" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="115"/>
-      <c r="E4" s="115"/>
-      <c r="F4" s="116"/>
-      <c r="G4" s="117" t="s">
+      <c r="D4" s="116"/>
+      <c r="E4" s="116"/>
+      <c r="F4" s="117"/>
+      <c r="G4" s="118" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="117"/>
-      <c r="I4" s="117"/>
-      <c r="J4" s="115"/>
-      <c r="K4" s="115"/>
-      <c r="L4" s="115"/>
-      <c r="M4" s="115"/>
-      <c r="N4" s="115"/>
-      <c r="O4" s="115"/>
-      <c r="P4" s="115"/>
-      <c r="Q4" s="118"/>
-      <c r="R4" s="118"/>
-      <c r="S4" s="116"/>
+      <c r="H4" s="118"/>
+      <c r="I4" s="118"/>
+      <c r="J4" s="116"/>
+      <c r="K4" s="116"/>
+      <c r="L4" s="116"/>
+      <c r="M4" s="116"/>
+      <c r="N4" s="116"/>
+      <c r="O4" s="116"/>
+      <c r="P4" s="116"/>
+      <c r="Q4" s="119"/>
+      <c r="R4" s="119"/>
+      <c r="S4" s="117"/>
     </row>
     <row r="5" spans="2:19" ht="18" thickBot="1">
       <c r="B5" s="9" t="s">
@@ -11294,23 +11382,23 @@
     <row r="3" spans="2:15" ht="14.25" thickBot="1"/>
     <row r="4" spans="2:15" ht="21.75" thickBot="1">
       <c r="B4" s="8"/>
-      <c r="C4" s="114" t="s">
+      <c r="C4" s="115" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="115"/>
-      <c r="E4" s="115"/>
-      <c r="F4" s="116"/>
-      <c r="G4" s="117" t="s">
+      <c r="D4" s="116"/>
+      <c r="E4" s="116"/>
+      <c r="F4" s="117"/>
+      <c r="G4" s="118" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="115"/>
-      <c r="I4" s="115"/>
-      <c r="J4" s="115"/>
-      <c r="K4" s="115"/>
-      <c r="L4" s="115"/>
-      <c r="M4" s="115"/>
-      <c r="N4" s="115"/>
-      <c r="O4" s="116"/>
+      <c r="H4" s="116"/>
+      <c r="I4" s="116"/>
+      <c r="J4" s="116"/>
+      <c r="K4" s="116"/>
+      <c r="L4" s="116"/>
+      <c r="M4" s="116"/>
+      <c r="N4" s="116"/>
+      <c r="O4" s="117"/>
     </row>
     <row r="5" spans="2:15" ht="18" thickBot="1">
       <c r="B5" s="9" t="s">

--- a/msx3gen/files/msx_gen3.xlsx
+++ b/msx3gen/files/msx_gen3.xlsx
@@ -12,19 +12,21 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="23310" windowHeight="6915"/>
   </bookViews>
   <sheets>
-    <sheet name="2024年9月29日" sheetId="7" r:id="rId1"/>
-    <sheet name="2024年9月28日 ver4" sheetId="6" r:id="rId2"/>
-    <sheet name="2024年9月28日 ver3" sheetId="5" r:id="rId3"/>
-    <sheet name="2024年9月28日 ver2" sheetId="4" r:id="rId4"/>
-    <sheet name="2024年9月28日 ver" sheetId="3" r:id="rId5"/>
-    <sheet name="2024年9月27日 ver" sheetId="2" r:id="rId6"/>
-    <sheet name="2024年9月25日 ver" sheetId="1" r:id="rId7"/>
+    <sheet name="2024年9月30日" sheetId="8" r:id="rId1"/>
+    <sheet name="2024年9月29日" sheetId="7" r:id="rId2"/>
+    <sheet name="2024年9月28日 ver4" sheetId="6" r:id="rId3"/>
+    <sheet name="2024年9月28日 ver3" sheetId="5" r:id="rId4"/>
+    <sheet name="2024年9月28日 ver2" sheetId="4" r:id="rId5"/>
+    <sheet name="2024年9月28日 ver" sheetId="3" r:id="rId6"/>
+    <sheet name="2024年9月27日 ver" sheetId="2" r:id="rId7"/>
+    <sheet name="2024年9月25日 ver" sheetId="1" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'2024年9月28日 ver2'!$A$1:$W$50</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'2024年9月28日 ver3'!$A$1:$W$51</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'2024年9月28日 ver4'!$A$1:$Z$48</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'2024年9月29日'!$A$1:$Y$55</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">'2024年9月28日 ver2'!$A$1:$W$50</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'2024年9月28日 ver3'!$A$1:$W$51</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'2024年9月28日 ver4'!$A$1:$Z$48</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'2024年9月29日'!$A$1:$Y$55</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'2024年9月30日'!$A$1:$Y$55</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -85,6 +87,50 @@
     <author>Takayuki Hara</author>
   </authors>
   <commentList>
+    <comment ref="E18" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="14"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">ペラペラアニメ再生がキラーアプリ
+→ ペラペラアニメ見たいだけの顧客に、半田付けして組み立て・・を強いるのか？
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E19" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="14"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">ペラペラアニメ再生がキラーアプリ
+→ ペラペラアニメ見たいだけの顧客に、半田付けして組み立て・・を強いるのか？
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Takayuki Hara</author>
+  </authors>
+  <commentList>
     <comment ref="F16" authorId="0" shapeId="0">
       <text>
         <r>
@@ -124,7 +170,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2643" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3080" uniqueCount="217">
   <si>
     <t>旧来のMSX</t>
     <rPh sb="0" eb="2">
@@ -1465,12 +1511,16 @@
     <t>https://x.com/nishikazuhiko/status/1840321349509931150</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>1chipMSX</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1576,6 +1626,14 @@
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="10">
@@ -2210,7 +2268,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2571,6 +2629,9 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -2611,7 +2672,64 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>1076325</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>3362</xdr:rowOff>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4097" name="Object 1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s4097"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>19050</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>76200</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>1076325</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>171450</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2921,7 +3039,1558 @@
   </sheetPr>
   <dimension ref="B3:X61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="2.875" customWidth="1"/>
+    <col min="2" max="2" width="20.125" customWidth="1"/>
+    <col min="3" max="3" width="34.125" customWidth="1"/>
+    <col min="4" max="4" width="23" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.875" customWidth="1"/>
+    <col min="6" max="6" width="25.125" customWidth="1"/>
+    <col min="7" max="7" width="12.75" customWidth="1"/>
+    <col min="8" max="10" width="16.75" customWidth="1"/>
+    <col min="11" max="14" width="16.625" customWidth="1"/>
+    <col min="15" max="15" width="21.625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.75" customWidth="1"/>
+    <col min="17" max="17" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="24" customWidth="1"/>
+    <col min="20" max="21" width="19.875" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="24.75" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="3.125" customWidth="1"/>
+    <col min="25" max="25" width="15.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:24">
+      <c r="G3" s="88" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="4" spans="2:24">
+      <c r="C4" s="29"/>
+      <c r="G4" s="89" t="s">
+        <v>169</v>
+      </c>
+      <c r="X4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="5" spans="2:24">
+      <c r="B5" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="G5" s="90" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="6" spans="2:24" ht="14.25" thickBot="1"/>
+    <row r="7" spans="2:24" ht="14.25" thickBot="1">
+      <c r="B7" s="74"/>
+      <c r="C7" s="91" t="s">
+        <v>201</v>
+      </c>
+      <c r="D7" s="76" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="74" t="s">
+        <v>182</v>
+      </c>
+      <c r="F7" s="75" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="75" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" s="75" t="s">
+        <v>35</v>
+      </c>
+      <c r="J7" s="75" t="s">
+        <v>38</v>
+      </c>
+      <c r="K7" s="75" t="s">
+        <v>41</v>
+      </c>
+      <c r="L7" s="75" t="s">
+        <v>43</v>
+      </c>
+      <c r="M7" s="75" t="s">
+        <v>48</v>
+      </c>
+      <c r="N7" s="75" t="s">
+        <v>49</v>
+      </c>
+      <c r="O7" s="75" t="s">
+        <v>53</v>
+      </c>
+      <c r="P7" s="75" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q7" s="75" t="s">
+        <v>55</v>
+      </c>
+      <c r="R7" s="75" t="s">
+        <v>68</v>
+      </c>
+      <c r="S7" s="75" t="s">
+        <v>78</v>
+      </c>
+      <c r="T7" s="75"/>
+      <c r="U7" s="75" t="s">
+        <v>112</v>
+      </c>
+      <c r="V7" s="75" t="s">
+        <v>120</v>
+      </c>
+      <c r="W7" s="75" t="s">
+        <v>127</v>
+      </c>
+      <c r="X7" s="76"/>
+    </row>
+    <row r="8" spans="2:24" ht="51.75">
+      <c r="B8" s="105" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="93" t="s">
+        <v>197</v>
+      </c>
+      <c r="D8" s="94" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="99" t="s">
+        <v>186</v>
+      </c>
+      <c r="F8" s="68" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="69" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" s="68" t="s">
+        <v>56</v>
+      </c>
+      <c r="I8" s="69" t="s">
+        <v>37</v>
+      </c>
+      <c r="J8" s="69" t="s">
+        <v>42</v>
+      </c>
+      <c r="K8" s="69" t="s">
+        <v>42</v>
+      </c>
+      <c r="L8" s="69" t="s">
+        <v>42</v>
+      </c>
+      <c r="M8" s="69" t="s">
+        <v>45</v>
+      </c>
+      <c r="N8" s="69" t="s">
+        <v>52</v>
+      </c>
+      <c r="O8" s="69" t="s">
+        <v>39</v>
+      </c>
+      <c r="P8" s="68" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q8" s="69" t="s">
+        <v>39</v>
+      </c>
+      <c r="R8" s="69" t="s">
+        <v>71</v>
+      </c>
+      <c r="S8" s="69" t="s">
+        <v>102</v>
+      </c>
+      <c r="T8" s="69"/>
+      <c r="U8" s="69" t="s">
+        <v>114</v>
+      </c>
+      <c r="V8" s="69" t="s">
+        <v>121</v>
+      </c>
+      <c r="W8" s="69" t="s">
+        <v>129</v>
+      </c>
+      <c r="X8" s="70"/>
+    </row>
+    <row r="9" spans="2:24" ht="40.5">
+      <c r="B9" s="106"/>
+      <c r="C9" s="92" t="s">
+        <v>204</v>
+      </c>
+      <c r="D9" s="84" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="96" t="s">
+        <v>183</v>
+      </c>
+      <c r="F9" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="P9" s="30" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="V9" s="86" t="s">
+        <v>126</v>
+      </c>
+      <c r="W9" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="X9" s="3"/>
+    </row>
+    <row r="10" spans="2:24" ht="40.5">
+      <c r="B10" s="106"/>
+      <c r="C10" s="92" t="s">
+        <v>204</v>
+      </c>
+      <c r="D10" s="84" t="s">
+        <v>104</v>
+      </c>
+      <c r="E10" s="96" t="s">
+        <v>187</v>
+      </c>
+      <c r="F10" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H10" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="P10" s="30" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="V10" s="86" t="s">
+        <v>141</v>
+      </c>
+      <c r="W10" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="X10" s="3"/>
+    </row>
+    <row r="11" spans="2:24" ht="40.5">
+      <c r="B11" s="106"/>
+      <c r="C11" s="92" t="s">
+        <v>204</v>
+      </c>
+      <c r="D11" s="84" t="s">
+        <v>105</v>
+      </c>
+      <c r="E11" s="97" t="s">
+        <v>184</v>
+      </c>
+      <c r="F11" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H11" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="P11" s="30" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="V11" s="86" t="s">
+        <v>142</v>
+      </c>
+      <c r="W11" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="2:24" ht="54">
+      <c r="B12" s="106"/>
+      <c r="C12" s="102" t="s">
+        <v>197</v>
+      </c>
+      <c r="D12" s="84" t="s">
+        <v>148</v>
+      </c>
+      <c r="E12" s="96" t="s">
+        <v>187</v>
+      </c>
+      <c r="F12" s="30" t="s">
+        <v>149</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="P12" s="30" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="V12" s="86" t="s">
+        <v>163</v>
+      </c>
+      <c r="W12" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="X12" s="3"/>
+    </row>
+    <row r="13" spans="2:24" ht="40.5">
+      <c r="B13" s="106"/>
+      <c r="C13" s="101" t="s">
+        <v>197</v>
+      </c>
+      <c r="D13" s="84" t="s">
+        <v>146</v>
+      </c>
+      <c r="E13" s="97" t="s">
+        <v>183</v>
+      </c>
+      <c r="F13" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H13" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="P13" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="S13" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="V13" s="86" t="s">
+        <v>163</v>
+      </c>
+      <c r="W13" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="X13" s="3"/>
+    </row>
+    <row r="14" spans="2:24" ht="40.5">
+      <c r="B14" s="106"/>
+      <c r="C14" s="102" t="s">
+        <v>197</v>
+      </c>
+      <c r="D14" s="84" t="s">
+        <v>147</v>
+      </c>
+      <c r="E14" s="97" t="s">
+        <v>183</v>
+      </c>
+      <c r="F14" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H14" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="P14" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="S14" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="V14" s="86" t="s">
+        <v>163</v>
+      </c>
+      <c r="W14" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="X14" s="3"/>
+    </row>
+    <row r="15" spans="2:24" ht="40.5">
+      <c r="B15" s="106"/>
+      <c r="C15" s="101" t="s">
+        <v>197</v>
+      </c>
+      <c r="D15" s="84" t="s">
+        <v>193</v>
+      </c>
+      <c r="E15" s="97" t="s">
+        <v>183</v>
+      </c>
+      <c r="F15" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="P15" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R15" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="S15" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="V15" s="86" t="s">
+        <v>163</v>
+      </c>
+      <c r="W15" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="X15" s="3"/>
+    </row>
+    <row r="16" spans="2:24" ht="40.5">
+      <c r="B16" s="106"/>
+      <c r="C16" s="92" t="s">
+        <v>69</v>
+      </c>
+      <c r="D16" s="84" t="s">
+        <v>206</v>
+      </c>
+      <c r="E16" s="96" t="s">
+        <v>187</v>
+      </c>
+      <c r="F16" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H16" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="P16" s="104" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R16" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="S16" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="V16" s="86" t="s">
+        <v>163</v>
+      </c>
+      <c r="W16" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="2:24" ht="51.75">
+      <c r="B17" s="106"/>
+      <c r="C17" s="92" t="s">
+        <v>198</v>
+      </c>
+      <c r="D17" s="84" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="96" t="s">
+        <v>188</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="P17" s="86" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="R17" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="S17" s="30" t="s">
+        <v>209</v>
+      </c>
+      <c r="T17" s="30" t="s">
+        <v>211</v>
+      </c>
+      <c r="U17" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="V17" s="86" t="s">
+        <v>144</v>
+      </c>
+      <c r="W17" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="X17" s="3"/>
+    </row>
+    <row r="18" spans="2:24" ht="51.75">
+      <c r="B18" s="106"/>
+      <c r="C18" s="92" t="s">
+        <v>198</v>
+      </c>
+      <c r="D18" s="84" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="96" t="s">
+        <v>189</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="P18" s="86" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="R18" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="S18" s="30" t="s">
+        <v>209</v>
+      </c>
+      <c r="T18" s="30" t="s">
+        <v>211</v>
+      </c>
+      <c r="U18" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="V18" s="86" t="s">
+        <v>143</v>
+      </c>
+      <c r="W18" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="X18" s="3"/>
+    </row>
+    <row r="19" spans="2:24" ht="51.75">
+      <c r="B19" s="106"/>
+      <c r="C19" s="92" t="s">
+        <v>204</v>
+      </c>
+      <c r="D19" s="84" t="s">
+        <v>199</v>
+      </c>
+      <c r="E19" s="96" t="s">
+        <v>189</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="P19" s="86" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q19" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="R19" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="S19" s="30" t="s">
+        <v>209</v>
+      </c>
+      <c r="T19" s="30" t="s">
+        <v>211</v>
+      </c>
+      <c r="U19" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="V19" s="86" t="s">
+        <v>143</v>
+      </c>
+      <c r="W19" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="2:24" ht="54">
+      <c r="B20" s="106"/>
+      <c r="C20" s="92" t="s">
+        <v>198</v>
+      </c>
+      <c r="D20" s="84" t="s">
+        <v>58</v>
+      </c>
+      <c r="E20" s="96" t="s">
+        <v>190</v>
+      </c>
+      <c r="F20" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="G20" s="86" t="s">
+        <v>62</v>
+      </c>
+      <c r="H20" s="30" t="s">
+        <v>152</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="J20" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="K20" s="86" t="s">
+        <v>46</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="P20" s="86" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R20" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="S20" s="30" t="s">
+        <v>209</v>
+      </c>
+      <c r="T20" s="30" t="s">
+        <v>211</v>
+      </c>
+      <c r="U20" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="V20" s="86" t="s">
+        <v>145</v>
+      </c>
+      <c r="W20" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="X20" s="3"/>
+    </row>
+    <row r="21" spans="2:24" ht="54">
+      <c r="B21" s="106"/>
+      <c r="C21" s="92" t="s">
+        <v>198</v>
+      </c>
+      <c r="D21" s="84" t="s">
+        <v>59</v>
+      </c>
+      <c r="E21" s="96" t="s">
+        <v>190</v>
+      </c>
+      <c r="F21" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="G21" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="H21" s="30" t="s">
+        <v>153</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="J21" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="K21" s="86" t="s">
+        <v>46</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="P21" s="86" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q21" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R21" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="S21" s="30" t="s">
+        <v>209</v>
+      </c>
+      <c r="T21" s="30" t="s">
+        <v>211</v>
+      </c>
+      <c r="U21" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="V21" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="W21" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="X21" s="3"/>
+    </row>
+    <row r="22" spans="2:24" ht="94.5">
+      <c r="B22" s="106"/>
+      <c r="C22" s="92" t="s">
+        <v>198</v>
+      </c>
+      <c r="D22" s="84" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" s="96" t="s">
+        <v>191</v>
+      </c>
+      <c r="F22" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="G22" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="H22" s="30" t="s">
+        <v>154</v>
+      </c>
+      <c r="I22" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="J22" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="K22" s="86" t="s">
+        <v>46</v>
+      </c>
+      <c r="L22" s="86" t="s">
+        <v>47</v>
+      </c>
+      <c r="M22" s="86" t="s">
+        <v>47</v>
+      </c>
+      <c r="N22" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="P22" s="86" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q22" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="R22" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="S22" s="30" t="s">
+        <v>209</v>
+      </c>
+      <c r="T22" s="30" t="s">
+        <v>210</v>
+      </c>
+      <c r="U22" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="V22" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="W22" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="X22" s="3"/>
+    </row>
+    <row r="23" spans="2:24" ht="67.5">
+      <c r="B23" s="106"/>
+      <c r="C23" s="120" t="s">
+        <v>216</v>
+      </c>
+      <c r="D23" s="84" t="s">
+        <v>171</v>
+      </c>
+      <c r="E23" s="97" t="s">
+        <v>184</v>
+      </c>
+      <c r="F23" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="G23" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="H23" s="30" t="s">
+        <v>154</v>
+      </c>
+      <c r="I23" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="J23" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="K23" s="86" t="s">
+        <v>46</v>
+      </c>
+      <c r="L23" s="86" t="s">
+        <v>47</v>
+      </c>
+      <c r="M23" s="86" t="s">
+        <v>47</v>
+      </c>
+      <c r="N23" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="P23" s="86" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q23" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="R23" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="S23" s="30" t="s">
+        <v>209</v>
+      </c>
+      <c r="T23" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="U23" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="V23" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="W23" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="X23" s="3"/>
+    </row>
+    <row r="24" spans="2:24" ht="67.5">
+      <c r="B24" s="106"/>
+      <c r="C24" s="92" t="s">
+        <v>198</v>
+      </c>
+      <c r="D24" s="84" t="s">
+        <v>94</v>
+      </c>
+      <c r="E24" s="100" t="s">
+        <v>192</v>
+      </c>
+      <c r="F24" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="G24" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="H24" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="I24" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="J24" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="K24" s="86" t="s">
+        <v>46</v>
+      </c>
+      <c r="L24" s="86" t="s">
+        <v>47</v>
+      </c>
+      <c r="M24" s="86" t="s">
+        <v>47</v>
+      </c>
+      <c r="N24" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="O24" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="P24" s="86" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q24" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="R24" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="S24" s="30" t="s">
+        <v>209</v>
+      </c>
+      <c r="T24" s="1"/>
+      <c r="U24" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="V24" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="W24" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="X24" s="3"/>
+    </row>
+    <row r="25" spans="2:24" ht="67.5">
+      <c r="B25" s="107"/>
+      <c r="C25" s="92" t="s">
+        <v>198</v>
+      </c>
+      <c r="D25" s="84" t="s">
+        <v>95</v>
+      </c>
+      <c r="E25" s="100" t="s">
+        <v>192</v>
+      </c>
+      <c r="F25" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="G25" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="H25" s="30" t="s">
+        <v>156</v>
+      </c>
+      <c r="I25" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="J25" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="K25" s="86" t="s">
+        <v>46</v>
+      </c>
+      <c r="L25" s="86" t="s">
+        <v>47</v>
+      </c>
+      <c r="M25" s="86" t="s">
+        <v>47</v>
+      </c>
+      <c r="N25" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="P25" s="86" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q25" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="R25" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="S25" s="30" t="s">
+        <v>209</v>
+      </c>
+      <c r="T25" s="1"/>
+      <c r="U25" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="V25" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="W25" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="X25" s="3"/>
+    </row>
+    <row r="26" spans="2:24" ht="41.25" thickBot="1">
+      <c r="B26" s="103" t="s">
+        <v>200</v>
+      </c>
+      <c r="C26" s="95" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" s="85" t="s">
+        <v>13</v>
+      </c>
+      <c r="E26" s="98" t="s">
+        <v>185</v>
+      </c>
+      <c r="F26" s="71" t="s">
+        <v>21</v>
+      </c>
+      <c r="G26" s="87" t="s">
+        <v>33</v>
+      </c>
+      <c r="H26" s="87" t="s">
+        <v>85</v>
+      </c>
+      <c r="I26" s="87" t="s">
+        <v>33</v>
+      </c>
+      <c r="J26" s="87" t="s">
+        <v>33</v>
+      </c>
+      <c r="K26" s="87" t="s">
+        <v>46</v>
+      </c>
+      <c r="L26" s="87" t="s">
+        <v>47</v>
+      </c>
+      <c r="M26" s="87" t="s">
+        <v>47</v>
+      </c>
+      <c r="N26" s="87" t="s">
+        <v>33</v>
+      </c>
+      <c r="O26" s="87" t="s">
+        <v>33</v>
+      </c>
+      <c r="P26" s="86" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q26" s="87" t="s">
+        <v>33</v>
+      </c>
+      <c r="R26" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="S26" s="71" t="s">
+        <v>209</v>
+      </c>
+      <c r="T26" s="6"/>
+      <c r="U26" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="V26" s="87" t="s">
+        <v>33</v>
+      </c>
+      <c r="W26" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="X26" s="7"/>
+    </row>
+    <row r="30" spans="2:24">
+      <c r="B30" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="31" spans="2:24">
+      <c r="B31" s="60" t="s">
+        <v>139</v>
+      </c>
+      <c r="C31" s="60"/>
+    </row>
+    <row r="33" spans="2:3">
+      <c r="B33" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3">
+      <c r="B34" s="60" t="s">
+        <v>138</v>
+      </c>
+      <c r="C34" s="60"/>
+    </row>
+    <row r="36" spans="2:3">
+      <c r="B36" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3">
+      <c r="B37" s="60" t="s">
+        <v>137</v>
+      </c>
+      <c r="C37" s="60"/>
+    </row>
+    <row r="39" spans="2:3">
+      <c r="B39" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3">
+      <c r="B40" s="60" t="s">
+        <v>136</v>
+      </c>
+      <c r="C40" s="60"/>
+    </row>
+    <row r="42" spans="2:3">
+      <c r="B42" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3">
+      <c r="B43" s="61" t="s">
+        <v>131</v>
+      </c>
+      <c r="C43" s="61"/>
+    </row>
+    <row r="44" spans="2:3">
+      <c r="B44" s="60" t="s">
+        <v>135</v>
+      </c>
+      <c r="C44" s="60"/>
+    </row>
+    <row r="45" spans="2:3">
+      <c r="B45" s="60" t="s">
+        <v>140</v>
+      </c>
+      <c r="C45" s="60"/>
+    </row>
+    <row r="47" spans="2:3">
+      <c r="B47" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3">
+      <c r="B48" s="60" t="s">
+        <v>158</v>
+      </c>
+      <c r="C48" s="60"/>
+    </row>
+    <row r="50" spans="2:2">
+      <c r="B50" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2">
+      <c r="B51" s="60" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2">
+      <c r="B53" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2">
+      <c r="B54" s="60" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2">
+      <c r="B56" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2">
+      <c r="B57" s="60" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2">
+      <c r="B59" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2">
+      <c r="B60" s="60" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2">
+      <c r="B61" s="60" t="s">
+        <v>215</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B8:B25"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="B43" r:id="rId1"/>
+    <hyperlink ref="B44" r:id="rId2"/>
+    <hyperlink ref="B40" r:id="rId3"/>
+    <hyperlink ref="B37" r:id="rId4"/>
+    <hyperlink ref="B34" r:id="rId5"/>
+    <hyperlink ref="B31" r:id="rId6"/>
+    <hyperlink ref="B45" r:id="rId7"/>
+    <hyperlink ref="B48" r:id="rId8"/>
+    <hyperlink ref="B51" r:id="rId9"/>
+    <hyperlink ref="B54" r:id="rId10"/>
+    <hyperlink ref="B57" r:id="rId11"/>
+    <hyperlink ref="B60" r:id="rId12"/>
+    <hyperlink ref="B61" r:id="rId13"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="8" scale="42" orientation="landscape" horizontalDpi="4294967293" r:id="rId14"/>
+  <drawing r:id="rId15"/>
+  <legacyDrawing r:id="rId16"/>
+  <oleObjects>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Visio.Drawing.15" shapeId="4097" r:id="rId17">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId18">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>1076325</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Visio.Drawing.15" shapeId="4097" r:id="rId17"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </oleObjects>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B3:X61"/>
+  <sheetViews>
+    <sheetView topLeftCell="B20" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
@@ -4465,7 +6134,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -6000,7 +7669,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -7517,7 +9186,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -8973,7 +10642,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:W42"/>
   <sheetViews>
@@ -10329,7 +11998,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:S35"/>
   <sheetViews>
@@ -11347,7 +13016,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:O35"/>
   <sheetViews>

--- a/msx3gen/files/msx_gen3.xlsx
+++ b/msx3gen/files/msx_gen3.xlsx
@@ -26,7 +26,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="3">'2024年9月28日 ver3'!$A$1:$W$51</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'2024年9月28日 ver4'!$A$1:$Z$48</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'2024年9月29日'!$A$1:$Y$55</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'2024年9月30日'!$A$1:$Y$55</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'2024年9月30日'!$A$1:$Y$56</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -170,7 +170,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3080" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3101" uniqueCount="220">
   <si>
     <t>旧来のMSX</t>
     <rPh sb="0" eb="2">
@@ -1513,6 +1513,37 @@
   </si>
   <si>
     <t>1chipMSX</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MSX3SDK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ソフトウェア開発者</t>
+    <rPh sb="6" eb="9">
+      <t>カイハツシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>基板剥き出し。
+一番最初の MSX3 ?</t>
+    <rPh sb="0" eb="2">
+      <t>キバン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ム</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>イチバン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>サイショ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2584,6 +2615,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2627,9 +2661,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3037,10 +3068,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B3:X61"/>
+  <dimension ref="B3:X62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="L16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Z24" sqref="Z24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3154,7 +3185,7 @@
       <c r="X7" s="76"/>
     </row>
     <row r="8" spans="2:24" ht="51.75">
-      <c r="B8" s="105" t="s">
+      <c r="B8" s="106" t="s">
         <v>14</v>
       </c>
       <c r="C8" s="93" t="s">
@@ -3221,7 +3252,7 @@
       <c r="X8" s="70"/>
     </row>
     <row r="9" spans="2:24" ht="40.5">
-      <c r="B9" s="106"/>
+      <c r="B9" s="107"/>
       <c r="C9" s="92" t="s">
         <v>204</v>
       </c>
@@ -3286,7 +3317,7 @@
       <c r="X9" s="3"/>
     </row>
     <row r="10" spans="2:24" ht="40.5">
-      <c r="B10" s="106"/>
+      <c r="B10" s="107"/>
       <c r="C10" s="92" t="s">
         <v>204</v>
       </c>
@@ -3351,7 +3382,7 @@
       <c r="X10" s="3"/>
     </row>
     <row r="11" spans="2:24" ht="40.5">
-      <c r="B11" s="106"/>
+      <c r="B11" s="107"/>
       <c r="C11" s="92" t="s">
         <v>204</v>
       </c>
@@ -3416,7 +3447,7 @@
       <c r="X11" s="3"/>
     </row>
     <row r="12" spans="2:24" ht="54">
-      <c r="B12" s="106"/>
+      <c r="B12" s="107"/>
       <c r="C12" s="102" t="s">
         <v>197</v>
       </c>
@@ -3481,7 +3512,7 @@
       <c r="X12" s="3"/>
     </row>
     <row r="13" spans="2:24" ht="40.5">
-      <c r="B13" s="106"/>
+      <c r="B13" s="107"/>
       <c r="C13" s="101" t="s">
         <v>197</v>
       </c>
@@ -3546,7 +3577,7 @@
       <c r="X13" s="3"/>
     </row>
     <row r="14" spans="2:24" ht="40.5">
-      <c r="B14" s="106"/>
+      <c r="B14" s="107"/>
       <c r="C14" s="102" t="s">
         <v>197</v>
       </c>
@@ -3611,7 +3642,7 @@
       <c r="X14" s="3"/>
     </row>
     <row r="15" spans="2:24" ht="40.5">
-      <c r="B15" s="106"/>
+      <c r="B15" s="107"/>
       <c r="C15" s="101" t="s">
         <v>197</v>
       </c>
@@ -3676,7 +3707,7 @@
       <c r="X15" s="3"/>
     </row>
     <row r="16" spans="2:24" ht="40.5">
-      <c r="B16" s="106"/>
+      <c r="B16" s="107"/>
       <c r="C16" s="92" t="s">
         <v>69</v>
       </c>
@@ -3741,7 +3772,7 @@
       <c r="X16" s="3"/>
     </row>
     <row r="17" spans="2:24" ht="51.75">
-      <c r="B17" s="106"/>
+      <c r="B17" s="107"/>
       <c r="C17" s="92" t="s">
         <v>198</v>
       </c>
@@ -3808,7 +3839,7 @@
       <c r="X17" s="3"/>
     </row>
     <row r="18" spans="2:24" ht="51.75">
-      <c r="B18" s="106"/>
+      <c r="B18" s="107"/>
       <c r="C18" s="92" t="s">
         <v>198</v>
       </c>
@@ -3875,7 +3906,7 @@
       <c r="X18" s="3"/>
     </row>
     <row r="19" spans="2:24" ht="51.75">
-      <c r="B19" s="106"/>
+      <c r="B19" s="107"/>
       <c r="C19" s="92" t="s">
         <v>204</v>
       </c>
@@ -3942,7 +3973,7 @@
       <c r="X19" s="3"/>
     </row>
     <row r="20" spans="2:24" ht="54">
-      <c r="B20" s="106"/>
+      <c r="B20" s="107"/>
       <c r="C20" s="92" t="s">
         <v>198</v>
       </c>
@@ -4009,7 +4040,7 @@
       <c r="X20" s="3"/>
     </row>
     <row r="21" spans="2:24" ht="54">
-      <c r="B21" s="106"/>
+      <c r="B21" s="107"/>
       <c r="C21" s="92" t="s">
         <v>198</v>
       </c>
@@ -4076,7 +4107,7 @@
       <c r="X21" s="3"/>
     </row>
     <row r="22" spans="2:24" ht="94.5">
-      <c r="B22" s="106"/>
+      <c r="B22" s="107"/>
       <c r="C22" s="92" t="s">
         <v>198</v>
       </c>
@@ -4143,8 +4174,8 @@
       <c r="X22" s="3"/>
     </row>
     <row r="23" spans="2:24" ht="67.5">
-      <c r="B23" s="106"/>
-      <c r="C23" s="120" t="s">
+      <c r="B23" s="107"/>
+      <c r="C23" s="105" t="s">
         <v>216</v>
       </c>
       <c r="D23" s="84" t="s">
@@ -4210,24 +4241,24 @@
       <c r="X23" s="3"/>
     </row>
     <row r="24" spans="2:24" ht="67.5">
-      <c r="B24" s="106"/>
-      <c r="C24" s="92" t="s">
-        <v>198</v>
+      <c r="B24" s="107"/>
+      <c r="C24" s="105" t="s">
+        <v>216</v>
       </c>
       <c r="D24" s="84" t="s">
-        <v>94</v>
-      </c>
-      <c r="E24" s="100" t="s">
-        <v>192</v>
+        <v>217</v>
+      </c>
+      <c r="E24" s="97" t="s">
+        <v>218</v>
       </c>
       <c r="F24" s="30" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="G24" s="86" t="s">
         <v>33</v>
       </c>
       <c r="H24" s="30" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I24" s="86" t="s">
         <v>33</v>
@@ -4257,20 +4288,22 @@
         <v>33</v>
       </c>
       <c r="R24" s="30" t="s">
-        <v>84</v>
+        <v>111</v>
       </c>
       <c r="S24" s="30" t="s">
         <v>209</v>
       </c>
-      <c r="T24" s="1"/>
+      <c r="T24" s="30" t="s">
+        <v>219</v>
+      </c>
       <c r="U24" s="1" t="s">
         <v>116</v>
       </c>
       <c r="V24" s="86" t="s">
         <v>33</v>
       </c>
-      <c r="W24" s="1" t="s">
-        <v>128</v>
+      <c r="W24" s="86" t="s">
+        <v>33</v>
       </c>
       <c r="X24" s="3"/>
     </row>
@@ -4280,7 +4313,7 @@
         <v>198</v>
       </c>
       <c r="D25" s="84" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E25" s="100" t="s">
         <v>192</v>
@@ -4292,7 +4325,7 @@
         <v>33</v>
       </c>
       <c r="H25" s="30" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I25" s="86" t="s">
         <v>33</v>
@@ -4339,215 +4372,280 @@
       </c>
       <c r="X25" s="3"/>
     </row>
-    <row r="26" spans="2:24" ht="41.25" thickBot="1">
-      <c r="B26" s="103" t="s">
+    <row r="26" spans="2:24" ht="67.5">
+      <c r="B26" s="108"/>
+      <c r="C26" s="92" t="s">
+        <v>198</v>
+      </c>
+      <c r="D26" s="84" t="s">
+        <v>95</v>
+      </c>
+      <c r="E26" s="100" t="s">
+        <v>192</v>
+      </c>
+      <c r="F26" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="G26" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="H26" s="30" t="s">
+        <v>156</v>
+      </c>
+      <c r="I26" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="J26" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="K26" s="86" t="s">
+        <v>46</v>
+      </c>
+      <c r="L26" s="86" t="s">
+        <v>47</v>
+      </c>
+      <c r="M26" s="86" t="s">
+        <v>47</v>
+      </c>
+      <c r="N26" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="O26" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="P26" s="86" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q26" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="R26" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="S26" s="30" t="s">
+        <v>209</v>
+      </c>
+      <c r="T26" s="1"/>
+      <c r="U26" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="V26" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="W26" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="X26" s="3"/>
+    </row>
+    <row r="27" spans="2:24" ht="41.25" thickBot="1">
+      <c r="B27" s="103" t="s">
         <v>200</v>
       </c>
-      <c r="C26" s="95" t="s">
+      <c r="C27" s="95" t="s">
         <v>13</v>
       </c>
-      <c r="D26" s="85" t="s">
+      <c r="D27" s="85" t="s">
         <v>13</v>
       </c>
-      <c r="E26" s="98" t="s">
+      <c r="E27" s="98" t="s">
         <v>185</v>
       </c>
-      <c r="F26" s="71" t="s">
+      <c r="F27" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="G26" s="87" t="s">
-        <v>33</v>
-      </c>
-      <c r="H26" s="87" t="s">
+      <c r="G27" s="87" t="s">
+        <v>33</v>
+      </c>
+      <c r="H27" s="87" t="s">
         <v>85</v>
       </c>
-      <c r="I26" s="87" t="s">
-        <v>33</v>
-      </c>
-      <c r="J26" s="87" t="s">
-        <v>33</v>
-      </c>
-      <c r="K26" s="87" t="s">
+      <c r="I27" s="87" t="s">
+        <v>33</v>
+      </c>
+      <c r="J27" s="87" t="s">
+        <v>33</v>
+      </c>
+      <c r="K27" s="87" t="s">
         <v>46</v>
       </c>
-      <c r="L26" s="87" t="s">
+      <c r="L27" s="87" t="s">
         <v>47</v>
       </c>
-      <c r="M26" s="87" t="s">
+      <c r="M27" s="87" t="s">
         <v>47</v>
       </c>
-      <c r="N26" s="87" t="s">
-        <v>33</v>
-      </c>
-      <c r="O26" s="87" t="s">
-        <v>33</v>
-      </c>
-      <c r="P26" s="86" t="s">
+      <c r="N27" s="87" t="s">
+        <v>33</v>
+      </c>
+      <c r="O27" s="87" t="s">
+        <v>33</v>
+      </c>
+      <c r="P27" s="86" t="s">
         <v>181</v>
       </c>
-      <c r="Q26" s="87" t="s">
-        <v>33</v>
-      </c>
-      <c r="R26" s="6" t="s">
+      <c r="Q27" s="87" t="s">
+        <v>33</v>
+      </c>
+      <c r="R27" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="S26" s="71" t="s">
+      <c r="S27" s="71" t="s">
         <v>209</v>
       </c>
-      <c r="T26" s="6"/>
-      <c r="U26" s="6" t="s">
+      <c r="T27" s="6"/>
+      <c r="U27" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="V26" s="87" t="s">
-        <v>33</v>
-      </c>
-      <c r="W26" s="6" t="s">
+      <c r="V27" s="87" t="s">
+        <v>33</v>
+      </c>
+      <c r="W27" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="X26" s="7"/>
-    </row>
-    <row r="30" spans="2:24">
-      <c r="B30" t="s">
+      <c r="X27" s="7"/>
+    </row>
+    <row r="31" spans="2:24">
+      <c r="B31" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="31" spans="2:24">
-      <c r="B31" s="60" t="s">
+    <row r="32" spans="2:24">
+      <c r="B32" s="60" t="s">
         <v>139</v>
       </c>
-      <c r="C31" s="60"/>
-    </row>
-    <row r="33" spans="2:3">
-      <c r="B33" t="s">
+      <c r="C32" s="60"/>
+    </row>
+    <row r="34" spans="2:3">
+      <c r="B34" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="34" spans="2:3">
-      <c r="B34" s="60" t="s">
+    <row r="35" spans="2:3">
+      <c r="B35" s="60" t="s">
         <v>138</v>
       </c>
-      <c r="C34" s="60"/>
-    </row>
-    <row r="36" spans="2:3">
-      <c r="B36" t="s">
+      <c r="C35" s="60"/>
+    </row>
+    <row r="37" spans="2:3">
+      <c r="B37" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="37" spans="2:3">
-      <c r="B37" s="60" t="s">
+    <row r="38" spans="2:3">
+      <c r="B38" s="60" t="s">
         <v>137</v>
       </c>
-      <c r="C37" s="60"/>
-    </row>
-    <row r="39" spans="2:3">
-      <c r="B39" t="s">
+      <c r="C38" s="60"/>
+    </row>
+    <row r="40" spans="2:3">
+      <c r="B40" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="40" spans="2:3">
-      <c r="B40" s="60" t="s">
+    <row r="41" spans="2:3">
+      <c r="B41" s="60" t="s">
         <v>136</v>
       </c>
-      <c r="C40" s="60"/>
-    </row>
-    <row r="42" spans="2:3">
-      <c r="B42" t="s">
+      <c r="C41" s="60"/>
+    </row>
+    <row r="43" spans="2:3">
+      <c r="B43" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="43" spans="2:3">
-      <c r="B43" s="61" t="s">
+    <row r="44" spans="2:3">
+      <c r="B44" s="61" t="s">
         <v>131</v>
       </c>
-      <c r="C43" s="61"/>
-    </row>
-    <row r="44" spans="2:3">
-      <c r="B44" s="60" t="s">
-        <v>135</v>
-      </c>
-      <c r="C44" s="60"/>
+      <c r="C44" s="61"/>
     </row>
     <row r="45" spans="2:3">
       <c r="B45" s="60" t="s">
+        <v>135</v>
+      </c>
+      <c r="C45" s="60"/>
+    </row>
+    <row r="46" spans="2:3">
+      <c r="B46" s="60" t="s">
         <v>140</v>
       </c>
-      <c r="C45" s="60"/>
-    </row>
-    <row r="47" spans="2:3">
-      <c r="B47" t="s">
+      <c r="C46" s="60"/>
+    </row>
+    <row r="48" spans="2:3">
+      <c r="B48" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="48" spans="2:3">
-      <c r="B48" s="60" t="s">
+    <row r="49" spans="2:3">
+      <c r="B49" s="60" t="s">
         <v>158</v>
       </c>
-      <c r="C48" s="60"/>
-    </row>
-    <row r="50" spans="2:2">
-      <c r="B50" t="s">
+      <c r="C49" s="60"/>
+    </row>
+    <row r="51" spans="2:3">
+      <c r="B51" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="51" spans="2:2">
-      <c r="B51" s="60" t="s">
+    <row r="52" spans="2:3">
+      <c r="B52" s="60" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="53" spans="2:2">
-      <c r="B53" t="s">
+    <row r="54" spans="2:3">
+      <c r="B54" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="54" spans="2:2">
-      <c r="B54" s="60" t="s">
+    <row r="55" spans="2:3">
+      <c r="B55" s="60" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="56" spans="2:2">
-      <c r="B56" t="s">
+    <row r="57" spans="2:3">
+      <c r="B57" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="57" spans="2:2">
-      <c r="B57" s="60" t="s">
+    <row r="58" spans="2:3">
+      <c r="B58" s="60" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="59" spans="2:2">
-      <c r="B59" t="s">
+    <row r="60" spans="2:3">
+      <c r="B60" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="60" spans="2:2">
-      <c r="B60" s="60" t="s">
+    <row r="61" spans="2:3">
+      <c r="B61" s="60" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="61" spans="2:2">
-      <c r="B61" s="60" t="s">
+    <row r="62" spans="2:3">
+      <c r="B62" s="60" t="s">
         <v>215</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B8:B25"/>
+    <mergeCell ref="B8:B26"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="B43" r:id="rId1"/>
-    <hyperlink ref="B44" r:id="rId2"/>
-    <hyperlink ref="B40" r:id="rId3"/>
-    <hyperlink ref="B37" r:id="rId4"/>
-    <hyperlink ref="B34" r:id="rId5"/>
-    <hyperlink ref="B31" r:id="rId6"/>
-    <hyperlink ref="B45" r:id="rId7"/>
-    <hyperlink ref="B48" r:id="rId8"/>
-    <hyperlink ref="B51" r:id="rId9"/>
-    <hyperlink ref="B54" r:id="rId10"/>
-    <hyperlink ref="B57" r:id="rId11"/>
-    <hyperlink ref="B60" r:id="rId12"/>
-    <hyperlink ref="B61" r:id="rId13"/>
+    <hyperlink ref="B44" r:id="rId1"/>
+    <hyperlink ref="B45" r:id="rId2"/>
+    <hyperlink ref="B41" r:id="rId3"/>
+    <hyperlink ref="B38" r:id="rId4"/>
+    <hyperlink ref="B35" r:id="rId5"/>
+    <hyperlink ref="B32" r:id="rId6"/>
+    <hyperlink ref="B46" r:id="rId7"/>
+    <hyperlink ref="B49" r:id="rId8"/>
+    <hyperlink ref="B52" r:id="rId9"/>
+    <hyperlink ref="B55" r:id="rId10"/>
+    <hyperlink ref="B58" r:id="rId11"/>
+    <hyperlink ref="B61" r:id="rId12"/>
+    <hyperlink ref="B62" r:id="rId13"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" scale="42" orientation="landscape" horizontalDpi="4294967293" r:id="rId14"/>
@@ -4705,7 +4803,7 @@
       <c r="X7" s="76"/>
     </row>
     <row r="8" spans="2:24" ht="51.75">
-      <c r="B8" s="105" t="s">
+      <c r="B8" s="106" t="s">
         <v>14</v>
       </c>
       <c r="C8" s="93" t="s">
@@ -4772,7 +4870,7 @@
       <c r="X8" s="70"/>
     </row>
     <row r="9" spans="2:24" ht="40.5">
-      <c r="B9" s="106"/>
+      <c r="B9" s="107"/>
       <c r="C9" s="92" t="s">
         <v>204</v>
       </c>
@@ -4837,7 +4935,7 @@
       <c r="X9" s="3"/>
     </row>
     <row r="10" spans="2:24" ht="40.5">
-      <c r="B10" s="106"/>
+      <c r="B10" s="107"/>
       <c r="C10" s="92" t="s">
         <v>204</v>
       </c>
@@ -4902,7 +5000,7 @@
       <c r="X10" s="3"/>
     </row>
     <row r="11" spans="2:24" ht="40.5">
-      <c r="B11" s="106"/>
+      <c r="B11" s="107"/>
       <c r="C11" s="92" t="s">
         <v>204</v>
       </c>
@@ -4967,7 +5065,7 @@
       <c r="X11" s="3"/>
     </row>
     <row r="12" spans="2:24" ht="54">
-      <c r="B12" s="106"/>
+      <c r="B12" s="107"/>
       <c r="C12" s="102" t="s">
         <v>197</v>
       </c>
@@ -5032,7 +5130,7 @@
       <c r="X12" s="3"/>
     </row>
     <row r="13" spans="2:24" ht="40.5">
-      <c r="B13" s="106"/>
+      <c r="B13" s="107"/>
       <c r="C13" s="101" t="s">
         <v>197</v>
       </c>
@@ -5097,7 +5195,7 @@
       <c r="X13" s="3"/>
     </row>
     <row r="14" spans="2:24" ht="40.5">
-      <c r="B14" s="106"/>
+      <c r="B14" s="107"/>
       <c r="C14" s="102" t="s">
         <v>197</v>
       </c>
@@ -5162,7 +5260,7 @@
       <c r="X14" s="3"/>
     </row>
     <row r="15" spans="2:24" ht="40.5">
-      <c r="B15" s="106"/>
+      <c r="B15" s="107"/>
       <c r="C15" s="101" t="s">
         <v>197</v>
       </c>
@@ -5227,7 +5325,7 @@
       <c r="X15" s="3"/>
     </row>
     <row r="16" spans="2:24" ht="40.5">
-      <c r="B16" s="106"/>
+      <c r="B16" s="107"/>
       <c r="C16" s="92" t="s">
         <v>69</v>
       </c>
@@ -5292,7 +5390,7 @@
       <c r="X16" s="3"/>
     </row>
     <row r="17" spans="2:24" ht="51.75">
-      <c r="B17" s="106"/>
+      <c r="B17" s="107"/>
       <c r="C17" s="92" t="s">
         <v>198</v>
       </c>
@@ -5359,7 +5457,7 @@
       <c r="X17" s="3"/>
     </row>
     <row r="18" spans="2:24" ht="51.75">
-      <c r="B18" s="106"/>
+      <c r="B18" s="107"/>
       <c r="C18" s="92" t="s">
         <v>198</v>
       </c>
@@ -5426,7 +5524,7 @@
       <c r="X18" s="3"/>
     </row>
     <row r="19" spans="2:24" ht="51.75">
-      <c r="B19" s="106"/>
+      <c r="B19" s="107"/>
       <c r="C19" s="92" t="s">
         <v>204</v>
       </c>
@@ -5493,7 +5591,7 @@
       <c r="X19" s="3"/>
     </row>
     <row r="20" spans="2:24" ht="54">
-      <c r="B20" s="106"/>
+      <c r="B20" s="107"/>
       <c r="C20" s="92" t="s">
         <v>198</v>
       </c>
@@ -5560,7 +5658,7 @@
       <c r="X20" s="3"/>
     </row>
     <row r="21" spans="2:24" ht="54">
-      <c r="B21" s="106"/>
+      <c r="B21" s="107"/>
       <c r="C21" s="92" t="s">
         <v>198</v>
       </c>
@@ -5627,7 +5725,7 @@
       <c r="X21" s="3"/>
     </row>
     <row r="22" spans="2:24" ht="94.5">
-      <c r="B22" s="106"/>
+      <c r="B22" s="107"/>
       <c r="C22" s="92" t="s">
         <v>198</v>
       </c>
@@ -5694,7 +5792,7 @@
       <c r="X22" s="3"/>
     </row>
     <row r="23" spans="2:24" ht="67.5">
-      <c r="B23" s="106"/>
+      <c r="B23" s="107"/>
       <c r="C23" s="92" t="s">
         <v>198</v>
       </c>
@@ -5761,7 +5859,7 @@
       <c r="X23" s="3"/>
     </row>
     <row r="24" spans="2:24" ht="67.5">
-      <c r="B24" s="106"/>
+      <c r="B24" s="107"/>
       <c r="C24" s="92" t="s">
         <v>198</v>
       </c>
@@ -5826,7 +5924,7 @@
       <c r="X24" s="3"/>
     </row>
     <row r="25" spans="2:24" ht="67.5">
-      <c r="B25" s="107"/>
+      <c r="B25" s="108"/>
       <c r="C25" s="92" t="s">
         <v>198</v>
       </c>
@@ -6257,7 +6355,7 @@
       <c r="Y5" s="76"/>
     </row>
     <row r="6" spans="2:25" ht="51.75">
-      <c r="B6" s="108" t="s">
+      <c r="B6" s="109" t="s">
         <v>14</v>
       </c>
       <c r="C6" s="93" t="s">
@@ -6327,7 +6425,7 @@
       <c r="Y6" s="70"/>
     </row>
     <row r="7" spans="2:25" ht="40.5">
-      <c r="B7" s="109"/>
+      <c r="B7" s="110"/>
       <c r="C7" s="92" t="s">
         <v>173</v>
       </c>
@@ -6395,7 +6493,7 @@
       <c r="Y7" s="3"/>
     </row>
     <row r="8" spans="2:25" ht="40.5">
-      <c r="B8" s="109"/>
+      <c r="B8" s="110"/>
       <c r="C8" s="92" t="s">
         <v>174</v>
       </c>
@@ -6463,7 +6561,7 @@
       <c r="Y8" s="3"/>
     </row>
     <row r="9" spans="2:25" ht="40.5">
-      <c r="B9" s="109"/>
+      <c r="B9" s="110"/>
       <c r="C9" s="92" t="s">
         <v>174</v>
       </c>
@@ -6531,7 +6629,7 @@
       <c r="Y9" s="3"/>
     </row>
     <row r="10" spans="2:25" ht="54">
-      <c r="B10" s="109"/>
+      <c r="B10" s="110"/>
       <c r="C10" s="92" t="s">
         <v>174</v>
       </c>
@@ -6599,7 +6697,7 @@
       <c r="Y10" s="3"/>
     </row>
     <row r="11" spans="2:25" ht="40.5">
-      <c r="B11" s="109"/>
+      <c r="B11" s="110"/>
       <c r="C11" s="92" t="s">
         <v>173</v>
       </c>
@@ -6667,7 +6765,7 @@
       <c r="Y11" s="3"/>
     </row>
     <row r="12" spans="2:25" ht="40.5">
-      <c r="B12" s="109"/>
+      <c r="B12" s="110"/>
       <c r="C12" s="92" t="s">
         <v>173</v>
       </c>
@@ -6735,7 +6833,7 @@
       <c r="Y12" s="3"/>
     </row>
     <row r="13" spans="2:25" ht="40.5">
-      <c r="B13" s="109"/>
+      <c r="B13" s="110"/>
       <c r="C13" s="92" t="s">
         <v>173</v>
       </c>
@@ -6803,7 +6901,7 @@
       <c r="Y13" s="3"/>
     </row>
     <row r="14" spans="2:25" ht="40.5">
-      <c r="B14" s="109"/>
+      <c r="B14" s="110"/>
       <c r="C14" s="92" t="s">
         <v>173</v>
       </c>
@@ -6871,7 +6969,7 @@
       <c r="Y14" s="3"/>
     </row>
     <row r="15" spans="2:25" ht="51.75">
-      <c r="B15" s="109"/>
+      <c r="B15" s="110"/>
       <c r="C15" s="92" t="s">
         <v>173</v>
       </c>
@@ -6941,7 +7039,7 @@
       <c r="Y15" s="3"/>
     </row>
     <row r="16" spans="2:25" ht="51.75">
-      <c r="B16" s="109"/>
+      <c r="B16" s="110"/>
       <c r="C16" s="92" t="s">
         <v>173</v>
       </c>
@@ -7011,7 +7109,7 @@
       <c r="Y16" s="3"/>
     </row>
     <row r="17" spans="2:25" ht="51.75">
-      <c r="B17" s="109"/>
+      <c r="B17" s="110"/>
       <c r="C17" s="92" t="s">
         <v>173</v>
       </c>
@@ -7081,7 +7179,7 @@
       <c r="Y17" s="3"/>
     </row>
     <row r="18" spans="2:25" ht="54">
-      <c r="B18" s="109"/>
+      <c r="B18" s="110"/>
       <c r="C18" s="92" t="s">
         <v>173</v>
       </c>
@@ -7151,7 +7249,7 @@
       <c r="Y18" s="3"/>
     </row>
     <row r="19" spans="2:25" ht="54">
-      <c r="B19" s="109"/>
+      <c r="B19" s="110"/>
       <c r="C19" s="92" t="s">
         <v>173</v>
       </c>
@@ -7221,7 +7319,7 @@
       <c r="Y19" s="3"/>
     </row>
     <row r="20" spans="2:25" ht="67.5">
-      <c r="B20" s="109"/>
+      <c r="B20" s="110"/>
       <c r="C20" s="92" t="s">
         <v>173</v>
       </c>
@@ -7291,7 +7389,7 @@
       <c r="Y20" s="3"/>
     </row>
     <row r="21" spans="2:25" ht="67.5">
-      <c r="B21" s="109"/>
+      <c r="B21" s="110"/>
       <c r="C21" s="92" t="s">
         <v>174</v>
       </c>
@@ -7361,7 +7459,7 @@
       <c r="Y21" s="3"/>
     </row>
     <row r="22" spans="2:25" ht="67.5">
-      <c r="B22" s="109"/>
+      <c r="B22" s="110"/>
       <c r="C22" s="92" t="s">
         <v>173</v>
       </c>
@@ -7431,7 +7529,7 @@
       <c r="Y22" s="3"/>
     </row>
     <row r="23" spans="2:25" ht="67.5">
-      <c r="B23" s="109"/>
+      <c r="B23" s="110"/>
       <c r="C23" s="92" t="s">
         <v>173</v>
       </c>
@@ -7501,7 +7599,7 @@
       <c r="Y23" s="3"/>
     </row>
     <row r="24" spans="2:25" ht="41.25" thickBot="1">
-      <c r="B24" s="110"/>
+      <c r="B24" s="111"/>
       <c r="C24" s="95" t="s">
         <v>173</v>
       </c>
@@ -7782,7 +7880,7 @@
       <c r="V5" s="76"/>
     </row>
     <row r="6" spans="2:22" ht="17.25">
-      <c r="B6" s="107" t="s">
+      <c r="B6" s="108" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="83" t="s">
@@ -7841,7 +7939,7 @@
       <c r="V6" s="73"/>
     </row>
     <row r="7" spans="2:22" ht="17.25">
-      <c r="B7" s="109"/>
+      <c r="B7" s="110"/>
       <c r="C7" s="84" t="s">
         <v>2</v>
       </c>
@@ -7898,7 +7996,7 @@
       <c r="V7" s="47"/>
     </row>
     <row r="8" spans="2:22" ht="17.25">
-      <c r="B8" s="109"/>
+      <c r="B8" s="110"/>
       <c r="C8" s="84" t="s">
         <v>3</v>
       </c>
@@ -7955,7 +8053,7 @@
       <c r="V8" s="47"/>
     </row>
     <row r="9" spans="2:22" ht="27">
-      <c r="B9" s="109"/>
+      <c r="B9" s="110"/>
       <c r="C9" s="84" t="s">
         <v>4</v>
       </c>
@@ -8012,7 +8110,7 @@
       <c r="V9" s="47"/>
     </row>
     <row r="10" spans="2:22" ht="40.5">
-      <c r="B10" s="109" t="s">
+      <c r="B10" s="110" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="84" t="s">
@@ -8073,7 +8171,7 @@
       <c r="V10" s="70"/>
     </row>
     <row r="11" spans="2:22" ht="40.5">
-      <c r="B11" s="109"/>
+      <c r="B11" s="110"/>
       <c r="C11" s="84" t="s">
         <v>9</v>
       </c>
@@ -8132,7 +8230,7 @@
       <c r="V11" s="3"/>
     </row>
     <row r="12" spans="2:22" ht="40.5">
-      <c r="B12" s="109"/>
+      <c r="B12" s="110"/>
       <c r="C12" s="84" t="s">
         <v>104</v>
       </c>
@@ -8191,7 +8289,7 @@
       <c r="V12" s="3"/>
     </row>
     <row r="13" spans="2:22" ht="40.5">
-      <c r="B13" s="109"/>
+      <c r="B13" s="110"/>
       <c r="C13" s="84" t="s">
         <v>105</v>
       </c>
@@ -8250,7 +8348,7 @@
       <c r="V13" s="3"/>
     </row>
     <row r="14" spans="2:22" ht="54">
-      <c r="B14" s="109"/>
+      <c r="B14" s="110"/>
       <c r="C14" s="84" t="s">
         <v>148</v>
       </c>
@@ -8309,7 +8407,7 @@
       <c r="V14" s="3"/>
     </row>
     <row r="15" spans="2:22" ht="40.5">
-      <c r="B15" s="109"/>
+      <c r="B15" s="110"/>
       <c r="C15" s="84" t="s">
         <v>146</v>
       </c>
@@ -8368,7 +8466,7 @@
       <c r="V15" s="3"/>
     </row>
     <row r="16" spans="2:22" ht="40.5">
-      <c r="B16" s="109"/>
+      <c r="B16" s="110"/>
       <c r="C16" s="84" t="s">
         <v>147</v>
       </c>
@@ -8427,7 +8525,7 @@
       <c r="V16" s="3"/>
     </row>
     <row r="17" spans="2:22" ht="40.5">
-      <c r="B17" s="109"/>
+      <c r="B17" s="110"/>
       <c r="C17" s="84" t="s">
         <v>160</v>
       </c>
@@ -8486,7 +8584,7 @@
       <c r="V17" s="3"/>
     </row>
     <row r="18" spans="2:22" ht="17.25">
-      <c r="B18" s="109"/>
+      <c r="B18" s="110"/>
       <c r="C18" s="84" t="s">
         <v>10</v>
       </c>
@@ -8547,7 +8645,7 @@
       <c r="V18" s="3"/>
     </row>
     <row r="19" spans="2:22" ht="17.25">
-      <c r="B19" s="109"/>
+      <c r="B19" s="110"/>
       <c r="C19" s="84" t="s">
         <v>3</v>
       </c>
@@ -8608,7 +8706,7 @@
       <c r="V19" s="3"/>
     </row>
     <row r="20" spans="2:22" ht="17.25">
-      <c r="B20" s="109"/>
+      <c r="B20" s="110"/>
       <c r="C20" s="84" t="s">
         <v>11</v>
       </c>
@@ -8669,7 +8767,7 @@
       <c r="V20" s="3"/>
     </row>
     <row r="21" spans="2:22" ht="54">
-      <c r="B21" s="109"/>
+      <c r="B21" s="110"/>
       <c r="C21" s="84" t="s">
         <v>58</v>
       </c>
@@ -8730,7 +8828,7 @@
       <c r="V21" s="3"/>
     </row>
     <row r="22" spans="2:22" ht="54">
-      <c r="B22" s="109"/>
+      <c r="B22" s="110"/>
       <c r="C22" s="84" t="s">
         <v>59</v>
       </c>
@@ -8791,7 +8889,7 @@
       <c r="V22" s="3"/>
     </row>
     <row r="23" spans="2:22" ht="67.5">
-      <c r="B23" s="109"/>
+      <c r="B23" s="110"/>
       <c r="C23" s="84" t="s">
         <v>12</v>
       </c>
@@ -8852,7 +8950,7 @@
       <c r="V23" s="3"/>
     </row>
     <row r="24" spans="2:22" ht="67.5">
-      <c r="B24" s="109"/>
+      <c r="B24" s="110"/>
       <c r="C24" s="84" t="s">
         <v>171</v>
       </c>
@@ -8913,7 +9011,7 @@
       <c r="V24" s="3"/>
     </row>
     <row r="25" spans="2:22" ht="67.5">
-      <c r="B25" s="109"/>
+      <c r="B25" s="110"/>
       <c r="C25" s="84" t="s">
         <v>94</v>
       </c>
@@ -8974,7 +9072,7 @@
       <c r="V25" s="3"/>
     </row>
     <row r="26" spans="2:22" ht="67.5">
-      <c r="B26" s="109"/>
+      <c r="B26" s="110"/>
       <c r="C26" s="84" t="s">
         <v>95</v>
       </c>
@@ -9035,7 +9133,7 @@
       <c r="V26" s="3"/>
     </row>
     <row r="27" spans="2:22" ht="41.25" thickBot="1">
-      <c r="B27" s="110"/>
+      <c r="B27" s="111"/>
       <c r="C27" s="85" t="s">
         <v>13</v>
       </c>
@@ -9299,7 +9397,7 @@
       <c r="V5" s="76"/>
     </row>
     <row r="6" spans="2:22" ht="17.25">
-      <c r="B6" s="107" t="s">
+      <c r="B6" s="108" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="83" t="s">
@@ -9358,7 +9456,7 @@
       <c r="V6" s="73"/>
     </row>
     <row r="7" spans="2:22" ht="17.25">
-      <c r="B7" s="109"/>
+      <c r="B7" s="110"/>
       <c r="C7" s="84" t="s">
         <v>2</v>
       </c>
@@ -9415,7 +9513,7 @@
       <c r="V7" s="47"/>
     </row>
     <row r="8" spans="2:22" ht="17.25">
-      <c r="B8" s="109"/>
+      <c r="B8" s="110"/>
       <c r="C8" s="84" t="s">
         <v>3</v>
       </c>
@@ -9472,7 +9570,7 @@
       <c r="V8" s="47"/>
     </row>
     <row r="9" spans="2:22" ht="27">
-      <c r="B9" s="109"/>
+      <c r="B9" s="110"/>
       <c r="C9" s="84" t="s">
         <v>4</v>
       </c>
@@ -9529,7 +9627,7 @@
       <c r="V9" s="47"/>
     </row>
     <row r="10" spans="2:22" ht="40.5">
-      <c r="B10" s="109" t="s">
+      <c r="B10" s="110" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="84" t="s">
@@ -9590,7 +9688,7 @@
       <c r="V10" s="70"/>
     </row>
     <row r="11" spans="2:22" ht="40.5">
-      <c r="B11" s="109"/>
+      <c r="B11" s="110"/>
       <c r="C11" s="84" t="s">
         <v>9</v>
       </c>
@@ -9649,7 +9747,7 @@
       <c r="V11" s="3"/>
     </row>
     <row r="12" spans="2:22" ht="40.5">
-      <c r="B12" s="109"/>
+      <c r="B12" s="110"/>
       <c r="C12" s="84" t="s">
         <v>104</v>
       </c>
@@ -9708,7 +9806,7 @@
       <c r="V12" s="3"/>
     </row>
     <row r="13" spans="2:22" ht="40.5">
-      <c r="B13" s="109"/>
+      <c r="B13" s="110"/>
       <c r="C13" s="84" t="s">
         <v>105</v>
       </c>
@@ -9767,7 +9865,7 @@
       <c r="V13" s="3"/>
     </row>
     <row r="14" spans="2:22" ht="54">
-      <c r="B14" s="109"/>
+      <c r="B14" s="110"/>
       <c r="C14" s="84" t="s">
         <v>148</v>
       </c>
@@ -9826,7 +9924,7 @@
       <c r="V14" s="3"/>
     </row>
     <row r="15" spans="2:22" ht="40.5">
-      <c r="B15" s="109"/>
+      <c r="B15" s="110"/>
       <c r="C15" s="84" t="s">
         <v>146</v>
       </c>
@@ -9885,7 +9983,7 @@
       <c r="V15" s="3"/>
     </row>
     <row r="16" spans="2:22" ht="40.5">
-      <c r="B16" s="109"/>
+      <c r="B16" s="110"/>
       <c r="C16" s="84" t="s">
         <v>147</v>
       </c>
@@ -9944,7 +10042,7 @@
       <c r="V16" s="3"/>
     </row>
     <row r="17" spans="2:22" ht="40.5">
-      <c r="B17" s="109"/>
+      <c r="B17" s="110"/>
       <c r="C17" s="84" t="s">
         <v>160</v>
       </c>
@@ -10003,7 +10101,7 @@
       <c r="V17" s="3"/>
     </row>
     <row r="18" spans="2:22" ht="17.25">
-      <c r="B18" s="109"/>
+      <c r="B18" s="110"/>
       <c r="C18" s="84" t="s">
         <v>10</v>
       </c>
@@ -10064,7 +10162,7 @@
       <c r="V18" s="3"/>
     </row>
     <row r="19" spans="2:22" ht="17.25">
-      <c r="B19" s="109"/>
+      <c r="B19" s="110"/>
       <c r="C19" s="84" t="s">
         <v>3</v>
       </c>
@@ -10125,7 +10223,7 @@
       <c r="V19" s="3"/>
     </row>
     <row r="20" spans="2:22" ht="17.25">
-      <c r="B20" s="109"/>
+      <c r="B20" s="110"/>
       <c r="C20" s="84" t="s">
         <v>11</v>
       </c>
@@ -10186,7 +10284,7 @@
       <c r="V20" s="3"/>
     </row>
     <row r="21" spans="2:22" ht="54">
-      <c r="B21" s="109"/>
+      <c r="B21" s="110"/>
       <c r="C21" s="84" t="s">
         <v>58</v>
       </c>
@@ -10247,7 +10345,7 @@
       <c r="V21" s="3"/>
     </row>
     <row r="22" spans="2:22" ht="54">
-      <c r="B22" s="109"/>
+      <c r="B22" s="110"/>
       <c r="C22" s="84" t="s">
         <v>59</v>
       </c>
@@ -10308,7 +10406,7 @@
       <c r="V22" s="3"/>
     </row>
     <row r="23" spans="2:22" ht="67.5">
-      <c r="B23" s="109"/>
+      <c r="B23" s="110"/>
       <c r="C23" s="84" t="s">
         <v>12</v>
       </c>
@@ -10369,7 +10467,7 @@
       <c r="V23" s="3"/>
     </row>
     <row r="24" spans="2:22" ht="67.5">
-      <c r="B24" s="109"/>
+      <c r="B24" s="110"/>
       <c r="C24" s="84" t="s">
         <v>94</v>
       </c>
@@ -10430,7 +10528,7 @@
       <c r="V24" s="3"/>
     </row>
     <row r="25" spans="2:22" ht="67.5">
-      <c r="B25" s="109"/>
+      <c r="B25" s="110"/>
       <c r="C25" s="84" t="s">
         <v>95</v>
       </c>
@@ -10491,7 +10589,7 @@
       <c r="V25" s="3"/>
     </row>
     <row r="26" spans="2:22" ht="41.25" thickBot="1">
-      <c r="B26" s="110"/>
+      <c r="B26" s="111"/>
       <c r="C26" s="85" t="s">
         <v>13</v>
       </c>
@@ -10676,31 +10774,31 @@
     <row r="3" spans="2:23" ht="14.25" thickBot="1"/>
     <row r="4" spans="2:23" ht="21.75" thickBot="1">
       <c r="B4" s="8"/>
-      <c r="C4" s="105" t="s">
+      <c r="C4" s="106" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="111"/>
-      <c r="E4" s="111"/>
-      <c r="F4" s="112"/>
-      <c r="G4" s="113" t="s">
+      <c r="D4" s="112"/>
+      <c r="E4" s="112"/>
+      <c r="F4" s="113"/>
+      <c r="G4" s="114" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="113"/>
-      <c r="I4" s="113"/>
-      <c r="J4" s="111"/>
-      <c r="K4" s="111"/>
-      <c r="L4" s="111"/>
-      <c r="M4" s="111"/>
-      <c r="N4" s="111"/>
-      <c r="O4" s="111"/>
-      <c r="P4" s="111"/>
-      <c r="Q4" s="111"/>
-      <c r="R4" s="111"/>
-      <c r="S4" s="111"/>
-      <c r="T4" s="111"/>
-      <c r="U4" s="114"/>
-      <c r="V4" s="114"/>
-      <c r="W4" s="112"/>
+      <c r="H4" s="114"/>
+      <c r="I4" s="114"/>
+      <c r="J4" s="112"/>
+      <c r="K4" s="112"/>
+      <c r="L4" s="112"/>
+      <c r="M4" s="112"/>
+      <c r="N4" s="112"/>
+      <c r="O4" s="112"/>
+      <c r="P4" s="112"/>
+      <c r="Q4" s="112"/>
+      <c r="R4" s="112"/>
+      <c r="S4" s="112"/>
+      <c r="T4" s="112"/>
+      <c r="U4" s="115"/>
+      <c r="V4" s="115"/>
+      <c r="W4" s="113"/>
     </row>
     <row r="5" spans="2:23" ht="18" thickBot="1">
       <c r="B5" s="9" t="s">
@@ -12033,27 +12131,27 @@
     <row r="3" spans="2:19" ht="14.25" thickBot="1"/>
     <row r="4" spans="2:19" ht="21.75" thickBot="1">
       <c r="B4" s="8"/>
-      <c r="C4" s="115" t="s">
+      <c r="C4" s="116" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="116"/>
-      <c r="E4" s="116"/>
-      <c r="F4" s="117"/>
-      <c r="G4" s="118" t="s">
+      <c r="D4" s="117"/>
+      <c r="E4" s="117"/>
+      <c r="F4" s="118"/>
+      <c r="G4" s="119" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="118"/>
-      <c r="I4" s="118"/>
-      <c r="J4" s="116"/>
-      <c r="K4" s="116"/>
-      <c r="L4" s="116"/>
-      <c r="M4" s="116"/>
-      <c r="N4" s="116"/>
-      <c r="O4" s="116"/>
-      <c r="P4" s="116"/>
-      <c r="Q4" s="119"/>
-      <c r="R4" s="119"/>
-      <c r="S4" s="117"/>
+      <c r="H4" s="119"/>
+      <c r="I4" s="119"/>
+      <c r="J4" s="117"/>
+      <c r="K4" s="117"/>
+      <c r="L4" s="117"/>
+      <c r="M4" s="117"/>
+      <c r="N4" s="117"/>
+      <c r="O4" s="117"/>
+      <c r="P4" s="117"/>
+      <c r="Q4" s="120"/>
+      <c r="R4" s="120"/>
+      <c r="S4" s="118"/>
     </row>
     <row r="5" spans="2:19" ht="18" thickBot="1">
       <c r="B5" s="9" t="s">
@@ -13051,23 +13149,23 @@
     <row r="3" spans="2:15" ht="14.25" thickBot="1"/>
     <row r="4" spans="2:15" ht="21.75" thickBot="1">
       <c r="B4" s="8"/>
-      <c r="C4" s="115" t="s">
+      <c r="C4" s="116" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="116"/>
-      <c r="E4" s="116"/>
-      <c r="F4" s="117"/>
-      <c r="G4" s="118" t="s">
+      <c r="D4" s="117"/>
+      <c r="E4" s="117"/>
+      <c r="F4" s="118"/>
+      <c r="G4" s="119" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="116"/>
-      <c r="I4" s="116"/>
-      <c r="J4" s="116"/>
-      <c r="K4" s="116"/>
-      <c r="L4" s="116"/>
-      <c r="M4" s="116"/>
-      <c r="N4" s="116"/>
-      <c r="O4" s="117"/>
+      <c r="H4" s="117"/>
+      <c r="I4" s="117"/>
+      <c r="J4" s="117"/>
+      <c r="K4" s="117"/>
+      <c r="L4" s="117"/>
+      <c r="M4" s="117"/>
+      <c r="N4" s="117"/>
+      <c r="O4" s="118"/>
     </row>
     <row r="5" spans="2:15" ht="18" thickBot="1">
       <c r="B5" s="9" t="s">

--- a/msx3gen/files/msx_gen3.xlsx
+++ b/msx3gen/files/msx_gen3.xlsx
@@ -170,7 +170,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3101" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3101" uniqueCount="221">
   <si>
     <t>旧来のMSX</t>
     <rPh sb="0" eb="2">
@@ -1543,6 +1543,14 @@
     </rPh>
     <rPh sb="10" eb="12">
       <t>サイショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲーム
+（MSXゲームと、他機種ゲームエミュレーター）</t>
+    <rPh sb="13" eb="16">
+      <t>タキシュ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3070,8 +3078,11 @@
   </sheetPr>
   <dimension ref="B3:X62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Z24" sqref="Z24"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="4" ySplit="7" topLeftCell="O12" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
+      <selection pane="bottomRight" activeCell="R17" sqref="R17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3771,7 +3782,7 @@
       </c>
       <c r="X16" s="3"/>
     </row>
-    <row r="17" spans="2:24" ht="51.75">
+    <row r="17" spans="2:24" ht="54">
       <c r="B17" s="107"/>
       <c r="C17" s="92" t="s">
         <v>198</v>
@@ -3818,8 +3829,8 @@
       <c r="Q17" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="R17" s="1" t="s">
-        <v>72</v>
+      <c r="R17" s="30" t="s">
+        <v>220</v>
       </c>
       <c r="S17" s="30" t="s">
         <v>209</v>

--- a/msx3gen/files/msx_gen3.xlsx
+++ b/msx3gen/files/msx_gen3.xlsx
@@ -170,7 +170,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3101" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3114" uniqueCount="235">
   <si>
     <t>旧来のMSX</t>
     <rPh sb="0" eb="2">
@@ -1551,6 +1551,74 @@
 （MSXゲームと、他機種ゲームエミュレーター）</t>
     <rPh sb="13" eb="16">
       <t>タキシュ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MSX NetConnector の VDP は実チップ？ or エミュレーション？</t>
+    <rPh sb="24" eb="25">
+      <t>ジツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://x.com/thara1129/status/1844359754069823568</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(1)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(2)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(3)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(4)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(5)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(6)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(7)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(8)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(9)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(10)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(11)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MSX1もMSX2+相当になるが
+VDPは V9958ソフトウェア
+エミュレーションになる
+※下記 (11)</t>
+    <rPh sb="10" eb="12">
+      <t>ソウトウ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>カキ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2307,7 +2375,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2671,6 +2739,9 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -2709,7 +2780,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>1076325</xdr:colOff>
+          <xdr:colOff>1076324</xdr:colOff>
           <xdr:row>4</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -3076,18 +3147,18 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B3:X62"/>
+  <dimension ref="A3:X65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="4" ySplit="7" topLeftCell="O12" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="4" ySplit="7" topLeftCell="L8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="R17" sqref="R17"/>
+      <selection pane="bottomRight" activeCell="S17" sqref="S17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="2.875" customWidth="1"/>
+    <col min="1" max="1" width="4.5" style="121" customWidth="1"/>
     <col min="2" max="2" width="20.125" customWidth="1"/>
     <col min="3" max="3" width="34.125" customWidth="1"/>
     <col min="4" max="4" width="23" bestFit="1" customWidth="1"/>
@@ -3717,7 +3788,7 @@
       </c>
       <c r="X15" s="3"/>
     </row>
-    <row r="16" spans="2:24" ht="40.5">
+    <row r="16" spans="2:24" ht="54">
       <c r="B16" s="107"/>
       <c r="C16" s="92" t="s">
         <v>69</v>
@@ -3767,8 +3838,8 @@
       <c r="R16" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="S16" s="1" t="s">
-        <v>69</v>
+      <c r="S16" s="30" t="s">
+        <v>234</v>
       </c>
       <c r="T16" s="1"/>
       <c r="U16" s="1" t="s">
@@ -3782,7 +3853,7 @@
       </c>
       <c r="X16" s="3"/>
     </row>
-    <row r="17" spans="2:24" ht="54">
+    <row r="17" spans="1:24" ht="54">
       <c r="B17" s="107"/>
       <c r="C17" s="92" t="s">
         <v>198</v>
@@ -3849,7 +3920,7 @@
       </c>
       <c r="X17" s="3"/>
     </row>
-    <row r="18" spans="2:24" ht="51.75">
+    <row r="18" spans="1:24" ht="51.75">
       <c r="B18" s="107"/>
       <c r="C18" s="92" t="s">
         <v>198</v>
@@ -3916,7 +3987,7 @@
       </c>
       <c r="X18" s="3"/>
     </row>
-    <row r="19" spans="2:24" ht="51.75">
+    <row r="19" spans="1:24" ht="51.75">
       <c r="B19" s="107"/>
       <c r="C19" s="92" t="s">
         <v>204</v>
@@ -3983,7 +4054,7 @@
       </c>
       <c r="X19" s="3"/>
     </row>
-    <row r="20" spans="2:24" ht="54">
+    <row r="20" spans="1:24" ht="54">
       <c r="B20" s="107"/>
       <c r="C20" s="92" t="s">
         <v>198</v>
@@ -4050,7 +4121,7 @@
       </c>
       <c r="X20" s="3"/>
     </row>
-    <row r="21" spans="2:24" ht="54">
+    <row r="21" spans="1:24" ht="54">
       <c r="B21" s="107"/>
       <c r="C21" s="92" t="s">
         <v>198</v>
@@ -4117,7 +4188,7 @@
       </c>
       <c r="X21" s="3"/>
     </row>
-    <row r="22" spans="2:24" ht="94.5">
+    <row r="22" spans="1:24" ht="94.5">
       <c r="B22" s="107"/>
       <c r="C22" s="92" t="s">
         <v>198</v>
@@ -4184,7 +4255,7 @@
       </c>
       <c r="X22" s="3"/>
     </row>
-    <row r="23" spans="2:24" ht="67.5">
+    <row r="23" spans="1:24" ht="67.5">
       <c r="B23" s="107"/>
       <c r="C23" s="105" t="s">
         <v>216</v>
@@ -4251,7 +4322,7 @@
       </c>
       <c r="X23" s="3"/>
     </row>
-    <row r="24" spans="2:24" ht="67.5">
+    <row r="24" spans="1:24" ht="67.5">
       <c r="B24" s="107"/>
       <c r="C24" s="105" t="s">
         <v>216</v>
@@ -4318,7 +4389,7 @@
       </c>
       <c r="X24" s="3"/>
     </row>
-    <row r="25" spans="2:24" ht="67.5">
+    <row r="25" spans="1:24" ht="67.5">
       <c r="B25" s="107"/>
       <c r="C25" s="92" t="s">
         <v>198</v>
@@ -4383,7 +4454,7 @@
       </c>
       <c r="X25" s="3"/>
     </row>
-    <row r="26" spans="2:24" ht="67.5">
+    <row r="26" spans="1:24" ht="67.5">
       <c r="B26" s="108"/>
       <c r="C26" s="92" t="s">
         <v>198</v>
@@ -4448,7 +4519,7 @@
       </c>
       <c r="X26" s="3"/>
     </row>
-    <row r="27" spans="2:24" ht="41.25" thickBot="1">
+    <row r="27" spans="1:24" ht="41.25" thickBot="1">
       <c r="B27" s="103" t="s">
         <v>200</v>
       </c>
@@ -4515,127 +4586,170 @@
       </c>
       <c r="X27" s="7"/>
     </row>
-    <row r="31" spans="2:24">
+    <row r="31" spans="1:24">
+      <c r="A31" s="121" t="s">
+        <v>223</v>
+      </c>
       <c r="B31" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="32" spans="2:24">
+    <row r="32" spans="1:24">
       <c r="B32" s="60" t="s">
         <v>139</v>
       </c>
       <c r="C32" s="60"/>
     </row>
-    <row r="34" spans="2:3">
+    <row r="34" spans="1:3">
+      <c r="A34" s="121" t="s">
+        <v>224</v>
+      </c>
       <c r="B34" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="35" spans="2:3">
+    <row r="35" spans="1:3">
       <c r="B35" s="60" t="s">
         <v>138</v>
       </c>
       <c r="C35" s="60"/>
     </row>
-    <row r="37" spans="2:3">
+    <row r="37" spans="1:3">
+      <c r="A37" s="121" t="s">
+        <v>225</v>
+      </c>
       <c r="B37" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="38" spans="2:3">
+    <row r="38" spans="1:3">
       <c r="B38" s="60" t="s">
         <v>137</v>
       </c>
       <c r="C38" s="60"/>
     </row>
-    <row r="40" spans="2:3">
+    <row r="40" spans="1:3">
+      <c r="A40" s="121" t="s">
+        <v>226</v>
+      </c>
       <c r="B40" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="41" spans="2:3">
+    <row r="41" spans="1:3">
       <c r="B41" s="60" t="s">
         <v>136</v>
       </c>
       <c r="C41" s="60"/>
     </row>
-    <row r="43" spans="2:3">
+    <row r="43" spans="1:3">
+      <c r="A43" s="121" t="s">
+        <v>227</v>
+      </c>
       <c r="B43" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="44" spans="2:3">
+    <row r="44" spans="1:3">
       <c r="B44" s="61" t="s">
         <v>131</v>
       </c>
       <c r="C44" s="61"/>
     </row>
-    <row r="45" spans="2:3">
+    <row r="45" spans="1:3">
       <c r="B45" s="60" t="s">
         <v>135</v>
       </c>
       <c r="C45" s="60"/>
     </row>
-    <row r="46" spans="2:3">
+    <row r="46" spans="1:3">
       <c r="B46" s="60" t="s">
         <v>140</v>
       </c>
       <c r="C46" s="60"/>
     </row>
-    <row r="48" spans="2:3">
+    <row r="48" spans="1:3">
+      <c r="A48" s="121" t="s">
+        <v>228</v>
+      </c>
       <c r="B48" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="49" spans="2:3">
+    <row r="49" spans="1:3">
       <c r="B49" s="60" t="s">
         <v>158</v>
       </c>
       <c r="C49" s="60"/>
     </row>
-    <row r="51" spans="2:3">
+    <row r="51" spans="1:3">
+      <c r="A51" s="121" t="s">
+        <v>229</v>
+      </c>
       <c r="B51" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="52" spans="2:3">
+    <row r="52" spans="1:3">
       <c r="B52" s="60" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="54" spans="2:3">
+    <row r="54" spans="1:3">
+      <c r="A54" s="121" t="s">
+        <v>230</v>
+      </c>
       <c r="B54" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="55" spans="2:3">
+    <row r="55" spans="1:3">
       <c r="B55" s="60" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="57" spans="2:3">
+    <row r="57" spans="1:3">
+      <c r="A57" s="121" t="s">
+        <v>231</v>
+      </c>
       <c r="B57" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="58" spans="2:3">
+    <row r="58" spans="1:3">
       <c r="B58" s="60" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="60" spans="2:3">
+    <row r="60" spans="1:3">
+      <c r="A60" s="121" t="s">
+        <v>232</v>
+      </c>
       <c r="B60" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="61" spans="2:3">
+    <row r="61" spans="1:3">
       <c r="B61" s="60" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="62" spans="2:3">
+    <row r="62" spans="1:3">
       <c r="B62" s="60" t="s">
         <v>215</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="121" t="s">
+        <v>233</v>
+      </c>
+      <c r="B64" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2">
+      <c r="B65" s="60" t="s">
+        <v>222</v>
       </c>
     </row>
   </sheetData>
@@ -4657,16 +4771,17 @@
     <hyperlink ref="B58" r:id="rId11"/>
     <hyperlink ref="B61" r:id="rId12"/>
     <hyperlink ref="B62" r:id="rId13"/>
+    <hyperlink ref="B65" r:id="rId14"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="8" scale="42" orientation="landscape" horizontalDpi="4294967293" r:id="rId14"/>
-  <drawing r:id="rId15"/>
-  <legacyDrawing r:id="rId16"/>
+  <pageSetup paperSize="8" scale="42" orientation="landscape" horizontalDpi="4294967293" r:id="rId15"/>
+  <drawing r:id="rId16"/>
+  <legacyDrawing r:id="rId17"/>
   <oleObjects>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Visio.Drawing.15" shapeId="4097" r:id="rId17">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId18">
+        <oleObject progId="Visio.Drawing.15" shapeId="4097" r:id="rId18">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId19">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
@@ -4685,7 +4800,7 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Visio.Drawing.15" shapeId="4097" r:id="rId17"/>
+        <oleObject progId="Visio.Drawing.15" shapeId="4097" r:id="rId18"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </oleObjects>

--- a/msx3gen/files/msx_gen3.xlsx
+++ b/msx3gen/files/msx_gen3.xlsx
@@ -26,7 +26,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="3">'2024年9月28日 ver3'!$A$1:$W$51</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'2024年9月28日 ver4'!$A$1:$Z$48</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'2024年9月29日'!$A$1:$Y$55</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'2024年9月30日'!$A$1:$Y$56</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'2024年9月30日'!$A$1:$Y$57</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -43,7 +43,7 @@
     <author>Takayuki Hara</author>
   </authors>
   <commentList>
-    <comment ref="E18" authorId="0" shapeId="0">
+    <comment ref="E19" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -60,7 +60,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E19" authorId="0" shapeId="0">
+    <comment ref="E20" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -170,7 +170,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3114" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3135" uniqueCount="244">
   <si>
     <t>旧来のMSX</t>
     <rPh sb="0" eb="2">
@@ -1619,6 +1619,85 @@
     </rPh>
     <rPh sb="47" eb="49">
       <t>カキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MSXIOT DEPOT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MSX0 Octopus</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>なし？</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>??</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>本体側VDP利用</t>
+    <rPh sb="0" eb="2">
+      <t>ホンタイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ガワ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>リヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MSX0 Octopus 自体が
+カートリッジ。
+MSXのカートリッジスロット
+に装着する。</t>
+    <rPh sb="13" eb="15">
+      <t>ジタイ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ソウチャク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>搭載する USB/I2C の
+数を再検討中</t>
+    <rPh sb="0" eb="2">
+      <t>トウサイ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>カズ</t>
+    </rPh>
+    <rPh sb="17" eb="20">
+      <t>サイケントウ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>チュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>本体側音源を利用</t>
+    <rPh sb="0" eb="2">
+      <t>ホンタイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ガワ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>オンゲン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>リヨウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2694,6 +2773,9 @@
     <xf numFmtId="0" fontId="13" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2739,9 +2821,6 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -2780,7 +2859,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>1076324</xdr:colOff>
+          <xdr:colOff>1076325</xdr:colOff>
           <xdr:row>4</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -3147,18 +3226,18 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A3:X65"/>
+  <dimension ref="A3:X66"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="4" ySplit="7" topLeftCell="L8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="S17" sqref="S17"/>
+      <selection pane="bottomRight" activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="4.5" style="121" customWidth="1"/>
+    <col min="1" max="1" width="4.5" style="106" customWidth="1"/>
     <col min="2" max="2" width="20.125" customWidth="1"/>
     <col min="3" max="3" width="34.125" customWidth="1"/>
     <col min="4" max="4" width="23" bestFit="1" customWidth="1"/>
@@ -3267,7 +3346,7 @@
       <c r="X7" s="76"/>
     </row>
     <row r="8" spans="2:24" ht="51.75">
-      <c r="B8" s="106" t="s">
+      <c r="B8" s="107" t="s">
         <v>14</v>
       </c>
       <c r="C8" s="93" t="s">
@@ -3334,7 +3413,7 @@
       <c r="X8" s="70"/>
     </row>
     <row r="9" spans="2:24" ht="40.5">
-      <c r="B9" s="107"/>
+      <c r="B9" s="108"/>
       <c r="C9" s="92" t="s">
         <v>204</v>
       </c>
@@ -3399,7 +3478,7 @@
       <c r="X9" s="3"/>
     </row>
     <row r="10" spans="2:24" ht="40.5">
-      <c r="B10" s="107"/>
+      <c r="B10" s="108"/>
       <c r="C10" s="92" t="s">
         <v>204</v>
       </c>
@@ -3464,7 +3543,7 @@
       <c r="X10" s="3"/>
     </row>
     <row r="11" spans="2:24" ht="40.5">
-      <c r="B11" s="107"/>
+      <c r="B11" s="108"/>
       <c r="C11" s="92" t="s">
         <v>204</v>
       </c>
@@ -3529,9 +3608,9 @@
       <c r="X11" s="3"/>
     </row>
     <row r="12" spans="2:24" ht="54">
-      <c r="B12" s="107"/>
+      <c r="B12" s="108"/>
       <c r="C12" s="102" t="s">
-        <v>197</v>
+        <v>235</v>
       </c>
       <c r="D12" s="84" t="s">
         <v>148</v>
@@ -3594,9 +3673,9 @@
       <c r="X12" s="3"/>
     </row>
     <row r="13" spans="2:24" ht="40.5">
-      <c r="B13" s="107"/>
-      <c r="C13" s="101" t="s">
-        <v>197</v>
+      <c r="B13" s="108"/>
+      <c r="C13" s="102" t="s">
+        <v>235</v>
       </c>
       <c r="D13" s="84" t="s">
         <v>146</v>
@@ -3659,9 +3738,9 @@
       <c r="X13" s="3"/>
     </row>
     <row r="14" spans="2:24" ht="40.5">
-      <c r="B14" s="107"/>
+      <c r="B14" s="108"/>
       <c r="C14" s="102" t="s">
-        <v>197</v>
+        <v>235</v>
       </c>
       <c r="D14" s="84" t="s">
         <v>147</v>
@@ -3724,9 +3803,9 @@
       <c r="X14" s="3"/>
     </row>
     <row r="15" spans="2:24" ht="40.5">
-      <c r="B15" s="107"/>
-      <c r="C15" s="101" t="s">
-        <v>197</v>
+      <c r="B15" s="108"/>
+      <c r="C15" s="102" t="s">
+        <v>235</v>
       </c>
       <c r="D15" s="84" t="s">
         <v>193</v>
@@ -3789,27 +3868,27 @@
       <c r="X15" s="3"/>
     </row>
     <row r="16" spans="2:24" ht="54">
-      <c r="B16" s="107"/>
-      <c r="C16" s="92" t="s">
-        <v>69</v>
+      <c r="B16" s="108"/>
+      <c r="C16" s="102" t="s">
+        <v>235</v>
       </c>
       <c r="D16" s="84" t="s">
-        <v>206</v>
-      </c>
-      <c r="E16" s="96" t="s">
-        <v>187</v>
+        <v>236</v>
+      </c>
+      <c r="E16" s="97" t="s">
+        <v>183</v>
       </c>
       <c r="F16" s="30" t="s">
-        <v>20</v>
+        <v>237</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>30</v>
+        <v>238</v>
       </c>
       <c r="H16" s="30" t="s">
-        <v>56</v>
+        <v>239</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>37</v>
+        <v>240</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>42</v>
@@ -3821,29 +3900,31 @@
         <v>42</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="O16" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="P16" s="104" t="s">
-        <v>208</v>
+        <v>243</v>
+      </c>
+      <c r="O16" s="30" t="s">
+        <v>241</v>
+      </c>
+      <c r="P16" s="86" t="s">
+        <v>33</v>
       </c>
       <c r="Q16" s="1" t="s">
         <v>39</v>
       </c>
       <c r="R16" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="S16" s="30" t="s">
-        <v>234</v>
-      </c>
-      <c r="T16" s="1"/>
+        <v>70</v>
+      </c>
+      <c r="S16" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="T16" s="30" t="s">
+        <v>242</v>
+      </c>
       <c r="U16" s="1" t="s">
-        <v>117</v>
+        <v>165</v>
       </c>
       <c r="V16" s="86" t="s">
         <v>163</v>
@@ -3854,24 +3935,24 @@
       <c r="X16" s="3"/>
     </row>
     <row r="17" spans="1:24" ht="54">
-      <c r="B17" s="107"/>
+      <c r="B17" s="108"/>
       <c r="C17" s="92" t="s">
-        <v>198</v>
+        <v>69</v>
       </c>
       <c r="D17" s="84" t="s">
-        <v>10</v>
+        <v>206</v>
       </c>
       <c r="E17" s="96" t="s">
-        <v>188</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>18</v>
+        <v>187</v>
+      </c>
+      <c r="F17" s="30" t="s">
+        <v>20</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
+      </c>
+      <c r="H17" s="30" t="s">
+        <v>56</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>37</v>
@@ -3880,71 +3961,69 @@
         <v>42</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="M17" s="1" t="s">
         <v>45</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>106</v>
+        <v>52</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="P17" s="86" t="s">
-        <v>180</v>
+        <v>39</v>
+      </c>
+      <c r="P17" s="104" t="s">
+        <v>208</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="R17" s="30" t="s">
-        <v>220</v>
+        <v>39</v>
+      </c>
+      <c r="R17" s="1" t="s">
+        <v>164</v>
       </c>
       <c r="S17" s="30" t="s">
-        <v>209</v>
-      </c>
-      <c r="T17" s="30" t="s">
-        <v>211</v>
-      </c>
+        <v>234</v>
+      </c>
+      <c r="T17" s="1"/>
       <c r="U17" s="1" t="s">
         <v>117</v>
       </c>
       <c r="V17" s="86" t="s">
-        <v>144</v>
+        <v>163</v>
       </c>
       <c r="W17" s="1" t="s">
         <v>128</v>
       </c>
       <c r="X17" s="3"/>
     </row>
-    <row r="18" spans="1:24" ht="51.75">
-      <c r="B18" s="107"/>
+    <row r="18" spans="1:24" ht="54">
+      <c r="B18" s="108"/>
       <c r="C18" s="92" t="s">
         <v>198</v>
       </c>
       <c r="D18" s="84" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E18" s="96" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>151</v>
+        <v>27</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>37</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="K18" s="1" t="s">
         <v>45</v>
@@ -3967,8 +4046,8 @@
       <c r="Q18" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="R18" s="1" t="s">
-        <v>73</v>
+      <c r="R18" s="30" t="s">
+        <v>220</v>
       </c>
       <c r="S18" s="30" t="s">
         <v>209</v>
@@ -3977,10 +4056,10 @@
         <v>211</v>
       </c>
       <c r="U18" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="V18" s="86" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="W18" s="1" t="s">
         <v>128</v>
@@ -3988,12 +4067,12 @@
       <c r="X18" s="3"/>
     </row>
     <row r="19" spans="1:24" ht="51.75">
-      <c r="B19" s="107"/>
+      <c r="B19" s="108"/>
       <c r="C19" s="92" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="D19" s="84" t="s">
-        <v>199</v>
+        <v>3</v>
       </c>
       <c r="E19" s="96" t="s">
         <v>189</v>
@@ -4054,34 +4133,34 @@
       </c>
       <c r="X19" s="3"/>
     </row>
-    <row r="20" spans="1:24" ht="54">
-      <c r="B20" s="107"/>
+    <row r="20" spans="1:24" ht="51.75">
+      <c r="B20" s="108"/>
       <c r="C20" s="92" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="D20" s="84" t="s">
-        <v>58</v>
+        <v>199</v>
       </c>
       <c r="E20" s="96" t="s">
-        <v>190</v>
-      </c>
-      <c r="F20" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="G20" s="86" t="s">
-        <v>62</v>
-      </c>
-      <c r="H20" s="30" t="s">
-        <v>152</v>
+        <v>189</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>151</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="J20" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="K20" s="86" t="s">
-        <v>46</v>
+        <v>37</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="L20" s="1" t="s">
         <v>44</v>
@@ -4090,7 +4169,7 @@
         <v>45</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O20" s="1" t="s">
         <v>45</v>
@@ -4099,10 +4178,10 @@
         <v>180</v>
       </c>
       <c r="Q20" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="R20" s="1" t="s">
-        <v>109</v>
+        <v>73</v>
       </c>
       <c r="S20" s="30" t="s">
         <v>209</v>
@@ -4114,7 +4193,7 @@
         <v>116</v>
       </c>
       <c r="V20" s="86" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="W20" s="1" t="s">
         <v>128</v>
@@ -4122,24 +4201,24 @@
       <c r="X20" s="3"/>
     </row>
     <row r="21" spans="1:24" ht="54">
-      <c r="B21" s="107"/>
+      <c r="B21" s="108"/>
       <c r="C21" s="92" t="s">
         <v>198</v>
       </c>
       <c r="D21" s="84" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E21" s="96" t="s">
         <v>190</v>
       </c>
       <c r="F21" s="30" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G21" s="86" t="s">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="H21" s="30" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I21" s="1" t="s">
         <v>90</v>
@@ -4169,7 +4248,7 @@
         <v>39</v>
       </c>
       <c r="R21" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="S21" s="30" t="s">
         <v>209</v>
@@ -4181,50 +4260,50 @@
         <v>116</v>
       </c>
       <c r="V21" s="86" t="s">
-        <v>33</v>
+        <v>145</v>
       </c>
       <c r="W21" s="1" t="s">
         <v>128</v>
       </c>
       <c r="X21" s="3"/>
     </row>
-    <row r="22" spans="1:24" ht="94.5">
-      <c r="B22" s="107"/>
+    <row r="22" spans="1:24" ht="54">
+      <c r="B22" s="108"/>
       <c r="C22" s="92" t="s">
         <v>198</v>
       </c>
       <c r="D22" s="84" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="E22" s="96" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F22" s="30" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="G22" s="86" t="s">
         <v>33</v>
       </c>
       <c r="H22" s="30" t="s">
-        <v>154</v>
-      </c>
-      <c r="I22" s="86" t="s">
-        <v>33</v>
-      </c>
-      <c r="J22" s="86" t="s">
-        <v>33</v>
+        <v>153</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="J22" s="30" t="s">
+        <v>45</v>
       </c>
       <c r="K22" s="86" t="s">
         <v>46</v>
       </c>
-      <c r="L22" s="86" t="s">
-        <v>47</v>
-      </c>
-      <c r="M22" s="86" t="s">
-        <v>47</v>
-      </c>
-      <c r="N22" s="86" t="s">
-        <v>33</v>
+      <c r="L22" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>107</v>
       </c>
       <c r="O22" s="1" t="s">
         <v>45</v>
@@ -4232,17 +4311,17 @@
       <c r="P22" s="86" t="s">
         <v>180</v>
       </c>
-      <c r="Q22" s="86" t="s">
-        <v>33</v>
-      </c>
-      <c r="R22" s="30" t="s">
-        <v>111</v>
+      <c r="Q22" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R22" s="1" t="s">
+        <v>110</v>
       </c>
       <c r="S22" s="30" t="s">
         <v>209</v>
       </c>
       <c r="T22" s="30" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="U22" s="1" t="s">
         <v>116</v>
@@ -4255,16 +4334,16 @@
       </c>
       <c r="X22" s="3"/>
     </row>
-    <row r="23" spans="1:24" ht="67.5">
-      <c r="B23" s="107"/>
-      <c r="C23" s="105" t="s">
-        <v>216</v>
+    <row r="23" spans="1:24" ht="94.5">
+      <c r="B23" s="108"/>
+      <c r="C23" s="92" t="s">
+        <v>198</v>
       </c>
       <c r="D23" s="84" t="s">
-        <v>171</v>
-      </c>
-      <c r="E23" s="97" t="s">
-        <v>184</v>
+        <v>12</v>
+      </c>
+      <c r="E23" s="96" t="s">
+        <v>191</v>
       </c>
       <c r="F23" s="30" t="s">
         <v>87</v>
@@ -4308,8 +4387,8 @@
       <c r="S23" s="30" t="s">
         <v>209</v>
       </c>
-      <c r="T23" s="1" t="s">
-        <v>212</v>
+      <c r="T23" s="30" t="s">
+        <v>210</v>
       </c>
       <c r="U23" s="1" t="s">
         <v>116</v>
@@ -4317,21 +4396,21 @@
       <c r="V23" s="86" t="s">
         <v>33</v>
       </c>
-      <c r="W23" s="86" t="s">
-        <v>33</v>
+      <c r="W23" s="1" t="s">
+        <v>128</v>
       </c>
       <c r="X23" s="3"/>
     </row>
     <row r="24" spans="1:24" ht="67.5">
-      <c r="B24" s="107"/>
+      <c r="B24" s="108"/>
       <c r="C24" s="105" t="s">
         <v>216</v>
       </c>
       <c r="D24" s="84" t="s">
-        <v>217</v>
+        <v>171</v>
       </c>
       <c r="E24" s="97" t="s">
-        <v>218</v>
+        <v>184</v>
       </c>
       <c r="F24" s="30" t="s">
         <v>87</v>
@@ -4375,8 +4454,8 @@
       <c r="S24" s="30" t="s">
         <v>209</v>
       </c>
-      <c r="T24" s="30" t="s">
-        <v>219</v>
+      <c r="T24" s="1" t="s">
+        <v>212</v>
       </c>
       <c r="U24" s="1" t="s">
         <v>116</v>
@@ -4390,24 +4469,24 @@
       <c r="X24" s="3"/>
     </row>
     <row r="25" spans="1:24" ht="67.5">
-      <c r="B25" s="107"/>
-      <c r="C25" s="92" t="s">
-        <v>198</v>
+      <c r="B25" s="108"/>
+      <c r="C25" s="105" t="s">
+        <v>216</v>
       </c>
       <c r="D25" s="84" t="s">
-        <v>94</v>
-      </c>
-      <c r="E25" s="100" t="s">
-        <v>192</v>
+        <v>217</v>
+      </c>
+      <c r="E25" s="97" t="s">
+        <v>218</v>
       </c>
       <c r="F25" s="30" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="G25" s="86" t="s">
         <v>33</v>
       </c>
       <c r="H25" s="30" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I25" s="86" t="s">
         <v>33</v>
@@ -4437,20 +4516,22 @@
         <v>33</v>
       </c>
       <c r="R25" s="30" t="s">
-        <v>84</v>
+        <v>111</v>
       </c>
       <c r="S25" s="30" t="s">
         <v>209</v>
       </c>
-      <c r="T25" s="1"/>
+      <c r="T25" s="30" t="s">
+        <v>219</v>
+      </c>
       <c r="U25" s="1" t="s">
         <v>116</v>
       </c>
       <c r="V25" s="86" t="s">
         <v>33</v>
       </c>
-      <c r="W25" s="1" t="s">
-        <v>128</v>
+      <c r="W25" s="86" t="s">
+        <v>33</v>
       </c>
       <c r="X25" s="3"/>
     </row>
@@ -4460,7 +4541,7 @@
         <v>198</v>
       </c>
       <c r="D26" s="84" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E26" s="100" t="s">
         <v>192</v>
@@ -4472,7 +4553,7 @@
         <v>33</v>
       </c>
       <c r="H26" s="30" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I26" s="86" t="s">
         <v>33</v>
@@ -4519,259 +4600,324 @@
       </c>
       <c r="X26" s="3"/>
     </row>
-    <row r="27" spans="1:24" ht="41.25" thickBot="1">
-      <c r="B27" s="103" t="s">
+    <row r="27" spans="1:24" ht="67.5">
+      <c r="B27" s="109"/>
+      <c r="C27" s="92" t="s">
+        <v>198</v>
+      </c>
+      <c r="D27" s="84" t="s">
+        <v>95</v>
+      </c>
+      <c r="E27" s="100" t="s">
+        <v>192</v>
+      </c>
+      <c r="F27" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="G27" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="H27" s="30" t="s">
+        <v>156</v>
+      </c>
+      <c r="I27" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="J27" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="K27" s="86" t="s">
+        <v>46</v>
+      </c>
+      <c r="L27" s="86" t="s">
+        <v>47</v>
+      </c>
+      <c r="M27" s="86" t="s">
+        <v>47</v>
+      </c>
+      <c r="N27" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="O27" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="P27" s="86" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q27" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="R27" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="S27" s="30" t="s">
+        <v>209</v>
+      </c>
+      <c r="T27" s="1"/>
+      <c r="U27" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="V27" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="W27" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="X27" s="3"/>
+    </row>
+    <row r="28" spans="1:24" ht="41.25" thickBot="1">
+      <c r="B28" s="103" t="s">
         <v>200</v>
       </c>
-      <c r="C27" s="95" t="s">
+      <c r="C28" s="95" t="s">
         <v>13</v>
       </c>
-      <c r="D27" s="85" t="s">
+      <c r="D28" s="85" t="s">
         <v>13</v>
       </c>
-      <c r="E27" s="98" t="s">
+      <c r="E28" s="98" t="s">
         <v>185</v>
       </c>
-      <c r="F27" s="71" t="s">
+      <c r="F28" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="G27" s="87" t="s">
-        <v>33</v>
-      </c>
-      <c r="H27" s="87" t="s">
+      <c r="G28" s="87" t="s">
+        <v>33</v>
+      </c>
+      <c r="H28" s="87" t="s">
         <v>85</v>
       </c>
-      <c r="I27" s="87" t="s">
-        <v>33</v>
-      </c>
-      <c r="J27" s="87" t="s">
-        <v>33</v>
-      </c>
-      <c r="K27" s="87" t="s">
+      <c r="I28" s="87" t="s">
+        <v>33</v>
+      </c>
+      <c r="J28" s="87" t="s">
+        <v>33</v>
+      </c>
+      <c r="K28" s="87" t="s">
         <v>46</v>
       </c>
-      <c r="L27" s="87" t="s">
+      <c r="L28" s="87" t="s">
         <v>47</v>
       </c>
-      <c r="M27" s="87" t="s">
+      <c r="M28" s="87" t="s">
         <v>47</v>
       </c>
-      <c r="N27" s="87" t="s">
-        <v>33</v>
-      </c>
-      <c r="O27" s="87" t="s">
-        <v>33</v>
-      </c>
-      <c r="P27" s="86" t="s">
+      <c r="N28" s="87" t="s">
+        <v>33</v>
+      </c>
+      <c r="O28" s="87" t="s">
+        <v>33</v>
+      </c>
+      <c r="P28" s="86" t="s">
         <v>181</v>
       </c>
-      <c r="Q27" s="87" t="s">
-        <v>33</v>
-      </c>
-      <c r="R27" s="6" t="s">
+      <c r="Q28" s="87" t="s">
+        <v>33</v>
+      </c>
+      <c r="R28" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="S27" s="71" t="s">
+      <c r="S28" s="71" t="s">
         <v>209</v>
       </c>
-      <c r="T27" s="6"/>
-      <c r="U27" s="6" t="s">
+      <c r="T28" s="6"/>
+      <c r="U28" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="V27" s="87" t="s">
-        <v>33</v>
-      </c>
-      <c r="W27" s="6" t="s">
+      <c r="V28" s="87" t="s">
+        <v>33</v>
+      </c>
+      <c r="W28" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="X27" s="7"/>
-    </row>
-    <row r="31" spans="1:24">
-      <c r="A31" s="121" t="s">
+      <c r="X28" s="7"/>
+    </row>
+    <row r="32" spans="1:24">
+      <c r="A32" s="106" t="s">
         <v>223</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B32" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="32" spans="1:24">
-      <c r="B32" s="60" t="s">
+    <row r="33" spans="1:3">
+      <c r="B33" s="60" t="s">
         <v>139</v>
       </c>
-      <c r="C32" s="60"/>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="121" t="s">
+      <c r="C33" s="60"/>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="106" t="s">
         <v>224</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B35" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
-      <c r="B35" s="60" t="s">
+    <row r="36" spans="1:3">
+      <c r="B36" s="60" t="s">
         <v>138</v>
       </c>
-      <c r="C35" s="60"/>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="121" t="s">
+      <c r="C36" s="60"/>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="106" t="s">
         <v>225</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B38" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
-      <c r="B38" s="60" t="s">
+    <row r="39" spans="1:3">
+      <c r="B39" s="60" t="s">
         <v>137</v>
       </c>
-      <c r="C38" s="60"/>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="121" t="s">
+      <c r="C39" s="60"/>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="106" t="s">
         <v>226</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B41" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
-      <c r="B41" s="60" t="s">
+    <row r="42" spans="1:3">
+      <c r="B42" s="60" t="s">
         <v>136</v>
       </c>
-      <c r="C41" s="60"/>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" s="121" t="s">
+      <c r="C42" s="60"/>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="106" t="s">
         <v>227</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B44" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
-      <c r="B44" s="61" t="s">
+    <row r="45" spans="1:3">
+      <c r="B45" s="61" t="s">
         <v>131</v>
       </c>
-      <c r="C44" s="61"/>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="B45" s="60" t="s">
-        <v>135</v>
-      </c>
-      <c r="C45" s="60"/>
+      <c r="C45" s="61"/>
     </row>
     <row r="46" spans="1:3">
       <c r="B46" s="60" t="s">
+        <v>135</v>
+      </c>
+      <c r="C46" s="60"/>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="B47" s="60" t="s">
         <v>140</v>
       </c>
-      <c r="C46" s="60"/>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" s="121" t="s">
+      <c r="C47" s="60"/>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="106" t="s">
         <v>228</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B49" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
-      <c r="B49" s="60" t="s">
+    <row r="50" spans="1:3">
+      <c r="B50" s="60" t="s">
         <v>158</v>
       </c>
-      <c r="C49" s="60"/>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51" s="121" t="s">
+      <c r="C50" s="60"/>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="106" t="s">
         <v>229</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B52" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
-      <c r="B52" s="60" t="s">
+    <row r="53" spans="1:3">
+      <c r="B53" s="60" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
-      <c r="A54" s="121" t="s">
+    <row r="55" spans="1:3">
+      <c r="A55" s="106" t="s">
         <v>230</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B55" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
-      <c r="B55" s="60" t="s">
+    <row r="56" spans="1:3">
+      <c r="B56" s="60" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
-      <c r="A57" s="121" t="s">
+    <row r="58" spans="1:3">
+      <c r="A58" s="106" t="s">
         <v>231</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B58" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
-      <c r="B58" s="60" t="s">
+    <row r="59" spans="1:3">
+      <c r="B59" s="60" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
-      <c r="A60" s="121" t="s">
+    <row r="61" spans="1:3">
+      <c r="A61" s="106" t="s">
         <v>232</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B61" t="s">
         <v>213</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
-      <c r="B61" s="60" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="B62" s="60" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="B63" s="60" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
-      <c r="A64" s="121" t="s">
+    <row r="65" spans="1:2">
+      <c r="A65" s="106" t="s">
         <v>233</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B65" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="65" spans="2:2">
-      <c r="B65" s="60" t="s">
+    <row r="66" spans="1:2">
+      <c r="B66" s="60" t="s">
         <v>222</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B8:B26"/>
+    <mergeCell ref="B8:B27"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="B44" r:id="rId1"/>
-    <hyperlink ref="B45" r:id="rId2"/>
-    <hyperlink ref="B41" r:id="rId3"/>
-    <hyperlink ref="B38" r:id="rId4"/>
-    <hyperlink ref="B35" r:id="rId5"/>
-    <hyperlink ref="B32" r:id="rId6"/>
-    <hyperlink ref="B46" r:id="rId7"/>
-    <hyperlink ref="B49" r:id="rId8"/>
-    <hyperlink ref="B52" r:id="rId9"/>
-    <hyperlink ref="B55" r:id="rId10"/>
-    <hyperlink ref="B58" r:id="rId11"/>
-    <hyperlink ref="B61" r:id="rId12"/>
-    <hyperlink ref="B62" r:id="rId13"/>
-    <hyperlink ref="B65" r:id="rId14"/>
+    <hyperlink ref="B45" r:id="rId1"/>
+    <hyperlink ref="B46" r:id="rId2"/>
+    <hyperlink ref="B42" r:id="rId3"/>
+    <hyperlink ref="B39" r:id="rId4"/>
+    <hyperlink ref="B36" r:id="rId5"/>
+    <hyperlink ref="B33" r:id="rId6"/>
+    <hyperlink ref="B47" r:id="rId7"/>
+    <hyperlink ref="B50" r:id="rId8"/>
+    <hyperlink ref="B53" r:id="rId9"/>
+    <hyperlink ref="B56" r:id="rId10"/>
+    <hyperlink ref="B59" r:id="rId11"/>
+    <hyperlink ref="B62" r:id="rId12"/>
+    <hyperlink ref="B63" r:id="rId13"/>
+    <hyperlink ref="B66" r:id="rId14"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" scale="42" orientation="landscape" horizontalDpi="4294967293" r:id="rId15"/>
@@ -4929,7 +5075,7 @@
       <c r="X7" s="76"/>
     </row>
     <row r="8" spans="2:24" ht="51.75">
-      <c r="B8" s="106" t="s">
+      <c r="B8" s="107" t="s">
         <v>14</v>
       </c>
       <c r="C8" s="93" t="s">
@@ -4996,7 +5142,7 @@
       <c r="X8" s="70"/>
     </row>
     <row r="9" spans="2:24" ht="40.5">
-      <c r="B9" s="107"/>
+      <c r="B9" s="108"/>
       <c r="C9" s="92" t="s">
         <v>204</v>
       </c>
@@ -5061,7 +5207,7 @@
       <c r="X9" s="3"/>
     </row>
     <row r="10" spans="2:24" ht="40.5">
-      <c r="B10" s="107"/>
+      <c r="B10" s="108"/>
       <c r="C10" s="92" t="s">
         <v>204</v>
       </c>
@@ -5126,7 +5272,7 @@
       <c r="X10" s="3"/>
     </row>
     <row r="11" spans="2:24" ht="40.5">
-      <c r="B11" s="107"/>
+      <c r="B11" s="108"/>
       <c r="C11" s="92" t="s">
         <v>204</v>
       </c>
@@ -5191,7 +5337,7 @@
       <c r="X11" s="3"/>
     </row>
     <row r="12" spans="2:24" ht="54">
-      <c r="B12" s="107"/>
+      <c r="B12" s="108"/>
       <c r="C12" s="102" t="s">
         <v>197</v>
       </c>
@@ -5256,7 +5402,7 @@
       <c r="X12" s="3"/>
     </row>
     <row r="13" spans="2:24" ht="40.5">
-      <c r="B13" s="107"/>
+      <c r="B13" s="108"/>
       <c r="C13" s="101" t="s">
         <v>197</v>
       </c>
@@ -5321,7 +5467,7 @@
       <c r="X13" s="3"/>
     </row>
     <row r="14" spans="2:24" ht="40.5">
-      <c r="B14" s="107"/>
+      <c r="B14" s="108"/>
       <c r="C14" s="102" t="s">
         <v>197</v>
       </c>
@@ -5386,7 +5532,7 @@
       <c r="X14" s="3"/>
     </row>
     <row r="15" spans="2:24" ht="40.5">
-      <c r="B15" s="107"/>
+      <c r="B15" s="108"/>
       <c r="C15" s="101" t="s">
         <v>197</v>
       </c>
@@ -5451,7 +5597,7 @@
       <c r="X15" s="3"/>
     </row>
     <row r="16" spans="2:24" ht="40.5">
-      <c r="B16" s="107"/>
+      <c r="B16" s="108"/>
       <c r="C16" s="92" t="s">
         <v>69</v>
       </c>
@@ -5516,7 +5662,7 @@
       <c r="X16" s="3"/>
     </row>
     <row r="17" spans="2:24" ht="51.75">
-      <c r="B17" s="107"/>
+      <c r="B17" s="108"/>
       <c r="C17" s="92" t="s">
         <v>198</v>
       </c>
@@ -5583,7 +5729,7 @@
       <c r="X17" s="3"/>
     </row>
     <row r="18" spans="2:24" ht="51.75">
-      <c r="B18" s="107"/>
+      <c r="B18" s="108"/>
       <c r="C18" s="92" t="s">
         <v>198</v>
       </c>
@@ -5650,7 +5796,7 @@
       <c r="X18" s="3"/>
     </row>
     <row r="19" spans="2:24" ht="51.75">
-      <c r="B19" s="107"/>
+      <c r="B19" s="108"/>
       <c r="C19" s="92" t="s">
         <v>204</v>
       </c>
@@ -5717,7 +5863,7 @@
       <c r="X19" s="3"/>
     </row>
     <row r="20" spans="2:24" ht="54">
-      <c r="B20" s="107"/>
+      <c r="B20" s="108"/>
       <c r="C20" s="92" t="s">
         <v>198</v>
       </c>
@@ -5784,7 +5930,7 @@
       <c r="X20" s="3"/>
     </row>
     <row r="21" spans="2:24" ht="54">
-      <c r="B21" s="107"/>
+      <c r="B21" s="108"/>
       <c r="C21" s="92" t="s">
         <v>198</v>
       </c>
@@ -5851,7 +5997,7 @@
       <c r="X21" s="3"/>
     </row>
     <row r="22" spans="2:24" ht="94.5">
-      <c r="B22" s="107"/>
+      <c r="B22" s="108"/>
       <c r="C22" s="92" t="s">
         <v>198</v>
       </c>
@@ -5918,7 +6064,7 @@
       <c r="X22" s="3"/>
     </row>
     <row r="23" spans="2:24" ht="67.5">
-      <c r="B23" s="107"/>
+      <c r="B23" s="108"/>
       <c r="C23" s="92" t="s">
         <v>198</v>
       </c>
@@ -5985,7 +6131,7 @@
       <c r="X23" s="3"/>
     </row>
     <row r="24" spans="2:24" ht="67.5">
-      <c r="B24" s="107"/>
+      <c r="B24" s="108"/>
       <c r="C24" s="92" t="s">
         <v>198</v>
       </c>
@@ -6050,7 +6196,7 @@
       <c r="X24" s="3"/>
     </row>
     <row r="25" spans="2:24" ht="67.5">
-      <c r="B25" s="108"/>
+      <c r="B25" s="109"/>
       <c r="C25" s="92" t="s">
         <v>198</v>
       </c>
@@ -6481,7 +6627,7 @@
       <c r="Y5" s="76"/>
     </row>
     <row r="6" spans="2:25" ht="51.75">
-      <c r="B6" s="109" t="s">
+      <c r="B6" s="110" t="s">
         <v>14</v>
       </c>
       <c r="C6" s="93" t="s">
@@ -6551,7 +6697,7 @@
       <c r="Y6" s="70"/>
     </row>
     <row r="7" spans="2:25" ht="40.5">
-      <c r="B7" s="110"/>
+      <c r="B7" s="111"/>
       <c r="C7" s="92" t="s">
         <v>173</v>
       </c>
@@ -6619,7 +6765,7 @@
       <c r="Y7" s="3"/>
     </row>
     <row r="8" spans="2:25" ht="40.5">
-      <c r="B8" s="110"/>
+      <c r="B8" s="111"/>
       <c r="C8" s="92" t="s">
         <v>174</v>
       </c>
@@ -6687,7 +6833,7 @@
       <c r="Y8" s="3"/>
     </row>
     <row r="9" spans="2:25" ht="40.5">
-      <c r="B9" s="110"/>
+      <c r="B9" s="111"/>
       <c r="C9" s="92" t="s">
         <v>174</v>
       </c>
@@ -6755,7 +6901,7 @@
       <c r="Y9" s="3"/>
     </row>
     <row r="10" spans="2:25" ht="54">
-      <c r="B10" s="110"/>
+      <c r="B10" s="111"/>
       <c r="C10" s="92" t="s">
         <v>174</v>
       </c>
@@ -6823,7 +6969,7 @@
       <c r="Y10" s="3"/>
     </row>
     <row r="11" spans="2:25" ht="40.5">
-      <c r="B11" s="110"/>
+      <c r="B11" s="111"/>
       <c r="C11" s="92" t="s">
         <v>173</v>
       </c>
@@ -6891,7 +7037,7 @@
       <c r="Y11" s="3"/>
     </row>
     <row r="12" spans="2:25" ht="40.5">
-      <c r="B12" s="110"/>
+      <c r="B12" s="111"/>
       <c r="C12" s="92" t="s">
         <v>173</v>
       </c>
@@ -6959,7 +7105,7 @@
       <c r="Y12" s="3"/>
     </row>
     <row r="13" spans="2:25" ht="40.5">
-      <c r="B13" s="110"/>
+      <c r="B13" s="111"/>
       <c r="C13" s="92" t="s">
         <v>173</v>
       </c>
@@ -7027,7 +7173,7 @@
       <c r="Y13" s="3"/>
     </row>
     <row r="14" spans="2:25" ht="40.5">
-      <c r="B14" s="110"/>
+      <c r="B14" s="111"/>
       <c r="C14" s="92" t="s">
         <v>173</v>
       </c>
@@ -7095,7 +7241,7 @@
       <c r="Y14" s="3"/>
     </row>
     <row r="15" spans="2:25" ht="51.75">
-      <c r="B15" s="110"/>
+      <c r="B15" s="111"/>
       <c r="C15" s="92" t="s">
         <v>173</v>
       </c>
@@ -7165,7 +7311,7 @@
       <c r="Y15" s="3"/>
     </row>
     <row r="16" spans="2:25" ht="51.75">
-      <c r="B16" s="110"/>
+      <c r="B16" s="111"/>
       <c r="C16" s="92" t="s">
         <v>173</v>
       </c>
@@ -7235,7 +7381,7 @@
       <c r="Y16" s="3"/>
     </row>
     <row r="17" spans="2:25" ht="51.75">
-      <c r="B17" s="110"/>
+      <c r="B17" s="111"/>
       <c r="C17" s="92" t="s">
         <v>173</v>
       </c>
@@ -7305,7 +7451,7 @@
       <c r="Y17" s="3"/>
     </row>
     <row r="18" spans="2:25" ht="54">
-      <c r="B18" s="110"/>
+      <c r="B18" s="111"/>
       <c r="C18" s="92" t="s">
         <v>173</v>
       </c>
@@ -7375,7 +7521,7 @@
       <c r="Y18" s="3"/>
     </row>
     <row r="19" spans="2:25" ht="54">
-      <c r="B19" s="110"/>
+      <c r="B19" s="111"/>
       <c r="C19" s="92" t="s">
         <v>173</v>
       </c>
@@ -7445,7 +7591,7 @@
       <c r="Y19" s="3"/>
     </row>
     <row r="20" spans="2:25" ht="67.5">
-      <c r="B20" s="110"/>
+      <c r="B20" s="111"/>
       <c r="C20" s="92" t="s">
         <v>173</v>
       </c>
@@ -7515,7 +7661,7 @@
       <c r="Y20" s="3"/>
     </row>
     <row r="21" spans="2:25" ht="67.5">
-      <c r="B21" s="110"/>
+      <c r="B21" s="111"/>
       <c r="C21" s="92" t="s">
         <v>174</v>
       </c>
@@ -7585,7 +7731,7 @@
       <c r="Y21" s="3"/>
     </row>
     <row r="22" spans="2:25" ht="67.5">
-      <c r="B22" s="110"/>
+      <c r="B22" s="111"/>
       <c r="C22" s="92" t="s">
         <v>173</v>
       </c>
@@ -7655,7 +7801,7 @@
       <c r="Y22" s="3"/>
     </row>
     <row r="23" spans="2:25" ht="67.5">
-      <c r="B23" s="110"/>
+      <c r="B23" s="111"/>
       <c r="C23" s="92" t="s">
         <v>173</v>
       </c>
@@ -7725,7 +7871,7 @@
       <c r="Y23" s="3"/>
     </row>
     <row r="24" spans="2:25" ht="41.25" thickBot="1">
-      <c r="B24" s="111"/>
+      <c r="B24" s="112"/>
       <c r="C24" s="95" t="s">
         <v>173</v>
       </c>
@@ -8006,7 +8152,7 @@
       <c r="V5" s="76"/>
     </row>
     <row r="6" spans="2:22" ht="17.25">
-      <c r="B6" s="108" t="s">
+      <c r="B6" s="109" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="83" t="s">
@@ -8065,7 +8211,7 @@
       <c r="V6" s="73"/>
     </row>
     <row r="7" spans="2:22" ht="17.25">
-      <c r="B7" s="110"/>
+      <c r="B7" s="111"/>
       <c r="C7" s="84" t="s">
         <v>2</v>
       </c>
@@ -8122,7 +8268,7 @@
       <c r="V7" s="47"/>
     </row>
     <row r="8" spans="2:22" ht="17.25">
-      <c r="B8" s="110"/>
+      <c r="B8" s="111"/>
       <c r="C8" s="84" t="s">
         <v>3</v>
       </c>
@@ -8179,7 +8325,7 @@
       <c r="V8" s="47"/>
     </row>
     <row r="9" spans="2:22" ht="27">
-      <c r="B9" s="110"/>
+      <c r="B9" s="111"/>
       <c r="C9" s="84" t="s">
         <v>4</v>
       </c>
@@ -8236,7 +8382,7 @@
       <c r="V9" s="47"/>
     </row>
     <row r="10" spans="2:22" ht="40.5">
-      <c r="B10" s="110" t="s">
+      <c r="B10" s="111" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="84" t="s">
@@ -8297,7 +8443,7 @@
       <c r="V10" s="70"/>
     </row>
     <row r="11" spans="2:22" ht="40.5">
-      <c r="B11" s="110"/>
+      <c r="B11" s="111"/>
       <c r="C11" s="84" t="s">
         <v>9</v>
       </c>
@@ -8356,7 +8502,7 @@
       <c r="V11" s="3"/>
     </row>
     <row r="12" spans="2:22" ht="40.5">
-      <c r="B12" s="110"/>
+      <c r="B12" s="111"/>
       <c r="C12" s="84" t="s">
         <v>104</v>
       </c>
@@ -8415,7 +8561,7 @@
       <c r="V12" s="3"/>
     </row>
     <row r="13" spans="2:22" ht="40.5">
-      <c r="B13" s="110"/>
+      <c r="B13" s="111"/>
       <c r="C13" s="84" t="s">
         <v>105</v>
       </c>
@@ -8474,7 +8620,7 @@
       <c r="V13" s="3"/>
     </row>
     <row r="14" spans="2:22" ht="54">
-      <c r="B14" s="110"/>
+      <c r="B14" s="111"/>
       <c r="C14" s="84" t="s">
         <v>148</v>
       </c>
@@ -8533,7 +8679,7 @@
       <c r="V14" s="3"/>
     </row>
     <row r="15" spans="2:22" ht="40.5">
-      <c r="B15" s="110"/>
+      <c r="B15" s="111"/>
       <c r="C15" s="84" t="s">
         <v>146</v>
       </c>
@@ -8592,7 +8738,7 @@
       <c r="V15" s="3"/>
     </row>
     <row r="16" spans="2:22" ht="40.5">
-      <c r="B16" s="110"/>
+      <c r="B16" s="111"/>
       <c r="C16" s="84" t="s">
         <v>147</v>
       </c>
@@ -8651,7 +8797,7 @@
       <c r="V16" s="3"/>
     </row>
     <row r="17" spans="2:22" ht="40.5">
-      <c r="B17" s="110"/>
+      <c r="B17" s="111"/>
       <c r="C17" s="84" t="s">
         <v>160</v>
       </c>
@@ -8710,7 +8856,7 @@
       <c r="V17" s="3"/>
     </row>
     <row r="18" spans="2:22" ht="17.25">
-      <c r="B18" s="110"/>
+      <c r="B18" s="111"/>
       <c r="C18" s="84" t="s">
         <v>10</v>
       </c>
@@ -8771,7 +8917,7 @@
       <c r="V18" s="3"/>
     </row>
     <row r="19" spans="2:22" ht="17.25">
-      <c r="B19" s="110"/>
+      <c r="B19" s="111"/>
       <c r="C19" s="84" t="s">
         <v>3</v>
       </c>
@@ -8832,7 +8978,7 @@
       <c r="V19" s="3"/>
     </row>
     <row r="20" spans="2:22" ht="17.25">
-      <c r="B20" s="110"/>
+      <c r="B20" s="111"/>
       <c r="C20" s="84" t="s">
         <v>11</v>
       </c>
@@ -8893,7 +9039,7 @@
       <c r="V20" s="3"/>
     </row>
     <row r="21" spans="2:22" ht="54">
-      <c r="B21" s="110"/>
+      <c r="B21" s="111"/>
       <c r="C21" s="84" t="s">
         <v>58</v>
       </c>
@@ -8954,7 +9100,7 @@
       <c r="V21" s="3"/>
     </row>
     <row r="22" spans="2:22" ht="54">
-      <c r="B22" s="110"/>
+      <c r="B22" s="111"/>
       <c r="C22" s="84" t="s">
         <v>59</v>
       </c>
@@ -9015,7 +9161,7 @@
       <c r="V22" s="3"/>
     </row>
     <row r="23" spans="2:22" ht="67.5">
-      <c r="B23" s="110"/>
+      <c r="B23" s="111"/>
       <c r="C23" s="84" t="s">
         <v>12</v>
       </c>
@@ -9076,7 +9222,7 @@
       <c r="V23" s="3"/>
     </row>
     <row r="24" spans="2:22" ht="67.5">
-      <c r="B24" s="110"/>
+      <c r="B24" s="111"/>
       <c r="C24" s="84" t="s">
         <v>171</v>
       </c>
@@ -9137,7 +9283,7 @@
       <c r="V24" s="3"/>
     </row>
     <row r="25" spans="2:22" ht="67.5">
-      <c r="B25" s="110"/>
+      <c r="B25" s="111"/>
       <c r="C25" s="84" t="s">
         <v>94</v>
       </c>
@@ -9198,7 +9344,7 @@
       <c r="V25" s="3"/>
     </row>
     <row r="26" spans="2:22" ht="67.5">
-      <c r="B26" s="110"/>
+      <c r="B26" s="111"/>
       <c r="C26" s="84" t="s">
         <v>95</v>
       </c>
@@ -9259,7 +9405,7 @@
       <c r="V26" s="3"/>
     </row>
     <row r="27" spans="2:22" ht="41.25" thickBot="1">
-      <c r="B27" s="111"/>
+      <c r="B27" s="112"/>
       <c r="C27" s="85" t="s">
         <v>13</v>
       </c>
@@ -9523,7 +9669,7 @@
       <c r="V5" s="76"/>
     </row>
     <row r="6" spans="2:22" ht="17.25">
-      <c r="B6" s="108" t="s">
+      <c r="B6" s="109" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="83" t="s">
@@ -9582,7 +9728,7 @@
       <c r="V6" s="73"/>
     </row>
     <row r="7" spans="2:22" ht="17.25">
-      <c r="B7" s="110"/>
+      <c r="B7" s="111"/>
       <c r="C7" s="84" t="s">
         <v>2</v>
       </c>
@@ -9639,7 +9785,7 @@
       <c r="V7" s="47"/>
     </row>
     <row r="8" spans="2:22" ht="17.25">
-      <c r="B8" s="110"/>
+      <c r="B8" s="111"/>
       <c r="C8" s="84" t="s">
         <v>3</v>
       </c>
@@ -9696,7 +9842,7 @@
       <c r="V8" s="47"/>
     </row>
     <row r="9" spans="2:22" ht="27">
-      <c r="B9" s="110"/>
+      <c r="B9" s="111"/>
       <c r="C9" s="84" t="s">
         <v>4</v>
       </c>
@@ -9753,7 +9899,7 @@
       <c r="V9" s="47"/>
     </row>
     <row r="10" spans="2:22" ht="40.5">
-      <c r="B10" s="110" t="s">
+      <c r="B10" s="111" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="84" t="s">
@@ -9814,7 +9960,7 @@
       <c r="V10" s="70"/>
     </row>
     <row r="11" spans="2:22" ht="40.5">
-      <c r="B11" s="110"/>
+      <c r="B11" s="111"/>
       <c r="C11" s="84" t="s">
         <v>9</v>
       </c>
@@ -9873,7 +10019,7 @@
       <c r="V11" s="3"/>
     </row>
     <row r="12" spans="2:22" ht="40.5">
-      <c r="B12" s="110"/>
+      <c r="B12" s="111"/>
       <c r="C12" s="84" t="s">
         <v>104</v>
       </c>
@@ -9932,7 +10078,7 @@
       <c r="V12" s="3"/>
     </row>
     <row r="13" spans="2:22" ht="40.5">
-      <c r="B13" s="110"/>
+      <c r="B13" s="111"/>
       <c r="C13" s="84" t="s">
         <v>105</v>
       </c>
@@ -9991,7 +10137,7 @@
       <c r="V13" s="3"/>
     </row>
     <row r="14" spans="2:22" ht="54">
-      <c r="B14" s="110"/>
+      <c r="B14" s="111"/>
       <c r="C14" s="84" t="s">
         <v>148</v>
       </c>
@@ -10050,7 +10196,7 @@
       <c r="V14" s="3"/>
     </row>
     <row r="15" spans="2:22" ht="40.5">
-      <c r="B15" s="110"/>
+      <c r="B15" s="111"/>
       <c r="C15" s="84" t="s">
         <v>146</v>
       </c>
@@ -10109,7 +10255,7 @@
       <c r="V15" s="3"/>
     </row>
     <row r="16" spans="2:22" ht="40.5">
-      <c r="B16" s="110"/>
+      <c r="B16" s="111"/>
       <c r="C16" s="84" t="s">
         <v>147</v>
       </c>
@@ -10168,7 +10314,7 @@
       <c r="V16" s="3"/>
     </row>
     <row r="17" spans="2:22" ht="40.5">
-      <c r="B17" s="110"/>
+      <c r="B17" s="111"/>
       <c r="C17" s="84" t="s">
         <v>160</v>
       </c>
@@ -10227,7 +10373,7 @@
       <c r="V17" s="3"/>
     </row>
     <row r="18" spans="2:22" ht="17.25">
-      <c r="B18" s="110"/>
+      <c r="B18" s="111"/>
       <c r="C18" s="84" t="s">
         <v>10</v>
       </c>
@@ -10288,7 +10434,7 @@
       <c r="V18" s="3"/>
     </row>
     <row r="19" spans="2:22" ht="17.25">
-      <c r="B19" s="110"/>
+      <c r="B19" s="111"/>
       <c r="C19" s="84" t="s">
         <v>3</v>
       </c>
@@ -10349,7 +10495,7 @@
       <c r="V19" s="3"/>
     </row>
     <row r="20" spans="2:22" ht="17.25">
-      <c r="B20" s="110"/>
+      <c r="B20" s="111"/>
       <c r="C20" s="84" t="s">
         <v>11</v>
       </c>
@@ -10410,7 +10556,7 @@
       <c r="V20" s="3"/>
     </row>
     <row r="21" spans="2:22" ht="54">
-      <c r="B21" s="110"/>
+      <c r="B21" s="111"/>
       <c r="C21" s="84" t="s">
         <v>58</v>
       </c>
@@ -10471,7 +10617,7 @@
       <c r="V21" s="3"/>
     </row>
     <row r="22" spans="2:22" ht="54">
-      <c r="B22" s="110"/>
+      <c r="B22" s="111"/>
       <c r="C22" s="84" t="s">
         <v>59</v>
       </c>
@@ -10532,7 +10678,7 @@
       <c r="V22" s="3"/>
     </row>
     <row r="23" spans="2:22" ht="67.5">
-      <c r="B23" s="110"/>
+      <c r="B23" s="111"/>
       <c r="C23" s="84" t="s">
         <v>12</v>
       </c>
@@ -10593,7 +10739,7 @@
       <c r="V23" s="3"/>
     </row>
     <row r="24" spans="2:22" ht="67.5">
-      <c r="B24" s="110"/>
+      <c r="B24" s="111"/>
       <c r="C24" s="84" t="s">
         <v>94</v>
       </c>
@@ -10654,7 +10800,7 @@
       <c r="V24" s="3"/>
     </row>
     <row r="25" spans="2:22" ht="67.5">
-      <c r="B25" s="110"/>
+      <c r="B25" s="111"/>
       <c r="C25" s="84" t="s">
         <v>95</v>
       </c>
@@ -10715,7 +10861,7 @@
       <c r="V25" s="3"/>
     </row>
     <row r="26" spans="2:22" ht="41.25" thickBot="1">
-      <c r="B26" s="111"/>
+      <c r="B26" s="112"/>
       <c r="C26" s="85" t="s">
         <v>13</v>
       </c>
@@ -10900,31 +11046,31 @@
     <row r="3" spans="2:23" ht="14.25" thickBot="1"/>
     <row r="4" spans="2:23" ht="21.75" thickBot="1">
       <c r="B4" s="8"/>
-      <c r="C4" s="106" t="s">
+      <c r="C4" s="107" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="112"/>
-      <c r="E4" s="112"/>
-      <c r="F4" s="113"/>
-      <c r="G4" s="114" t="s">
+      <c r="D4" s="113"/>
+      <c r="E4" s="113"/>
+      <c r="F4" s="114"/>
+      <c r="G4" s="115" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="114"/>
-      <c r="I4" s="114"/>
-      <c r="J4" s="112"/>
-      <c r="K4" s="112"/>
-      <c r="L4" s="112"/>
-      <c r="M4" s="112"/>
-      <c r="N4" s="112"/>
-      <c r="O4" s="112"/>
-      <c r="P4" s="112"/>
-      <c r="Q4" s="112"/>
-      <c r="R4" s="112"/>
-      <c r="S4" s="112"/>
-      <c r="T4" s="112"/>
-      <c r="U4" s="115"/>
-      <c r="V4" s="115"/>
-      <c r="W4" s="113"/>
+      <c r="H4" s="115"/>
+      <c r="I4" s="115"/>
+      <c r="J4" s="113"/>
+      <c r="K4" s="113"/>
+      <c r="L4" s="113"/>
+      <c r="M4" s="113"/>
+      <c r="N4" s="113"/>
+      <c r="O4" s="113"/>
+      <c r="P4" s="113"/>
+      <c r="Q4" s="113"/>
+      <c r="R4" s="113"/>
+      <c r="S4" s="113"/>
+      <c r="T4" s="113"/>
+      <c r="U4" s="116"/>
+      <c r="V4" s="116"/>
+      <c r="W4" s="114"/>
     </row>
     <row r="5" spans="2:23" ht="18" thickBot="1">
       <c r="B5" s="9" t="s">
@@ -12257,27 +12403,27 @@
     <row r="3" spans="2:19" ht="14.25" thickBot="1"/>
     <row r="4" spans="2:19" ht="21.75" thickBot="1">
       <c r="B4" s="8"/>
-      <c r="C4" s="116" t="s">
+      <c r="C4" s="117" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="117"/>
-      <c r="E4" s="117"/>
-      <c r="F4" s="118"/>
-      <c r="G4" s="119" t="s">
+      <c r="D4" s="118"/>
+      <c r="E4" s="118"/>
+      <c r="F4" s="119"/>
+      <c r="G4" s="120" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="119"/>
-      <c r="I4" s="119"/>
-      <c r="J4" s="117"/>
-      <c r="K4" s="117"/>
-      <c r="L4" s="117"/>
-      <c r="M4" s="117"/>
-      <c r="N4" s="117"/>
-      <c r="O4" s="117"/>
-      <c r="P4" s="117"/>
-      <c r="Q4" s="120"/>
-      <c r="R4" s="120"/>
-      <c r="S4" s="118"/>
+      <c r="H4" s="120"/>
+      <c r="I4" s="120"/>
+      <c r="J4" s="118"/>
+      <c r="K4" s="118"/>
+      <c r="L4" s="118"/>
+      <c r="M4" s="118"/>
+      <c r="N4" s="118"/>
+      <c r="O4" s="118"/>
+      <c r="P4" s="118"/>
+      <c r="Q4" s="121"/>
+      <c r="R4" s="121"/>
+      <c r="S4" s="119"/>
     </row>
     <row r="5" spans="2:19" ht="18" thickBot="1">
       <c r="B5" s="9" t="s">
@@ -13275,23 +13421,23 @@
     <row r="3" spans="2:15" ht="14.25" thickBot="1"/>
     <row r="4" spans="2:15" ht="21.75" thickBot="1">
       <c r="B4" s="8"/>
-      <c r="C4" s="116" t="s">
+      <c r="C4" s="117" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="117"/>
-      <c r="E4" s="117"/>
-      <c r="F4" s="118"/>
-      <c r="G4" s="119" t="s">
+      <c r="D4" s="118"/>
+      <c r="E4" s="118"/>
+      <c r="F4" s="119"/>
+      <c r="G4" s="120" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="117"/>
-      <c r="I4" s="117"/>
-      <c r="J4" s="117"/>
-      <c r="K4" s="117"/>
-      <c r="L4" s="117"/>
-      <c r="M4" s="117"/>
-      <c r="N4" s="117"/>
-      <c r="O4" s="118"/>
+      <c r="H4" s="118"/>
+      <c r="I4" s="118"/>
+      <c r="J4" s="118"/>
+      <c r="K4" s="118"/>
+      <c r="L4" s="118"/>
+      <c r="M4" s="118"/>
+      <c r="N4" s="118"/>
+      <c r="O4" s="119"/>
     </row>
     <row r="5" spans="2:15" ht="18" thickBot="1">
       <c r="B5" s="9" t="s">

--- a/msx3gen/files/msx_gen3.xlsx
+++ b/msx3gen/files/msx_gen3.xlsx
@@ -1627,10 +1627,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>MSX0 Octopus</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>なし？</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1699,6 +1695,10 @@
     <rPh sb="6" eb="8">
       <t>リヨウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MSX0 Booster</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3229,10 +3229,10 @@
   <dimension ref="A3:X66"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="4" ySplit="7" topLeftCell="L8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="7" topLeftCell="O8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="N17" sqref="N17"/>
+      <selection pane="bottomRight" activeCell="Z14" sqref="Z14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3873,40 +3873,40 @@
         <v>235</v>
       </c>
       <c r="D16" s="84" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="E16" s="97" t="s">
         <v>183</v>
       </c>
       <c r="F16" s="30" t="s">
+        <v>236</v>
+      </c>
+      <c r="G16" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="H16" s="30" t="s">
         <v>238</v>
       </c>
-      <c r="H16" s="30" t="s">
+      <c r="I16" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="I16" s="1" t="s">
+      <c r="J16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="O16" s="30" t="s">
         <v>240</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="L16" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="M16" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="N16" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="O16" s="30" t="s">
-        <v>241</v>
       </c>
       <c r="P16" s="86" t="s">
         <v>33</v>
@@ -3921,7 +3921,7 @@
         <v>166</v>
       </c>
       <c r="T16" s="30" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="U16" s="1" t="s">
         <v>165</v>

--- a/msx3gen/files/msx_gen3.xlsx
+++ b/msx3gen/files/msx_gen3.xlsx
@@ -170,7 +170,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3135" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3138" uniqueCount="247">
   <si>
     <t>旧来のMSX</t>
     <rPh sb="0" eb="2">
@@ -1699,6 +1699,24 @@
   </si>
   <si>
     <t>MSX0 Booster</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(12)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MSX0 Octopus は MSX0 Booster に名前が変わった</t>
+    <rPh sb="29" eb="31">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://x.com/nishikazuhiko/status/1695967501975466424</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3226,13 +3244,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A3:X66"/>
+  <dimension ref="A3:X69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="4" ySplit="7" topLeftCell="O8" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="4" ySplit="7" topLeftCell="E21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="Z14" sqref="Z14"/>
+      <selection pane="bottomRight" activeCell="B70" sqref="B70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4898,6 +4916,19 @@
         <v>222</v>
       </c>
     </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="106" t="s">
+        <v>244</v>
+      </c>
+      <c r="B68" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="B69" s="60" t="s">
+        <v>246</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B8:B27"/>
@@ -4918,16 +4949,17 @@
     <hyperlink ref="B62" r:id="rId12"/>
     <hyperlink ref="B63" r:id="rId13"/>
     <hyperlink ref="B66" r:id="rId14"/>
+    <hyperlink ref="B69" r:id="rId15"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="8" scale="42" orientation="landscape" horizontalDpi="4294967293" r:id="rId15"/>
-  <drawing r:id="rId16"/>
-  <legacyDrawing r:id="rId17"/>
+  <pageSetup paperSize="8" scale="42" orientation="landscape" horizontalDpi="4294967293" r:id="rId16"/>
+  <drawing r:id="rId17"/>
+  <legacyDrawing r:id="rId18"/>
   <oleObjects>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Visio.Drawing.15" shapeId="4097" r:id="rId18">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId19">
+        <oleObject progId="Visio.Drawing.15" shapeId="4097" r:id="rId19">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId20">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
@@ -4946,7 +4978,7 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Visio.Drawing.15" shapeId="4097" r:id="rId18"/>
+        <oleObject progId="Visio.Drawing.15" shapeId="4097" r:id="rId19"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </oleObjects>

--- a/msx3gen/files/msx_gen3.xlsx
+++ b/msx3gen/files/msx_gen3.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="23310" windowHeight="6915"/>
   </bookViews>
   <sheets>
-    <sheet name="2024年9月30日" sheetId="8" r:id="rId1"/>
+    <sheet name="2024年10月12日" sheetId="8" r:id="rId1"/>
     <sheet name="2024年9月29日" sheetId="7" r:id="rId2"/>
     <sheet name="2024年9月28日 ver4" sheetId="6" r:id="rId3"/>
     <sheet name="2024年9月28日 ver3" sheetId="5" r:id="rId4"/>
@@ -22,11 +22,11 @@
     <sheet name="2024年9月25日 ver" sheetId="1" r:id="rId8"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'2024年10月12日'!$A$1:$Y$58</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'2024年9月28日 ver2'!$A$1:$W$50</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'2024年9月28日 ver3'!$A$1:$W$51</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'2024年9月28日 ver4'!$A$1:$Z$48</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'2024年9月29日'!$A$1:$Y$55</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'2024年9月30日'!$A$1:$Y$57</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -43,7 +43,7 @@
     <author>Takayuki Hara</author>
   </authors>
   <commentList>
-    <comment ref="E19" authorId="0" shapeId="0">
+    <comment ref="E20" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -60,7 +60,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E20" authorId="0" shapeId="0">
+    <comment ref="E21" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -170,7 +170,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3138" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3162" uniqueCount="254">
   <si>
     <t>旧来のMSX</t>
     <rPh sb="0" eb="2">
@@ -1652,19 +1652,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>MSX0 Octopus 自体が
-カートリッジ。
-MSXのカートリッジスロット
-に装着する。</t>
-    <rPh sb="13" eb="15">
-      <t>ジタイ</t>
-    </rPh>
-    <rPh sb="41" eb="43">
-      <t>ソウチャク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>搭載する USB/I2C の
 数を再検討中</t>
     <rPh sb="0" eb="2">
@@ -1698,10 +1685,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>MSX0 Booster</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>(12)</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1717,6 +1700,80 @@
   </si>
   <si>
     <t>https://x.com/nishikazuhiko/status/1695967501975466424</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MSX0 Booster0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MSX0 Booster3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MSX0 Booster0 自体が
+カートリッジ。
+MSXのカートリッジスロット
+に装着する。</t>
+    <rPh sb="14" eb="16">
+      <t>ジタイ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ソウチャク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MSX0 Booster3 自体が
+カートリッジ。
+MSXのカートリッジスロット
+に装着する。</t>
+    <rPh sb="14" eb="16">
+      <t>ジタイ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ソウチャク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>???</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>搭載する USB/I2C の
+数を再検討中
+MSX engine3 を追加すれば、booster3 へアップグレード可能</t>
+    <rPh sb="0" eb="2">
+      <t>トウサイ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>カズ</t>
+    </rPh>
+    <rPh sb="17" eb="20">
+      <t>サイケントウ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">(13) </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MSX0 Booster0 と Booster3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://x.com/nishikazuhiko/status/1695642892734521625</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3244,13 +3301,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A3:X69"/>
+  <dimension ref="A3:X73"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="7" topLeftCell="E21" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="7" topLeftCell="Q42" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="B70" sqref="B70"/>
+      <selection pane="bottomRight" activeCell="R71" sqref="R71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3885,13 +3942,13 @@
       </c>
       <c r="X15" s="3"/>
     </row>
-    <row r="16" spans="2:24" ht="54">
+    <row r="16" spans="2:24" ht="67.5">
       <c r="B16" s="108"/>
       <c r="C16" s="102" t="s">
         <v>235</v>
       </c>
       <c r="D16" s="84" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="E16" s="97" t="s">
         <v>183</v>
@@ -3900,13 +3957,13 @@
         <v>236</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>237</v>
+        <v>142</v>
       </c>
       <c r="H16" s="30" t="s">
         <v>238</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>239</v>
+        <v>167</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>42</v>
@@ -3921,10 +3978,10 @@
         <v>42</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="O16" s="30" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="P16" s="86" t="s">
         <v>33</v>
@@ -3939,7 +3996,7 @@
         <v>166</v>
       </c>
       <c r="T16" s="30" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="U16" s="1" t="s">
         <v>165</v>
@@ -3952,28 +4009,28 @@
       </c>
       <c r="X16" s="3"/>
     </row>
-    <row r="17" spans="1:24" ht="54">
+    <row r="17" spans="2:24" ht="54">
       <c r="B17" s="108"/>
-      <c r="C17" s="92" t="s">
-        <v>69</v>
+      <c r="C17" s="102" t="s">
+        <v>235</v>
       </c>
       <c r="D17" s="84" t="s">
-        <v>206</v>
-      </c>
-      <c r="E17" s="96" t="s">
-        <v>187</v>
+        <v>246</v>
+      </c>
+      <c r="E17" s="97" t="s">
+        <v>183</v>
       </c>
       <c r="F17" s="30" t="s">
-        <v>20</v>
+        <v>236</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>30</v>
+        <v>237</v>
       </c>
       <c r="H17" s="30" t="s">
-        <v>56</v>
+        <v>249</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>37</v>
+        <v>239</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>42</v>
@@ -3985,29 +4042,31 @@
         <v>42</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="O17" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="P17" s="104" t="s">
-        <v>208</v>
+        <v>241</v>
+      </c>
+      <c r="O17" s="30" t="s">
+        <v>248</v>
+      </c>
+      <c r="P17" s="86" t="s">
+        <v>33</v>
       </c>
       <c r="Q17" s="1" t="s">
         <v>39</v>
       </c>
       <c r="R17" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="S17" s="30" t="s">
-        <v>234</v>
-      </c>
-      <c r="T17" s="1"/>
+        <v>70</v>
+      </c>
+      <c r="S17" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="T17" s="30" t="s">
+        <v>240</v>
+      </c>
       <c r="U17" s="1" t="s">
-        <v>117</v>
+        <v>165</v>
       </c>
       <c r="V17" s="86" t="s">
         <v>163</v>
@@ -4017,25 +4076,25 @@
       </c>
       <c r="X17" s="3"/>
     </row>
-    <row r="18" spans="1:24" ht="54">
+    <row r="18" spans="2:24" ht="54">
       <c r="B18" s="108"/>
       <c r="C18" s="92" t="s">
-        <v>198</v>
+        <v>69</v>
       </c>
       <c r="D18" s="84" t="s">
-        <v>10</v>
+        <v>206</v>
       </c>
       <c r="E18" s="96" t="s">
-        <v>188</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>18</v>
+        <v>187</v>
+      </c>
+      <c r="F18" s="30" t="s">
+        <v>20</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
+      </c>
+      <c r="H18" s="30" t="s">
+        <v>56</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>37</v>
@@ -4044,71 +4103,69 @@
         <v>42</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="M18" s="1" t="s">
         <v>45</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>106</v>
+        <v>52</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="P18" s="86" t="s">
-        <v>180</v>
+        <v>39</v>
+      </c>
+      <c r="P18" s="104" t="s">
+        <v>208</v>
       </c>
       <c r="Q18" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="R18" s="30" t="s">
-        <v>220</v>
+        <v>39</v>
+      </c>
+      <c r="R18" s="1" t="s">
+        <v>164</v>
       </c>
       <c r="S18" s="30" t="s">
-        <v>209</v>
-      </c>
-      <c r="T18" s="30" t="s">
-        <v>211</v>
-      </c>
+        <v>234</v>
+      </c>
+      <c r="T18" s="1"/>
       <c r="U18" s="1" t="s">
         <v>117</v>
       </c>
       <c r="V18" s="86" t="s">
-        <v>144</v>
+        <v>163</v>
       </c>
       <c r="W18" s="1" t="s">
         <v>128</v>
       </c>
       <c r="X18" s="3"/>
     </row>
-    <row r="19" spans="1:24" ht="51.75">
+    <row r="19" spans="2:24" ht="54">
       <c r="B19" s="108"/>
       <c r="C19" s="92" t="s">
         <v>198</v>
       </c>
       <c r="D19" s="84" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E19" s="96" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>151</v>
+        <v>27</v>
       </c>
       <c r="I19" s="1" t="s">
         <v>37</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="K19" s="1" t="s">
         <v>45</v>
@@ -4131,8 +4188,8 @@
       <c r="Q19" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="R19" s="1" t="s">
-        <v>73</v>
+      <c r="R19" s="30" t="s">
+        <v>220</v>
       </c>
       <c r="S19" s="30" t="s">
         <v>209</v>
@@ -4141,23 +4198,23 @@
         <v>211</v>
       </c>
       <c r="U19" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="V19" s="86" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="W19" s="1" t="s">
         <v>128</v>
       </c>
       <c r="X19" s="3"/>
     </row>
-    <row r="20" spans="1:24" ht="51.75">
+    <row r="20" spans="2:24" ht="51.75">
       <c r="B20" s="108"/>
       <c r="C20" s="92" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="D20" s="84" t="s">
-        <v>199</v>
+        <v>3</v>
       </c>
       <c r="E20" s="96" t="s">
         <v>189</v>
@@ -4218,34 +4275,34 @@
       </c>
       <c r="X20" s="3"/>
     </row>
-    <row r="21" spans="1:24" ht="54">
+    <row r="21" spans="2:24" ht="51.75">
       <c r="B21" s="108"/>
       <c r="C21" s="92" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="D21" s="84" t="s">
-        <v>58</v>
+        <v>199</v>
       </c>
       <c r="E21" s="96" t="s">
-        <v>190</v>
-      </c>
-      <c r="F21" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="G21" s="86" t="s">
-        <v>62</v>
-      </c>
-      <c r="H21" s="30" t="s">
-        <v>152</v>
+        <v>189</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>151</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="J21" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="K21" s="86" t="s">
-        <v>46</v>
+        <v>37</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="L21" s="1" t="s">
         <v>44</v>
@@ -4254,7 +4311,7 @@
         <v>45</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O21" s="1" t="s">
         <v>45</v>
@@ -4263,10 +4320,10 @@
         <v>180</v>
       </c>
       <c r="Q21" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="R21" s="1" t="s">
-        <v>109</v>
+        <v>73</v>
       </c>
       <c r="S21" s="30" t="s">
         <v>209</v>
@@ -4278,32 +4335,32 @@
         <v>116</v>
       </c>
       <c r="V21" s="86" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="W21" s="1" t="s">
         <v>128</v>
       </c>
       <c r="X21" s="3"/>
     </row>
-    <row r="22" spans="1:24" ht="54">
+    <row r="22" spans="2:24" ht="54">
       <c r="B22" s="108"/>
       <c r="C22" s="92" t="s">
         <v>198</v>
       </c>
       <c r="D22" s="84" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E22" s="96" t="s">
         <v>190</v>
       </c>
       <c r="F22" s="30" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G22" s="86" t="s">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="H22" s="30" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I22" s="1" t="s">
         <v>90</v>
@@ -4333,7 +4390,7 @@
         <v>39</v>
       </c>
       <c r="R22" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="S22" s="30" t="s">
         <v>209</v>
@@ -4345,50 +4402,50 @@
         <v>116</v>
       </c>
       <c r="V22" s="86" t="s">
-        <v>33</v>
+        <v>145</v>
       </c>
       <c r="W22" s="1" t="s">
         <v>128</v>
       </c>
       <c r="X22" s="3"/>
     </row>
-    <row r="23" spans="1:24" ht="94.5">
+    <row r="23" spans="2:24" ht="54">
       <c r="B23" s="108"/>
       <c r="C23" s="92" t="s">
         <v>198</v>
       </c>
       <c r="D23" s="84" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="E23" s="96" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F23" s="30" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="G23" s="86" t="s">
         <v>33</v>
       </c>
       <c r="H23" s="30" t="s">
-        <v>154</v>
-      </c>
-      <c r="I23" s="86" t="s">
-        <v>33</v>
-      </c>
-      <c r="J23" s="86" t="s">
-        <v>33</v>
+        <v>153</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="J23" s="30" t="s">
+        <v>45</v>
       </c>
       <c r="K23" s="86" t="s">
         <v>46</v>
       </c>
-      <c r="L23" s="86" t="s">
-        <v>47</v>
-      </c>
-      <c r="M23" s="86" t="s">
-        <v>47</v>
-      </c>
-      <c r="N23" s="86" t="s">
-        <v>33</v>
+      <c r="L23" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>107</v>
       </c>
       <c r="O23" s="1" t="s">
         <v>45</v>
@@ -4396,17 +4453,17 @@
       <c r="P23" s="86" t="s">
         <v>180</v>
       </c>
-      <c r="Q23" s="86" t="s">
-        <v>33</v>
-      </c>
-      <c r="R23" s="30" t="s">
-        <v>111</v>
+      <c r="Q23" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R23" s="1" t="s">
+        <v>110</v>
       </c>
       <c r="S23" s="30" t="s">
         <v>209</v>
       </c>
       <c r="T23" s="30" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="U23" s="1" t="s">
         <v>116</v>
@@ -4419,16 +4476,16 @@
       </c>
       <c r="X23" s="3"/>
     </row>
-    <row r="24" spans="1:24" ht="67.5">
+    <row r="24" spans="2:24" ht="94.5">
       <c r="B24" s="108"/>
-      <c r="C24" s="105" t="s">
-        <v>216</v>
+      <c r="C24" s="92" t="s">
+        <v>198</v>
       </c>
       <c r="D24" s="84" t="s">
-        <v>171</v>
-      </c>
-      <c r="E24" s="97" t="s">
-        <v>184</v>
+        <v>12</v>
+      </c>
+      <c r="E24" s="96" t="s">
+        <v>191</v>
       </c>
       <c r="F24" s="30" t="s">
         <v>87</v>
@@ -4472,8 +4529,8 @@
       <c r="S24" s="30" t="s">
         <v>209</v>
       </c>
-      <c r="T24" s="1" t="s">
-        <v>212</v>
+      <c r="T24" s="30" t="s">
+        <v>210</v>
       </c>
       <c r="U24" s="1" t="s">
         <v>116</v>
@@ -4481,21 +4538,21 @@
       <c r="V24" s="86" t="s">
         <v>33</v>
       </c>
-      <c r="W24" s="86" t="s">
-        <v>33</v>
+      <c r="W24" s="1" t="s">
+        <v>128</v>
       </c>
       <c r="X24" s="3"/>
     </row>
-    <row r="25" spans="1:24" ht="67.5">
+    <row r="25" spans="2:24" ht="67.5">
       <c r="B25" s="108"/>
       <c r="C25" s="105" t="s">
         <v>216</v>
       </c>
       <c r="D25" s="84" t="s">
-        <v>217</v>
+        <v>171</v>
       </c>
       <c r="E25" s="97" t="s">
-        <v>218</v>
+        <v>184</v>
       </c>
       <c r="F25" s="30" t="s">
         <v>87</v>
@@ -4539,8 +4596,8 @@
       <c r="S25" s="30" t="s">
         <v>209</v>
       </c>
-      <c r="T25" s="30" t="s">
-        <v>219</v>
+      <c r="T25" s="1" t="s">
+        <v>212</v>
       </c>
       <c r="U25" s="1" t="s">
         <v>116</v>
@@ -4553,25 +4610,25 @@
       </c>
       <c r="X25" s="3"/>
     </row>
-    <row r="26" spans="1:24" ht="67.5">
+    <row r="26" spans="2:24" ht="67.5">
       <c r="B26" s="108"/>
-      <c r="C26" s="92" t="s">
-        <v>198</v>
+      <c r="C26" s="105" t="s">
+        <v>216</v>
       </c>
       <c r="D26" s="84" t="s">
-        <v>94</v>
-      </c>
-      <c r="E26" s="100" t="s">
-        <v>192</v>
+        <v>217</v>
+      </c>
+      <c r="E26" s="97" t="s">
+        <v>218</v>
       </c>
       <c r="F26" s="30" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="G26" s="86" t="s">
         <v>33</v>
       </c>
       <c r="H26" s="30" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I26" s="86" t="s">
         <v>33</v>
@@ -4601,30 +4658,32 @@
         <v>33</v>
       </c>
       <c r="R26" s="30" t="s">
-        <v>84</v>
+        <v>111</v>
       </c>
       <c r="S26" s="30" t="s">
         <v>209</v>
       </c>
-      <c r="T26" s="1"/>
+      <c r="T26" s="30" t="s">
+        <v>219</v>
+      </c>
       <c r="U26" s="1" t="s">
         <v>116</v>
       </c>
       <c r="V26" s="86" t="s">
         <v>33</v>
       </c>
-      <c r="W26" s="1" t="s">
-        <v>128</v>
+      <c r="W26" s="86" t="s">
+        <v>33</v>
       </c>
       <c r="X26" s="3"/>
     </row>
-    <row r="27" spans="1:24" ht="67.5">
-      <c r="B27" s="109"/>
+    <row r="27" spans="2:24" ht="67.5">
+      <c r="B27" s="108"/>
       <c r="C27" s="92" t="s">
         <v>198</v>
       </c>
       <c r="D27" s="84" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E27" s="100" t="s">
         <v>192</v>
@@ -4636,7 +4695,7 @@
         <v>33</v>
       </c>
       <c r="H27" s="30" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I27" s="86" t="s">
         <v>33</v>
@@ -4683,283 +4742,362 @@
       </c>
       <c r="X27" s="3"/>
     </row>
-    <row r="28" spans="1:24" ht="41.25" thickBot="1">
-      <c r="B28" s="103" t="s">
+    <row r="28" spans="2:24" ht="67.5">
+      <c r="B28" s="109"/>
+      <c r="C28" s="92" t="s">
+        <v>198</v>
+      </c>
+      <c r="D28" s="84" t="s">
+        <v>95</v>
+      </c>
+      <c r="E28" s="100" t="s">
+        <v>192</v>
+      </c>
+      <c r="F28" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="G28" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="H28" s="30" t="s">
+        <v>156</v>
+      </c>
+      <c r="I28" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="J28" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="K28" s="86" t="s">
+        <v>46</v>
+      </c>
+      <c r="L28" s="86" t="s">
+        <v>47</v>
+      </c>
+      <c r="M28" s="86" t="s">
+        <v>47</v>
+      </c>
+      <c r="N28" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="O28" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="P28" s="86" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q28" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="R28" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="S28" s="30" t="s">
+        <v>209</v>
+      </c>
+      <c r="T28" s="1"/>
+      <c r="U28" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="V28" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="W28" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="X28" s="3"/>
+    </row>
+    <row r="29" spans="2:24" ht="41.25" thickBot="1">
+      <c r="B29" s="103" t="s">
         <v>200</v>
       </c>
-      <c r="C28" s="95" t="s">
+      <c r="C29" s="95" t="s">
         <v>13</v>
       </c>
-      <c r="D28" s="85" t="s">
+      <c r="D29" s="85" t="s">
         <v>13</v>
       </c>
-      <c r="E28" s="98" t="s">
+      <c r="E29" s="98" t="s">
         <v>185</v>
       </c>
-      <c r="F28" s="71" t="s">
+      <c r="F29" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="G28" s="87" t="s">
-        <v>33</v>
-      </c>
-      <c r="H28" s="87" t="s">
+      <c r="G29" s="87" t="s">
+        <v>33</v>
+      </c>
+      <c r="H29" s="87" t="s">
         <v>85</v>
       </c>
-      <c r="I28" s="87" t="s">
-        <v>33</v>
-      </c>
-      <c r="J28" s="87" t="s">
-        <v>33</v>
-      </c>
-      <c r="K28" s="87" t="s">
+      <c r="I29" s="87" t="s">
+        <v>33</v>
+      </c>
+      <c r="J29" s="87" t="s">
+        <v>33</v>
+      </c>
+      <c r="K29" s="87" t="s">
         <v>46</v>
       </c>
-      <c r="L28" s="87" t="s">
+      <c r="L29" s="87" t="s">
         <v>47</v>
       </c>
-      <c r="M28" s="87" t="s">
+      <c r="M29" s="87" t="s">
         <v>47</v>
       </c>
-      <c r="N28" s="87" t="s">
-        <v>33</v>
-      </c>
-      <c r="O28" s="87" t="s">
-        <v>33</v>
-      </c>
-      <c r="P28" s="86" t="s">
+      <c r="N29" s="87" t="s">
+        <v>33</v>
+      </c>
+      <c r="O29" s="87" t="s">
+        <v>33</v>
+      </c>
+      <c r="P29" s="86" t="s">
         <v>181</v>
       </c>
-      <c r="Q28" s="87" t="s">
-        <v>33</v>
-      </c>
-      <c r="R28" s="6" t="s">
+      <c r="Q29" s="87" t="s">
+        <v>33</v>
+      </c>
+      <c r="R29" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="S28" s="71" t="s">
+      <c r="S29" s="71" t="s">
         <v>209</v>
       </c>
-      <c r="T28" s="6"/>
-      <c r="U28" s="6" t="s">
+      <c r="T29" s="6"/>
+      <c r="U29" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="V28" s="87" t="s">
-        <v>33</v>
-      </c>
-      <c r="W28" s="6" t="s">
+      <c r="V29" s="87" t="s">
+        <v>33</v>
+      </c>
+      <c r="W29" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="X28" s="7"/>
-    </row>
-    <row r="32" spans="1:24">
-      <c r="A32" s="106" t="s">
+      <c r="X29" s="7"/>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="106" t="s">
         <v>223</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B33" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
-      <c r="B33" s="60" t="s">
+    <row r="34" spans="1:3">
+      <c r="B34" s="60" t="s">
         <v>139</v>
       </c>
-      <c r="C33" s="60"/>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="106" t="s">
+      <c r="C34" s="60"/>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="106" t="s">
         <v>224</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B36" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
-      <c r="B36" s="60" t="s">
+    <row r="37" spans="1:3">
+      <c r="B37" s="60" t="s">
         <v>138</v>
       </c>
-      <c r="C36" s="60"/>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="106" t="s">
+      <c r="C37" s="60"/>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="106" t="s">
         <v>225</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B39" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
-      <c r="B39" s="60" t="s">
+    <row r="40" spans="1:3">
+      <c r="B40" s="60" t="s">
         <v>137</v>
       </c>
-      <c r="C39" s="60"/>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" s="106" t="s">
+      <c r="C40" s="60"/>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="106" t="s">
         <v>226</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B42" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
-      <c r="B42" s="60" t="s">
+    <row r="43" spans="1:3">
+      <c r="B43" s="60" t="s">
         <v>136</v>
       </c>
-      <c r="C42" s="60"/>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" s="106" t="s">
+      <c r="C43" s="60"/>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="106" t="s">
         <v>227</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B45" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
-      <c r="B45" s="61" t="s">
+    <row r="46" spans="1:3">
+      <c r="B46" s="61" t="s">
         <v>131</v>
       </c>
-      <c r="C45" s="61"/>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="B46" s="60" t="s">
-        <v>135</v>
-      </c>
-      <c r="C46" s="60"/>
+      <c r="C46" s="61"/>
     </row>
     <row r="47" spans="1:3">
       <c r="B47" s="60" t="s">
+        <v>135</v>
+      </c>
+      <c r="C47" s="60"/>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="B48" s="60" t="s">
         <v>140</v>
       </c>
-      <c r="C47" s="60"/>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" s="106" t="s">
+      <c r="C48" s="60"/>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="106" t="s">
         <v>228</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B50" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
-      <c r="B50" s="60" t="s">
+    <row r="51" spans="1:3">
+      <c r="B51" s="60" t="s">
         <v>158</v>
       </c>
-      <c r="C50" s="60"/>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" s="106" t="s">
+      <c r="C51" s="60"/>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="106" t="s">
         <v>229</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B53" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
-      <c r="B53" s="60" t="s">
+    <row r="54" spans="1:3">
+      <c r="B54" s="60" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
-      <c r="A55" s="106" t="s">
+    <row r="56" spans="1:3">
+      <c r="A56" s="106" t="s">
         <v>230</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B56" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
-      <c r="B56" s="60" t="s">
+    <row r="57" spans="1:3">
+      <c r="B57" s="60" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
-      <c r="A58" s="106" t="s">
+    <row r="59" spans="1:3">
+      <c r="A59" s="106" t="s">
         <v>231</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B59" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
-      <c r="B59" s="60" t="s">
+    <row r="60" spans="1:3">
+      <c r="B60" s="60" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
-      <c r="A61" s="106" t="s">
+    <row r="62" spans="1:3">
+      <c r="A62" s="106" t="s">
         <v>232</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B62" t="s">
         <v>213</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
-      <c r="B62" s="60" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="B63" s="60" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="B64" s="60" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
-      <c r="A65" s="106" t="s">
+    <row r="66" spans="1:2">
+      <c r="A66" s="106" t="s">
         <v>233</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B66" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
-      <c r="B66" s="60" t="s">
+    <row r="67" spans="1:2">
+      <c r="B67" s="60" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
-      <c r="A68" s="106" t="s">
+    <row r="69" spans="1:2">
+      <c r="A69" s="106" t="s">
+        <v>242</v>
+      </c>
+      <c r="B69" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="B70" s="60" t="s">
         <v>244</v>
       </c>
-      <c r="B68" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
-      <c r="B69" s="60" t="s">
-        <v>246</v>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="106" t="s">
+        <v>251</v>
+      </c>
+      <c r="B72" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="B73" s="60" t="s">
+        <v>253</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B8:B27"/>
+    <mergeCell ref="B8:B28"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="B45" r:id="rId1"/>
-    <hyperlink ref="B46" r:id="rId2"/>
-    <hyperlink ref="B42" r:id="rId3"/>
-    <hyperlink ref="B39" r:id="rId4"/>
-    <hyperlink ref="B36" r:id="rId5"/>
-    <hyperlink ref="B33" r:id="rId6"/>
-    <hyperlink ref="B47" r:id="rId7"/>
-    <hyperlink ref="B50" r:id="rId8"/>
-    <hyperlink ref="B53" r:id="rId9"/>
-    <hyperlink ref="B56" r:id="rId10"/>
-    <hyperlink ref="B59" r:id="rId11"/>
-    <hyperlink ref="B62" r:id="rId12"/>
-    <hyperlink ref="B63" r:id="rId13"/>
-    <hyperlink ref="B66" r:id="rId14"/>
-    <hyperlink ref="B69" r:id="rId15"/>
+    <hyperlink ref="B46" r:id="rId1"/>
+    <hyperlink ref="B47" r:id="rId2"/>
+    <hyperlink ref="B43" r:id="rId3"/>
+    <hyperlink ref="B40" r:id="rId4"/>
+    <hyperlink ref="B37" r:id="rId5"/>
+    <hyperlink ref="B34" r:id="rId6"/>
+    <hyperlink ref="B48" r:id="rId7"/>
+    <hyperlink ref="B51" r:id="rId8"/>
+    <hyperlink ref="B54" r:id="rId9"/>
+    <hyperlink ref="B57" r:id="rId10"/>
+    <hyperlink ref="B60" r:id="rId11"/>
+    <hyperlink ref="B63" r:id="rId12"/>
+    <hyperlink ref="B64" r:id="rId13"/>
+    <hyperlink ref="B67" r:id="rId14"/>
+    <hyperlink ref="B70" r:id="rId15"/>
+    <hyperlink ref="B73" r:id="rId16"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="8" scale="42" orientation="landscape" horizontalDpi="4294967293" r:id="rId16"/>
-  <drawing r:id="rId17"/>
-  <legacyDrawing r:id="rId18"/>
+  <pageSetup paperSize="8" scale="42" orientation="landscape" horizontalDpi="4294967293" r:id="rId17"/>
+  <drawing r:id="rId18"/>
+  <legacyDrawing r:id="rId19"/>
   <oleObjects>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Visio.Drawing.15" shapeId="4097" r:id="rId19">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId20">
+        <oleObject progId="Visio.Drawing.15" shapeId="4097" r:id="rId20">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId21">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
@@ -4978,7 +5116,7 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Visio.Drawing.15" shapeId="4097" r:id="rId19"/>
+        <oleObject progId="Visio.Drawing.15" shapeId="4097" r:id="rId20"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </oleObjects>

--- a/msx3gen/files/msx_gen3.xlsx
+++ b/msx3gen/files/msx_gen3.xlsx
@@ -1703,14 +1703,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>MSX0 Booster0</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>MSX0 Booster3</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>MSX0 Booster0 自体が
 カートリッジ。
 MSXのカートリッジスロット
@@ -1774,6 +1766,14 @@
   </si>
   <si>
     <t>https://x.com/nishikazuhiko/status/1695642892734521625</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MSX Booster3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MSX Booster0</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3304,10 +3304,10 @@
   <dimension ref="A3:X73"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="7" topLeftCell="Q42" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="7" topLeftCell="E8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="R71" sqref="R71"/>
+      <selection pane="bottomRight" activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3948,7 +3948,7 @@
         <v>235</v>
       </c>
       <c r="D16" s="84" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="E16" s="97" t="s">
         <v>183</v>
@@ -3981,7 +3981,7 @@
         <v>241</v>
       </c>
       <c r="O16" s="30" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="P16" s="86" t="s">
         <v>33</v>
@@ -3996,7 +3996,7 @@
         <v>166</v>
       </c>
       <c r="T16" s="30" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="U16" s="1" t="s">
         <v>165</v>
@@ -4009,25 +4009,25 @@
       </c>
       <c r="X16" s="3"/>
     </row>
-    <row r="17" spans="2:24" ht="54">
+    <row r="17" spans="2:24" ht="67.5">
       <c r="B17" s="108"/>
       <c r="C17" s="102" t="s">
         <v>235</v>
       </c>
       <c r="D17" s="84" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="E17" s="97" t="s">
         <v>183</v>
       </c>
       <c r="F17" s="30" t="s">
-        <v>236</v>
+        <v>87</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>237</v>
       </c>
       <c r="H17" s="30" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>239</v>
@@ -4045,10 +4045,10 @@
         <v>42</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="O17" s="30" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="P17" s="86" t="s">
         <v>33</v>
@@ -5055,15 +5055,15 @@
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="106" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B72" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="B73" s="60" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
   </sheetData>

--- a/msx3gen/files/msx_gen3.xlsx
+++ b/msx3gen/files/msx_gen3.xlsx
@@ -12,21 +12,23 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="23310" windowHeight="6915"/>
   </bookViews>
   <sheets>
-    <sheet name="2024年10月12日" sheetId="8" r:id="rId1"/>
-    <sheet name="2024年9月29日" sheetId="7" r:id="rId2"/>
-    <sheet name="2024年9月28日 ver4" sheetId="6" r:id="rId3"/>
-    <sheet name="2024年9月28日 ver3" sheetId="5" r:id="rId4"/>
-    <sheet name="2024年9月28日 ver2" sheetId="4" r:id="rId5"/>
-    <sheet name="2024年9月28日 ver" sheetId="3" r:id="rId6"/>
-    <sheet name="2024年9月27日 ver" sheetId="2" r:id="rId7"/>
-    <sheet name="2024年9月25日 ver" sheetId="1" r:id="rId8"/>
+    <sheet name="2024年10月20日" sheetId="9" r:id="rId1"/>
+    <sheet name="2024年10月12日" sheetId="8" r:id="rId2"/>
+    <sheet name="2024年9月29日" sheetId="7" r:id="rId3"/>
+    <sheet name="2024年9月28日 ver4" sheetId="6" r:id="rId4"/>
+    <sheet name="2024年9月28日 ver3" sheetId="5" r:id="rId5"/>
+    <sheet name="2024年9月28日 ver2" sheetId="4" r:id="rId6"/>
+    <sheet name="2024年9月28日 ver" sheetId="3" r:id="rId7"/>
+    <sheet name="2024年9月27日 ver" sheetId="2" r:id="rId8"/>
+    <sheet name="2024年9月25日 ver" sheetId="1" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'2024年10月12日'!$A$1:$Y$58</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">'2024年9月28日 ver2'!$A$1:$W$50</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'2024年9月28日 ver3'!$A$1:$W$51</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'2024年9月28日 ver4'!$A$1:$Z$48</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'2024年9月29日'!$A$1:$Y$55</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'2024年10月12日'!$A$1:$Y$58</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'2024年10月20日'!$A$1:$Y$57</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">'2024年9月28日 ver2'!$A$1:$W$50</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">'2024年9月28日 ver3'!$A$1:$W$51</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'2024年9月28日 ver4'!$A$1:$Z$48</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'2024年9月29日'!$A$1:$Y$55</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -38,6 +40,33 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Takayuki Hara</author>
+  </authors>
+  <commentList>
+    <comment ref="E20" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="14"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">ペラペラアニメ再生がキラーアプリ
+→ ペラペラアニメ見たいだけの顧客に、半田付けして組み立て・・を強いるのか？
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Takayuki Hara</author>
@@ -81,7 +110,7 @@
 </comments>
 </file>
 
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Takayuki Hara</author>
@@ -125,7 +154,7 @@
 </comments>
 </file>
 
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Takayuki Hara</author>
@@ -170,7 +199,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3162" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3660" uniqueCount="259">
   <si>
     <t>旧来のMSX</t>
     <rPh sb="0" eb="2">
@@ -1776,12 +1805,63 @@
     <t>MSX Booster0</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>MSX1+
+MSX2++</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TMS9918相当
+V9958相当 FPGA</t>
+    <rPh sb="7" eb="9">
+      <t>ソウトウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>16KB (TMS9918)
+8MB (V9958)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VDPボードの差し替えでMSX1+とMSX2++を切り替え。
+V9958はFPGA実装で機能拡張有り。</t>
+    <rPh sb="7" eb="8">
+      <t>サ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>カクチョウ</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>64KB</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1890,6 +1970,22 @@
     </font>
     <font>
       <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
       <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
@@ -2529,7 +2625,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2896,6 +2992,15 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -2922,6 +3027,63 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>19050</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>76200</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>1076325</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="7169" name="Object 1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s7169"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
@@ -2978,7 +3140,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
@@ -3301,10 +3463,1770 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
+  <dimension ref="A3:X72"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="4" ySplit="7" topLeftCell="E14" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
+      <selection pane="bottomRight" activeCell="L4" sqref="L4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="4.5" style="106" customWidth="1"/>
+    <col min="2" max="2" width="20.125" customWidth="1"/>
+    <col min="3" max="3" width="34.125" customWidth="1"/>
+    <col min="4" max="4" width="23" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.875" customWidth="1"/>
+    <col min="6" max="6" width="25.125" customWidth="1"/>
+    <col min="7" max="7" width="12.75" customWidth="1"/>
+    <col min="8" max="10" width="16.75" customWidth="1"/>
+    <col min="11" max="14" width="16.625" customWidth="1"/>
+    <col min="15" max="15" width="21.625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.75" customWidth="1"/>
+    <col min="17" max="17" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="24" customWidth="1"/>
+    <col min="20" max="21" width="19.875" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="24.75" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="3.125" customWidth="1"/>
+    <col min="25" max="25" width="15.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:24">
+      <c r="G3" s="88" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="4" spans="2:24">
+      <c r="C4" s="29"/>
+      <c r="G4" s="89" t="s">
+        <v>169</v>
+      </c>
+      <c r="X4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="5" spans="2:24">
+      <c r="B5" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="G5" s="90" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="6" spans="2:24" ht="14.25" thickBot="1"/>
+    <row r="7" spans="2:24" ht="14.25" thickBot="1">
+      <c r="B7" s="74"/>
+      <c r="C7" s="91" t="s">
+        <v>201</v>
+      </c>
+      <c r="D7" s="76" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="74" t="s">
+        <v>182</v>
+      </c>
+      <c r="F7" s="75" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="75" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" s="75" t="s">
+        <v>35</v>
+      </c>
+      <c r="J7" s="75" t="s">
+        <v>38</v>
+      </c>
+      <c r="K7" s="75" t="s">
+        <v>41</v>
+      </c>
+      <c r="L7" s="75" t="s">
+        <v>43</v>
+      </c>
+      <c r="M7" s="75" t="s">
+        <v>48</v>
+      </c>
+      <c r="N7" s="75" t="s">
+        <v>49</v>
+      </c>
+      <c r="O7" s="75" t="s">
+        <v>53</v>
+      </c>
+      <c r="P7" s="75" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q7" s="75" t="s">
+        <v>55</v>
+      </c>
+      <c r="R7" s="75" t="s">
+        <v>68</v>
+      </c>
+      <c r="S7" s="75" t="s">
+        <v>78</v>
+      </c>
+      <c r="T7" s="75"/>
+      <c r="U7" s="75" t="s">
+        <v>112</v>
+      </c>
+      <c r="V7" s="75" t="s">
+        <v>120</v>
+      </c>
+      <c r="W7" s="75" t="s">
+        <v>127</v>
+      </c>
+      <c r="X7" s="76"/>
+    </row>
+    <row r="8" spans="2:24" ht="51.75">
+      <c r="B8" s="107" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="93" t="s">
+        <v>197</v>
+      </c>
+      <c r="D8" s="94" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="99" t="s">
+        <v>186</v>
+      </c>
+      <c r="F8" s="68" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="69" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" s="68" t="s">
+        <v>56</v>
+      </c>
+      <c r="I8" s="69" t="s">
+        <v>37</v>
+      </c>
+      <c r="J8" s="69" t="s">
+        <v>42</v>
+      </c>
+      <c r="K8" s="69" t="s">
+        <v>42</v>
+      </c>
+      <c r="L8" s="69" t="s">
+        <v>42</v>
+      </c>
+      <c r="M8" s="69" t="s">
+        <v>45</v>
+      </c>
+      <c r="N8" s="69" t="s">
+        <v>52</v>
+      </c>
+      <c r="O8" s="69" t="s">
+        <v>39</v>
+      </c>
+      <c r="P8" s="68" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q8" s="69" t="s">
+        <v>39</v>
+      </c>
+      <c r="R8" s="69" t="s">
+        <v>71</v>
+      </c>
+      <c r="S8" s="69" t="s">
+        <v>102</v>
+      </c>
+      <c r="T8" s="69"/>
+      <c r="U8" s="69" t="s">
+        <v>114</v>
+      </c>
+      <c r="V8" s="69" t="s">
+        <v>121</v>
+      </c>
+      <c r="W8" s="69" t="s">
+        <v>129</v>
+      </c>
+      <c r="X8" s="70"/>
+    </row>
+    <row r="9" spans="2:24" ht="40.5">
+      <c r="B9" s="108"/>
+      <c r="C9" s="92" t="s">
+        <v>204</v>
+      </c>
+      <c r="D9" s="84" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="96" t="s">
+        <v>183</v>
+      </c>
+      <c r="F9" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="P9" s="30" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="V9" s="86" t="s">
+        <v>126</v>
+      </c>
+      <c r="W9" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="X9" s="3"/>
+    </row>
+    <row r="10" spans="2:24" ht="40.5">
+      <c r="B10" s="108"/>
+      <c r="C10" s="92" t="s">
+        <v>204</v>
+      </c>
+      <c r="D10" s="84" t="s">
+        <v>104</v>
+      </c>
+      <c r="E10" s="96" t="s">
+        <v>187</v>
+      </c>
+      <c r="F10" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H10" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="P10" s="30" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="V10" s="86" t="s">
+        <v>141</v>
+      </c>
+      <c r="W10" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="X10" s="3"/>
+    </row>
+    <row r="11" spans="2:24" ht="40.5">
+      <c r="B11" s="108"/>
+      <c r="C11" s="92" t="s">
+        <v>204</v>
+      </c>
+      <c r="D11" s="84" t="s">
+        <v>105</v>
+      </c>
+      <c r="E11" s="97" t="s">
+        <v>184</v>
+      </c>
+      <c r="F11" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H11" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="P11" s="30" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="V11" s="86" t="s">
+        <v>142</v>
+      </c>
+      <c r="W11" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="2:24" ht="54">
+      <c r="B12" s="108"/>
+      <c r="C12" s="102" t="s">
+        <v>235</v>
+      </c>
+      <c r="D12" s="84" t="s">
+        <v>148</v>
+      </c>
+      <c r="E12" s="96" t="s">
+        <v>187</v>
+      </c>
+      <c r="F12" s="30" t="s">
+        <v>149</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="P12" s="30" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="V12" s="86" t="s">
+        <v>163</v>
+      </c>
+      <c r="W12" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="X12" s="3"/>
+    </row>
+    <row r="13" spans="2:24" ht="40.5">
+      <c r="B13" s="108"/>
+      <c r="C13" s="102" t="s">
+        <v>235</v>
+      </c>
+      <c r="D13" s="84" t="s">
+        <v>146</v>
+      </c>
+      <c r="E13" s="97" t="s">
+        <v>183</v>
+      </c>
+      <c r="F13" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H13" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="P13" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="S13" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="V13" s="86" t="s">
+        <v>163</v>
+      </c>
+      <c r="W13" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="X13" s="3"/>
+    </row>
+    <row r="14" spans="2:24" ht="40.5">
+      <c r="B14" s="108"/>
+      <c r="C14" s="102" t="s">
+        <v>235</v>
+      </c>
+      <c r="D14" s="84" t="s">
+        <v>147</v>
+      </c>
+      <c r="E14" s="97" t="s">
+        <v>183</v>
+      </c>
+      <c r="F14" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H14" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="P14" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="S14" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="V14" s="86" t="s">
+        <v>163</v>
+      </c>
+      <c r="W14" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="X14" s="3"/>
+    </row>
+    <row r="15" spans="2:24" ht="40.5">
+      <c r="B15" s="108"/>
+      <c r="C15" s="102" t="s">
+        <v>235</v>
+      </c>
+      <c r="D15" s="84" t="s">
+        <v>193</v>
+      </c>
+      <c r="E15" s="97" t="s">
+        <v>183</v>
+      </c>
+      <c r="F15" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="P15" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R15" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="S15" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="V15" s="86" t="s">
+        <v>163</v>
+      </c>
+      <c r="W15" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="X15" s="3"/>
+    </row>
+    <row r="16" spans="2:24" ht="67.5">
+      <c r="B16" s="108"/>
+      <c r="C16" s="102" t="s">
+        <v>235</v>
+      </c>
+      <c r="D16" s="84" t="s">
+        <v>253</v>
+      </c>
+      <c r="E16" s="97" t="s">
+        <v>183</v>
+      </c>
+      <c r="F16" s="30" t="s">
+        <v>236</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="H16" s="30" t="s">
+        <v>238</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="O16" s="30" t="s">
+        <v>245</v>
+      </c>
+      <c r="P16" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R16" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="S16" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="T16" s="30" t="s">
+        <v>248</v>
+      </c>
+      <c r="U16" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="V16" s="86" t="s">
+        <v>163</v>
+      </c>
+      <c r="W16" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="1:24" ht="67.5">
+      <c r="B17" s="108"/>
+      <c r="C17" s="102" t="s">
+        <v>235</v>
+      </c>
+      <c r="D17" s="84" t="s">
+        <v>252</v>
+      </c>
+      <c r="E17" s="97" t="s">
+        <v>183</v>
+      </c>
+      <c r="F17" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="H17" s="30" t="s">
+        <v>247</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="O17" s="30" t="s">
+        <v>246</v>
+      </c>
+      <c r="P17" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R17" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="S17" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="T17" s="30" t="s">
+        <v>240</v>
+      </c>
+      <c r="U17" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="V17" s="86" t="s">
+        <v>163</v>
+      </c>
+      <c r="W17" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="X17" s="3"/>
+    </row>
+    <row r="18" spans="1:24" ht="54">
+      <c r="B18" s="108"/>
+      <c r="C18" s="92" t="s">
+        <v>69</v>
+      </c>
+      <c r="D18" s="84" t="s">
+        <v>160</v>
+      </c>
+      <c r="E18" s="96" t="s">
+        <v>187</v>
+      </c>
+      <c r="F18" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="P18" s="104" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R18" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="S18" s="30" t="s">
+        <v>234</v>
+      </c>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="V18" s="86" t="s">
+        <v>163</v>
+      </c>
+      <c r="W18" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="X18" s="3"/>
+    </row>
+    <row r="19" spans="1:24" ht="54">
+      <c r="B19" s="108"/>
+      <c r="C19" s="92" t="s">
+        <v>198</v>
+      </c>
+      <c r="D19" s="123" t="s">
+        <v>254</v>
+      </c>
+      <c r="E19" s="96" t="s">
+        <v>188</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" s="122" t="s">
+        <v>258</v>
+      </c>
+      <c r="H19" s="124" t="s">
+        <v>255</v>
+      </c>
+      <c r="I19" s="124" t="s">
+        <v>256</v>
+      </c>
+      <c r="J19" s="122" t="s">
+        <v>45</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="N19" s="122" t="s">
+        <v>107</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="P19" s="86" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q19" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="R19" s="30" t="s">
+        <v>220</v>
+      </c>
+      <c r="S19" s="124" t="s">
+        <v>257</v>
+      </c>
+      <c r="T19" s="30" t="s">
+        <v>211</v>
+      </c>
+      <c r="U19" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="V19" s="86" t="s">
+        <v>144</v>
+      </c>
+      <c r="W19" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="1:24" ht="51.75">
+      <c r="B20" s="108"/>
+      <c r="C20" s="92" t="s">
+        <v>204</v>
+      </c>
+      <c r="D20" s="84" t="s">
+        <v>199</v>
+      </c>
+      <c r="E20" s="96" t="s">
+        <v>189</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="P20" s="86" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="R20" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="S20" s="30" t="s">
+        <v>209</v>
+      </c>
+      <c r="T20" s="30" t="s">
+        <v>211</v>
+      </c>
+      <c r="U20" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="V20" s="86" t="s">
+        <v>143</v>
+      </c>
+      <c r="W20" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="X20" s="3"/>
+    </row>
+    <row r="21" spans="1:24" ht="54">
+      <c r="B21" s="108"/>
+      <c r="C21" s="92" t="s">
+        <v>198</v>
+      </c>
+      <c r="D21" s="84" t="s">
+        <v>58</v>
+      </c>
+      <c r="E21" s="96" t="s">
+        <v>190</v>
+      </c>
+      <c r="F21" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="G21" s="86" t="s">
+        <v>62</v>
+      </c>
+      <c r="H21" s="30" t="s">
+        <v>152</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="J21" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="K21" s="86" t="s">
+        <v>46</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="P21" s="86" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q21" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R21" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="S21" s="30" t="s">
+        <v>209</v>
+      </c>
+      <c r="T21" s="30" t="s">
+        <v>211</v>
+      </c>
+      <c r="U21" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="V21" s="86" t="s">
+        <v>145</v>
+      </c>
+      <c r="W21" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="X21" s="3"/>
+    </row>
+    <row r="22" spans="1:24" ht="54">
+      <c r="B22" s="108"/>
+      <c r="C22" s="92" t="s">
+        <v>198</v>
+      </c>
+      <c r="D22" s="84" t="s">
+        <v>59</v>
+      </c>
+      <c r="E22" s="96" t="s">
+        <v>190</v>
+      </c>
+      <c r="F22" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="G22" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="H22" s="30" t="s">
+        <v>153</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="J22" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="K22" s="86" t="s">
+        <v>46</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="P22" s="86" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q22" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R22" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="S22" s="30" t="s">
+        <v>209</v>
+      </c>
+      <c r="T22" s="30" t="s">
+        <v>211</v>
+      </c>
+      <c r="U22" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="V22" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="W22" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="X22" s="3"/>
+    </row>
+    <row r="23" spans="1:24" ht="94.5">
+      <c r="B23" s="108"/>
+      <c r="C23" s="92" t="s">
+        <v>198</v>
+      </c>
+      <c r="D23" s="84" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" s="96" t="s">
+        <v>191</v>
+      </c>
+      <c r="F23" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="G23" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="H23" s="30" t="s">
+        <v>154</v>
+      </c>
+      <c r="I23" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="J23" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="K23" s="86" t="s">
+        <v>46</v>
+      </c>
+      <c r="L23" s="86" t="s">
+        <v>47</v>
+      </c>
+      <c r="M23" s="86" t="s">
+        <v>47</v>
+      </c>
+      <c r="N23" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="P23" s="86" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q23" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="R23" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="S23" s="30" t="s">
+        <v>209</v>
+      </c>
+      <c r="T23" s="30" t="s">
+        <v>210</v>
+      </c>
+      <c r="U23" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="V23" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="W23" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="X23" s="3"/>
+    </row>
+    <row r="24" spans="1:24" ht="67.5">
+      <c r="B24" s="108"/>
+      <c r="C24" s="92" t="s">
+        <v>216</v>
+      </c>
+      <c r="D24" s="84" t="s">
+        <v>171</v>
+      </c>
+      <c r="E24" s="97" t="s">
+        <v>184</v>
+      </c>
+      <c r="F24" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="G24" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="H24" s="30" t="s">
+        <v>154</v>
+      </c>
+      <c r="I24" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="J24" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="K24" s="86" t="s">
+        <v>46</v>
+      </c>
+      <c r="L24" s="86" t="s">
+        <v>47</v>
+      </c>
+      <c r="M24" s="86" t="s">
+        <v>47</v>
+      </c>
+      <c r="N24" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="O24" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="P24" s="86" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q24" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="R24" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="S24" s="30" t="s">
+        <v>209</v>
+      </c>
+      <c r="T24" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="U24" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="V24" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="W24" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="X24" s="3"/>
+    </row>
+    <row r="25" spans="1:24" ht="67.5">
+      <c r="B25" s="108"/>
+      <c r="C25" s="92" t="s">
+        <v>216</v>
+      </c>
+      <c r="D25" s="84" t="s">
+        <v>217</v>
+      </c>
+      <c r="E25" s="97" t="s">
+        <v>218</v>
+      </c>
+      <c r="F25" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="G25" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="H25" s="30" t="s">
+        <v>154</v>
+      </c>
+      <c r="I25" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="J25" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="K25" s="86" t="s">
+        <v>46</v>
+      </c>
+      <c r="L25" s="86" t="s">
+        <v>47</v>
+      </c>
+      <c r="M25" s="86" t="s">
+        <v>47</v>
+      </c>
+      <c r="N25" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="P25" s="86" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q25" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="R25" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="S25" s="30" t="s">
+        <v>209</v>
+      </c>
+      <c r="T25" s="30" t="s">
+        <v>219</v>
+      </c>
+      <c r="U25" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="V25" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="W25" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="X25" s="3"/>
+    </row>
+    <row r="26" spans="1:24" ht="67.5">
+      <c r="B26" s="108"/>
+      <c r="C26" s="92" t="s">
+        <v>198</v>
+      </c>
+      <c r="D26" s="84" t="s">
+        <v>94</v>
+      </c>
+      <c r="E26" s="100" t="s">
+        <v>192</v>
+      </c>
+      <c r="F26" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="G26" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="H26" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="I26" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="J26" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="K26" s="86" t="s">
+        <v>46</v>
+      </c>
+      <c r="L26" s="86" t="s">
+        <v>47</v>
+      </c>
+      <c r="M26" s="86" t="s">
+        <v>47</v>
+      </c>
+      <c r="N26" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="O26" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="P26" s="86" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q26" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="R26" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="S26" s="30" t="s">
+        <v>209</v>
+      </c>
+      <c r="T26" s="1"/>
+      <c r="U26" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="V26" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="W26" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="X26" s="3"/>
+    </row>
+    <row r="27" spans="1:24" ht="67.5">
+      <c r="B27" s="109"/>
+      <c r="C27" s="92" t="s">
+        <v>198</v>
+      </c>
+      <c r="D27" s="84" t="s">
+        <v>95</v>
+      </c>
+      <c r="E27" s="100" t="s">
+        <v>192</v>
+      </c>
+      <c r="F27" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="G27" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="H27" s="30" t="s">
+        <v>156</v>
+      </c>
+      <c r="I27" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="J27" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="K27" s="86" t="s">
+        <v>46</v>
+      </c>
+      <c r="L27" s="86" t="s">
+        <v>47</v>
+      </c>
+      <c r="M27" s="86" t="s">
+        <v>47</v>
+      </c>
+      <c r="N27" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="O27" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="P27" s="86" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q27" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="R27" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="S27" s="30" t="s">
+        <v>209</v>
+      </c>
+      <c r="T27" s="1"/>
+      <c r="U27" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="V27" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="W27" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="X27" s="3"/>
+    </row>
+    <row r="28" spans="1:24" ht="41.25" thickBot="1">
+      <c r="B28" s="103" t="s">
+        <v>200</v>
+      </c>
+      <c r="C28" s="95" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" s="85" t="s">
+        <v>13</v>
+      </c>
+      <c r="E28" s="98" t="s">
+        <v>185</v>
+      </c>
+      <c r="F28" s="71" t="s">
+        <v>21</v>
+      </c>
+      <c r="G28" s="87" t="s">
+        <v>33</v>
+      </c>
+      <c r="H28" s="87" t="s">
+        <v>85</v>
+      </c>
+      <c r="I28" s="87" t="s">
+        <v>33</v>
+      </c>
+      <c r="J28" s="87" t="s">
+        <v>33</v>
+      </c>
+      <c r="K28" s="87" t="s">
+        <v>46</v>
+      </c>
+      <c r="L28" s="87" t="s">
+        <v>47</v>
+      </c>
+      <c r="M28" s="87" t="s">
+        <v>47</v>
+      </c>
+      <c r="N28" s="87" t="s">
+        <v>33</v>
+      </c>
+      <c r="O28" s="87" t="s">
+        <v>33</v>
+      </c>
+      <c r="P28" s="87" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q28" s="87" t="s">
+        <v>33</v>
+      </c>
+      <c r="R28" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="S28" s="71" t="s">
+        <v>209</v>
+      </c>
+      <c r="T28" s="6"/>
+      <c r="U28" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="V28" s="87" t="s">
+        <v>33</v>
+      </c>
+      <c r="W28" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="X28" s="7"/>
+    </row>
+    <row r="32" spans="1:24">
+      <c r="A32" s="106" t="s">
+        <v>223</v>
+      </c>
+      <c r="B32" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="B33" s="60" t="s">
+        <v>139</v>
+      </c>
+      <c r="C33" s="60"/>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="106" t="s">
+        <v>224</v>
+      </c>
+      <c r="B35" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="B36" s="60" t="s">
+        <v>138</v>
+      </c>
+      <c r="C36" s="60"/>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="106" t="s">
+        <v>225</v>
+      </c>
+      <c r="B38" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="B39" s="60" t="s">
+        <v>137</v>
+      </c>
+      <c r="C39" s="60"/>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="106" t="s">
+        <v>226</v>
+      </c>
+      <c r="B41" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="B42" s="60" t="s">
+        <v>136</v>
+      </c>
+      <c r="C42" s="60"/>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="106" t="s">
+        <v>227</v>
+      </c>
+      <c r="B44" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="B45" s="61" t="s">
+        <v>131</v>
+      </c>
+      <c r="C45" s="61"/>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="B46" s="60" t="s">
+        <v>135</v>
+      </c>
+      <c r="C46" s="60"/>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="B47" s="60" t="s">
+        <v>140</v>
+      </c>
+      <c r="C47" s="60"/>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="106" t="s">
+        <v>228</v>
+      </c>
+      <c r="B49" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="B50" s="60" t="s">
+        <v>158</v>
+      </c>
+      <c r="C50" s="60"/>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="106" t="s">
+        <v>229</v>
+      </c>
+      <c r="B52" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="B53" s="60" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="106" t="s">
+        <v>230</v>
+      </c>
+      <c r="B55" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="B56" s="60" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="106" t="s">
+        <v>231</v>
+      </c>
+      <c r="B58" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="B59" s="60" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="106" t="s">
+        <v>232</v>
+      </c>
+      <c r="B61" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="B62" s="60" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="B63" s="60" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="106" t="s">
+        <v>233</v>
+      </c>
+      <c r="B65" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="B66" s="60" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="106" t="s">
+        <v>242</v>
+      </c>
+      <c r="B68" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="B69" s="60" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="106" t="s">
+        <v>249</v>
+      </c>
+      <c r="B71" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="B72" s="60" t="s">
+        <v>251</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B8:B27"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="B45" r:id="rId1"/>
+    <hyperlink ref="B46" r:id="rId2"/>
+    <hyperlink ref="B42" r:id="rId3"/>
+    <hyperlink ref="B39" r:id="rId4"/>
+    <hyperlink ref="B36" r:id="rId5"/>
+    <hyperlink ref="B33" r:id="rId6"/>
+    <hyperlink ref="B47" r:id="rId7"/>
+    <hyperlink ref="B50" r:id="rId8"/>
+    <hyperlink ref="B53" r:id="rId9"/>
+    <hyperlink ref="B56" r:id="rId10"/>
+    <hyperlink ref="B59" r:id="rId11"/>
+    <hyperlink ref="B62" r:id="rId12"/>
+    <hyperlink ref="B63" r:id="rId13"/>
+    <hyperlink ref="B66" r:id="rId14"/>
+    <hyperlink ref="B69" r:id="rId15"/>
+    <hyperlink ref="B72" r:id="rId16"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="8" scale="42" orientation="landscape" horizontalDpi="4294967293" r:id="rId17"/>
+  <drawing r:id="rId18"/>
+  <legacyDrawing r:id="rId19"/>
+  <oleObjects>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Visio.Drawing.15" shapeId="7169" r:id="rId20">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>1076325</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Visio.Drawing.15" shapeId="7169" r:id="rId20"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </oleObjects>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A3:X73"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="7" topLeftCell="E8" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="4" ySplit="7" topLeftCell="E16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
       <selection pane="bottomRight" activeCell="A17" sqref="A17"/>
@@ -5123,7 +7045,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -6674,7 +8596,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -8209,7 +10131,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -9726,7 +11648,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -11182,7 +13104,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:W42"/>
   <sheetViews>
@@ -12538,7 +14460,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:S35"/>
   <sheetViews>
@@ -13556,7 +15478,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:O35"/>
   <sheetViews>

--- a/msx3gen/files/msx_gen3.xlsx
+++ b/msx3gen/files/msx_gen3.xlsx
@@ -199,7 +199,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3660" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3663" uniqueCount="266">
   <si>
     <t>旧来のMSX</t>
     <rPh sb="0" eb="2">
@@ -1856,12 +1856,68 @@
     <t>64KB</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>TAOX準拠
+32bit以上
+Z80相当FPGAコア
+R900-700MHz FPGAコア
+eZ80カスタム??</t>
+  </si>
+  <si>
+    <t>TAOX準拠
+32bit以上
+Z80相当FPGAコア
+R900-700MHz FPGAコア
+eZ80カスタム??</t>
+    <rPh sb="4" eb="6">
+      <t>ジュンキョ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ソウトウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Z80-3.579MHz
+R900-100MHz</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CPU(ARM等)
+Z80-3.579MHz
+R900-100MHz</t>
+    <rPh sb="7" eb="8">
+      <t>ナド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(14)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R800を再設計して R900 と命名する</t>
+    <rPh sb="5" eb="8">
+      <t>サイセッケイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>メイメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://x.com/nishikazuhiko/status/1847781663104967117</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="16">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1986,6 +2042,14 @@
     </font>
     <font>
       <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
@@ -2625,7 +2689,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="125">
+  <cellXfs count="126">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2947,6 +3011,15 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2992,13 +3065,7 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3463,13 +3530,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A3:X72"/>
+  <dimension ref="A3:X75"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="4" ySplit="7" topLeftCell="E14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="7" topLeftCell="E8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="L4" sqref="L4"/>
+      <selection pane="bottomRight" activeCell="B76" sqref="B76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3583,7 +3650,7 @@
       <c r="X7" s="76"/>
     </row>
     <row r="8" spans="2:24" ht="51.75">
-      <c r="B8" s="107" t="s">
+      <c r="B8" s="110" t="s">
         <v>14</v>
       </c>
       <c r="C8" s="93" t="s">
@@ -3650,7 +3717,7 @@
       <c r="X8" s="70"/>
     </row>
     <row r="9" spans="2:24" ht="40.5">
-      <c r="B9" s="108"/>
+      <c r="B9" s="111"/>
       <c r="C9" s="92" t="s">
         <v>204</v>
       </c>
@@ -3715,7 +3782,7 @@
       <c r="X9" s="3"/>
     </row>
     <row r="10" spans="2:24" ht="40.5">
-      <c r="B10" s="108"/>
+      <c r="B10" s="111"/>
       <c r="C10" s="92" t="s">
         <v>204</v>
       </c>
@@ -3780,7 +3847,7 @@
       <c r="X10" s="3"/>
     </row>
     <row r="11" spans="2:24" ht="40.5">
-      <c r="B11" s="108"/>
+      <c r="B11" s="111"/>
       <c r="C11" s="92" t="s">
         <v>204</v>
       </c>
@@ -3845,7 +3912,7 @@
       <c r="X11" s="3"/>
     </row>
     <row r="12" spans="2:24" ht="54">
-      <c r="B12" s="108"/>
+      <c r="B12" s="111"/>
       <c r="C12" s="102" t="s">
         <v>235</v>
       </c>
@@ -3910,7 +3977,7 @@
       <c r="X12" s="3"/>
     </row>
     <row r="13" spans="2:24" ht="40.5">
-      <c r="B13" s="108"/>
+      <c r="B13" s="111"/>
       <c r="C13" s="102" t="s">
         <v>235</v>
       </c>
@@ -3975,7 +4042,7 @@
       <c r="X13" s="3"/>
     </row>
     <row r="14" spans="2:24" ht="40.5">
-      <c r="B14" s="108"/>
+      <c r="B14" s="111"/>
       <c r="C14" s="102" t="s">
         <v>235</v>
       </c>
@@ -4040,7 +4107,7 @@
       <c r="X14" s="3"/>
     </row>
     <row r="15" spans="2:24" ht="40.5">
-      <c r="B15" s="108"/>
+      <c r="B15" s="111"/>
       <c r="C15" s="102" t="s">
         <v>235</v>
       </c>
@@ -4105,7 +4172,7 @@
       <c r="X15" s="3"/>
     </row>
     <row r="16" spans="2:24" ht="67.5">
-      <c r="B16" s="108"/>
+      <c r="B16" s="111"/>
       <c r="C16" s="102" t="s">
         <v>235</v>
       </c>
@@ -4172,7 +4239,7 @@
       <c r="X16" s="3"/>
     </row>
     <row r="17" spans="1:24" ht="67.5">
-      <c r="B17" s="108"/>
+      <c r="B17" s="111"/>
       <c r="C17" s="102" t="s">
         <v>235</v>
       </c>
@@ -4183,7 +4250,7 @@
         <v>183</v>
       </c>
       <c r="F17" s="30" t="s">
-        <v>87</v>
+        <v>260</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>237</v>
@@ -4239,7 +4306,7 @@
       <c r="X17" s="3"/>
     </row>
     <row r="18" spans="1:24" ht="54">
-      <c r="B18" s="108"/>
+      <c r="B18" s="111"/>
       <c r="C18" s="92" t="s">
         <v>69</v>
       </c>
@@ -4304,11 +4371,11 @@
       <c r="X18" s="3"/>
     </row>
     <row r="19" spans="1:24" ht="54">
-      <c r="B19" s="108"/>
+      <c r="B19" s="111"/>
       <c r="C19" s="92" t="s">
         <v>198</v>
       </c>
-      <c r="D19" s="123" t="s">
+      <c r="D19" s="108" t="s">
         <v>254</v>
       </c>
       <c r="E19" s="96" t="s">
@@ -4317,16 +4384,16 @@
       <c r="F19" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G19" s="122" t="s">
+      <c r="G19" s="107" t="s">
         <v>258</v>
       </c>
-      <c r="H19" s="124" t="s">
+      <c r="H19" s="109" t="s">
         <v>255</v>
       </c>
-      <c r="I19" s="124" t="s">
+      <c r="I19" s="109" t="s">
         <v>256</v>
       </c>
-      <c r="J19" s="122" t="s">
+      <c r="J19" s="107" t="s">
         <v>45</v>
       </c>
       <c r="K19" s="1" t="s">
@@ -4338,7 +4405,7 @@
       <c r="M19" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="N19" s="122" t="s">
+      <c r="N19" s="107" t="s">
         <v>107</v>
       </c>
       <c r="O19" s="1" t="s">
@@ -4353,7 +4420,7 @@
       <c r="R19" s="30" t="s">
         <v>220</v>
       </c>
-      <c r="S19" s="124" t="s">
+      <c r="S19" s="109" t="s">
         <v>257</v>
       </c>
       <c r="T19" s="30" t="s">
@@ -4371,7 +4438,7 @@
       <c r="X19" s="3"/>
     </row>
     <row r="20" spans="1:24" ht="51.75">
-      <c r="B20" s="108"/>
+      <c r="B20" s="111"/>
       <c r="C20" s="92" t="s">
         <v>204</v>
       </c>
@@ -4438,7 +4505,7 @@
       <c r="X20" s="3"/>
     </row>
     <row r="21" spans="1:24" ht="54">
-      <c r="B21" s="108"/>
+      <c r="B21" s="111"/>
       <c r="C21" s="92" t="s">
         <v>198</v>
       </c>
@@ -4448,8 +4515,8 @@
       <c r="E21" s="96" t="s">
         <v>190</v>
       </c>
-      <c r="F21" s="30" t="s">
-        <v>61</v>
+      <c r="F21" s="109" t="s">
+        <v>261</v>
       </c>
       <c r="G21" s="86" t="s">
         <v>62</v>
@@ -4505,7 +4572,7 @@
       <c r="X21" s="3"/>
     </row>
     <row r="22" spans="1:24" ht="54">
-      <c r="B22" s="108"/>
+      <c r="B22" s="111"/>
       <c r="C22" s="92" t="s">
         <v>198</v>
       </c>
@@ -4515,8 +4582,8 @@
       <c r="E22" s="96" t="s">
         <v>190</v>
       </c>
-      <c r="F22" s="30" t="s">
-        <v>65</v>
+      <c r="F22" s="125" t="s">
+        <v>262</v>
       </c>
       <c r="G22" s="86" t="s">
         <v>33</v>
@@ -4572,7 +4639,7 @@
       <c r="X22" s="3"/>
     </row>
     <row r="23" spans="1:24" ht="94.5">
-      <c r="B23" s="108"/>
+      <c r="B23" s="111"/>
       <c r="C23" s="92" t="s">
         <v>198</v>
       </c>
@@ -4582,8 +4649,8 @@
       <c r="E23" s="96" t="s">
         <v>191</v>
       </c>
-      <c r="F23" s="30" t="s">
-        <v>87</v>
+      <c r="F23" s="125" t="s">
+        <v>260</v>
       </c>
       <c r="G23" s="86" t="s">
         <v>33</v>
@@ -4639,7 +4706,7 @@
       <c r="X23" s="3"/>
     </row>
     <row r="24" spans="1:24" ht="67.5">
-      <c r="B24" s="108"/>
+      <c r="B24" s="111"/>
       <c r="C24" s="92" t="s">
         <v>216</v>
       </c>
@@ -4649,8 +4716,8 @@
       <c r="E24" s="97" t="s">
         <v>184</v>
       </c>
-      <c r="F24" s="30" t="s">
-        <v>87</v>
+      <c r="F24" s="125" t="s">
+        <v>260</v>
       </c>
       <c r="G24" s="86" t="s">
         <v>33</v>
@@ -4706,7 +4773,7 @@
       <c r="X24" s="3"/>
     </row>
     <row r="25" spans="1:24" ht="67.5">
-      <c r="B25" s="108"/>
+      <c r="B25" s="111"/>
       <c r="C25" s="92" t="s">
         <v>216</v>
       </c>
@@ -4716,8 +4783,8 @@
       <c r="E25" s="97" t="s">
         <v>218</v>
       </c>
-      <c r="F25" s="30" t="s">
-        <v>87</v>
+      <c r="F25" s="125" t="s">
+        <v>260</v>
       </c>
       <c r="G25" s="86" t="s">
         <v>33</v>
@@ -4773,7 +4840,7 @@
       <c r="X25" s="3"/>
     </row>
     <row r="26" spans="1:24" ht="67.5">
-      <c r="B26" s="108"/>
+      <c r="B26" s="111"/>
       <c r="C26" s="92" t="s">
         <v>198</v>
       </c>
@@ -4783,8 +4850,8 @@
       <c r="E26" s="100" t="s">
         <v>192</v>
       </c>
-      <c r="F26" s="30" t="s">
-        <v>96</v>
+      <c r="F26" s="125" t="s">
+        <v>259</v>
       </c>
       <c r="G26" s="86" t="s">
         <v>33</v>
@@ -4838,7 +4905,7 @@
       <c r="X26" s="3"/>
     </row>
     <row r="27" spans="1:24" ht="67.5">
-      <c r="B27" s="109"/>
+      <c r="B27" s="112"/>
       <c r="C27" s="92" t="s">
         <v>198</v>
       </c>
@@ -4848,8 +4915,8 @@
       <c r="E27" s="100" t="s">
         <v>192</v>
       </c>
-      <c r="F27" s="30" t="s">
-        <v>96</v>
+      <c r="F27" s="125" t="s">
+        <v>259</v>
       </c>
       <c r="G27" s="86" t="s">
         <v>33</v>
@@ -5159,6 +5226,19 @@
     <row r="72" spans="1:2">
       <c r="B72" s="60" t="s">
         <v>251</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" s="106" t="s">
+        <v>263</v>
+      </c>
+      <c r="B74" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="B75" s="60" t="s">
+        <v>265</v>
       </c>
     </row>
   </sheetData>
@@ -5183,16 +5263,17 @@
     <hyperlink ref="B66" r:id="rId14"/>
     <hyperlink ref="B69" r:id="rId15"/>
     <hyperlink ref="B72" r:id="rId16"/>
+    <hyperlink ref="B75" r:id="rId17"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="8" scale="42" orientation="landscape" horizontalDpi="4294967293" r:id="rId17"/>
-  <drawing r:id="rId18"/>
-  <legacyDrawing r:id="rId19"/>
+  <pageSetup paperSize="8" scale="42" orientation="landscape" horizontalDpi="4294967293" r:id="rId18"/>
+  <drawing r:id="rId19"/>
+  <legacyDrawing r:id="rId20"/>
   <oleObjects>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Visio.Drawing.15" shapeId="7169" r:id="rId20">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId21">
+        <oleObject progId="Visio.Drawing.15" shapeId="7169" r:id="rId21">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId22">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
@@ -5211,7 +5292,7 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Visio.Drawing.15" shapeId="7169" r:id="rId20"/>
+        <oleObject progId="Visio.Drawing.15" shapeId="7169" r:id="rId21"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </oleObjects>
@@ -5343,7 +5424,7 @@
       <c r="X7" s="76"/>
     </row>
     <row r="8" spans="2:24" ht="51.75">
-      <c r="B8" s="107" t="s">
+      <c r="B8" s="110" t="s">
         <v>14</v>
       </c>
       <c r="C8" s="93" t="s">
@@ -5410,7 +5491,7 @@
       <c r="X8" s="70"/>
     </row>
     <row r="9" spans="2:24" ht="40.5">
-      <c r="B9" s="108"/>
+      <c r="B9" s="111"/>
       <c r="C9" s="92" t="s">
         <v>204</v>
       </c>
@@ -5475,7 +5556,7 @@
       <c r="X9" s="3"/>
     </row>
     <row r="10" spans="2:24" ht="40.5">
-      <c r="B10" s="108"/>
+      <c r="B10" s="111"/>
       <c r="C10" s="92" t="s">
         <v>204</v>
       </c>
@@ -5540,7 +5621,7 @@
       <c r="X10" s="3"/>
     </row>
     <row r="11" spans="2:24" ht="40.5">
-      <c r="B11" s="108"/>
+      <c r="B11" s="111"/>
       <c r="C11" s="92" t="s">
         <v>204</v>
       </c>
@@ -5605,7 +5686,7 @@
       <c r="X11" s="3"/>
     </row>
     <row r="12" spans="2:24" ht="54">
-      <c r="B12" s="108"/>
+      <c r="B12" s="111"/>
       <c r="C12" s="102" t="s">
         <v>235</v>
       </c>
@@ -5670,7 +5751,7 @@
       <c r="X12" s="3"/>
     </row>
     <row r="13" spans="2:24" ht="40.5">
-      <c r="B13" s="108"/>
+      <c r="B13" s="111"/>
       <c r="C13" s="102" t="s">
         <v>235</v>
       </c>
@@ -5735,7 +5816,7 @@
       <c r="X13" s="3"/>
     </row>
     <row r="14" spans="2:24" ht="40.5">
-      <c r="B14" s="108"/>
+      <c r="B14" s="111"/>
       <c r="C14" s="102" t="s">
         <v>235</v>
       </c>
@@ -5800,7 +5881,7 @@
       <c r="X14" s="3"/>
     </row>
     <row r="15" spans="2:24" ht="40.5">
-      <c r="B15" s="108"/>
+      <c r="B15" s="111"/>
       <c r="C15" s="102" t="s">
         <v>235</v>
       </c>
@@ -5865,7 +5946,7 @@
       <c r="X15" s="3"/>
     </row>
     <row r="16" spans="2:24" ht="67.5">
-      <c r="B16" s="108"/>
+      <c r="B16" s="111"/>
       <c r="C16" s="102" t="s">
         <v>235</v>
       </c>
@@ -5932,7 +6013,7 @@
       <c r="X16" s="3"/>
     </row>
     <row r="17" spans="2:24" ht="67.5">
-      <c r="B17" s="108"/>
+      <c r="B17" s="111"/>
       <c r="C17" s="102" t="s">
         <v>235</v>
       </c>
@@ -5999,7 +6080,7 @@
       <c r="X17" s="3"/>
     </row>
     <row r="18" spans="2:24" ht="54">
-      <c r="B18" s="108"/>
+      <c r="B18" s="111"/>
       <c r="C18" s="92" t="s">
         <v>69</v>
       </c>
@@ -6064,7 +6145,7 @@
       <c r="X18" s="3"/>
     </row>
     <row r="19" spans="2:24" ht="54">
-      <c r="B19" s="108"/>
+      <c r="B19" s="111"/>
       <c r="C19" s="92" t="s">
         <v>198</v>
       </c>
@@ -6131,7 +6212,7 @@
       <c r="X19" s="3"/>
     </row>
     <row r="20" spans="2:24" ht="51.75">
-      <c r="B20" s="108"/>
+      <c r="B20" s="111"/>
       <c r="C20" s="92" t="s">
         <v>198</v>
       </c>
@@ -6198,7 +6279,7 @@
       <c r="X20" s="3"/>
     </row>
     <row r="21" spans="2:24" ht="51.75">
-      <c r="B21" s="108"/>
+      <c r="B21" s="111"/>
       <c r="C21" s="92" t="s">
         <v>204</v>
       </c>
@@ -6265,7 +6346,7 @@
       <c r="X21" s="3"/>
     </row>
     <row r="22" spans="2:24" ht="54">
-      <c r="B22" s="108"/>
+      <c r="B22" s="111"/>
       <c r="C22" s="92" t="s">
         <v>198</v>
       </c>
@@ -6332,7 +6413,7 @@
       <c r="X22" s="3"/>
     </row>
     <row r="23" spans="2:24" ht="54">
-      <c r="B23" s="108"/>
+      <c r="B23" s="111"/>
       <c r="C23" s="92" t="s">
         <v>198</v>
       </c>
@@ -6399,7 +6480,7 @@
       <c r="X23" s="3"/>
     </row>
     <row r="24" spans="2:24" ht="94.5">
-      <c r="B24" s="108"/>
+      <c r="B24" s="111"/>
       <c r="C24" s="92" t="s">
         <v>198</v>
       </c>
@@ -6466,7 +6547,7 @@
       <c r="X24" s="3"/>
     </row>
     <row r="25" spans="2:24" ht="67.5">
-      <c r="B25" s="108"/>
+      <c r="B25" s="111"/>
       <c r="C25" s="105" t="s">
         <v>216</v>
       </c>
@@ -6533,7 +6614,7 @@
       <c r="X25" s="3"/>
     </row>
     <row r="26" spans="2:24" ht="67.5">
-      <c r="B26" s="108"/>
+      <c r="B26" s="111"/>
       <c r="C26" s="105" t="s">
         <v>216</v>
       </c>
@@ -6600,7 +6681,7 @@
       <c r="X26" s="3"/>
     </row>
     <row r="27" spans="2:24" ht="67.5">
-      <c r="B27" s="108"/>
+      <c r="B27" s="111"/>
       <c r="C27" s="92" t="s">
         <v>198</v>
       </c>
@@ -6665,7 +6746,7 @@
       <c r="X27" s="3"/>
     </row>
     <row r="28" spans="2:24" ht="67.5">
-      <c r="B28" s="109"/>
+      <c r="B28" s="112"/>
       <c r="C28" s="92" t="s">
         <v>198</v>
       </c>
@@ -7167,7 +7248,7 @@
       <c r="X7" s="76"/>
     </row>
     <row r="8" spans="2:24" ht="51.75">
-      <c r="B8" s="107" t="s">
+      <c r="B8" s="110" t="s">
         <v>14</v>
       </c>
       <c r="C8" s="93" t="s">
@@ -7234,7 +7315,7 @@
       <c r="X8" s="70"/>
     </row>
     <row r="9" spans="2:24" ht="40.5">
-      <c r="B9" s="108"/>
+      <c r="B9" s="111"/>
       <c r="C9" s="92" t="s">
         <v>204</v>
       </c>
@@ -7299,7 +7380,7 @@
       <c r="X9" s="3"/>
     </row>
     <row r="10" spans="2:24" ht="40.5">
-      <c r="B10" s="108"/>
+      <c r="B10" s="111"/>
       <c r="C10" s="92" t="s">
         <v>204</v>
       </c>
@@ -7364,7 +7445,7 @@
       <c r="X10" s="3"/>
     </row>
     <row r="11" spans="2:24" ht="40.5">
-      <c r="B11" s="108"/>
+      <c r="B11" s="111"/>
       <c r="C11" s="92" t="s">
         <v>204</v>
       </c>
@@ -7429,7 +7510,7 @@
       <c r="X11" s="3"/>
     </row>
     <row r="12" spans="2:24" ht="54">
-      <c r="B12" s="108"/>
+      <c r="B12" s="111"/>
       <c r="C12" s="102" t="s">
         <v>197</v>
       </c>
@@ -7494,7 +7575,7 @@
       <c r="X12" s="3"/>
     </row>
     <row r="13" spans="2:24" ht="40.5">
-      <c r="B13" s="108"/>
+      <c r="B13" s="111"/>
       <c r="C13" s="101" t="s">
         <v>197</v>
       </c>
@@ -7559,7 +7640,7 @@
       <c r="X13" s="3"/>
     </row>
     <row r="14" spans="2:24" ht="40.5">
-      <c r="B14" s="108"/>
+      <c r="B14" s="111"/>
       <c r="C14" s="102" t="s">
         <v>197</v>
       </c>
@@ -7624,7 +7705,7 @@
       <c r="X14" s="3"/>
     </row>
     <row r="15" spans="2:24" ht="40.5">
-      <c r="B15" s="108"/>
+      <c r="B15" s="111"/>
       <c r="C15" s="101" t="s">
         <v>197</v>
       </c>
@@ -7689,7 +7770,7 @@
       <c r="X15" s="3"/>
     </row>
     <row r="16" spans="2:24" ht="40.5">
-      <c r="B16" s="108"/>
+      <c r="B16" s="111"/>
       <c r="C16" s="92" t="s">
         <v>69</v>
       </c>
@@ -7754,7 +7835,7 @@
       <c r="X16" s="3"/>
     </row>
     <row r="17" spans="2:24" ht="51.75">
-      <c r="B17" s="108"/>
+      <c r="B17" s="111"/>
       <c r="C17" s="92" t="s">
         <v>198</v>
       </c>
@@ -7821,7 +7902,7 @@
       <c r="X17" s="3"/>
     </row>
     <row r="18" spans="2:24" ht="51.75">
-      <c r="B18" s="108"/>
+      <c r="B18" s="111"/>
       <c r="C18" s="92" t="s">
         <v>198</v>
       </c>
@@ -7888,7 +7969,7 @@
       <c r="X18" s="3"/>
     </row>
     <row r="19" spans="2:24" ht="51.75">
-      <c r="B19" s="108"/>
+      <c r="B19" s="111"/>
       <c r="C19" s="92" t="s">
         <v>204</v>
       </c>
@@ -7955,7 +8036,7 @@
       <c r="X19" s="3"/>
     </row>
     <row r="20" spans="2:24" ht="54">
-      <c r="B20" s="108"/>
+      <c r="B20" s="111"/>
       <c r="C20" s="92" t="s">
         <v>198</v>
       </c>
@@ -8022,7 +8103,7 @@
       <c r="X20" s="3"/>
     </row>
     <row r="21" spans="2:24" ht="54">
-      <c r="B21" s="108"/>
+      <c r="B21" s="111"/>
       <c r="C21" s="92" t="s">
         <v>198</v>
       </c>
@@ -8089,7 +8170,7 @@
       <c r="X21" s="3"/>
     </row>
     <row r="22" spans="2:24" ht="94.5">
-      <c r="B22" s="108"/>
+      <c r="B22" s="111"/>
       <c r="C22" s="92" t="s">
         <v>198</v>
       </c>
@@ -8156,7 +8237,7 @@
       <c r="X22" s="3"/>
     </row>
     <row r="23" spans="2:24" ht="67.5">
-      <c r="B23" s="108"/>
+      <c r="B23" s="111"/>
       <c r="C23" s="92" t="s">
         <v>198</v>
       </c>
@@ -8223,7 +8304,7 @@
       <c r="X23" s="3"/>
     </row>
     <row r="24" spans="2:24" ht="67.5">
-      <c r="B24" s="108"/>
+      <c r="B24" s="111"/>
       <c r="C24" s="92" t="s">
         <v>198</v>
       </c>
@@ -8288,7 +8369,7 @@
       <c r="X24" s="3"/>
     </row>
     <row r="25" spans="2:24" ht="67.5">
-      <c r="B25" s="109"/>
+      <c r="B25" s="112"/>
       <c r="C25" s="92" t="s">
         <v>198</v>
       </c>
@@ -8719,7 +8800,7 @@
       <c r="Y5" s="76"/>
     </row>
     <row r="6" spans="2:25" ht="51.75">
-      <c r="B6" s="110" t="s">
+      <c r="B6" s="113" t="s">
         <v>14</v>
       </c>
       <c r="C6" s="93" t="s">
@@ -8789,7 +8870,7 @@
       <c r="Y6" s="70"/>
     </row>
     <row r="7" spans="2:25" ht="40.5">
-      <c r="B7" s="111"/>
+      <c r="B7" s="114"/>
       <c r="C7" s="92" t="s">
         <v>173</v>
       </c>
@@ -8857,7 +8938,7 @@
       <c r="Y7" s="3"/>
     </row>
     <row r="8" spans="2:25" ht="40.5">
-      <c r="B8" s="111"/>
+      <c r="B8" s="114"/>
       <c r="C8" s="92" t="s">
         <v>174</v>
       </c>
@@ -8925,7 +9006,7 @@
       <c r="Y8" s="3"/>
     </row>
     <row r="9" spans="2:25" ht="40.5">
-      <c r="B9" s="111"/>
+      <c r="B9" s="114"/>
       <c r="C9" s="92" t="s">
         <v>174</v>
       </c>
@@ -8993,7 +9074,7 @@
       <c r="Y9" s="3"/>
     </row>
     <row r="10" spans="2:25" ht="54">
-      <c r="B10" s="111"/>
+      <c r="B10" s="114"/>
       <c r="C10" s="92" t="s">
         <v>174</v>
       </c>
@@ -9061,7 +9142,7 @@
       <c r="Y10" s="3"/>
     </row>
     <row r="11" spans="2:25" ht="40.5">
-      <c r="B11" s="111"/>
+      <c r="B11" s="114"/>
       <c r="C11" s="92" t="s">
         <v>173</v>
       </c>
@@ -9129,7 +9210,7 @@
       <c r="Y11" s="3"/>
     </row>
     <row r="12" spans="2:25" ht="40.5">
-      <c r="B12" s="111"/>
+      <c r="B12" s="114"/>
       <c r="C12" s="92" t="s">
         <v>173</v>
       </c>
@@ -9197,7 +9278,7 @@
       <c r="Y12" s="3"/>
     </row>
     <row r="13" spans="2:25" ht="40.5">
-      <c r="B13" s="111"/>
+      <c r="B13" s="114"/>
       <c r="C13" s="92" t="s">
         <v>173</v>
       </c>
@@ -9265,7 +9346,7 @@
       <c r="Y13" s="3"/>
     </row>
     <row r="14" spans="2:25" ht="40.5">
-      <c r="B14" s="111"/>
+      <c r="B14" s="114"/>
       <c r="C14" s="92" t="s">
         <v>173</v>
       </c>
@@ -9333,7 +9414,7 @@
       <c r="Y14" s="3"/>
     </row>
     <row r="15" spans="2:25" ht="51.75">
-      <c r="B15" s="111"/>
+      <c r="B15" s="114"/>
       <c r="C15" s="92" t="s">
         <v>173</v>
       </c>
@@ -9403,7 +9484,7 @@
       <c r="Y15" s="3"/>
     </row>
     <row r="16" spans="2:25" ht="51.75">
-      <c r="B16" s="111"/>
+      <c r="B16" s="114"/>
       <c r="C16" s="92" t="s">
         <v>173</v>
       </c>
@@ -9473,7 +9554,7 @@
       <c r="Y16" s="3"/>
     </row>
     <row r="17" spans="2:25" ht="51.75">
-      <c r="B17" s="111"/>
+      <c r="B17" s="114"/>
       <c r="C17" s="92" t="s">
         <v>173</v>
       </c>
@@ -9543,7 +9624,7 @@
       <c r="Y17" s="3"/>
     </row>
     <row r="18" spans="2:25" ht="54">
-      <c r="B18" s="111"/>
+      <c r="B18" s="114"/>
       <c r="C18" s="92" t="s">
         <v>173</v>
       </c>
@@ -9613,7 +9694,7 @@
       <c r="Y18" s="3"/>
     </row>
     <row r="19" spans="2:25" ht="54">
-      <c r="B19" s="111"/>
+      <c r="B19" s="114"/>
       <c r="C19" s="92" t="s">
         <v>173</v>
       </c>
@@ -9683,7 +9764,7 @@
       <c r="Y19" s="3"/>
     </row>
     <row r="20" spans="2:25" ht="67.5">
-      <c r="B20" s="111"/>
+      <c r="B20" s="114"/>
       <c r="C20" s="92" t="s">
         <v>173</v>
       </c>
@@ -9753,7 +9834,7 @@
       <c r="Y20" s="3"/>
     </row>
     <row r="21" spans="2:25" ht="67.5">
-      <c r="B21" s="111"/>
+      <c r="B21" s="114"/>
       <c r="C21" s="92" t="s">
         <v>174</v>
       </c>
@@ -9823,7 +9904,7 @@
       <c r="Y21" s="3"/>
     </row>
     <row r="22" spans="2:25" ht="67.5">
-      <c r="B22" s="111"/>
+      <c r="B22" s="114"/>
       <c r="C22" s="92" t="s">
         <v>173</v>
       </c>
@@ -9893,7 +9974,7 @@
       <c r="Y22" s="3"/>
     </row>
     <row r="23" spans="2:25" ht="67.5">
-      <c r="B23" s="111"/>
+      <c r="B23" s="114"/>
       <c r="C23" s="92" t="s">
         <v>173</v>
       </c>
@@ -9963,7 +10044,7 @@
       <c r="Y23" s="3"/>
     </row>
     <row r="24" spans="2:25" ht="41.25" thickBot="1">
-      <c r="B24" s="112"/>
+      <c r="B24" s="115"/>
       <c r="C24" s="95" t="s">
         <v>173</v>
       </c>
@@ -10244,7 +10325,7 @@
       <c r="V5" s="76"/>
     </row>
     <row r="6" spans="2:22" ht="17.25">
-      <c r="B6" s="109" t="s">
+      <c r="B6" s="112" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="83" t="s">
@@ -10303,7 +10384,7 @@
       <c r="V6" s="73"/>
     </row>
     <row r="7" spans="2:22" ht="17.25">
-      <c r="B7" s="111"/>
+      <c r="B7" s="114"/>
       <c r="C7" s="84" t="s">
         <v>2</v>
       </c>
@@ -10360,7 +10441,7 @@
       <c r="V7" s="47"/>
     </row>
     <row r="8" spans="2:22" ht="17.25">
-      <c r="B8" s="111"/>
+      <c r="B8" s="114"/>
       <c r="C8" s="84" t="s">
         <v>3</v>
       </c>
@@ -10417,7 +10498,7 @@
       <c r="V8" s="47"/>
     </row>
     <row r="9" spans="2:22" ht="27">
-      <c r="B9" s="111"/>
+      <c r="B9" s="114"/>
       <c r="C9" s="84" t="s">
         <v>4</v>
       </c>
@@ -10474,7 +10555,7 @@
       <c r="V9" s="47"/>
     </row>
     <row r="10" spans="2:22" ht="40.5">
-      <c r="B10" s="111" t="s">
+      <c r="B10" s="114" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="84" t="s">
@@ -10535,7 +10616,7 @@
       <c r="V10" s="70"/>
     </row>
     <row r="11" spans="2:22" ht="40.5">
-      <c r="B11" s="111"/>
+      <c r="B11" s="114"/>
       <c r="C11" s="84" t="s">
         <v>9</v>
       </c>
@@ -10594,7 +10675,7 @@
       <c r="V11" s="3"/>
     </row>
     <row r="12" spans="2:22" ht="40.5">
-      <c r="B12" s="111"/>
+      <c r="B12" s="114"/>
       <c r="C12" s="84" t="s">
         <v>104</v>
       </c>
@@ -10653,7 +10734,7 @@
       <c r="V12" s="3"/>
     </row>
     <row r="13" spans="2:22" ht="40.5">
-      <c r="B13" s="111"/>
+      <c r="B13" s="114"/>
       <c r="C13" s="84" t="s">
         <v>105</v>
       </c>
@@ -10712,7 +10793,7 @@
       <c r="V13" s="3"/>
     </row>
     <row r="14" spans="2:22" ht="54">
-      <c r="B14" s="111"/>
+      <c r="B14" s="114"/>
       <c r="C14" s="84" t="s">
         <v>148</v>
       </c>
@@ -10771,7 +10852,7 @@
       <c r="V14" s="3"/>
     </row>
     <row r="15" spans="2:22" ht="40.5">
-      <c r="B15" s="111"/>
+      <c r="B15" s="114"/>
       <c r="C15" s="84" t="s">
         <v>146</v>
       </c>
@@ -10830,7 +10911,7 @@
       <c r="V15" s="3"/>
     </row>
     <row r="16" spans="2:22" ht="40.5">
-      <c r="B16" s="111"/>
+      <c r="B16" s="114"/>
       <c r="C16" s="84" t="s">
         <v>147</v>
       </c>
@@ -10889,7 +10970,7 @@
       <c r="V16" s="3"/>
     </row>
     <row r="17" spans="2:22" ht="40.5">
-      <c r="B17" s="111"/>
+      <c r="B17" s="114"/>
       <c r="C17" s="84" t="s">
         <v>160</v>
       </c>
@@ -10948,7 +11029,7 @@
       <c r="V17" s="3"/>
     </row>
     <row r="18" spans="2:22" ht="17.25">
-      <c r="B18" s="111"/>
+      <c r="B18" s="114"/>
       <c r="C18" s="84" t="s">
         <v>10</v>
       </c>
@@ -11009,7 +11090,7 @@
       <c r="V18" s="3"/>
     </row>
     <row r="19" spans="2:22" ht="17.25">
-      <c r="B19" s="111"/>
+      <c r="B19" s="114"/>
       <c r="C19" s="84" t="s">
         <v>3</v>
       </c>
@@ -11070,7 +11151,7 @@
       <c r="V19" s="3"/>
     </row>
     <row r="20" spans="2:22" ht="17.25">
-      <c r="B20" s="111"/>
+      <c r="B20" s="114"/>
       <c r="C20" s="84" t="s">
         <v>11</v>
       </c>
@@ -11131,7 +11212,7 @@
       <c r="V20" s="3"/>
     </row>
     <row r="21" spans="2:22" ht="54">
-      <c r="B21" s="111"/>
+      <c r="B21" s="114"/>
       <c r="C21" s="84" t="s">
         <v>58</v>
       </c>
@@ -11192,7 +11273,7 @@
       <c r="V21" s="3"/>
     </row>
     <row r="22" spans="2:22" ht="54">
-      <c r="B22" s="111"/>
+      <c r="B22" s="114"/>
       <c r="C22" s="84" t="s">
         <v>59</v>
       </c>
@@ -11253,7 +11334,7 @@
       <c r="V22" s="3"/>
     </row>
     <row r="23" spans="2:22" ht="67.5">
-      <c r="B23" s="111"/>
+      <c r="B23" s="114"/>
       <c r="C23" s="84" t="s">
         <v>12</v>
       </c>
@@ -11314,7 +11395,7 @@
       <c r="V23" s="3"/>
     </row>
     <row r="24" spans="2:22" ht="67.5">
-      <c r="B24" s="111"/>
+      <c r="B24" s="114"/>
       <c r="C24" s="84" t="s">
         <v>171</v>
       </c>
@@ -11375,7 +11456,7 @@
       <c r="V24" s="3"/>
     </row>
     <row r="25" spans="2:22" ht="67.5">
-      <c r="B25" s="111"/>
+      <c r="B25" s="114"/>
       <c r="C25" s="84" t="s">
         <v>94</v>
       </c>
@@ -11436,7 +11517,7 @@
       <c r="V25" s="3"/>
     </row>
     <row r="26" spans="2:22" ht="67.5">
-      <c r="B26" s="111"/>
+      <c r="B26" s="114"/>
       <c r="C26" s="84" t="s">
         <v>95</v>
       </c>
@@ -11497,7 +11578,7 @@
       <c r="V26" s="3"/>
     </row>
     <row r="27" spans="2:22" ht="41.25" thickBot="1">
-      <c r="B27" s="112"/>
+      <c r="B27" s="115"/>
       <c r="C27" s="85" t="s">
         <v>13</v>
       </c>
@@ -11761,7 +11842,7 @@
       <c r="V5" s="76"/>
     </row>
     <row r="6" spans="2:22" ht="17.25">
-      <c r="B6" s="109" t="s">
+      <c r="B6" s="112" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="83" t="s">
@@ -11820,7 +11901,7 @@
       <c r="V6" s="73"/>
     </row>
     <row r="7" spans="2:22" ht="17.25">
-      <c r="B7" s="111"/>
+      <c r="B7" s="114"/>
       <c r="C7" s="84" t="s">
         <v>2</v>
       </c>
@@ -11877,7 +11958,7 @@
       <c r="V7" s="47"/>
     </row>
     <row r="8" spans="2:22" ht="17.25">
-      <c r="B8" s="111"/>
+      <c r="B8" s="114"/>
       <c r="C8" s="84" t="s">
         <v>3</v>
       </c>
@@ -11934,7 +12015,7 @@
       <c r="V8" s="47"/>
     </row>
     <row r="9" spans="2:22" ht="27">
-      <c r="B9" s="111"/>
+      <c r="B9" s="114"/>
       <c r="C9" s="84" t="s">
         <v>4</v>
       </c>
@@ -11991,7 +12072,7 @@
       <c r="V9" s="47"/>
     </row>
     <row r="10" spans="2:22" ht="40.5">
-      <c r="B10" s="111" t="s">
+      <c r="B10" s="114" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="84" t="s">
@@ -12052,7 +12133,7 @@
       <c r="V10" s="70"/>
     </row>
     <row r="11" spans="2:22" ht="40.5">
-      <c r="B11" s="111"/>
+      <c r="B11" s="114"/>
       <c r="C11" s="84" t="s">
         <v>9</v>
       </c>
@@ -12111,7 +12192,7 @@
       <c r="V11" s="3"/>
     </row>
     <row r="12" spans="2:22" ht="40.5">
-      <c r="B12" s="111"/>
+      <c r="B12" s="114"/>
       <c r="C12" s="84" t="s">
         <v>104</v>
       </c>
@@ -12170,7 +12251,7 @@
       <c r="V12" s="3"/>
     </row>
     <row r="13" spans="2:22" ht="40.5">
-      <c r="B13" s="111"/>
+      <c r="B13" s="114"/>
       <c r="C13" s="84" t="s">
         <v>105</v>
       </c>
@@ -12229,7 +12310,7 @@
       <c r="V13" s="3"/>
     </row>
     <row r="14" spans="2:22" ht="54">
-      <c r="B14" s="111"/>
+      <c r="B14" s="114"/>
       <c r="C14" s="84" t="s">
         <v>148</v>
       </c>
@@ -12288,7 +12369,7 @@
       <c r="V14" s="3"/>
     </row>
     <row r="15" spans="2:22" ht="40.5">
-      <c r="B15" s="111"/>
+      <c r="B15" s="114"/>
       <c r="C15" s="84" t="s">
         <v>146</v>
       </c>
@@ -12347,7 +12428,7 @@
       <c r="V15" s="3"/>
     </row>
     <row r="16" spans="2:22" ht="40.5">
-      <c r="B16" s="111"/>
+      <c r="B16" s="114"/>
       <c r="C16" s="84" t="s">
         <v>147</v>
       </c>
@@ -12406,7 +12487,7 @@
       <c r="V16" s="3"/>
     </row>
     <row r="17" spans="2:22" ht="40.5">
-      <c r="B17" s="111"/>
+      <c r="B17" s="114"/>
       <c r="C17" s="84" t="s">
         <v>160</v>
       </c>
@@ -12465,7 +12546,7 @@
       <c r="V17" s="3"/>
     </row>
     <row r="18" spans="2:22" ht="17.25">
-      <c r="B18" s="111"/>
+      <c r="B18" s="114"/>
       <c r="C18" s="84" t="s">
         <v>10</v>
       </c>
@@ -12526,7 +12607,7 @@
       <c r="V18" s="3"/>
     </row>
     <row r="19" spans="2:22" ht="17.25">
-      <c r="B19" s="111"/>
+      <c r="B19" s="114"/>
       <c r="C19" s="84" t="s">
         <v>3</v>
       </c>
@@ -12587,7 +12668,7 @@
       <c r="V19" s="3"/>
     </row>
     <row r="20" spans="2:22" ht="17.25">
-      <c r="B20" s="111"/>
+      <c r="B20" s="114"/>
       <c r="C20" s="84" t="s">
         <v>11</v>
       </c>
@@ -12648,7 +12729,7 @@
       <c r="V20" s="3"/>
     </row>
     <row r="21" spans="2:22" ht="54">
-      <c r="B21" s="111"/>
+      <c r="B21" s="114"/>
       <c r="C21" s="84" t="s">
         <v>58</v>
       </c>
@@ -12709,7 +12790,7 @@
       <c r="V21" s="3"/>
     </row>
     <row r="22" spans="2:22" ht="54">
-      <c r="B22" s="111"/>
+      <c r="B22" s="114"/>
       <c r="C22" s="84" t="s">
         <v>59</v>
       </c>
@@ -12770,7 +12851,7 @@
       <c r="V22" s="3"/>
     </row>
     <row r="23" spans="2:22" ht="67.5">
-      <c r="B23" s="111"/>
+      <c r="B23" s="114"/>
       <c r="C23" s="84" t="s">
         <v>12</v>
       </c>
@@ -12831,7 +12912,7 @@
       <c r="V23" s="3"/>
     </row>
     <row r="24" spans="2:22" ht="67.5">
-      <c r="B24" s="111"/>
+      <c r="B24" s="114"/>
       <c r="C24" s="84" t="s">
         <v>94</v>
       </c>
@@ -12892,7 +12973,7 @@
       <c r="V24" s="3"/>
     </row>
     <row r="25" spans="2:22" ht="67.5">
-      <c r="B25" s="111"/>
+      <c r="B25" s="114"/>
       <c r="C25" s="84" t="s">
         <v>95</v>
       </c>
@@ -12953,7 +13034,7 @@
       <c r="V25" s="3"/>
     </row>
     <row r="26" spans="2:22" ht="41.25" thickBot="1">
-      <c r="B26" s="112"/>
+      <c r="B26" s="115"/>
       <c r="C26" s="85" t="s">
         <v>13</v>
       </c>
@@ -13138,31 +13219,31 @@
     <row r="3" spans="2:23" ht="14.25" thickBot="1"/>
     <row r="4" spans="2:23" ht="21.75" thickBot="1">
       <c r="B4" s="8"/>
-      <c r="C4" s="107" t="s">
+      <c r="C4" s="110" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="113"/>
-      <c r="E4" s="113"/>
-      <c r="F4" s="114"/>
-      <c r="G4" s="115" t="s">
+      <c r="D4" s="116"/>
+      <c r="E4" s="116"/>
+      <c r="F4" s="117"/>
+      <c r="G4" s="118" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="115"/>
-      <c r="I4" s="115"/>
-      <c r="J4" s="113"/>
-      <c r="K4" s="113"/>
-      <c r="L4" s="113"/>
-      <c r="M4" s="113"/>
-      <c r="N4" s="113"/>
-      <c r="O4" s="113"/>
-      <c r="P4" s="113"/>
-      <c r="Q4" s="113"/>
-      <c r="R4" s="113"/>
-      <c r="S4" s="113"/>
-      <c r="T4" s="113"/>
-      <c r="U4" s="116"/>
-      <c r="V4" s="116"/>
-      <c r="W4" s="114"/>
+      <c r="H4" s="118"/>
+      <c r="I4" s="118"/>
+      <c r="J4" s="116"/>
+      <c r="K4" s="116"/>
+      <c r="L4" s="116"/>
+      <c r="M4" s="116"/>
+      <c r="N4" s="116"/>
+      <c r="O4" s="116"/>
+      <c r="P4" s="116"/>
+      <c r="Q4" s="116"/>
+      <c r="R4" s="116"/>
+      <c r="S4" s="116"/>
+      <c r="T4" s="116"/>
+      <c r="U4" s="119"/>
+      <c r="V4" s="119"/>
+      <c r="W4" s="117"/>
     </row>
     <row r="5" spans="2:23" ht="18" thickBot="1">
       <c r="B5" s="9" t="s">
@@ -14495,27 +14576,27 @@
     <row r="3" spans="2:19" ht="14.25" thickBot="1"/>
     <row r="4" spans="2:19" ht="21.75" thickBot="1">
       <c r="B4" s="8"/>
-      <c r="C4" s="117" t="s">
+      <c r="C4" s="120" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="118"/>
-      <c r="E4" s="118"/>
-      <c r="F4" s="119"/>
-      <c r="G4" s="120" t="s">
+      <c r="D4" s="121"/>
+      <c r="E4" s="121"/>
+      <c r="F4" s="122"/>
+      <c r="G4" s="123" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="120"/>
-      <c r="I4" s="120"/>
-      <c r="J4" s="118"/>
-      <c r="K4" s="118"/>
-      <c r="L4" s="118"/>
-      <c r="M4" s="118"/>
-      <c r="N4" s="118"/>
-      <c r="O4" s="118"/>
-      <c r="P4" s="118"/>
-      <c r="Q4" s="121"/>
-      <c r="R4" s="121"/>
-      <c r="S4" s="119"/>
+      <c r="H4" s="123"/>
+      <c r="I4" s="123"/>
+      <c r="J4" s="121"/>
+      <c r="K4" s="121"/>
+      <c r="L4" s="121"/>
+      <c r="M4" s="121"/>
+      <c r="N4" s="121"/>
+      <c r="O4" s="121"/>
+      <c r="P4" s="121"/>
+      <c r="Q4" s="124"/>
+      <c r="R4" s="124"/>
+      <c r="S4" s="122"/>
     </row>
     <row r="5" spans="2:19" ht="18" thickBot="1">
       <c r="B5" s="9" t="s">
@@ -15513,23 +15594,23 @@
     <row r="3" spans="2:15" ht="14.25" thickBot="1"/>
     <row r="4" spans="2:15" ht="21.75" thickBot="1">
       <c r="B4" s="8"/>
-      <c r="C4" s="117" t="s">
+      <c r="C4" s="120" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="118"/>
-      <c r="E4" s="118"/>
-      <c r="F4" s="119"/>
-      <c r="G4" s="120" t="s">
+      <c r="D4" s="121"/>
+      <c r="E4" s="121"/>
+      <c r="F4" s="122"/>
+      <c r="G4" s="123" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="118"/>
-      <c r="I4" s="118"/>
-      <c r="J4" s="118"/>
-      <c r="K4" s="118"/>
-      <c r="L4" s="118"/>
-      <c r="M4" s="118"/>
-      <c r="N4" s="118"/>
-      <c r="O4" s="119"/>
+      <c r="H4" s="121"/>
+      <c r="I4" s="121"/>
+      <c r="J4" s="121"/>
+      <c r="K4" s="121"/>
+      <c r="L4" s="121"/>
+      <c r="M4" s="121"/>
+      <c r="N4" s="121"/>
+      <c r="O4" s="122"/>
     </row>
     <row r="5" spans="2:15" ht="18" thickBot="1">
       <c r="B5" s="9" t="s">
